--- a/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7626255D-0FEC-4D31-B42F-2DEBB963FC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098330FB-E34A-41D7-8734-6D0C7DA33C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23160" yWindow="5160" windowWidth="21600" windowHeight="12660" firstSheet="18" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" firstSheet="28" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -27,22 +27,30 @@
     <sheet name="UpFlex, Winter" sheetId="18" r:id="rId12"/>
     <sheet name="DownFlex, Winter" sheetId="19" r:id="rId13"/>
     <sheet name="Pg, Winter, S1" sheetId="20" r:id="rId14"/>
-    <sheet name="Qg, Winter, S1" sheetId="23" r:id="rId15"/>
-    <sheet name="GenStatus, Winter" sheetId="26" r:id="rId16"/>
-    <sheet name="Pc, Summer, S1" sheetId="40" r:id="rId17"/>
-    <sheet name="Pc, Summer, S2" sheetId="41" r:id="rId18"/>
-    <sheet name="Pc, Summer, S3" sheetId="42" r:id="rId19"/>
-    <sheet name="Qc, Summer, S1" sheetId="43" r:id="rId20"/>
-    <sheet name="Qc, Summer, S2" sheetId="44" r:id="rId21"/>
-    <sheet name="Qc, Summer, S3" sheetId="45" r:id="rId22"/>
-    <sheet name="UpFlex, Summer" sheetId="46" r:id="rId23"/>
-    <sheet name="DownFlex, Summer" sheetId="47" r:id="rId24"/>
-    <sheet name="Pg, Summer, S1" sheetId="48" r:id="rId25"/>
-    <sheet name="Qg, Summer, S1" sheetId="49" r:id="rId26"/>
-    <sheet name="GenStatus, Summer" sheetId="50" r:id="rId27"/>
+    <sheet name="Pg, Winter, S2" sheetId="51" r:id="rId15"/>
+    <sheet name="Pg, Winter, S3" sheetId="52" r:id="rId16"/>
+    <sheet name="Qg, Winter, S1" sheetId="23" r:id="rId17"/>
+    <sheet name="Qg, Winter, S2" sheetId="53" r:id="rId18"/>
+    <sheet name="Qg, Winter, S3" sheetId="54" r:id="rId19"/>
+    <sheet name="GenStatus, Winter" sheetId="26" r:id="rId20"/>
+    <sheet name="Pc, Summer, S1" sheetId="40" r:id="rId21"/>
+    <sheet name="Pc, Summer, S2" sheetId="41" r:id="rId22"/>
+    <sheet name="Pc, Summer, S3" sheetId="42" r:id="rId23"/>
+    <sheet name="Qc, Summer, S1" sheetId="43" r:id="rId24"/>
+    <sheet name="Qc, Summer, S2" sheetId="44" r:id="rId25"/>
+    <sheet name="Qc, Summer, S3" sheetId="45" r:id="rId26"/>
+    <sheet name="UpFlex, Summer" sheetId="46" r:id="rId27"/>
+    <sheet name="DownFlex, Summer" sheetId="47" r:id="rId28"/>
+    <sheet name="Pg, Summer, S1" sheetId="48" r:id="rId29"/>
+    <sheet name="Pg, Summer, S2" sheetId="55" r:id="rId30"/>
+    <sheet name="Pg, Summer, S3" sheetId="56" r:id="rId31"/>
+    <sheet name="Qg, Summer, S1" sheetId="49" r:id="rId32"/>
+    <sheet name="Qg, Summer, S2" sheetId="57" r:id="rId33"/>
+    <sheet name="Qg, Summer, S3" sheetId="58" r:id="rId34"/>
+    <sheet name="GenStatus, Summer" sheetId="50" r:id="rId35"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId28"/>
+    <externalReference r:id="rId36"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
   <si>
     <t>numScenarios</t>
   </si>
@@ -13527,6 +13535,1354 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D45AA9C-D40E-48EB-AB22-07A01AB31B02}">
+  <dimension ref="A1:Y7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$2:B$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$2:F$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$2:G$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$2:H$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$2:W$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$2:X$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$2:Y$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$2:B$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$2:F$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$2:G$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$2:H$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$2:W$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$2:X$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$2:Y$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$2:B$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$2:F$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$2:G$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$2:H$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$2:W$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$2:X$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$2:Y$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$2:B$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$2:F$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$2:G$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$2:H$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$2:W$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$2:X$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$2:Y$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$2:B$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$2:F$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$2:G$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$2:H$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$2:W$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$2:X$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$2:Y$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B9D0BE-7B19-4108-9A07-EE0E47EE2D01}">
+  <dimension ref="A1:Y7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$2:B$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$2:F$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$2:G$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$2:H$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$2:W$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$2:X$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$2:Y$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$2:B$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$2:F$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$2:G$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$2:H$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$2:W$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$2:X$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$2:Y$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$2:B$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$2:F$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$2:G$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$2:H$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$2:W$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$2:X$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$2:Y$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$2:B$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$2:F$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$2:G$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$2:H$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$2:W$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$2:X$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$2:Y$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$2:B$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$2:F$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$2:G$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$2:H$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$2:W$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$2:X$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$2:Y$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1FEE8D-B4EC-4F10-B5F4-ECE5DBE5E2EB}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
@@ -14080,7 +15436,1196 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C1DA9D-F930-4C77-AF42-CA959B912E84}">
+  <dimension ref="A1:Y7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+      <c r="R3" s="7">
+        <v>0</v>
+      </c>
+      <c r="S3" s="7">
+        <v>0</v>
+      </c>
+      <c r="T3" s="7">
+        <v>0</v>
+      </c>
+      <c r="U3" s="7">
+        <v>0</v>
+      </c>
+      <c r="V3" s="7">
+        <v>0</v>
+      </c>
+      <c r="W3" s="7">
+        <v>0</v>
+      </c>
+      <c r="X3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0</v>
+      </c>
+      <c r="S4" s="7">
+        <v>0</v>
+      </c>
+      <c r="T4" s="7">
+        <v>0</v>
+      </c>
+      <c r="U4" s="7">
+        <v>0</v>
+      </c>
+      <c r="V4" s="7">
+        <v>0</v>
+      </c>
+      <c r="W4" s="7">
+        <v>0</v>
+      </c>
+      <c r="X4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0</v>
+      </c>
+      <c r="U5" s="7">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <v>0</v>
+      </c>
+      <c r="W5" s="7">
+        <v>0</v>
+      </c>
+      <c r="X5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <v>0</v>
+      </c>
+      <c r="X6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0</v>
+      </c>
+      <c r="T7" s="7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="7">
+        <v>0</v>
+      </c>
+      <c r="W7" s="7">
+        <v>0</v>
+      </c>
+      <c r="X7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C6BEC0-5402-4DE4-B1E7-71137B324A6F}">
+  <dimension ref="A1:Y7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+      <c r="R3" s="7">
+        <v>0</v>
+      </c>
+      <c r="S3" s="7">
+        <v>0</v>
+      </c>
+      <c r="T3" s="7">
+        <v>0</v>
+      </c>
+      <c r="U3" s="7">
+        <v>0</v>
+      </c>
+      <c r="V3" s="7">
+        <v>0</v>
+      </c>
+      <c r="W3" s="7">
+        <v>0</v>
+      </c>
+      <c r="X3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0</v>
+      </c>
+      <c r="S4" s="7">
+        <v>0</v>
+      </c>
+      <c r="T4" s="7">
+        <v>0</v>
+      </c>
+      <c r="U4" s="7">
+        <v>0</v>
+      </c>
+      <c r="V4" s="7">
+        <v>0</v>
+      </c>
+      <c r="W4" s="7">
+        <v>0</v>
+      </c>
+      <c r="X4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0</v>
+      </c>
+      <c r="U5" s="7">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <v>0</v>
+      </c>
+      <c r="W5" s="7">
+        <v>0</v>
+      </c>
+      <c r="X5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <v>0</v>
+      </c>
+      <c r="X6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0</v>
+      </c>
+      <c r="T7" s="7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="7">
+        <v>0</v>
+      </c>
+      <c r="W7" s="7">
+        <v>0</v>
+      </c>
+      <c r="X7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303073B7-556E-4714-A27A-3E87EB1A31BB}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEF03E3-EEE6-4E30-8C8E-0A0BBA95C8D4}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
@@ -14634,7 +17179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084527B0-DA92-4625-BC9E-0C9924683FD5}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
@@ -15716,7 +18261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B48EFF8-A9DA-46EF-A53A-C8D9BCE42AD2}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
@@ -16798,7 +19343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F2AED5-0530-4410-AAB9-2F9F9DFAA028}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
@@ -17880,88 +20425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303073B7-556E-4714-A27A-3E87EB1A31BB}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>22</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>24</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>26</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CD1318-35F3-4351-86DE-84E870C235B7}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
@@ -19043,7 +21507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30681B8A-998E-4DD5-97DB-02DF77492E61}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
@@ -20125,7 +22589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50F8A58-CFD8-48FA-826B-98F7C9537CD0}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
@@ -21207,7 +23671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DA7612-B0CB-4871-B6DA-28E503B7570A}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
@@ -22289,7 +24753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FF2B88-6D6F-4E23-8532-8747F556FB64}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
@@ -23371,7 +25835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190B604F-ADB7-488D-B5AF-27283AC2525E}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
@@ -24038,1114 +26502,6 @@
       <c r="Y7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$2:Y$4)*(RANDBETWEEN(95,105)/100))</f>
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1F8FB0-D681-481D-9906-64968107FDB3}">
-  <dimension ref="A1:Y7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>4</v>
-      </c>
-      <c r="G1">
-        <v>5</v>
-      </c>
-      <c r="H1">
-        <v>6</v>
-      </c>
-      <c r="I1">
-        <v>7</v>
-      </c>
-      <c r="J1">
-        <v>8</v>
-      </c>
-      <c r="K1">
-        <v>9</v>
-      </c>
-      <c r="L1">
-        <v>10</v>
-      </c>
-      <c r="M1">
-        <v>11</v>
-      </c>
-      <c r="N1">
-        <v>12</v>
-      </c>
-      <c r="O1">
-        <v>13</v>
-      </c>
-      <c r="P1">
-        <v>14</v>
-      </c>
-      <c r="Q1">
-        <v>15</v>
-      </c>
-      <c r="R1">
-        <v>16</v>
-      </c>
-      <c r="S1">
-        <v>17</v>
-      </c>
-      <c r="T1">
-        <v>18</v>
-      </c>
-      <c r="U1">
-        <v>19</v>
-      </c>
-      <c r="V1">
-        <v>20</v>
-      </c>
-      <c r="W1">
-        <v>21</v>
-      </c>
-      <c r="X1">
-        <v>22</v>
-      </c>
-      <c r="Y1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0</v>
-      </c>
-      <c r="P2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>0</v>
-      </c>
-      <c r="R2" s="4">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4">
-        <v>0</v>
-      </c>
-      <c r="U2" s="4">
-        <v>0</v>
-      </c>
-      <c r="V2" s="4">
-        <v>0</v>
-      </c>
-      <c r="W2" s="4">
-        <v>0</v>
-      </c>
-      <c r="X2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
-        <v>0</v>
-      </c>
-      <c r="S3" s="7">
-        <v>0</v>
-      </c>
-      <c r="T3" s="7">
-        <v>0</v>
-      </c>
-      <c r="U3" s="7">
-        <v>0</v>
-      </c>
-      <c r="V3" s="7">
-        <v>0</v>
-      </c>
-      <c r="W3" s="7">
-        <v>0</v>
-      </c>
-      <c r="X3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7">
-        <v>0</v>
-      </c>
-      <c r="S4" s="7">
-        <v>0</v>
-      </c>
-      <c r="T4" s="7">
-        <v>0</v>
-      </c>
-      <c r="U4" s="7">
-        <v>0</v>
-      </c>
-      <c r="V4" s="7">
-        <v>0</v>
-      </c>
-      <c r="W4" s="7">
-        <v>0</v>
-      </c>
-      <c r="X4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
-      <c r="S5" s="7">
-        <v>0</v>
-      </c>
-      <c r="T5" s="7">
-        <v>0</v>
-      </c>
-      <c r="U5" s="7">
-        <v>0</v>
-      </c>
-      <c r="V5" s="7">
-        <v>0</v>
-      </c>
-      <c r="W5" s="7">
-        <v>0</v>
-      </c>
-      <c r="X5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0</v>
-      </c>
-      <c r="R6" s="7">
-        <v>0</v>
-      </c>
-      <c r="S6" s="7">
-        <v>0</v>
-      </c>
-      <c r="T6" s="7">
-        <v>0</v>
-      </c>
-      <c r="U6" s="7">
-        <v>0</v>
-      </c>
-      <c r="V6" s="7">
-        <v>0</v>
-      </c>
-      <c r="W6" s="7">
-        <v>0</v>
-      </c>
-      <c r="X6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7">
-        <v>0</v>
-      </c>
-      <c r="S7" s="7">
-        <v>0</v>
-      </c>
-      <c r="T7" s="7">
-        <v>0</v>
-      </c>
-      <c r="U7" s="7">
-        <v>0</v>
-      </c>
-      <c r="V7" s="7">
-        <v>0</v>
-      </c>
-      <c r="W7" s="7">
-        <v>0</v>
-      </c>
-      <c r="X7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B03ABF6-0D6D-40F7-9299-D567A2744E68}">
-  <dimension ref="A1:Y7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>4</v>
-      </c>
-      <c r="G1">
-        <v>5</v>
-      </c>
-      <c r="H1">
-        <v>6</v>
-      </c>
-      <c r="I1">
-        <v>7</v>
-      </c>
-      <c r="J1">
-        <v>8</v>
-      </c>
-      <c r="K1">
-        <v>9</v>
-      </c>
-      <c r="L1">
-        <v>10</v>
-      </c>
-      <c r="M1">
-        <v>11</v>
-      </c>
-      <c r="N1">
-        <v>12</v>
-      </c>
-      <c r="O1">
-        <v>13</v>
-      </c>
-      <c r="P1">
-        <v>14</v>
-      </c>
-      <c r="Q1">
-        <v>15</v>
-      </c>
-      <c r="R1">
-        <v>16</v>
-      </c>
-      <c r="S1">
-        <v>17</v>
-      </c>
-      <c r="T1">
-        <v>18</v>
-      </c>
-      <c r="U1">
-        <v>19</v>
-      </c>
-      <c r="V1">
-        <v>20</v>
-      </c>
-      <c r="W1">
-        <v>21</v>
-      </c>
-      <c r="X1">
-        <v>22</v>
-      </c>
-      <c r="Y1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6">
-        <v>1</v>
-      </c>
-      <c r="K3" s="6">
-        <v>1</v>
-      </c>
-      <c r="L3" s="6">
-        <v>1</v>
-      </c>
-      <c r="M3" s="6">
-        <v>1</v>
-      </c>
-      <c r="N3" s="6">
-        <v>1</v>
-      </c>
-      <c r="O3" s="6">
-        <v>1</v>
-      </c>
-      <c r="P3" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>1</v>
-      </c>
-      <c r="R3" s="6">
-        <v>1</v>
-      </c>
-      <c r="S3" s="6">
-        <v>1</v>
-      </c>
-      <c r="T3" s="6">
-        <v>1</v>
-      </c>
-      <c r="U3" s="6">
-        <v>1</v>
-      </c>
-      <c r="V3" s="6">
-        <v>1</v>
-      </c>
-      <c r="W3" s="6">
-        <v>1</v>
-      </c>
-      <c r="X3" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6">
-        <v>1</v>
-      </c>
-      <c r="I4" s="6">
-        <v>1</v>
-      </c>
-      <c r="J4" s="6">
-        <v>1</v>
-      </c>
-      <c r="K4" s="6">
-        <v>1</v>
-      </c>
-      <c r="L4" s="6">
-        <v>1</v>
-      </c>
-      <c r="M4" s="6">
-        <v>1</v>
-      </c>
-      <c r="N4" s="6">
-        <v>1</v>
-      </c>
-      <c r="O4" s="6">
-        <v>1</v>
-      </c>
-      <c r="P4" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>1</v>
-      </c>
-      <c r="R4" s="6">
-        <v>1</v>
-      </c>
-      <c r="S4" s="6">
-        <v>1</v>
-      </c>
-      <c r="T4" s="6">
-        <v>1</v>
-      </c>
-      <c r="U4" s="6">
-        <v>1</v>
-      </c>
-      <c r="V4" s="6">
-        <v>1</v>
-      </c>
-      <c r="W4" s="6">
-        <v>1</v>
-      </c>
-      <c r="X4" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6">
-        <v>1</v>
-      </c>
-      <c r="J5" s="6">
-        <v>1</v>
-      </c>
-      <c r="K5" s="6">
-        <v>1</v>
-      </c>
-      <c r="L5" s="6">
-        <v>1</v>
-      </c>
-      <c r="M5" s="6">
-        <v>1</v>
-      </c>
-      <c r="N5" s="6">
-        <v>1</v>
-      </c>
-      <c r="O5" s="6">
-        <v>1</v>
-      </c>
-      <c r="P5" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>1</v>
-      </c>
-      <c r="R5" s="6">
-        <v>1</v>
-      </c>
-      <c r="S5" s="6">
-        <v>1</v>
-      </c>
-      <c r="T5" s="6">
-        <v>1</v>
-      </c>
-      <c r="U5" s="6">
-        <v>1</v>
-      </c>
-      <c r="V5" s="6">
-        <v>1</v>
-      </c>
-      <c r="W5" s="6">
-        <v>1</v>
-      </c>
-      <c r="X5" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="6">
-        <v>1</v>
-      </c>
-      <c r="L6" s="6">
-        <v>1</v>
-      </c>
-      <c r="M6" s="6">
-        <v>1</v>
-      </c>
-      <c r="N6" s="6">
-        <v>1</v>
-      </c>
-      <c r="O6" s="6">
-        <v>1</v>
-      </c>
-      <c r="P6" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>1</v>
-      </c>
-      <c r="R6" s="6">
-        <v>1</v>
-      </c>
-      <c r="S6" s="6">
-        <v>1</v>
-      </c>
-      <c r="T6" s="6">
-        <v>1</v>
-      </c>
-      <c r="U6" s="6">
-        <v>1</v>
-      </c>
-      <c r="V6" s="6">
-        <v>1</v>
-      </c>
-      <c r="W6" s="6">
-        <v>1</v>
-      </c>
-      <c r="X6" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6">
-        <v>1</v>
-      </c>
-      <c r="K7" s="6">
-        <v>1</v>
-      </c>
-      <c r="L7" s="6">
-        <v>1</v>
-      </c>
-      <c r="M7" s="6">
-        <v>1</v>
-      </c>
-      <c r="N7" s="6">
-        <v>1</v>
-      </c>
-      <c r="O7" s="6">
-        <v>1</v>
-      </c>
-      <c r="P7" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>1</v>
-      </c>
-      <c r="R7" s="6">
-        <v>1</v>
-      </c>
-      <c r="S7" s="6">
-        <v>1</v>
-      </c>
-      <c r="T7" s="6">
-        <v>1</v>
-      </c>
-      <c r="U7" s="6">
-        <v>1</v>
-      </c>
-      <c r="V7" s="6">
-        <v>1</v>
-      </c>
-      <c r="W7" s="6">
-        <v>1</v>
-      </c>
-      <c r="X7" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="6">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -25227,6 +26583,3570 @@
       </c>
       <c r="C6" s="5">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9958AB7F-992D-46A8-8B2E-7DE36C972B70}">
+  <dimension ref="A1:Y7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$2:B$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$2:F$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$2:G$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$2:H$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$2:W$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$2:X$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$2:Y$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$2:B$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$2:F$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$2:G$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$2:H$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$2:W$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$2:X$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$2:Y$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$2:B$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$2:F$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$2:G$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$2:H$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$2:W$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$2:X$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$2:Y$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$2:B$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$2:F$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$2:G$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$2:H$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$2:W$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$2:X$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$2:Y$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$2:B$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$2:F$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$2:G$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$2:H$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$2:W$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$2:X$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$2:Y$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E81DC30-4A72-4B31-84C2-D1FB088F58DE}">
+  <dimension ref="A1:Y7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$2:B$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$2:F$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$2:G$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$2:H$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$2:W$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$2:X$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="7">
+        <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$2:Y$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$2:B$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$2:F$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$2:G$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$2:H$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$2:W$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$2:X$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="7">
+        <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$2:Y$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$2:B$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$2:F$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$2:G$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$2:H$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$2:W$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$2:X$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="7">
+        <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$2:Y$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$2:B$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$2:F$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$2:G$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$2:H$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$2:W$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$2:X$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="7">
+        <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$2:Y$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$2:B$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$2:F$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$2:G$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$2:H$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$2:W$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$2:X$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="7">
+        <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$2:Y$4)*(RANDBETWEEN(95,105)/100))</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1F8FB0-D681-481D-9906-64968107FDB3}">
+  <dimension ref="A1:Y7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+      <c r="R3" s="7">
+        <v>0</v>
+      </c>
+      <c r="S3" s="7">
+        <v>0</v>
+      </c>
+      <c r="T3" s="7">
+        <v>0</v>
+      </c>
+      <c r="U3" s="7">
+        <v>0</v>
+      </c>
+      <c r="V3" s="7">
+        <v>0</v>
+      </c>
+      <c r="W3" s="7">
+        <v>0</v>
+      </c>
+      <c r="X3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0</v>
+      </c>
+      <c r="S4" s="7">
+        <v>0</v>
+      </c>
+      <c r="T4" s="7">
+        <v>0</v>
+      </c>
+      <c r="U4" s="7">
+        <v>0</v>
+      </c>
+      <c r="V4" s="7">
+        <v>0</v>
+      </c>
+      <c r="W4" s="7">
+        <v>0</v>
+      </c>
+      <c r="X4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0</v>
+      </c>
+      <c r="U5" s="7">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <v>0</v>
+      </c>
+      <c r="W5" s="7">
+        <v>0</v>
+      </c>
+      <c r="X5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <v>0</v>
+      </c>
+      <c r="X6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0</v>
+      </c>
+      <c r="T7" s="7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="7">
+        <v>0</v>
+      </c>
+      <c r="W7" s="7">
+        <v>0</v>
+      </c>
+      <c r="X7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E03F967-36F2-4779-B36D-1490B80A9BF0}">
+  <dimension ref="A1:Y7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+      <c r="R3" s="7">
+        <v>0</v>
+      </c>
+      <c r="S3" s="7">
+        <v>0</v>
+      </c>
+      <c r="T3" s="7">
+        <v>0</v>
+      </c>
+      <c r="U3" s="7">
+        <v>0</v>
+      </c>
+      <c r="V3" s="7">
+        <v>0</v>
+      </c>
+      <c r="W3" s="7">
+        <v>0</v>
+      </c>
+      <c r="X3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0</v>
+      </c>
+      <c r="S4" s="7">
+        <v>0</v>
+      </c>
+      <c r="T4" s="7">
+        <v>0</v>
+      </c>
+      <c r="U4" s="7">
+        <v>0</v>
+      </c>
+      <c r="V4" s="7">
+        <v>0</v>
+      </c>
+      <c r="W4" s="7">
+        <v>0</v>
+      </c>
+      <c r="X4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0</v>
+      </c>
+      <c r="U5" s="7">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <v>0</v>
+      </c>
+      <c r="W5" s="7">
+        <v>0</v>
+      </c>
+      <c r="X5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <v>0</v>
+      </c>
+      <c r="X6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0</v>
+      </c>
+      <c r="T7" s="7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="7">
+        <v>0</v>
+      </c>
+      <c r="W7" s="7">
+        <v>0</v>
+      </c>
+      <c r="X7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79222DE7-0816-4736-888F-67B48EB3250D}">
+  <dimension ref="A1:Y7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+      <c r="R3" s="7">
+        <v>0</v>
+      </c>
+      <c r="S3" s="7">
+        <v>0</v>
+      </c>
+      <c r="T3" s="7">
+        <v>0</v>
+      </c>
+      <c r="U3" s="7">
+        <v>0</v>
+      </c>
+      <c r="V3" s="7">
+        <v>0</v>
+      </c>
+      <c r="W3" s="7">
+        <v>0</v>
+      </c>
+      <c r="X3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0</v>
+      </c>
+      <c r="S4" s="7">
+        <v>0</v>
+      </c>
+      <c r="T4" s="7">
+        <v>0</v>
+      </c>
+      <c r="U4" s="7">
+        <v>0</v>
+      </c>
+      <c r="V4" s="7">
+        <v>0</v>
+      </c>
+      <c r="W4" s="7">
+        <v>0</v>
+      </c>
+      <c r="X4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0</v>
+      </c>
+      <c r="U5" s="7">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <v>0</v>
+      </c>
+      <c r="W5" s="7">
+        <v>0</v>
+      </c>
+      <c r="X5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <v>0</v>
+      </c>
+      <c r="X6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0</v>
+      </c>
+      <c r="T7" s="7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="7">
+        <v>0</v>
+      </c>
+      <c r="W7" s="7">
+        <v>0</v>
+      </c>
+      <c r="X7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B03ABF6-0D6D-40F7-9299-D567A2744E68}">
+  <dimension ref="A1:Y7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1</v>
+      </c>
+      <c r="M3" s="6">
+        <v>1</v>
+      </c>
+      <c r="N3" s="6">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6">
+        <v>1</v>
+      </c>
+      <c r="P3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>1</v>
+      </c>
+      <c r="R3" s="6">
+        <v>1</v>
+      </c>
+      <c r="S3" s="6">
+        <v>1</v>
+      </c>
+      <c r="T3" s="6">
+        <v>1</v>
+      </c>
+      <c r="U3" s="6">
+        <v>1</v>
+      </c>
+      <c r="V3" s="6">
+        <v>1</v>
+      </c>
+      <c r="W3" s="6">
+        <v>1</v>
+      </c>
+      <c r="X3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1</v>
+      </c>
+      <c r="M4" s="6">
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6">
+        <v>1</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>1</v>
+      </c>
+      <c r="R4" s="6">
+        <v>1</v>
+      </c>
+      <c r="S4" s="6">
+        <v>1</v>
+      </c>
+      <c r="T4" s="6">
+        <v>1</v>
+      </c>
+      <c r="U4" s="6">
+        <v>1</v>
+      </c>
+      <c r="V4" s="6">
+        <v>1</v>
+      </c>
+      <c r="W4" s="6">
+        <v>1</v>
+      </c>
+      <c r="X4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1</v>
+      </c>
+      <c r="M5" s="6">
+        <v>1</v>
+      </c>
+      <c r="N5" s="6">
+        <v>1</v>
+      </c>
+      <c r="O5" s="6">
+        <v>1</v>
+      </c>
+      <c r="P5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>1</v>
+      </c>
+      <c r="R5" s="6">
+        <v>1</v>
+      </c>
+      <c r="S5" s="6">
+        <v>1</v>
+      </c>
+      <c r="T5" s="6">
+        <v>1</v>
+      </c>
+      <c r="U5" s="6">
+        <v>1</v>
+      </c>
+      <c r="V5" s="6">
+        <v>1</v>
+      </c>
+      <c r="W5" s="6">
+        <v>1</v>
+      </c>
+      <c r="X5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6">
+        <v>1</v>
+      </c>
+      <c r="P6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>1</v>
+      </c>
+      <c r="R6" s="6">
+        <v>1</v>
+      </c>
+      <c r="S6" s="6">
+        <v>1</v>
+      </c>
+      <c r="T6" s="6">
+        <v>1</v>
+      </c>
+      <c r="U6" s="6">
+        <v>1</v>
+      </c>
+      <c r="V6" s="6">
+        <v>1</v>
+      </c>
+      <c r="W6" s="6">
+        <v>1</v>
+      </c>
+      <c r="X6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1</v>
+      </c>
+      <c r="M7" s="6">
+        <v>1</v>
+      </c>
+      <c r="N7" s="6">
+        <v>1</v>
+      </c>
+      <c r="O7" s="6">
+        <v>1</v>
+      </c>
+      <c r="P7" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>1</v>
+      </c>
+      <c r="R7" s="6">
+        <v>1</v>
+      </c>
+      <c r="S7" s="6">
+        <v>1</v>
+      </c>
+      <c r="T7" s="6">
+        <v>1</v>
+      </c>
+      <c r="U7" s="6">
+        <v>1</v>
+      </c>
+      <c r="V7" s="6">
+        <v>1</v>
+      </c>
+      <c r="W7" s="6">
+        <v>1</v>
+      </c>
+      <c r="X7" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098330FB-E34A-41D7-8734-6D0C7DA33C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE92F09B-1EFD-4CC4-B067-79CC6EADA0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" firstSheet="28" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -8515,7 +8515,7 @@
       </c>
       <c r="B7" s="4">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -13236,11 +13236,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2030396174863383E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2544573466215596E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13260,55 +13260,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2256293343833992E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.4113930611733046</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1117511526012995</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3758753796147427</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6283059515923395</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6906473855597273</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4719423235703784</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1190289424894864</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.6193187938809287</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.13120160317834523</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.6146100956249597E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5627649488800989E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.1209883880405957E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13337,11 +13337,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2257513661202183E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3459281948127151E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13361,55 +13361,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0348611057219648E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.41572351444881306</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0588106215250472</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4042439441428818</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6283059515923395</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.657497436823262</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5152347448518602</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1532849305248787</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.64409154563616577</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.14350175347631511</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.6146100956249597E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5627649488800989E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.1613902349821704E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13438,11 +13438,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.3393101092896174E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3459281948127151E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13462,55 +13462,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0560575755732353E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.43304532755084696</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0905749401707985</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4042439441428818</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6441147472388671</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.657497436823262</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4719423235703784</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1418662678464147</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.60073923006450081</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.13666833664410963</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.6146100956249597E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4861588239349958E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.1209883880405957E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13910,11 +13910,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.3393101092896174E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2805918746761756E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13934,55 +13934,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1832363946808587E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.4287148742753385</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1011630463860491</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4326125086710206</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5176443820666465</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6906473855597273</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3853574810074147</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1647035932033429</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.63789835769735648</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.13803502001055071</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>9.0541310188711321E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5321224989020576E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.1613902349821704E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14011,11 +14011,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2484631147540982E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2544573466215596E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14035,55 +14035,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1832363946808587E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.43304532755084696</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0799868339555481</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4467967909350901</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5176443820666465</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6740724111914944</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5008039377580329</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1761222558818072</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.6131256059421194</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.13940170337699181</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.9662268342218985E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.59340739885814E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.0805865410990211E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14112,11 +14112,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.3393101092896174E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3328609307854072E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14136,55 +14136,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0348611057219648E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.43737578082635542</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0376344090945462</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4751653554632294</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5966883602992843</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.657497436823262</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5008039377580329</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1304476051679504</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.60693241800330999</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.13666833664410963</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.9662268342218985E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4861588239349958E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.1209883880405957E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14584,11 +14584,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2938866120218575E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2413900825942518E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14608,55 +14608,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.119646985127047E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.44170623410186394</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1011630463860491</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3758753796147427</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6124971559458121</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7403723086644252</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4142190951950695</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1761222558818072</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.65028473357497507</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.13803502001055071</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.5267059109757262E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6087286238471605E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.9189791533327232E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14685,11 +14685,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2030396174863383E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2675246106488677E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14709,55 +14709,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.119646985127047E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.42438442099982998</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0164581966640454</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4893496377272988</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6124971559458121</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7403723086644252</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4430807093827238</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1418662678464147</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.62551198181973799</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.142135070109874</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.7025142802741955E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4861588239349958E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.9189791533327232E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14786,11 +14786,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.3393101092896174E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2936591387034835E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14810,55 +14810,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0136646358706947E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.42438442099982998</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0482225153097966</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3900596618788121</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5018355864201189</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5746225649820988</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5008039377580329</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1761222558818072</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.6193187938809287</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.14350175347631511</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.7025142802741955E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4861588239349958E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.1613902349821704E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -16548,7 +16548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303073B7-556E-4714-A27A-3E87EB1A31BB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -16595,7 +16595,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="5">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -16606,7 +16606,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="5">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -16617,7 +16617,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="5">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -26211,11 +26211,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.9997677595628415E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6629400201152053E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26235,55 +26235,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.5370155936737304E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.52460274041286514</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3618512693640565</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7986139330214121</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9587330358581752</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1896321464554629</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8064108044966301</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4208786577836516</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.74516312239254101</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.16490943020887594</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1524424182180483E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9737374279967082E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.8886234799305107E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26312,11 +26312,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.8267042349726775E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6464752674407972E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26336,55 +26336,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.6691518225109043E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.5628550235679699</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3079165656268663</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7804461155161453</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0186942512415889</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1685779912010834</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8432763311190103</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3921740384344869</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.7762115858255636</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.16838120768695755</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0536616395136441E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7857624348541646E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.8886234799305107E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26413,11 +26413,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.855548155737705E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5806162567431651E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26437,55 +26437,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.7484335598132081E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.53553196417146653</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3079165656268663</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7986139330214121</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0986425384194733</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.021198904420427</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7511125145630599</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5069925158311457</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.76068735410905219</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.17358887390407995</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1085398499049799E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.898547430739691E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.6930785407332907E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26594,7 +26594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9958AB7F-992D-46A8-8B2E-7DE36C972B70}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -26966,11 +26966,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.7401724726775957E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6794047727896131E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26990,55 +26990,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.774860805580643E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.54099657605076723</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.415785973101247</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8894530205477462</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0186942512415889</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1896321464554629</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7695452778742498</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3634694190853223</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.80726004925858619</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.17532476264312075</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0975642078267125E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8233574334826732E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.7908510103319003E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27067,11 +27067,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.8843920765027322E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6464752674407972E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27091,55 +27091,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.5898700852085999E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.54646118793006793</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3753349452983543</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9076208380530129</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9187588922692327</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0001447491660476</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8801418577413906</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4065263481090693</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.7684494699673079</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.17011709642599834</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1195154919832469E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8045599341684189E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.6930785407332907E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27168,11 +27168,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.7690163934426229E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6629400201152053E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27192,55 +27192,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.6691518225109043E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.54099657605076723</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3348839174954614</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8712852030424791</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0986425384194733</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.105415525437945</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7879780411854402</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4926402061565633</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.791735817542075</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.17532476264312075</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0975642078267125E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9737374279967082E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.0841684191277313E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27640,11 +27640,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.9997677595628415E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6629400201152053E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27664,55 +27664,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.7220063140457738E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.53006735229216595</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3618512693640565</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7622782980108787</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0586683948305313</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.021198904420427</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7879780411854402</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4926402061565633</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.791735817542075</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.16490943020887594</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1414667761397812E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8797499314254364E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.6930785407332907E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27741,11 +27741,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.0286116803278686E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5641515040687573E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27765,55 +27765,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.563442839441165E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.55192579980936862</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4023022971669494</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8894530205477462</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0986425384194733</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.042253059674807</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7879780411854402</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3778217287599046</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.74516312239254101</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.17011709642599834</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0426859974353769E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8797499314254364E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.6930785407332907E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27842,11 +27842,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.7978603142076504E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6135457620919813E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27866,55 +27866,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.6955790682783386E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.55192579980936862</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.415785973101247</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7441104805056118</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0186942512415889</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1475238359467039</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7879780411854402</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4065263481090693</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.7684494699673079</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.16490943020887594</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0975642078267125E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9173449300539453E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.9375097147298162E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163A0463-3F2D-4D0F-A633-0E19B66E5F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2E44B6-1FEE-4E84-863F-F75866B7FC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23160" yWindow="5160" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2130" yWindow="3105" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -8446,7 +8446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -8515,7 +8515,7 @@
       </c>
       <c r="B7" s="4">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>7.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -13034,11 +13034,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.4060792349726766E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.6918563896254302E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13058,55 +13058,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.4088657290642583E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.82278612234660919</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0329163933280907</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.8084878882857636</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.0669063554263483</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.2818449249100592</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.0304694897037203</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.3294071864066859</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2634103395170946</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.26240320635669045</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7932453668443797E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.1868147977162799E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.7571546127822971E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13135,11 +13135,11 @@
       </c>
       <c r="C4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.3152322404371574E-5</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.6657218615708143E-5</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13159,55 +13159,55 @@
       </c>
       <c r="I4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.1545080908490115E-2</v>
       </c>
       <c r="J4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.857429748550677</v>
       </c>
       <c r="K4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0752688181890924</v>
       </c>
       <c r="L4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.9786992754545976</v>
       </c>
       <c r="M4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.3198470857707898</v>
       </c>
       <c r="N4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.4475946685923855</v>
       </c>
       <c r="O4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.8861614187654476</v>
       </c>
       <c r="P4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1695459089081877</v>
       </c>
       <c r="Q4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2014784601290016</v>
       </c>
       <c r="R4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.284270140219748</v>
       </c>
       <c r="S4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6877603452652985E-3</v>
       </c>
       <c r="T4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.0336025478260736E-4</v>
       </c>
       <c r="U4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.6763509188991491E-5</v>
       </c>
       <c r="V4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13236,11 +13236,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1803278688524587E-5</v>
+        <v>2.3620218579234971E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3589954588400232E-5</v>
+        <v>1.2413900825942518E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13260,55 +13260,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1408434549783174E-2</v>
+        <v>2.1620399248295882E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44170623410186394</v>
+        <v>0.43737578082635542</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0693987277402976</v>
+        <v>1.0270463028792958</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4751653554632294</v>
+        <v>1.3900596618788121</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6283059515923395</v>
+        <v>1.6599235428853949</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6906473855597273</v>
+        <v>1.5746225649820988</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4142190951950695</v>
+        <v>1.3709266739135875</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1647035932033429</v>
+        <v>1.1875409185602712</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62551198181973799</v>
+        <v>0.64409154563616577</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13393496991122741</v>
+        <v>0.13120160317834523</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9662268342218985E-4</v>
+        <v>8.7025142802741955E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4861588239349958E-4</v>
+        <v>1.5627649488800989E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1209883880405957E-5</v>
+        <v>3.9997828472158725E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13337,11 +13337,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2257513661202183E-5</v>
+        <v>2.384733606557377E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3197936667580994E-5</v>
+        <v>1.2805918746761756E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13365,11 +13365,11 @@
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42005396772432152</v>
+        <v>0.41572351444881306</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0693987277402976</v>
+        <v>1.1011630463860491</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13377,39 +13377,39 @@
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6599235428853949</v>
+        <v>1.6124971559458121</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7237973342961928</v>
+        <v>1.5746225649820988</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3853574810074147</v>
+        <v>1.3997882881012422</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1532849305248787</v>
+        <v>1.1418662678464147</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62551198181973799</v>
+        <v>0.59454604212569151</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13256828654478633</v>
+        <v>0.14350175347631511</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7904184649234291E-4</v>
+        <v>8.4388017263264926E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4708375989459752E-4</v>
+        <v>1.6087286238471605E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1613902349821704E-5</v>
+        <v>4.0805865410990211E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13438,11 +13438,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2257513661202183E-5</v>
+        <v>2.3165983606557375E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3328609307854072E-5</v>
+        <v>1.3197936667580994E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13462,23 +13462,23 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0136646358706947E-2</v>
+        <v>2.0984505152757765E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42438442099982998</v>
+        <v>0.4460366873773724</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0058700904487947</v>
+        <v>1.0270463028792958</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4609810731991595</v>
+        <v>1.3758753796147427</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5966883602992843</v>
+        <v>1.6599235428853949</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13486,11 +13486,11 @@
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4430807093827238</v>
+        <v>1.4286499022888965</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0847729544540938</v>
+        <v>1.1190289424894864</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13498,19 +13498,19 @@
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13120160317834523</v>
+        <v>0.13393496991122741</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7904184649234291E-4</v>
+        <v>9.0541310188711321E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.59340739885814E-4</v>
+        <v>1.5780861738691192E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.201792081923745E-5</v>
+        <v>3.9189791533327232E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13708,11 +13708,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.769467213114754E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.6657218615708143E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13732,55 +13732,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.3240798496591765E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.86609065510169392</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1387974554805953</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.9786992754545976</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.0352887641332931</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.2486949761735935</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.9438846471407567</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2152205596220442</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1767057083737644</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.27333667328821926</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8459878776339203E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.1561723477382383E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.4843878577306394E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13809,11 +13809,11 @@
       </c>
       <c r="C4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.7240437158469941E-5</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.6134528054615829E-5</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13833,55 +13833,55 @@
       </c>
       <c r="I4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.1545080908490115E-2</v>
       </c>
       <c r="J4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.86609065510169392</v>
       </c>
       <c r="K4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1176212430500945</v>
       </c>
       <c r="L4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.9786992754545976</v>
       </c>
       <c r="M4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.3198470857707898</v>
       </c>
       <c r="N4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.4475946685923855</v>
       </c>
       <c r="O4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.8572998045777931</v>
       </c>
       <c r="P4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.3065698610497574</v>
       </c>
       <c r="Q4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2386375877618574</v>
       </c>
       <c r="R4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.27333667328821926</v>
       </c>
       <c r="S4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8284070407040731E-3</v>
       </c>
       <c r="T4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.0642449978041152E-4</v>
       </c>
       <c r="U4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.2419767760811915E-5</v>
       </c>
       <c r="V4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13910,7 +13910,7 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2484631147540982E-5</v>
+        <v>2.384733606557377E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13934,47 +13934,47 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1832363946808587E-2</v>
+        <v>2.0772540454245057E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44170623410186394</v>
+        <v>0.42005396772432152</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1011630463860491</v>
+        <v>1.0799868339555481</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4893496377272988</v>
+        <v>1.3900596618788121</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6124971559458121</v>
+        <v>1.6441147472388671</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6243474880867967</v>
+        <v>1.6077725137185641</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4430807093827238</v>
+        <v>1.3709266739135875</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1532849305248787</v>
+        <v>1.1989595812387355</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6131256059421194</v>
+        <v>0.59454604212569151</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13120160317834523</v>
+        <v>0.13393496991122741</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6146100956249597E-4</v>
+        <v>8.4388017263264926E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13982,7 +13982,7 @@
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8381754594495746E-5</v>
+        <v>4.1209883880405957E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14011,11 +14011,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3165983606557375E-5</v>
+        <v>2.3620218579234971E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2675246106488677E-5</v>
+        <v>1.2413900825942518E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14035,15 +14035,15 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1620399248295882E-2</v>
+        <v>2.2256293343833992E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43737578082635542</v>
+        <v>0.42005396772432152</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0270463028792958</v>
+        <v>1.0588106215250472</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14051,39 +14051,39 @@
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5018355864201189</v>
+        <v>1.5650707690062293</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.657497436823262</v>
+        <v>1.6409224624550296</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4142190951950695</v>
+        <v>1.3709266739135875</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1989595812387355</v>
+        <v>1.1076102798110221</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65028473357497507</v>
+        <v>0.63170516975854729</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13803502001055071</v>
+        <v>0.13120160317834523</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8783226495726627E-4</v>
+        <v>8.7025142802741955E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4708375989459752E-4</v>
+        <v>1.5168012739130368E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0805865410990211E-5</v>
+        <v>3.8785773063911485E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14112,11 +14112,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1576161202185787E-5</v>
+        <v>2.1803278688524587E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3067264027307915E-5</v>
+        <v>1.3720627228673311E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14136,55 +14136,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2256293343833992E-2</v>
+        <v>2.119646985127047E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42005396772432152</v>
+        <v>0.4287148742753385</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0693987277402976</v>
+        <v>1.0270463028792958</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3616910973506728</v>
+        <v>1.4184282264069512</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5808795646527569</v>
+        <v>1.5334531777131741</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5746225649820988</v>
+        <v>1.6740724111914944</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4430807093827238</v>
+        <v>1.3997882881012422</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1418662678464147</v>
+        <v>1.1076102798110221</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60073923006450081</v>
+        <v>0.63170516975854729</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13256828654478633</v>
+        <v>0.13940170337699181</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9662268342218985E-4</v>
+        <v>8.7904184649234291E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6087286238471605E-4</v>
+        <v>1.59340739885814E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.201792081923745E-5</v>
+        <v>4.2421939288653197E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14382,11 +14382,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.3606557377049174E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.4827801651885036E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14406,55 +14406,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.4512586687667985E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.84010793544864304</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1176212430500945</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.9503307109264587</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.0669063554263483</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.314994873646524</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.7418533478271749</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2380578849789727</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2262512118842388</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.27607004002110141</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6877603452652985E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.1255298977601978E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.4035841638474901E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14483,11 +14483,11 @@
       </c>
       <c r="C4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.7240437158469941E-5</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.5089146932431191E-5</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14507,55 +14507,55 @@
       </c>
       <c r="I4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.2816869099566349E-2</v>
       </c>
       <c r="J4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.8920733747547448</v>
       </c>
       <c r="K4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1387974554805953</v>
       </c>
       <c r="L4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.9786992754545976</v>
       </c>
       <c r="M4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.256611903184679</v>
       </c>
       <c r="N4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.2155450274371282</v>
       </c>
       <c r="O4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.828438190390139</v>
       </c>
       <c r="P4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2837325356928293</v>
       </c>
       <c r="Q4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2386375877618574</v>
       </c>
       <c r="R4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.27060330655533704</v>
       </c>
       <c r="S4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7580836929846858E-3</v>
       </c>
       <c r="T4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.9416751978919505E-4</v>
       </c>
       <c r="U4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.918762000548597E-5</v>
       </c>
       <c r="V4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14584,7 +14584,7 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1576161202185787E-5</v>
+        <v>2.3165983606557375E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14608,15 +14608,15 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2044328645321291E-2</v>
+        <v>2.0136646358706947E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43737578082635542</v>
+        <v>0.43304532755084696</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0376344090945462</v>
+        <v>1.0164581966640454</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14624,39 +14624,39 @@
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5966883602992843</v>
+        <v>1.5018355864201189</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6740724111914944</v>
+        <v>1.6077725137185641</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5008039377580329</v>
+        <v>1.4430807093827238</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1418662678464147</v>
+        <v>1.1532849305248787</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62551198181973799</v>
+        <v>0.58835285418688221</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12983491981190415</v>
+        <v>0.13666833664410963</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4388017263264926E-4</v>
+        <v>8.9662268342218985E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4861588239349958E-4</v>
+        <v>1.5168012739130368E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9189791533327232E-5</v>
+        <v>4.1613902349821704E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14685,11 +14685,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1803278688524587E-5</v>
+        <v>2.3165983606557375E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3589954588400232E-5</v>
+        <v>1.2544573466215596E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14709,19 +14709,19 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1620399248295882E-2</v>
+        <v>2.1408434549783174E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4287148742753385</v>
+        <v>0.42438442099982998</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0905749401707985</v>
+        <v>1.1011630463860491</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3616910973506728</v>
+        <v>1.3900596618788121</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14733,31 +14733,31 @@
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5008039377580329</v>
+        <v>1.4286499022888965</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1076102798110221</v>
+        <v>1.0961916171325579</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60693241800330999</v>
+        <v>0.64409154563616577</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13940170337699181</v>
+        <v>0.13120160317834523</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8783226495726627E-4</v>
+        <v>8.6146100956249597E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5474437238910784E-4</v>
+        <v>1.5780861738691192E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8381754594495746E-5</v>
+        <v>4.0805865410990211E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14786,11 +14786,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1576161202185787E-5</v>
+        <v>2.2257513661202183E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3067264027307915E-5</v>
+        <v>1.2544573466215596E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14810,55 +14810,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2044328645321291E-2</v>
+        <v>2.0772540454245057E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45036714065288086</v>
+        <v>0.43737578082635542</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0482225153097966</v>
+        <v>1.0693987277402976</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4042439441428818</v>
+        <v>1.3475068150866034</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5334531777131741</v>
+        <v>1.5808795646527569</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5911975393503313</v>
+        <v>1.7072223599279599</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4719423235703784</v>
+        <v>1.4575115164765511</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1532849305248787</v>
+        <v>1.1190289424894864</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6131256059421194</v>
+        <v>0.59454604212569151</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13120160317834523</v>
+        <v>0.14350175347631511</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2299393881696014E-4</v>
+        <v>8.7025142802741955E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5627649488800989E-4</v>
+        <v>1.5014800489240166E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1613902349821704E-5</v>
+        <v>3.8381754594495746E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -16548,8 +16548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303073B7-556E-4714-A27A-3E87EB1A31BB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16573,7 +16573,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -16584,7 +16584,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -26009,11 +26009,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.8264719945355187E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.4246685562768586E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26033,55 +26033,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.1797401704171998E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0710639283429331</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.5888657793851371</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.7789060410954924</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.7975436409495233</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.2950476718934079</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.5022250291261199</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.9852804123131267</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5524231716511272</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.34023419285199669</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1512258473403568E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.8722848587363992E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>9.972791899058242E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26110,11 +26110,11 @@
       </c>
       <c r="C4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.6534084699453551E-5</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.4246685562768586E-5</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26134,55 +26134,55 @@
       </c>
       <c r="I4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.1797401704171998E-2</v>
       </c>
       <c r="J4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0710639283429331</v>
       </c>
       <c r="K4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.6697678349909229</v>
       </c>
       <c r="L4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.4518853260006899</v>
       </c>
       <c r="M4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.1573109332500042</v>
       </c>
       <c r="N4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.2950476718934079</v>
       </c>
       <c r="O4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.7602837154827813</v>
       </c>
       <c r="P4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.0139850316622914</v>
       </c>
       <c r="Q4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5524231716511272</v>
       </c>
       <c r="R4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.36453663519856788</v>
       </c>
       <c r="S4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1951284156534251E-3</v>
       </c>
       <c r="T4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.5715248697083292E-4</v>
       </c>
       <c r="U4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0266109307854074E-4</v>
       </c>
       <c r="V4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26211,11 +26211,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8267042349726775E-5</v>
+        <v>2.7401724726775957E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5806162567431651E-5</v>
+        <v>1.7287990308128371E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26235,27 +26235,27 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6955790682783386E-2</v>
+        <v>2.7220063140457738E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56831963544727071</v>
+        <v>0.5737842473265713</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3618512693640565</v>
+        <v>1.3079165656268663</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8712852030424791</v>
+        <v>1.8349495680319459</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0786554666250021</v>
+        <v>1.8987718204747617</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.063307214929186</v>
+        <v>2.2106863017098424</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26263,27 +26263,27 @@
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3634694190853223</v>
+        <v>1.4639355868073987</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80726004925858619</v>
+        <v>0.791735817542075</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17879654012120233</v>
+        <v>0.17358887390407995</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0865885657484454E-3</v>
+        <v>1.0975642078267125E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8233574334826732E-4</v>
+        <v>1.9361424293681996E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7908510103319003E-5</v>
+        <v>4.8397372451312051E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26312,11 +26312,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7978603142076504E-5</v>
+        <v>2.970923838797814E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5806162567431651E-5</v>
+        <v>1.5641515040687573E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26336,15 +26336,15 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.774860805580643E-2</v>
+        <v>2.5370155936737304E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53006735229216595</v>
+        <v>0.52460274041286514</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3348839174954614</v>
+        <v>1.348367593429759</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26352,39 +26352,39 @@
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0386813230360601</v>
+        <v>2.0186942512415889</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0001447491660476</v>
+        <v>2.1264696806923244</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8985746210525805</v>
+        <v>1.8801418577413906</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4926402061565633</v>
+        <v>1.3778217287599046</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79949793340033048</v>
+        <v>0.75292523825079671</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17011709642599834</v>
+        <v>0.18053242886024312</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1414667761397812E-3</v>
+        <v>1.0536616395136441E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8797499314254364E-4</v>
+        <v>1.9361424293681996E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.986395949529121E-5</v>
+        <v>4.8886234799305107E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26413,11 +26413,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9420799180327868E-5</v>
+        <v>2.8267042349726775E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5641515040687573E-5</v>
+        <v>1.5806162567431651E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26441,51 +26441,51 @@
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5628550235679699</v>
+        <v>0.54099657605076723</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3753349452983543</v>
+        <v>1.3214002415611636</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8712852030424791</v>
+        <v>1.7441104805056118</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9387459640637039</v>
+        <v>1.9587330358581752</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2106863017098424</v>
+        <v>2.042253059674807</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8064108044966301</v>
+        <v>1.8801418577413906</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4639355868073987</v>
+        <v>1.4495832771328163</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7839737016838193</v>
+        <v>0.80726004925858619</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18226831759928394</v>
+        <v>0.17706065138216154</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1414667761397812E-3</v>
+        <v>1.0756129236701784E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8233574334826732E-4</v>
+        <v>1.7857624348541646E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8397372451312051E-5</v>
+        <v>4.8886234799305107E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.7687841530054644E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.4246685562768586E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,55 +26788,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.3383036450218087E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0710639283429331</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.7506698905967086</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.633563501053358</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.1173367896610626</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.2950476718934079</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.6128216089932601</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.9852804123131267</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5368989399346158</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.36453663519856788</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2829335522795624E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.9474748559934164E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>9.8750194294596323E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.6534084699453551E-5</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.1283030081375147E-5</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,55 +26889,55 @@
       </c>
       <c r="I4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.0740311873474608E-2</v>
       </c>
       <c r="J4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1366392708945414</v>
       </c>
       <c r="K4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.7237025387281131</v>
       </c>
       <c r="L4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.7789060410954924</v>
       </c>
       <c r="M4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.9974143588942352</v>
       </c>
       <c r="N4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.168722740367131</v>
       </c>
       <c r="O4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.6865526622380207</v>
       </c>
       <c r="P4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.8417573155673033</v>
       </c>
       <c r="Q4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.490326244785082</v>
       </c>
       <c r="R4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.33329063789583346</v>
       </c>
       <c r="S4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2170796998099598E-3</v>
       </c>
       <c r="T4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.797094861479382E-4</v>
       </c>
       <c r="U4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>9.2883846118679703E-5</v>
       </c>
       <c r="V4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26966,11 +26966,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7690163934426229E-5</v>
+        <v>2.7978603142076504E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6794047727896131E-5</v>
+        <v>1.6300105147663891E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26990,55 +26990,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5105883479062955E-2</v>
+        <v>2.6427245767434694E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51913812853356456</v>
+        <v>0.56831963544727071</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3348839174954614</v>
+        <v>1.415785973101247</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7804461155161453</v>
+        <v>1.7259426630003449</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9387459640637039</v>
+        <v>1.8987718204747617</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.021198904420427</v>
+        <v>2.105415525437945</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9170073843637709</v>
+        <v>1.8985746210525805</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3921740384344869</v>
+        <v>1.4065263481090693</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7762115858255636</v>
+        <v>0.80726004925858619</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17011709642599834</v>
+        <v>0.17532476264312075</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1414667761397812E-3</v>
+        <v>1.0865885657484454E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8609524321111821E-4</v>
+        <v>1.9173449300539453E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.9375097147298162E-5</v>
+        <v>4.7908510103319003E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27067,11 +27067,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0286116803278686E-5</v>
+        <v>2.9420799180327868E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6794047727896131E-5</v>
+        <v>1.5806162567431651E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27091,11 +27091,11 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5898700852085999E-2</v>
+        <v>2.6691518225109043E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53553196417146653</v>
+        <v>0.5737842473265713</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27103,19 +27103,19 @@
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7622782980108787</v>
+        <v>1.816781750526679</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9187588922692327</v>
+        <v>1.9387459640637039</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.105415525437945</v>
+        <v>2.1264696806923244</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7879780411854402</v>
+        <v>1.7695452778742498</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27123,23 +27123,23 @@
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81502216511684189</v>
+        <v>0.7839737016838193</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18226831759928394</v>
+        <v>0.17358887390407995</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0975642078267125E-3</v>
+        <v>1.130491134061514E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9737374279967082E-4</v>
+        <v>1.8045599341684189E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0841684191277313E-5</v>
+        <v>5.0352821843284265E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27168,11 +27168,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.855548155737705E-5</v>
+        <v>2.7690163934426229E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6958695254640212E-5</v>
+        <v>1.7123342781384293E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27192,7 +27192,7 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6162973309760345E-2</v>
+        <v>2.563442839441165E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27200,47 +27200,47 @@
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.415785973101247</v>
+        <v>1.4023022971669494</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9076208380530129</v>
+        <v>1.8349495680319459</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0186942512415889</v>
+        <v>2.0786554666250021</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0843613701835655</v>
+        <v>2.1264696806923244</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9170073843637709</v>
+        <v>1.8248435678078203</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5069925158311457</v>
+        <v>1.3921740384344869</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.791735817542075</v>
+        <v>0.7762115858255636</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17532476264312075</v>
+        <v>0.17185298516503913</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0756129236701784E-3</v>
+        <v>1.1195154919832469E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8233574334826732E-4</v>
+        <v>1.9361424293681996E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6930785407332907E-5</v>
+        <v>5.0352821843284265E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27438,11 +27438,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.5380327868852458E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.3917390509280424E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27462,55 +27462,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.4440126280915477E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1257100471359398</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.6428004831223273</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.4518853260006899</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.9974143588942352</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.168722740367131</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.7234181888604008</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.8704619349164679</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6145200985171724</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.34370597033007827</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1512258473403568E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.6091198683368378E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>9.972791899058242E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27539,11 +27539,11 @@
       </c>
       <c r="C4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.8841598360655737E-5</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.2929505348815944E-5</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27563,55 +27563,55 @@
       </c>
       <c r="I4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.4968671196264161E-2</v>
       </c>
       <c r="J4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0492054808257303</v>
       </c>
       <c r="K4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.7506698905967086</v>
       </c>
       <c r="L4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.7789060410954924</v>
       </c>
       <c r="M4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.0773626460721202</v>
       </c>
       <c r="N4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.168722740367131</v>
       </c>
       <c r="O4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.5759560823708805</v>
       </c>
       <c r="P4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.9852804123131267</v>
       </c>
       <c r="Q4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4748020130685706</v>
       </c>
       <c r="R4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.33329063789583346</v>
       </c>
       <c r="S4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1512258473403568E-3</v>
       </c>
       <c r="T4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.5715248697083292E-4</v>
       </c>
       <c r="U4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0070564368656853E-4</v>
       </c>
       <c r="V4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27640,11 +27640,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7401724726775957E-5</v>
+        <v>2.855548155737705E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5970810094175732E-5</v>
+        <v>1.6464752674407972E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27664,7 +27664,7 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6162973309760345E-2</v>
+        <v>2.6427245767434694E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27672,27 +27672,27 @@
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3079165656268663</v>
+        <v>1.3888186212326517</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.816781750526679</v>
+        <v>1.8894530205477462</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0986425384194733</v>
+        <v>2.0186942512415889</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.021198904420427</v>
+        <v>2.063307214929186</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8617090944302004</v>
+        <v>1.8064108044966301</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4495832771328163</v>
+        <v>1.4639355868073987</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27704,15 +27704,15 @@
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.130491134061514E-3</v>
+        <v>1.1085398499049799E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8421549327969278E-4</v>
+        <v>1.8233574334826732E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6441923059339852E-5</v>
+        <v>4.986395949529121E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27741,11 +27741,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7690163934426229E-5</v>
+        <v>2.9132359972677593E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6300105147663891E-5</v>
+        <v>1.5806162567431651E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27765,11 +27765,11 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7220063140457738E-2</v>
+        <v>2.7484335598132081E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53553196417146653</v>
+        <v>0.55739041168866932</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27777,23 +27777,23 @@
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7986139330214121</v>
+        <v>1.7622782980108787</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9387459640637039</v>
+        <v>2.0986425384194733</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1685779912010834</v>
+        <v>2.0001447491660476</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9354401476749608</v>
+        <v>1.8432763311190103</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.478287896481981</v>
+        <v>1.3778217287599046</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27801,19 +27801,19 @@
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18226831759928394</v>
+        <v>0.16490943020887594</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1524424182180483E-3</v>
+        <v>1.0426859974353769E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8421549327969278E-4</v>
+        <v>1.9737374279967082E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.986395949529121E-5</v>
+        <v>4.9375097147298162E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27842,11 +27842,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0286116803278686E-5</v>
+        <v>2.7690163934426229E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6300105147663891E-5</v>
+        <v>1.7123342781384293E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27866,43 +27866,43 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6955790682783386E-2</v>
+        <v>2.6427245767434694E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5628550235679699</v>
+        <v>0.55192579980936862</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3348839174954614</v>
+        <v>1.3753349452983543</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7804461155161453</v>
+        <v>1.816781750526679</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0386813230360601</v>
+        <v>1.8987718204747617</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1264696806923244</v>
+        <v>2.1896321464554629</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8248435678078203</v>
+        <v>1.7879780411854402</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5069925158311457</v>
+        <v>1.3921740384344869</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73740100653428531</v>
+        <v>0.791735817542075</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18226831759928394</v>
+        <v>0.17706065138216154</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27910,11 +27910,11 @@
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9737374279967082E-4</v>
+        <v>1.9173449300539453E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0352821843284265E-5</v>
+        <v>4.6930785407332907E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9FBB49-FC90-4C14-8DA5-50432462B397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B79E7F-186B-47C3-89E1-695B245C6991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="3105" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7755" yWindow="6480" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -8447,7 +8447,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13034,11 +13034,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4060792349726766E-5</v>
+        <v>4.6786202185792349E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6134528054615829E-5</v>
+        <v>2.6395873335161988E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13058,55 +13058,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4512586687667985E-2</v>
+        <v>4.0273292717413894E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84876884199965996</v>
+        <v>0.87475156165271084</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2023260927720982</v>
+        <v>2.1599736679110961</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8652250173420413</v>
+        <v>2.7517507592294854</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0669063554263483</v>
+        <v>3.1933767205985686</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2155450274371282</v>
+        <v>3.3481448223829888</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0304694897037203</v>
+        <v>2.7418533478271749</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2380578849789727</v>
+        <v>2.2152205596220442</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.21386483600662</v>
+        <v>1.2881830912723315</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27607004002110141</v>
+        <v>0.27060330655533704</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8284070407040731E-3</v>
+        <v>1.6701795083354514E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1255298977601978E-4</v>
+        <v>3.0948874477821568E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1611730821980422E-5</v>
+        <v>8.3227804699643408E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13135,11 +13135,11 @@
       </c>
       <c r="C4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7240437158469941E-5</v>
+        <v>4.3152322404371574E-5</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6395873335161988E-5</v>
+        <v>2.7441254457346622E-5</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13159,55 +13159,55 @@
       </c>
       <c r="I4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1545080908490115E-2</v>
+        <v>4.2816869099566349E-2</v>
       </c>
       <c r="J4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84876884199965996</v>
+        <v>0.8920733747547448</v>
       </c>
       <c r="K4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0964450306195932</v>
+        <v>2.1599736679110961</v>
       </c>
       <c r="L4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.921962146398319</v>
+        <v>2.8084878882857636</v>
       </c>
       <c r="M4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2249943118916242</v>
+        <v>3.098523946719403</v>
       </c>
       <c r="N4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1492451299641977</v>
+        <v>3.3481448223829888</v>
       </c>
       <c r="O4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9438846471407567</v>
+        <v>2.7418533478271749</v>
       </c>
       <c r="P4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3294071864066859</v>
+        <v>2.3522445117636144</v>
       </c>
       <c r="Q4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.251023963639476</v>
+        <v>1.2881830912723315</v>
       </c>
       <c r="R4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26240320635669045</v>
+        <v>0.27880340675398363</v>
       </c>
       <c r="S4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8108262037742264E-3</v>
+        <v>1.7053411821951452E-3</v>
       </c>
       <c r="T4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1561723477382383E-4</v>
+        <v>3.1255298977601978E-4</v>
       </c>
       <c r="U4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7571546127822971E-5</v>
+        <v>8.0803693883148942E-5</v>
       </c>
       <c r="V4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13236,11 +13236,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2484631147540982E-5</v>
+        <v>2.3620218579234971E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2413900825942518E-5</v>
+        <v>1.3328609307854072E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13260,11 +13260,11 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0560575755732353E-2</v>
+        <v>2.1832363946808587E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4113930611733046</v>
+        <v>0.43304532755084696</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13272,43 +13272,43 @@
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3616910973506728</v>
+        <v>1.4609810731991595</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6599235428853949</v>
+        <v>1.5334531777131741</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5911975393503313</v>
+        <v>1.7072223599279599</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4719423235703784</v>
+        <v>1.5152347448518602</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1647035932033429</v>
+        <v>1.1532849305248787</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63789835769735648</v>
+        <v>0.65028473357497507</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13120160317834523</v>
+        <v>0.13530165327766852</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8783226495726627E-4</v>
+        <v>9.2299393881696014E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5014800489240166E-4</v>
+        <v>1.4861588239349958E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9189791533327232E-5</v>
+        <v>4.2421939288653197E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13337,11 +13337,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2938866120218575E-5</v>
+        <v>2.3620218579234971E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2413900825942518E-5</v>
+        <v>1.3459281948127151E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13361,35 +13361,35 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0348611057219648E-2</v>
+        <v>2.1408434549783174E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45036714065288086</v>
+        <v>0.4460366873773724</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0905749401707985</v>
+        <v>1.0058700904487947</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3758753796147427</v>
+        <v>1.3475068150866034</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6283059515923395</v>
+        <v>1.5966883602992843</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7237973342961928</v>
+        <v>1.6409224624550296</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4575115164765511</v>
+        <v>1.3709266739135875</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0847729544540938</v>
+        <v>1.1304476051679504</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13397,19 +13397,19 @@
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13120160317834523</v>
+        <v>0.12983491981190415</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0541310188711321E-4</v>
+        <v>8.7904184649234291E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4555163739569547E-4</v>
+        <v>1.6087286238471605E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8785773063911485E-5</v>
+        <v>3.9997828472158725E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13442,7 +13442,7 @@
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3067264027307915E-5</v>
+        <v>1.3720627228673311E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13462,27 +13462,27 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0136646358706947E-2</v>
+        <v>2.1620399248295882E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4460366873773724</v>
+        <v>0.42005396772432152</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0588106215250472</v>
+        <v>1.0164581966640454</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4042439441428818</v>
+        <v>1.4184282264069512</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5018355864201189</v>
+        <v>1.5650707690062293</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5911975393503313</v>
+        <v>1.5746225649820988</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13490,15 +13490,15 @@
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1875409185602712</v>
+        <v>1.1647035932033429</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63789835769735648</v>
+        <v>0.60073923006450081</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13803502001055071</v>
+        <v>0.142135070109874</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,7 +13510,7 @@
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8785773063911485E-5</v>
+        <v>4.201792081923745E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13708,11 +13708,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3152322404371574E-5</v>
+        <v>4.3606557377049174E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6134528054615829E-5</v>
+        <v>2.587318277406967E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13732,55 +13732,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.239293970254094E-2</v>
+        <v>4.1545080908490115E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88341246820372787</v>
+        <v>0.86609065510169392</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0329163933280907</v>
+        <v>2.1387974554805953</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8935935818701801</v>
+        <v>2.8368564528139024</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.256611903184679</v>
+        <v>3.3198470857707898</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3812947711194545</v>
+        <v>3.1492451299641977</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.828438190390139</v>
+        <v>2.9727462613284112</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1923832342651157</v>
+        <v>2.3065698610497574</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2634103395170946</v>
+        <v>1.2881830912723315</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27607004002110141</v>
+        <v>0.27333667328821926</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6877603452652985E-3</v>
+        <v>1.6701795083354514E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1255298977601978E-4</v>
+        <v>2.9723176478699915E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4035841638474901E-5</v>
+        <v>8.1611730821980422E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13809,7 +13809,7 @@
       </c>
       <c r="C4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3152322404371574E-5</v>
+        <v>4.587773224043715E-5</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13833,31 +13833,31 @@
       </c>
       <c r="I4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1545080908490115E-2</v>
+        <v>4.3240798496591765E-2</v>
       </c>
       <c r="J4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90073428130576172</v>
+        <v>0.84876884199965996</v>
       </c>
       <c r="K4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1599736679110961</v>
+        <v>2.181149880341597</v>
       </c>
       <c r="L4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8935935818701801</v>
+        <v>2.9786992754545976</v>
       </c>
       <c r="M4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1301415380124586</v>
+        <v>3.0352887641332931</v>
       </c>
       <c r="N4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4807446173288503</v>
+        <v>3.2486949761735935</v>
       </c>
       <c r="O4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7995765762024845</v>
+        <v>2.8861614187654476</v>
       </c>
       <c r="P4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13865,15 +13865,15 @@
       </c>
       <c r="Q4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3005694671499501</v>
+        <v>1.21386483600662</v>
       </c>
       <c r="R4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27060330655533704</v>
+        <v>0.284270140219748</v>
       </c>
       <c r="S4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7932453668443797E-3</v>
+        <v>1.7405028560548391E-3</v>
       </c>
       <c r="T4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13881,7 +13881,7 @@
       </c>
       <c r="U4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.918762000548597E-5</v>
+        <v>8.1611730821980422E-5</v>
       </c>
       <c r="V4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13910,11 +13910,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.384733606557377E-5</v>
+        <v>2.1576161202185787E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3067264027307915E-5</v>
+        <v>1.2413900825942518E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13934,15 +13934,15 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.119646985127047E-2</v>
+        <v>2.0348611057219648E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43304532755084696</v>
+        <v>0.41572351444881306</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0482225153097966</v>
+        <v>1.0799868339555481</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13950,31 +13950,31 @@
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5966883602992843</v>
+        <v>1.6124971559458121</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7403723086644252</v>
+        <v>1.6409224624550296</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4863731306642056</v>
+        <v>1.5008039377580329</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1190289424894864</v>
+        <v>1.1532849305248787</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60073923006450081</v>
+        <v>0.59454604212569151</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13803502001055071</v>
+        <v>0.13120160317834523</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3508975416772568E-4</v>
+        <v>8.9662268342218985E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14015,7 +14015,7 @@
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3067264027307915E-5</v>
+        <v>1.3589954588400232E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14035,15 +14035,15 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0984505152757765E-2</v>
+        <v>2.119646985127047E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45469759392838932</v>
+        <v>0.4113930611733046</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0799868339555481</v>
+        <v>1.0693987277402976</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14051,39 +14051,39 @@
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5650707690062293</v>
+        <v>1.5492619733597015</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5911975393503313</v>
+        <v>1.6906473855597273</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4142190951950695</v>
+        <v>1.4575115164765511</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1989595812387355</v>
+        <v>1.1076102798110221</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63789835769735648</v>
+        <v>0.6193187938809287</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.142135070109874</v>
+        <v>0.12983491981190415</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4388017263264926E-4</v>
+        <v>8.7904184649234291E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5627649488800989E-4</v>
+        <v>1.4708375989459752E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2421939288653197E-5</v>
+        <v>4.201792081923745E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14112,11 +14112,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3620218579234971E-5</v>
+        <v>2.384733606557377E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3067264027307915E-5</v>
+        <v>1.3328609307854072E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14136,35 +14136,35 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1832363946808587E-2</v>
+        <v>2.1408434549783174E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45036714065288086</v>
+        <v>0.4460366873773724</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0058700904487947</v>
+        <v>1.0905749401707985</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4751653554632294</v>
+        <v>1.4467967909350901</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6283059515923395</v>
+        <v>1.5176443820666465</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6243474880867967</v>
+        <v>1.7403723086644252</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4286499022888965</v>
+        <v>1.3709266739135875</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1647035932033429</v>
+        <v>1.1418662678464147</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14172,19 +14172,19 @@
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13393496991122741</v>
+        <v>0.13256828654478633</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.1420352035203657E-4</v>
+        <v>8.7904184649234291E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.59340739885814E-4</v>
+        <v>1.5780861738691192E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0401846941574471E-5</v>
+        <v>4.1209883880405957E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14382,11 +14382,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3152322404371574E-5</v>
+        <v>4.4969262295081965E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5089146932431191E-5</v>
+        <v>2.6657218615708143E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14406,43 +14406,43 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1545080908490115E-2</v>
+        <v>4.4512586687667985E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84876884199965996</v>
+        <v>0.83144702889762612</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1176212430500945</v>
+        <v>2.0540926057585915</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8368564528139024</v>
+        <v>2.9786992754545976</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2882294944777342</v>
+        <v>3.256611903184679</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2818449249100592</v>
+        <v>3.3481448223829888</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9727462613284112</v>
+        <v>2.828438190390139</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2380578849789727</v>
+        <v>2.2152205596220442</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2881830912723315</v>
+        <v>1.2262512118842388</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26786993982245483</v>
+        <v>0.27333667328821926</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14450,11 +14450,11 @@
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9110327479139094E-4</v>
+        <v>3.1255298977601978E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.6763509188991491E-5</v>
+        <v>7.8379583066654464E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14483,11 +14483,11 @@
       </c>
       <c r="C4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6331967213114749E-5</v>
+        <v>4.7240437158469941E-5</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6918563896254302E-5</v>
+        <v>2.6134528054615829E-5</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14507,7 +14507,7 @@
       </c>
       <c r="I4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1969010305515531E-2</v>
+        <v>4.3664727893617174E-2</v>
       </c>
       <c r="J4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14515,43 +14515,43 @@
       </c>
       <c r="K4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2235023052025991</v>
+        <v>2.0752688181890924</v>
       </c>
       <c r="L4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9503307109264587</v>
+        <v>2.921962146398319</v>
       </c>
       <c r="M4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2882294944777342</v>
+        <v>3.1933767205985686</v>
       </c>
       <c r="N4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4475946685923855</v>
+        <v>3.4144447198559198</v>
       </c>
       <c r="O4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9150230329531022</v>
+        <v>2.9438846471407567</v>
       </c>
       <c r="P4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2152205596220442</v>
+        <v>2.2608952103359008</v>
       </c>
       <c r="Q4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.251023963639476</v>
+        <v>1.2262512118842388</v>
       </c>
       <c r="R4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26240320635669045</v>
+        <v>0.26786993982245483</v>
       </c>
       <c r="S4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6701795083354514E-3</v>
+        <v>1.7580836929846858E-3</v>
       </c>
       <c r="T4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9723176478699915E-4</v>
+        <v>3.1255298977601978E-4</v>
       </c>
       <c r="U4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14584,11 +14584,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2484631147540982E-5</v>
+        <v>2.3393101092896174E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3197936667580994E-5</v>
+        <v>1.2936591387034835E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14608,55 +14608,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1408434549783174E-2</v>
+        <v>2.119646985127047E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4287148742753385</v>
+        <v>0.41572351444881306</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0376344090945462</v>
+        <v>1.0058700904487947</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4326125086710206</v>
+        <v>1.4609810731991595</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5492619733597015</v>
+        <v>1.5334531777131741</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7237973342961928</v>
+        <v>1.6077725137185641</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5008039377580329</v>
+        <v>1.3709266739135875</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1532849305248787</v>
+        <v>1.0847729544540938</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60073923006450081</v>
+        <v>0.64409154563616577</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.142135070109874</v>
+        <v>0.14350175347631511</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4388017263264926E-4</v>
+        <v>8.7025142802741955E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5321224989020576E-4</v>
+        <v>1.5168012739130368E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8381754594495746E-5</v>
+        <v>4.2421939288653197E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14685,11 +14685,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2030396174863383E-5</v>
+        <v>2.1803278688524587E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3067264027307915E-5</v>
+        <v>1.2936591387034835E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14709,55 +14709,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1832363946808587E-2</v>
+        <v>2.0772540454245057E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45036714065288086</v>
+        <v>0.42438442099982998</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0588106215250472</v>
+        <v>1.0799868339555481</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4751653554632294</v>
+        <v>1.4609810731991595</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5176443820666465</v>
+        <v>1.5808795646527569</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6409224624550296</v>
+        <v>1.5746225649820988</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4430807093827238</v>
+        <v>1.4575115164765511</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1532849305248787</v>
+        <v>1.0847729544540938</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64409154563616577</v>
+        <v>0.6131256059421194</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14076838674343289</v>
+        <v>0.13393496991122741</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.1420352035203657E-4</v>
+        <v>8.3508975416772568E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.59340739885814E-4</v>
+        <v>1.5321224989020576E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9189791533327232E-5</v>
+        <v>4.1209883880405957E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14786,11 +14786,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1576161202185787E-5</v>
+        <v>2.2711748633879779E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3589954588400232E-5</v>
+        <v>1.3459281948127151E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14810,55 +14810,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1408434549783174E-2</v>
+        <v>2.0560575755732353E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45036714065288086</v>
+        <v>0.4287148742753385</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0164581966640454</v>
+        <v>1.1011630463860491</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4184282264069512</v>
+        <v>1.4467967909350901</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6283059515923395</v>
+        <v>1.6124971559458121</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6906473855597273</v>
+        <v>1.7072223599279599</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4430807093827238</v>
+        <v>1.3997882881012422</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1304476051679504</v>
+        <v>1.1532849305248787</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58835285418688221</v>
+        <v>0.60073923006450081</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12983491981190415</v>
+        <v>0.13666833664410963</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9662268342218985E-4</v>
+        <v>8.4388017263264926E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6087286238471605E-4</v>
+        <v>1.5321224989020576E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8785773063911485E-5</v>
+        <v>3.9189791533327232E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26009,11 +26009,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7687841530054644E-5</v>
+        <v>6.0572233606557372E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1941620188351465E-5</v>
+        <v>3.3588095455792262E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26033,15 +26033,15 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4440126280915477E-2</v>
+        <v>5.3911581365566771E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0492054808257303</v>
+        <v>1.0710639283429331</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.831571946202494</v>
+        <v>2.6697678349909229</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26049,39 +26049,39 @@
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0373885024831777</v>
+        <v>4.1972850768389467</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3371559824021668</v>
+        <v>4.2529393613846489</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8340147687275419</v>
+        <v>3.6496871356156406</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9278711736147973</v>
+        <v>2.7556434575198092</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6300443302336838</v>
+        <v>1.5058504765015934</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36106485772048624</v>
+        <v>0.32981886041775188</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1073232790272882E-3</v>
+        <v>2.2390309839664937E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8722848587363992E-4</v>
+        <v>3.797094861479382E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0070564368656853E-4</v>
+        <v>9.3861570814665813E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26110,11 +26110,11 @@
       </c>
       <c r="C4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5957206284153008E-5</v>
+        <v>5.9995355191256829E-5</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2929505348815944E-5</v>
+        <v>3.1941620188351465E-5</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26134,47 +26134,47 @@
       </c>
       <c r="I4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3911581365566771E-2</v>
+        <v>5.4440126280915477E-2</v>
       </c>
       <c r="J4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0819931521015345</v>
+        <v>1.1038515996187372</v>
       </c>
       <c r="K4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6428004831223273</v>
+        <v>2.561898427516542</v>
       </c>
       <c r="L4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6698991360638917</v>
+        <v>3.633563501053358</v>
       </c>
       <c r="M4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9974143588942352</v>
+        <v>3.9574402153052928</v>
       </c>
       <c r="N4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2950476718934079</v>
+        <v>4.3792642929109258</v>
       </c>
       <c r="O4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8340147687275419</v>
+        <v>3.7602837154827813</v>
       </c>
       <c r="P4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8130526962181386</v>
+        <v>2.8704619349164679</v>
       </c>
       <c r="Q4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5368989399346158</v>
+        <v>1.5058504765015934</v>
       </c>
       <c r="R4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35759308024240466</v>
+        <v>0.32981886041775188</v>
       </c>
       <c r="S4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2390309839664937E-3</v>
+        <v>2.0853719948707538E-3</v>
       </c>
       <c r="T4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26182,7 +26182,7 @@
       </c>
       <c r="U4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0168336838255463E-4</v>
+        <v>9.5817020206638006E-5</v>
       </c>
       <c r="V4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26211,11 +26211,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7978603142076504E-5</v>
+        <v>2.855548155737705E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7287990308128371E-5</v>
+        <v>1.6629400201152053E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26235,55 +26235,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.774860805580643E-2</v>
+        <v>2.7484335598132081E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54646118793006793</v>
+        <v>0.5737842473265713</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.348367593429759</v>
+        <v>1.280949213758271</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8894530205477462</v>
+        <v>1.8531173855372127</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0386813230360601</v>
+        <v>2.0786554666250021</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1896321464554629</v>
+        <v>2.105415525437945</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8432763311190103</v>
+        <v>1.9170073843637709</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4926402061565633</v>
+        <v>1.478287896481981</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73740100653428531</v>
+        <v>0.75292523825079671</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17706065138216154</v>
+        <v>0.17532476264312075</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0756129236701784E-3</v>
+        <v>1.1195154919832469E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9737374279967082E-4</v>
+        <v>1.9173449300539453E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8886234799305107E-5</v>
+        <v>4.6441923059339852E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26312,11 +26312,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0286116803278686E-5</v>
+        <v>2.7690163934426229E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5806162567431651E-5</v>
+        <v>1.5970810094175732E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26336,11 +26336,11 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6691518225109043E-2</v>
+        <v>2.6427245767434694E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55192579980936862</v>
+        <v>0.56831963544727071</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26348,11 +26348,11 @@
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8349495680319459</v>
+        <v>1.9076208380530129</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9987071794471176</v>
+        <v>1.8987718204747617</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26360,15 +26360,15 @@
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9354401476749608</v>
+        <v>1.8248435678078203</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4926402061565633</v>
+        <v>1.5069925158311457</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76068735410905219</v>
+        <v>0.7762115858255636</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26376,15 +26376,15 @@
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0536616395136441E-3</v>
+        <v>1.1414667761397812E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8045599341684189E-4</v>
+        <v>1.8609524321111821E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0352821843284265E-5</v>
+        <v>4.9375097147298162E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26413,11 +26413,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.970923838797814E-5</v>
+        <v>2.8267042349726775E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6958695254640212E-5</v>
+        <v>1.6135457620919813E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26437,55 +26437,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.774860805580643E-2</v>
+        <v>2.6427245767434694E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5628550235679699</v>
+        <v>0.53006735229216595</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3618512693640565</v>
+        <v>1.280949213758271</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8894530205477462</v>
+        <v>1.8349495680319459</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9387459640637039</v>
+        <v>2.0786554666250021</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0843613701835655</v>
+        <v>2.0001447491660476</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9170073843637709</v>
+        <v>1.9354401476749608</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.435230967458234</v>
+        <v>1.5069925158311457</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7839737016838193</v>
+        <v>0.80726004925858619</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17706065138216154</v>
+        <v>0.17185298516503913</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.130491134061514E-3</v>
+        <v>1.1524424182180483E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9361424293681996E-4</v>
+        <v>1.7857624348541646E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.986395949529121E-5</v>
+        <v>4.8886234799305107E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,7 +26764,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0572233606557372E-5</v>
+        <v>5.941847677595628E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,19 +26788,19 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3383036450218087E-2</v>
+        <v>5.0740311873474608E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0492054808257303</v>
+        <v>1.0929223758601359</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.561898427516542</v>
+        <v>2.696735186859518</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5608922310322906</v>
+        <v>3.6698991360638917</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26808,35 +26808,35 @@
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.168722740367131</v>
+        <v>4.3371559824021668</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6128216089932601</v>
+        <v>3.5022250291261199</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0139850316622914</v>
+        <v>2.9852804123131267</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.58347163508415</v>
+        <v>1.5058504765015934</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33329063789583346</v>
+        <v>0.32981886041775188</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1951284156534251E-3</v>
+        <v>2.1292745631838225E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6843098655938556E-4</v>
+        <v>3.5715248697083292E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0070564368656853E-4</v>
+        <v>9.972791899058242E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0572233606557372E-5</v>
+        <v>5.5957206284153008E-5</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3917390509280424E-5</v>
+        <v>3.3258800402304106E-5</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,7 +26889,7 @@
       </c>
       <c r="I4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2854491534869388E-2</v>
+        <v>5.1797401704171998E-2</v>
       </c>
       <c r="J4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26897,7 +26897,7 @@
       </c>
       <c r="K4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7776372424653033</v>
+        <v>2.561898427516542</v>
       </c>
       <c r="L4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26905,39 +26905,39 @@
       </c>
       <c r="M4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8774919281274078</v>
+        <v>3.9974143588942352</v>
       </c>
       <c r="N4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2950476718934079</v>
+        <v>4.2529393613846489</v>
       </c>
       <c r="O4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5022250291261199</v>
+        <v>3.6128216089932601</v>
       </c>
       <c r="P4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8991665542656326</v>
+        <v>3.0139850316622914</v>
       </c>
       <c r="Q4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.58347163508415</v>
+        <v>1.5679474033676386</v>
       </c>
       <c r="R4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33329063789583346</v>
+        <v>0.34717774780815991</v>
       </c>
       <c r="S4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3048848364360967E-3</v>
+        <v>2.2829335522795624E-3</v>
       </c>
       <c r="T4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6467148669653464E-4</v>
+        <v>3.9474748559934164E-4</v>
       </c>
       <c r="U4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0070564368656853E-4</v>
+        <v>9.8750194294596323E-5</v>
       </c>
       <c r="V4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26966,11 +26966,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9132359972677593E-5</v>
+        <v>2.8843920765027322E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6300105147663891E-5</v>
+        <v>1.7123342781384293E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26990,55 +26990,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5370155936737304E-2</v>
+        <v>2.6162973309760345E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5628550235679699</v>
+        <v>0.53006735229216595</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3618512693640565</v>
+        <v>1.2944328896925685</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8712852030424791</v>
+        <v>1.7804461155161453</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8987718204747617</v>
+        <v>2.0386813230360601</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2106863017098424</v>
+        <v>2.1264696806923244</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8432763311190103</v>
+        <v>1.8248435678078203</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3634694190853223</v>
+        <v>1.3921740384344869</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80726004925858619</v>
+        <v>0.74516312239254101</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17185298516503913</v>
+        <v>0.16838120768695755</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0426859974353769E-3</v>
+        <v>1.0756129236701784E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8233574334826732E-4</v>
+        <v>1.8421549327969278E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6930785407332907E-5</v>
+        <v>4.9375097147298162E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27067,11 +27067,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.970923838797814E-5</v>
+        <v>2.7401724726775957E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5970810094175732E-5</v>
+        <v>1.5641515040687573E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27091,55 +27091,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6162973309760345E-2</v>
+        <v>2.5370155936737304E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53006735229216595</v>
+        <v>0.56831963544727071</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3753349452983543</v>
+        <v>1.415785973101247</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7622782980108787</v>
+        <v>1.816781750526679</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0386813230360601</v>
+        <v>2.0986425384194733</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.021198904420427</v>
+        <v>2.2106863017098424</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8064108044966301</v>
+        <v>1.7511125145630599</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4639355868073987</v>
+        <v>1.3634694190853223</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79949793340033048</v>
+        <v>0.73740100653428531</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16838120768695755</v>
+        <v>0.17011709642599834</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1195154919832469E-3</v>
+        <v>1.130491134061514E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9737374279967082E-4</v>
+        <v>1.8045599341684189E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1330546539270368E-5</v>
+        <v>4.7908510103319003E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27168,11 +27168,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9997677595628415E-5</v>
+        <v>2.855548155737705E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6958695254640212E-5</v>
+        <v>1.6464752674407972E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27192,55 +27192,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7220063140457738E-2</v>
+        <v>2.5898700852085999E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54099657605076723</v>
+        <v>0.53553196417146653</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4023022971669494</v>
+        <v>1.348367593429759</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7986139330214121</v>
+        <v>1.7441104805056118</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0586683948305313</v>
+        <v>1.9787201076526464</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0843613701835655</v>
+        <v>2.042253059674807</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7879780411854402</v>
+        <v>1.8617090944302004</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4208786577836516</v>
+        <v>1.5069925158311457</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7839737016838193</v>
+        <v>0.7762115858255636</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18226831759928394</v>
+        <v>0.17879654012120233</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0426859974353769E-3</v>
+        <v>1.0536616395136441E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8797499314254364E-4</v>
+        <v>1.9361424293681996E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8886234799305107E-5</v>
+        <v>5.1330546539270368E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27438,11 +27438,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9995355191256829E-5</v>
+        <v>5.941847677595628E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2600210295327782E-5</v>
+        <v>3.1283030081375147E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27462,55 +27462,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.232594661952069E-2</v>
+        <v>5.1797401704171998E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0929223758601359</v>
+        <v>1.1475684946531426</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8046045943338989</v>
+        <v>2.6697678349909229</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.633563501053358</v>
+        <v>3.7789060410954924</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8774919281274078</v>
+        <v>3.9574402153052928</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.126614429858372</v>
+        <v>4.0423978088408541</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7971492421051609</v>
+        <v>3.5390905557484995</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7843480768689739</v>
+        <v>2.8704619349164679</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6300443302336838</v>
+        <v>1.598995866800661</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36106485772048624</v>
+        <v>0.32981886041775188</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3048848364360967E-3</v>
+        <v>2.260982268123028E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7219048642223642E-4</v>
+        <v>3.9098798573649078E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.972791899058242E-5</v>
+        <v>9.5817020206638006E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27539,7 +27539,7 @@
       </c>
       <c r="C4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9995355191256829E-5</v>
+        <v>5.7110963114754101E-5</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27563,11 +27563,11 @@
       </c>
       <c r="I4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2854491534869388E-2</v>
+        <v>5.1797401704171998E-2</v>
       </c>
       <c r="J4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0819931521015345</v>
+        <v>1.0929223758601359</v>
       </c>
       <c r="K4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27575,39 +27575,39 @@
       </c>
       <c r="L4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5608922310322906</v>
+        <v>3.4882209610112236</v>
       </c>
       <c r="M4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0773626460721202</v>
+        <v>3.7975436409495233</v>
       </c>
       <c r="N4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3371559824021668</v>
+        <v>4.2529393613846489</v>
       </c>
       <c r="O4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7971492421051609</v>
+        <v>3.8340147687275419</v>
       </c>
       <c r="P4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9852804123131267</v>
+        <v>2.7269388381706445</v>
       </c>
       <c r="Q4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.58347163508415</v>
+        <v>1.598995866800661</v>
       </c>
       <c r="R4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34023419285199669</v>
+        <v>0.33329063789583346</v>
       </c>
       <c r="S4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2829335522795624E-3</v>
+        <v>2.1512258473403568E-3</v>
       </c>
       <c r="T4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6843098655938556E-4</v>
+        <v>3.6467148669653464E-4</v>
       </c>
       <c r="U4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27640,11 +27640,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7401724726775957E-5</v>
+        <v>2.9132359972677593E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6300105147663891E-5</v>
+        <v>1.7123342781384293E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27664,55 +27664,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5898700852085999E-2</v>
+        <v>2.6427245767434694E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53553196417146653</v>
+        <v>0.5628550235679699</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3214002415611636</v>
+        <v>1.415785973101247</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9076208380530129</v>
+        <v>1.8531173855372127</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9387459640637039</v>
+        <v>1.9787201076526464</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.042253059674807</v>
+        <v>2.0001447491660476</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9170073843637709</v>
+        <v>1.8064108044966301</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4926402061565633</v>
+        <v>1.4065263481090693</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.791735817542075</v>
+        <v>0.7839737016838193</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17532476264312075</v>
+        <v>0.17185298516503913</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0426859974353769E-3</v>
+        <v>1.1524424182180483E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9549399286824539E-4</v>
+        <v>1.8797499314254364E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8397372451312051E-5</v>
+        <v>4.6441923059339852E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27741,11 +27741,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.855548155737705E-5</v>
+        <v>2.7978603142076504E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6300105147663891E-5</v>
+        <v>1.6135457620919813E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27765,7 +27765,7 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6955790682783386E-2</v>
+        <v>2.5105883479062955E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27773,15 +27773,15 @@
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3753349452983543</v>
+        <v>1.3618512693640565</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.816781750526679</v>
+        <v>1.7259426630003449</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9987071794471176</v>
+        <v>2.0586683948305313</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27789,7 +27789,7 @@
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8248435678078203</v>
+        <v>1.9354401476749608</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27797,23 +27797,23 @@
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75292523825079671</v>
+        <v>0.7762115858255636</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17358887390407995</v>
+        <v>0.16664531894791673</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1524424182180483E-3</v>
+        <v>1.0426859974353769E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8421549327969278E-4</v>
+        <v>1.898547430739691E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.9375097147298162E-5</v>
+        <v>5.0352821843284265E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27842,11 +27842,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9997677595628415E-5</v>
+        <v>2.7978603142076504E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5641515040687573E-5</v>
+        <v>1.5806162567431651E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27870,23 +27870,23 @@
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51913812853356456</v>
+        <v>0.5628550235679699</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.280949213758271</v>
+        <v>1.415785973101247</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.816781750526679</v>
+        <v>1.9076208380530129</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8987718204747617</v>
+        <v>2.0186942512415889</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1896321464554629</v>
+        <v>2.042253059674807</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27894,27 +27894,27 @@
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4065263481090693</v>
+        <v>1.3778217287599046</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7762115858255636</v>
+        <v>0.79949793340033048</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17185298516503913</v>
+        <v>0.17879654012120233</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1414667761397812E-3</v>
+        <v>1.0646372815919113E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8609524321111821E-4</v>
+        <v>1.8421549327969278E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.986395949529121E-5</v>
+        <v>5.0352821843284265E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAB6782-BE66-4E9E-9F5C-5A912E151AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A799DCDF-DC7F-4F13-A018-5C4E4FA38067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23370" yWindow="5895" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4455" yWindow="3675" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -241,12 +241,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>0.01</v>
+            <v>1.2500000000000001E-2</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.05</v>
+            <v>0.1</v>
           </cell>
         </row>
       </sheetData>
@@ -13034,11 +13034,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.769467213114754E-5</v>
+        <v>4.7240437158469941E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6657218615708143E-5</v>
+        <v>2.4827801651885036E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13058,11 +13058,11 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.239293970254094E-2</v>
+        <v>4.3664727893617174E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.857429748550677</v>
+        <v>0.82278612234660919</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13070,27 +13070,27 @@
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7517507592294854</v>
+        <v>2.8368564528139024</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1617591293055138</v>
+        <v>3.0669063554263483</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3481448223829888</v>
+        <v>3.2155450274371282</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9150230329531022</v>
+        <v>2.7995765762024845</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2837325356928293</v>
+        <v>2.2380578849789727</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.189092084251383</v>
+        <v>1.2014784601290016</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13098,15 +13098,15 @@
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8459878776339203E-3</v>
+        <v>1.7405028560548391E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0642449978041152E-4</v>
+        <v>3.1561723477382383E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4843878577306394E-5</v>
+        <v>7.7571546127822971E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13135,11 +13135,11 @@
       </c>
       <c r="C4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3152322404371574E-5</v>
+        <v>4.6786202185792349E-5</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.587318277406967E-5</v>
+        <v>2.6395873335161988E-5</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13159,11 +13159,11 @@
       </c>
       <c r="I4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4088657290642583E-2</v>
+        <v>4.239293970254094E-2</v>
       </c>
       <c r="J4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90073428130576172</v>
+        <v>0.83144702889762612</v>
       </c>
       <c r="K4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13171,11 +13171,11 @@
       </c>
       <c r="L4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.921962146398319</v>
+        <v>2.8935935818701801</v>
       </c>
       <c r="M4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.256611903184679</v>
+        <v>3.2249943118916242</v>
       </c>
       <c r="N4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13183,11 +13183,11 @@
       </c>
       <c r="O4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.828438190390139</v>
+        <v>2.9438846471407567</v>
       </c>
       <c r="P4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3979191624774709</v>
+        <v>2.2380578849789727</v>
       </c>
       <c r="Q4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13195,19 +13195,19 @@
       </c>
       <c r="R4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28700350695263022</v>
+        <v>0.27880340675398363</v>
       </c>
       <c r="S4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7756645299145325E-3</v>
+        <v>1.7229220191249919E-3</v>
       </c>
       <c r="T4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1255298977601978E-4</v>
+        <v>3.0029600978480331E-4</v>
       </c>
       <c r="U4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.6763509188991491E-5</v>
+        <v>8.2419767760811915E-5</v>
       </c>
       <c r="V4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13240,7 +13240,7 @@
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3067264027307915E-5</v>
+        <v>1.3197936667580994E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13260,55 +13260,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1832363946808587E-2</v>
+        <v>2.0136646358706947E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45036714065288086</v>
+        <v>0.43737578082635542</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0376344090945462</v>
+        <v>1.0164581966640454</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4467967909350901</v>
+        <v>1.4893496377272988</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5650707690062293</v>
+        <v>1.6599235428853949</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6243474880867967</v>
+        <v>1.6077725137185641</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4719423235703784</v>
+        <v>1.4575115164765511</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1647035932033429</v>
+        <v>1.1418662678464147</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64409154563616577</v>
+        <v>0.63789835769735648</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14350175347631511</v>
+        <v>0.13120160317834523</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9662268342218985E-4</v>
+        <v>9.2299393881696014E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5168012739130368E-4</v>
+        <v>1.6087286238471605E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0401846941574471E-5</v>
+        <v>4.1209883880405957E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13337,11 +13337,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2257513661202183E-5</v>
+        <v>2.1576161202185787E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2544573466215596E-5</v>
+        <v>1.2413900825942518E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13361,55 +13361,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.119646985127047E-2</v>
+        <v>2.0136646358706947E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45036714065288086</v>
+        <v>0.45469759392838932</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0164581966640454</v>
+        <v>1.0270463028792958</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3475068150866034</v>
+        <v>1.4751653554632294</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5018355864201189</v>
+        <v>1.5650707690062293</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7072223599279599</v>
+        <v>1.5746225649820988</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3853574810074147</v>
+        <v>1.5008039377580329</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1532849305248787</v>
+        <v>1.1076102798110221</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59454604212569151</v>
+        <v>0.60693241800330999</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13803502001055071</v>
+        <v>0.13940170337699181</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2299393881696014E-4</v>
+        <v>8.3508975416772568E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5627649488800989E-4</v>
+        <v>1.5321224989020576E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1613902349821704E-5</v>
+        <v>3.9189791533327232E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13438,11 +13438,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2938866120218575E-5</v>
+        <v>2.3620218579234971E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3720627228673311E-5</v>
+        <v>1.3589954588400232E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13462,55 +13462,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0560575755732353E-2</v>
+        <v>2.0136646358706947E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42438442099982998</v>
+        <v>0.45469759392838932</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1117511526012995</v>
+        <v>1.0058700904487947</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4184282264069512</v>
+        <v>1.4326125086710206</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6124971559458121</v>
+        <v>1.6441147472388671</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6740724111914944</v>
+        <v>1.5911975393503313</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4286499022888965</v>
+        <v>1.3709266739135875</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1190289424894864</v>
+        <v>1.1761222558818072</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58835285418688221</v>
+        <v>0.60693241800330999</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.142135070109874</v>
+        <v>0.13803502001055071</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2299393881696014E-4</v>
+        <v>8.7025142802741955E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5627649488800989E-4</v>
+        <v>1.5780861738691192E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9997828472158725E-5</v>
+        <v>4.1613902349821704E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13708,11 +13708,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4515027322404366E-5</v>
+        <v>4.5423497267759557E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.587318277406967E-5</v>
+        <v>2.7179909176800464E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13732,23 +13732,23 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3240798496591765E-2</v>
+        <v>4.4088657290642583E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82278612234660919</v>
+        <v>0.90073428130576172</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2235023052025991</v>
+        <v>2.1599736679110961</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7517507592294854</v>
+        <v>2.8084878882857636</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0036711728402379</v>
+        <v>3.098523946719403</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13756,31 +13756,31 @@
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0304694897037203</v>
+        <v>2.8861614187654476</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2380578849789727</v>
+        <v>2.2152205596220442</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2262512118842388</v>
+        <v>1.2881830912723315</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27880340675398363</v>
+        <v>0.26786993982245483</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7405028560548391E-3</v>
+        <v>1.6877603452652985E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9110327479139094E-4</v>
+        <v>2.9416751978919505E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8379583066654464E-5</v>
+        <v>7.6763509188991491E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13809,11 +13809,11 @@
       </c>
       <c r="C4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6786202185792349E-5</v>
+        <v>4.7240437158469941E-5</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6134528054615829E-5</v>
+        <v>2.5089146932431191E-5</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13833,27 +13833,27 @@
       </c>
       <c r="I4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3664727893617174E-2</v>
+        <v>4.3240798496591765E-2</v>
       </c>
       <c r="J4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84876884199965996</v>
+        <v>0.82278612234660919</v>
       </c>
       <c r="K4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1599736679110961</v>
+        <v>2.1387974554805953</v>
       </c>
       <c r="L4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7517507592294854</v>
+        <v>2.8652250173420413</v>
       </c>
       <c r="M4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0352887641332931</v>
+        <v>3.1933767205985686</v>
       </c>
       <c r="N4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1492451299641977</v>
+        <v>3.2818449249100592</v>
       </c>
       <c r="O4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13861,27 +13861,27 @@
       </c>
       <c r="P4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2608952103359008</v>
+        <v>2.1695459089081877</v>
       </c>
       <c r="Q4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.251023963639476</v>
+        <v>1.21386483600662</v>
       </c>
       <c r="R4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27060330655533704</v>
+        <v>0.26786993982245483</v>
       </c>
       <c r="S4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7405028560548391E-3</v>
+        <v>1.8108262037742264E-3</v>
       </c>
       <c r="T4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1255298977601978E-4</v>
+        <v>3.1868147977162799E-4</v>
       </c>
       <c r="U4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4035841638474901E-5</v>
+        <v>8.2419767760811915E-5</v>
       </c>
       <c r="V4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,7 +13914,7 @@
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2805918746761756E-5</v>
+        <v>1.3589954588400232E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13934,39 +13934,39 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1832363946808587E-2</v>
+        <v>2.2256293343833992E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45469759392838932</v>
+        <v>0.43737578082635542</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1117511526012995</v>
+        <v>1.0376344090945462</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4467967909350901</v>
+        <v>1.3475068150866034</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6283059515923395</v>
+        <v>1.5650707690062293</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6243474880867967</v>
+        <v>1.657497436823262</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4430807093827238</v>
+        <v>1.5152347448518602</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1989595812387355</v>
+        <v>1.1532849305248787</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58835285418688221</v>
+        <v>0.63170516975854729</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13974,15 +13974,15 @@
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.1420352035203657E-4</v>
+        <v>8.6146100956249597E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.59340739885814E-4</v>
+        <v>1.6087286238471605E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1209883880405957E-5</v>
+        <v>4.0401846941574471E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14011,11 +14011,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2257513661202183E-5</v>
+        <v>2.2484631147540982E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3589954588400232E-5</v>
+        <v>1.2936591387034835E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14035,43 +14035,43 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0136646358706947E-2</v>
+        <v>2.0984505152757765E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42005396772432152</v>
+        <v>0.45469759392838932</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0376344090945462</v>
+        <v>1.1011630463860491</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4467967909350901</v>
+        <v>1.4751653554632294</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5492619733597015</v>
+        <v>1.6283059515923395</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7072223599279599</v>
+        <v>1.5911975393503313</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3997882881012422</v>
+        <v>1.5008039377580329</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1532849305248787</v>
+        <v>1.1647035932033429</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6193187938809287</v>
+        <v>0.62551198181973799</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13666833664410963</v>
+        <v>0.14350175347631511</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14079,11 +14079,11 @@
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5321224989020576E-4</v>
+        <v>1.59340739885814E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8381754594495746E-5</v>
+        <v>4.1209883880405957E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14112,11 +14112,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3620218579234971E-5</v>
+        <v>2.3165983606557375E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3720627228673311E-5</v>
+        <v>1.2675246106488677E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14136,11 +14136,11 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1832363946808587E-2</v>
+        <v>2.1408434549783174E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45036714065288086</v>
+        <v>0.45469759392838932</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14152,39 +14152,39 @@
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5492619733597015</v>
+        <v>1.6441147472388671</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7237973342961928</v>
+        <v>1.6077725137185641</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4430807093827238</v>
+        <v>1.3853574810074147</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1190289424894864</v>
+        <v>1.0961916171325579</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62551198181973799</v>
+        <v>0.58835285418688221</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.142135070109874</v>
+        <v>0.13666833664410963</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9662268342218985E-4</v>
+        <v>9.1420352035203657E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5168012739130368E-4</v>
+        <v>1.5321224989020576E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8785773063911485E-5</v>
+        <v>3.9997828472158725E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14382,11 +14382,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.587773224043715E-5</v>
+        <v>4.3606557377049174E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6657218615708143E-5</v>
+        <v>2.587318277406967E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14406,55 +14406,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4088657290642583E-2</v>
+        <v>4.1545080908490115E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88341246820372787</v>
+        <v>0.8920733747547448</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0329163933280907</v>
+        <v>2.1176212430500945</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8084878882857636</v>
+        <v>2.7801193237576243</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2882294944777342</v>
+        <v>3.1617591293055138</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4475946685923855</v>
+        <v>3.4144447198559198</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0016078755160658</v>
+        <v>2.828438190390139</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3065698610497574</v>
+        <v>2.3750818371205424</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.21386483600662</v>
+        <v>1.2881830912723315</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26786993982245483</v>
+        <v>0.26513657308957267</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7053411821951452E-3</v>
+        <v>1.6701795083354514E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1255298977601978E-4</v>
+        <v>2.9416751978919505E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.0803693883148942E-5</v>
+        <v>8.4035841638474901E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14483,11 +14483,11 @@
       </c>
       <c r="C4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4515027322404366E-5</v>
+        <v>4.3152322404371574E-5</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6395873335161988E-5</v>
+        <v>2.7441254457346622E-5</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14507,15 +14507,15 @@
       </c>
       <c r="I4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1121151511464706E-2</v>
+        <v>4.2816869099566349E-2</v>
       </c>
       <c r="J4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.857429748550677</v>
+        <v>0.84876884199965996</v>
       </c>
       <c r="K4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.181149880341597</v>
+        <v>2.1176212430500945</v>
       </c>
       <c r="L4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14523,31 +14523,31 @@
       </c>
       <c r="M4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.098523946719403</v>
+        <v>3.3198470857707898</v>
       </c>
       <c r="N4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2818449249100592</v>
+        <v>3.3481448223829888</v>
       </c>
       <c r="O4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0304694897037203</v>
+        <v>2.828438190390139</v>
       </c>
       <c r="P4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2380578849789727</v>
+        <v>2.3294071864066859</v>
       </c>
       <c r="Q4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.251023963639476</v>
+        <v>1.3005694671499501</v>
       </c>
       <c r="R4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26240320635669045</v>
+        <v>0.27880340675398363</v>
       </c>
       <c r="S4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8108262037742264E-3</v>
+        <v>1.8459878776339203E-3</v>
       </c>
       <c r="T4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14555,7 +14555,7 @@
       </c>
       <c r="U4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1611730821980422E-5</v>
+        <v>7.918762000548597E-5</v>
       </c>
       <c r="V4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14584,11 +14584,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1803278688524587E-5</v>
+        <v>2.2938866120218575E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3328609307854072E-5</v>
+        <v>1.2936591387034835E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14608,55 +14608,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1832363946808587E-2</v>
+        <v>2.1620399248295882E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4460366873773724</v>
+        <v>0.45469759392838932</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0376344090945462</v>
+        <v>1.0482225153097966</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4751653554632294</v>
+        <v>1.4326125086710206</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5334531777131741</v>
+        <v>1.6124971559458121</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6906473855597273</v>
+        <v>1.5746225649820988</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4142190951950695</v>
+        <v>1.4719423235703784</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0847729544540938</v>
+        <v>1.1761222558818072</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64409154563616577</v>
+        <v>0.62551198181973799</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13530165327766852</v>
+        <v>0.13120160317834523</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8783226495726627E-4</v>
+        <v>8.4388017263264926E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4708375989459752E-4</v>
+        <v>1.4861588239349958E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0401846941574471E-5</v>
+        <v>3.9997828472158725E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14685,11 +14685,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3393101092896174E-5</v>
+        <v>2.2484631147540982E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3067264027307915E-5</v>
+        <v>1.3459281948127151E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14709,43 +14709,43 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1832363946808587E-2</v>
+        <v>2.0984505152757765E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45036714065288086</v>
+        <v>0.44170623410186394</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0270463028792958</v>
+        <v>1.1117511526012995</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4184282264069512</v>
+        <v>1.3900596618788121</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5018355864201189</v>
+        <v>1.5966883602992843</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7237973342961928</v>
+        <v>1.5746225649820988</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4863731306642056</v>
+        <v>1.5152347448518602</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1875409185602712</v>
+        <v>1.1532849305248787</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63170516975854729</v>
+        <v>0.58835285418688221</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12983491981190415</v>
+        <v>0.13530165327766852</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14753,11 +14753,11 @@
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5014800489240166E-4</v>
+        <v>1.5627649488800989E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2421939288653197E-5</v>
+        <v>3.9189791533327232E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14790,7 +14790,7 @@
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2675246106488677E-5</v>
+        <v>1.2936591387034835E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14810,55 +14810,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0984505152757765E-2</v>
+        <v>2.0136646358706947E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4460366873773724</v>
+        <v>0.42438442099982998</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0482225153097966</v>
+        <v>1.0588106215250472</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4042439441428818</v>
+        <v>1.4751653554632294</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5966883602992843</v>
+        <v>1.5492619733597015</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6409224624550296</v>
+        <v>1.7072223599279599</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4286499022888965</v>
+        <v>1.3709266739135875</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1761222558818072</v>
+        <v>1.1875409185602712</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63170516975854729</v>
+        <v>0.62551198181973799</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13940170337699181</v>
+        <v>0.14076838674343289</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7904184649234291E-4</v>
+        <v>8.8783226495726627E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5321224989020576E-4</v>
+        <v>1.5168012739130368E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8785773063911485E-5</v>
+        <v>3.8381754594495746E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26009,11 +26009,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8264719945355187E-5</v>
+        <v>5.4803449453551915E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3588095455792262E-5</v>
+        <v>3.1283030081375147E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26033,43 +26033,43 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.549721611161286E-2</v>
+        <v>5.3383036450218087E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1257100471359398</v>
+        <v>1.0382762570671291</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.561898427516542</v>
+        <v>2.6697678349909229</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4882209610112236</v>
+        <v>3.7789060410954924</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0373885024831777</v>
+        <v>3.9574402153052928</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3371559824021668</v>
+        <v>4.0002894983320951</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7602837154827813</v>
+        <v>3.6128216089932601</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8704619349164679</v>
+        <v>2.8417573155673033</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5524231716511272</v>
+        <v>1.490326244785082</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34023419285199669</v>
+        <v>0.34717774780815991</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26077,11 +26077,11 @@
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7594998628508728E-4</v>
+        <v>3.8722848587363992E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.7772469598610213E-5</v>
+        <v>1.0070564368656853E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26110,7 +26110,7 @@
       </c>
       <c r="C4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9995355191256829E-5</v>
+        <v>5.6534084699453551E-5</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26134,55 +26134,55 @@
       </c>
       <c r="I4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3911581365566771E-2</v>
+        <v>5.3383036450218087E-2</v>
       </c>
       <c r="J4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1147808233773386</v>
+        <v>1.1257100471359398</v>
       </c>
       <c r="K4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7776372424653033</v>
+        <v>2.6158331312537326</v>
       </c>
       <c r="L4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5972278660428243</v>
+        <v>3.7789060410954924</v>
       </c>
       <c r="M4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1173367896610626</v>
+        <v>3.8774919281274078</v>
       </c>
       <c r="N4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0845061193496139</v>
+        <v>4.0002894983320951</v>
       </c>
       <c r="O4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7602837154827813</v>
+        <v>3.7234181888604008</v>
       </c>
       <c r="P4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7843480768689739</v>
+        <v>2.8130526962181386</v>
       </c>
       <c r="Q4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5679474033676386</v>
+        <v>1.5213747082181044</v>
       </c>
       <c r="R4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35759308024240466</v>
+        <v>0.36106485772048624</v>
       </c>
       <c r="S4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1292745631838225E-3</v>
+        <v>2.3048848364360967E-3</v>
       </c>
       <c r="T4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6843098655938556E-4</v>
+        <v>3.7219048642223642E-4</v>
       </c>
       <c r="U4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.7772469598610213E-5</v>
+        <v>9.5817020206638006E-5</v>
       </c>
       <c r="V4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26211,11 +26211,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.970923838797814E-5</v>
+        <v>2.8267042349726775E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5970810094175732E-5</v>
+        <v>1.7287990308128371E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26235,55 +26235,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.563442839441165E-2</v>
+        <v>2.7484335598132081E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5628550235679699</v>
+        <v>0.54099657605076723</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3753349452983543</v>
+        <v>1.4023022971669494</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8712852030424791</v>
+        <v>1.7259426630003449</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0986425384194733</v>
+        <v>2.0186942512415889</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0843613701835655</v>
+        <v>2.2106863017098424</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7879780411854402</v>
+        <v>1.7511125145630599</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3634694190853223</v>
+        <v>1.4639355868073987</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80726004925858619</v>
+        <v>0.76068735410905219</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17706065138216154</v>
+        <v>0.16490943020887594</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0646372815919113E-3</v>
+        <v>1.130491134061514E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7857624348541646E-4</v>
+        <v>1.8797499314254364E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7908510103319003E-5</v>
+        <v>5.1330546539270368E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26312,11 +26312,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8267042349726775E-5</v>
+        <v>2.7978603142076504E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5970810094175732E-5</v>
+        <v>1.5806162567431651E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26340,43 +26340,43 @@
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5737842473265713</v>
+        <v>0.55192579980936862</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.415785973101247</v>
+        <v>1.3348839174954614</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7986139330214121</v>
+        <v>1.9076208380530129</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0386813230360601</v>
+        <v>2.0586683948305313</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.042253059674807</v>
+        <v>2.1475238359467039</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8248435678078203</v>
+        <v>1.7511125145630599</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4208786577836516</v>
+        <v>1.4065263481090693</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73740100653428531</v>
+        <v>0.7839737016838193</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18053242886024312</v>
+        <v>0.17532476264312075</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0426859974353769E-3</v>
+        <v>1.1524424182180483E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26384,7 +26384,7 @@
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.986395949529121E-5</v>
+        <v>4.8397372451312051E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26413,11 +26413,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8843920765027322E-5</v>
+        <v>2.970923838797814E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6958695254640212E-5</v>
+        <v>1.6300105147663891E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26437,11 +26437,11 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.563442839441165E-2</v>
+        <v>2.6691518225109043E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5628550235679699</v>
+        <v>0.52460274041286514</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26449,43 +26449,43 @@
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9076208380530129</v>
+        <v>1.8349495680319459</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9387459640637039</v>
+        <v>1.9987071794471176</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2106863017098424</v>
+        <v>2.021198904420427</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8248435678078203</v>
+        <v>1.9354401476749608</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4926402061565633</v>
+        <v>1.3778217287599046</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74516312239254101</v>
+        <v>0.75292523825079671</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17706065138216154</v>
+        <v>0.18053242886024312</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1195154919832469E-3</v>
+        <v>1.1085398499049799E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7857624348541646E-4</v>
+        <v>1.8233574334826732E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8397372451312051E-5</v>
+        <v>4.9375097147298162E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6534084699453551E-5</v>
+        <v>5.941847677595628E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3917390509280424E-5</v>
+        <v>3.4246685562768586E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,11 +26788,11 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1797401704171998E-2</v>
+        <v>5.021176695812591E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0819931521015345</v>
+        <v>1.1475684946531426</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26800,27 +26800,27 @@
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5245565960217573</v>
+        <v>3.7062347710744254</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1573109332500042</v>
+        <v>3.7975436409495233</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3792642929109258</v>
+        <v>4.0845061193496139</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6496871356156406</v>
+        <v>3.5759560823708805</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8704619349164679</v>
+        <v>2.8130526962181386</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5524231716511272</v>
+        <v>1.490326244785082</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26828,11 +26828,11 @@
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2829335522795624E-3</v>
+        <v>2.2390309839664937E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5715248697083292E-4</v>
+        <v>3.7219048642223642E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0572233606557372E-5</v>
+        <v>5.8264719945355187E-5</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3917390509280424E-5</v>
+        <v>3.2270915241839627E-5</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,31 +26889,31 @@
       </c>
       <c r="I4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.12688567888233E-2</v>
+        <v>5.4968671196264161E-2</v>
       </c>
       <c r="J4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0382762570671291</v>
+        <v>1.1257100471359398</v>
       </c>
       <c r="K4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7506698905967086</v>
+        <v>2.8046045943338989</v>
       </c>
       <c r="L4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7062347710744254</v>
+        <v>3.5608922310322906</v>
       </c>
       <c r="M4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1573109332500042</v>
+        <v>4.1173367896610626</v>
       </c>
       <c r="N4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2950476718934079</v>
+        <v>4.126614429858372</v>
       </c>
       <c r="O4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8340147687275419</v>
+        <v>3.5390905557484995</v>
       </c>
       <c r="P4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26921,19 +26921,19 @@
       </c>
       <c r="Q4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6145200985171724</v>
+        <v>1.4748020130685706</v>
       </c>
       <c r="R4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3367624153739151</v>
+        <v>0.34717774780815991</v>
       </c>
       <c r="S4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1073232790272882E-3</v>
+        <v>2.0853719948707538E-3</v>
       </c>
       <c r="T4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8346898601078906E-4</v>
+        <v>3.7594998628508728E-4</v>
       </c>
       <c r="U4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26966,11 +26966,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7978603142076504E-5</v>
+        <v>2.7690163934426229E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6464752674407972E-5</v>
+        <v>1.6300105147663891E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26990,47 +26990,47 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6691518225109043E-2</v>
+        <v>2.6427245767434694E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53006735229216595</v>
+        <v>0.53553196417146653</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4023022971669494</v>
+        <v>1.348367593429759</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7622782980108787</v>
+        <v>1.7986139330214121</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0786554666250021</v>
+        <v>1.9587330358581752</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.042253059674807</v>
+        <v>2.1475238359467039</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7511125145630599</v>
+        <v>1.9170073843637709</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4639355868073987</v>
+        <v>1.3921740384344869</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7839737016838193</v>
+        <v>0.79949793340033048</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18053242886024312</v>
+        <v>0.16490943020887594</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1085398499049799E-3</v>
+        <v>1.0975642078267125E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27038,7 +27038,7 @@
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6441923059339852E-5</v>
+        <v>4.8886234799305107E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27071,7 +27071,7 @@
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6300105147663891E-5</v>
+        <v>1.5641515040687573E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27091,55 +27091,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7484335598132081E-2</v>
+        <v>2.7220063140457738E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56831963544727071</v>
+        <v>0.53006735229216595</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3753349452983543</v>
+        <v>1.415785973101247</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7986139330214121</v>
+        <v>1.8349495680319459</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8987718204747617</v>
+        <v>2.0386813230360601</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1896321464554629</v>
+        <v>2.1685779912010834</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8248435678078203</v>
+        <v>1.8617090944302004</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4065263481090693</v>
+        <v>1.4208786577836516</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80726004925858619</v>
+        <v>0.7762115858255636</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17358887390407995</v>
+        <v>0.17185298516503913</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0756129236701784E-3</v>
+        <v>1.1524424182180483E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9549399286824539E-4</v>
+        <v>1.8797499314254364E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.986395949529121E-5</v>
+        <v>4.8397372451312051E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27168,11 +27168,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.855548155737705E-5</v>
+        <v>2.970923838797814E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5641515040687573E-5</v>
+        <v>1.5970810094175732E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27192,15 +27192,15 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5898700852085999E-2</v>
+        <v>2.774860805580643E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54099657605076723</v>
+        <v>0.56831963544727071</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3214002415611636</v>
+        <v>1.415785973101247</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27208,39 +27208,39 @@
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0786554666250021</v>
+        <v>1.8987718204747617</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.105415525437945</v>
+        <v>2.2106863017098424</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8617090944302004</v>
+        <v>1.7511125145630599</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3921740384344869</v>
+        <v>1.4065263481090693</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74516312239254101</v>
+        <v>0.76068735410905219</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17706065138216154</v>
+        <v>0.17185298516503913</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1524424182180483E-3</v>
+        <v>1.0756129236701784E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8421549327969278E-4</v>
+        <v>1.9173449300539453E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8397372451312051E-5</v>
+        <v>5.0352821843284265E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,7 +27442,7 @@
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3258800402304106E-5</v>
+        <v>3.2929505348815944E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27462,15 +27462,15 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2854491534869388E-2</v>
+        <v>5.021176695812591E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0492054808257303</v>
+        <v>1.0819931521015345</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.696735186859518</v>
+        <v>2.8046045943338989</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27478,15 +27478,15 @@
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1173367896610626</v>
+        <v>3.9574402153052928</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3371559824021668</v>
+        <v>4.0002894983320951</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7971492421051609</v>
+        <v>3.5022250291261199</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27494,19 +27494,19 @@
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6145200985171724</v>
+        <v>1.490326244785082</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36106485772048624</v>
+        <v>0.3367624153739151</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2390309839664937E-3</v>
+        <v>2.1951284156534251E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9474748559934164E-4</v>
+        <v>3.7219048642223642E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27539,11 +27539,11 @@
       </c>
       <c r="C4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9995355191256829E-5</v>
+        <v>5.5957206284153008E-5</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1941620188351465E-5</v>
+        <v>3.2929505348815944E-5</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27567,31 +27567,31 @@
       </c>
       <c r="J4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1475684946531426</v>
+        <v>1.1147808233773386</v>
       </c>
       <c r="K4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.831571946202494</v>
+        <v>2.7776372424653033</v>
       </c>
       <c r="L4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7425704060849583</v>
+        <v>3.5245565960217573</v>
       </c>
       <c r="M4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0773626460721202</v>
+        <v>4.1173367896610626</v>
       </c>
       <c r="N4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.168722740367131</v>
+        <v>4.2950476718934079</v>
       </c>
       <c r="O4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8340147687275419</v>
+        <v>3.7602837154827813</v>
       </c>
       <c r="P4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8704619349164679</v>
+        <v>2.9852804123131267</v>
       </c>
       <c r="Q4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27603,15 +27603,15 @@
       </c>
       <c r="S4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1292745631838225E-3</v>
+        <v>2.3048848364360967E-3</v>
       </c>
       <c r="T4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5715248697083292E-4</v>
+        <v>3.9474748559934164E-4</v>
       </c>
       <c r="U4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.3861570814665813E-5</v>
+        <v>9.5817020206638006E-5</v>
       </c>
       <c r="V4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27640,7 +27640,7 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8267042349726775E-5</v>
+        <v>2.8843920765027322E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27664,7 +27664,7 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6427245767434694E-2</v>
+        <v>2.5105883479062955E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27672,47 +27672,47 @@
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.348367593429759</v>
+        <v>1.3888186212326517</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7804461155161453</v>
+        <v>1.8894530205477462</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0586683948305313</v>
+        <v>1.9987071794471176</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.021198904420427</v>
+        <v>2.1896321464554629</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8432763311190103</v>
+        <v>1.7879780411854402</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.478287896481981</v>
+        <v>1.3778217287599046</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75292523825079671</v>
+        <v>0.74516312239254101</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17358887390407995</v>
+        <v>0.17011709642599834</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.130491134061514E-3</v>
+        <v>1.1195154919832469E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8421549327969278E-4</v>
+        <v>1.9361424293681996E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8886234799305107E-5</v>
+        <v>4.7908510103319003E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27741,11 +27741,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.855548155737705E-5</v>
+        <v>2.9420799180327868E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5806162567431651E-5</v>
+        <v>1.6300105147663891E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27765,19 +27765,19 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5370155936737304E-2</v>
+        <v>2.6162973309760345E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53006735229216595</v>
+        <v>0.54646118793006793</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4023022971669494</v>
+        <v>1.3214002415611636</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8712852030424791</v>
+        <v>1.7622782980108787</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27785,35 +27785,35 @@
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.042253059674807</v>
+        <v>2.1264696806923244</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8801418577413906</v>
+        <v>1.9354401476749608</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4065263481090693</v>
+        <v>1.3778217287599046</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79949793340033048</v>
+        <v>0.791735817542075</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16490943020887594</v>
+        <v>0.17358887390407995</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1524424182180483E-3</v>
+        <v>1.1085398499049799E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.898547430739691E-4</v>
+        <v>1.8609524321111821E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0352821843284265E-5</v>
+        <v>4.7908510103319003E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27842,11 +27842,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.970923838797814E-5</v>
+        <v>2.9997677595628415E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7287990308128371E-5</v>
+        <v>1.6794047727896131E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27866,43 +27866,43 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.774860805580643E-2</v>
+        <v>2.563442839441165E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56831963544727071</v>
+        <v>0.54646118793006793</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3348839174954614</v>
+        <v>1.3079165656268663</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7441104805056118</v>
+        <v>1.816781750526679</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0986425384194733</v>
+        <v>2.0186942512415889</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.105415525437945</v>
+        <v>2.2106863017098424</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7879780411854402</v>
+        <v>1.8617090944302004</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5069925158311457</v>
+        <v>1.4065263481090693</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79949793340033048</v>
+        <v>0.7762115858255636</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18226831759928394</v>
+        <v>0.18053242886024312</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27910,11 +27910,11 @@
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9173449300539453E-4</v>
+        <v>1.9737374279967082E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6930785407332907E-5</v>
+        <v>4.7419647755325955E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A799DCDF-DC7F-4F13-A018-5C4E4FA38067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBCF106-26BF-4E4D-8161-340E4F24CAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4455" yWindow="3675" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -246,7 +246,7 @@
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.1</v>
+            <v>7.4999999999999997E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -8447,7 +8447,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13034,11 +13034,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7240437158469941E-5</v>
+        <v>4.5423497267759557E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4827801651885036E-5</v>
+        <v>2.6918563896254302E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13058,19 +13058,19 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3664727893617174E-2</v>
+        <v>4.3240798496591765E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82278612234660919</v>
+        <v>0.8920733747547448</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0117401808975894</v>
+        <v>2.1176212430500945</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8368564528139024</v>
+        <v>2.9503307109264587</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13078,35 +13078,35 @@
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2155450274371282</v>
+        <v>3.4475946685923855</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7995765762024845</v>
+        <v>3.0304694897037203</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2380578849789727</v>
+        <v>2.1923832342651157</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2014784601290016</v>
+        <v>1.251023963639476</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27880340675398363</v>
+        <v>0.26240320635669045</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7405028560548391E-3</v>
+        <v>1.8459878776339203E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1561723477382383E-4</v>
+        <v>3.0948874477821568E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7571546127822971E-5</v>
+        <v>8.3227804699643408E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13135,11 +13135,11 @@
       </c>
       <c r="C4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6786202185792349E-5</v>
+        <v>4.6331967213114749E-5</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6395873335161988E-5</v>
+        <v>2.5350492212977353E-5</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13159,15 +13159,15 @@
       </c>
       <c r="I4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.239293970254094E-2</v>
+        <v>4.4088657290642583E-2</v>
       </c>
       <c r="J4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83144702889762612</v>
+        <v>0.86609065510169392</v>
       </c>
       <c r="K4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1387974554805953</v>
+        <v>2.1599736679110961</v>
       </c>
       <c r="L4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13175,7 +13175,7 @@
       </c>
       <c r="M4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2249943118916242</v>
+        <v>3.2882294944777342</v>
       </c>
       <c r="N4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13183,31 +13183,31 @@
       </c>
       <c r="O4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9438846471407567</v>
+        <v>2.8861614187654476</v>
       </c>
       <c r="P4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2380578849789727</v>
+        <v>2.1695459089081877</v>
       </c>
       <c r="Q4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2386375877618574</v>
+        <v>1.2634103395170946</v>
       </c>
       <c r="R4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27880340675398363</v>
+        <v>0.284270140219748</v>
       </c>
       <c r="S4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7229220191249919E-3</v>
+        <v>1.7580836929846858E-3</v>
       </c>
       <c r="T4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0029600978480331E-4</v>
+        <v>3.0336025478260736E-4</v>
       </c>
       <c r="U4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2419767760811915E-5</v>
+        <v>7.8379583066654464E-5</v>
       </c>
       <c r="V4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13236,11 +13236,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1576161202185787E-5</v>
+        <v>2.3620218579234971E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3197936667580994E-5</v>
+        <v>1.3720627228673311E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13260,23 +13260,23 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0136646358706947E-2</v>
+        <v>2.1832363946808587E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43737578082635542</v>
+        <v>0.4287148742753385</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0164581966640454</v>
+        <v>1.0799868339555481</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4893496377272988</v>
+        <v>1.3900596618788121</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6599235428853949</v>
+        <v>1.6283059515923395</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13288,27 +13288,27 @@
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1418662678464147</v>
+        <v>1.1647035932033429</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63789835769735648</v>
+        <v>0.6193187938809287</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13120160317834523</v>
+        <v>0.13393496991122741</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2299393881696014E-4</v>
+        <v>8.4388017263264926E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6087286238471605E-4</v>
+        <v>1.4555163739569547E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1209883880405957E-5</v>
+        <v>3.9593810002742985E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13337,11 +13337,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1576161202185787E-5</v>
+        <v>2.2711748633879779E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2413900825942518E-5</v>
+        <v>1.3067264027307915E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13365,11 +13365,11 @@
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45469759392838932</v>
+        <v>0.42438442099982998</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0270463028792958</v>
+        <v>1.0693987277402976</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13377,39 +13377,39 @@
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5650707690062293</v>
+        <v>1.6283059515923395</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5746225649820988</v>
+        <v>1.7237973342961928</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5008039377580329</v>
+        <v>1.4863731306642056</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1076102798110221</v>
+        <v>1.1761222558818072</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60693241800330999</v>
+        <v>0.60073923006450081</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13940170337699181</v>
+        <v>0.13393496991122741</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3508975416772568E-4</v>
+        <v>9.0541310188711321E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5321224989020576E-4</v>
+        <v>1.59340739885814E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9189791533327232E-5</v>
+        <v>4.1209883880405957E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13438,11 +13438,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3620218579234971E-5</v>
+        <v>2.2484631147540982E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3589954588400232E-5</v>
+        <v>1.3720627228673311E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13462,15 +13462,15 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0136646358706947E-2</v>
+        <v>2.0560575755732353E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45469759392838932</v>
+        <v>0.43304532755084696</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0058700904487947</v>
+        <v>1.0588106215250472</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13478,7 +13478,7 @@
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6441147472388671</v>
+        <v>1.5966883602992843</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13486,19 +13486,19 @@
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3709266739135875</v>
+        <v>1.3997882881012422</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1761222558818072</v>
+        <v>1.1076102798110221</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60693241800330999</v>
+        <v>0.62551198181973799</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13803502001055071</v>
+        <v>0.14350175347631511</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13506,11 +13506,11 @@
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5780861738691192E-4</v>
+        <v>1.5168012739130368E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1613902349821704E-5</v>
+        <v>4.2421939288653197E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13708,11 +13708,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5423497267759557E-5</v>
+        <v>4.769467213114754E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7179909176800464E-5</v>
+        <v>2.5611837493523512E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13732,51 +13732,51 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4088657290642583E-2</v>
+        <v>4.1545080908490115E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90073428130576172</v>
+        <v>0.90939518785677864</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1599736679110961</v>
+        <v>2.1387974554805953</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8084878882857636</v>
+        <v>2.8368564528139024</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.098523946719403</v>
+        <v>3.1933767205985686</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1492451299641977</v>
+        <v>3.1823950787006625</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8861614187654476</v>
+        <v>2.7707149620148295</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2152205596220442</v>
+        <v>2.2380578849789727</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2881830912723315</v>
+        <v>1.251023963639476</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26786993982245483</v>
+        <v>0.26240320635669045</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6877603452652985E-3</v>
+        <v>1.6701795083354514E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9416751978919505E-4</v>
+        <v>3.217457247694321E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13809,7 +13809,7 @@
       </c>
       <c r="C4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7240437158469941E-5</v>
+        <v>4.4515027322404366E-5</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13833,19 +13833,19 @@
       </c>
       <c r="I4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3240798496591765E-2</v>
+        <v>4.0697222114439296E-2</v>
       </c>
       <c r="J4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82278612234660919</v>
+        <v>0.90073428130576172</v>
       </c>
       <c r="K4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1387974554805953</v>
+        <v>2.0752688181890924</v>
       </c>
       <c r="L4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8652250173420413</v>
+        <v>2.921962146398319</v>
       </c>
       <c r="M4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13853,15 +13853,15 @@
       </c>
       <c r="N4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2818449249100592</v>
+        <v>3.4475946685923855</v>
       </c>
       <c r="O4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8861614187654476</v>
+        <v>2.828438190390139</v>
       </c>
       <c r="P4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1695459089081877</v>
+        <v>2.3522445117636144</v>
       </c>
       <c r="Q4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13869,11 +13869,11 @@
       </c>
       <c r="R4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26786993982245483</v>
+        <v>0.27880340675398363</v>
       </c>
       <c r="S4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8108262037742264E-3</v>
+        <v>1.7932453668443797E-3</v>
       </c>
       <c r="T4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13881,7 +13881,7 @@
       </c>
       <c r="U4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2419767760811915E-5</v>
+        <v>7.918762000548597E-5</v>
       </c>
       <c r="V4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13910,11 +13910,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1576161202185787E-5</v>
+        <v>2.2938866120218575E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3589954588400232E-5</v>
+        <v>1.3197936667580994E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13934,19 +13934,19 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2256293343833992E-2</v>
+        <v>2.1408434549783174E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43737578082635542</v>
+        <v>0.42005396772432152</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0376344090945462</v>
+        <v>1.1117511526012995</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3475068150866034</v>
+        <v>1.4893496377272988</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13954,15 +13954,15 @@
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.657497436823262</v>
+        <v>1.7403723086644252</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5152347448518602</v>
+        <v>1.4142190951950695</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1532849305248787</v>
+        <v>1.0961916171325579</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13970,15 +13970,15 @@
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14076838674343289</v>
+        <v>0.14350175347631511</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6146100956249597E-4</v>
+        <v>8.4388017263264926E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6087286238471605E-4</v>
+        <v>1.4861588239349958E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14011,7 +14011,7 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2484631147540982E-5</v>
+        <v>2.3393101092896174E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14035,7 +14035,7 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0984505152757765E-2</v>
+        <v>2.0348611057219648E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14043,15 +14043,15 @@
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1011630463860491</v>
+        <v>1.0588106215250472</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4751653554632294</v>
+        <v>1.3475068150866034</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6283059515923395</v>
+        <v>1.5492619733597015</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14059,11 +14059,11 @@
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5008039377580329</v>
+        <v>1.3709266739135875</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1647035932033429</v>
+        <v>1.0847729544540938</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14071,19 +14071,19 @@
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14350175347631511</v>
+        <v>0.12983491981190415</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7904184649234291E-4</v>
+        <v>9.0541310188711321E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.59340739885814E-4</v>
+        <v>1.4708375989459752E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1209883880405957E-5</v>
+        <v>4.2421939288653197E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14112,11 +14112,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3165983606557375E-5</v>
+        <v>2.2711748633879779E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2675246106488677E-5</v>
+        <v>1.3197936667580994E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14136,39 +14136,39 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1408434549783174E-2</v>
+        <v>2.1832363946808587E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45469759392838932</v>
+        <v>0.4460366873773724</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0482225153097966</v>
+        <v>1.0270463028792958</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4184282264069512</v>
+        <v>1.4609810731991595</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6441147472388671</v>
+        <v>1.5808795646527569</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6077725137185641</v>
+        <v>1.6740724111914944</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3853574810074147</v>
+        <v>1.5008039377580329</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0961916171325579</v>
+        <v>1.1989595812387355</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58835285418688221</v>
+        <v>0.62551198181973799</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14176,11 +14176,11 @@
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.1420352035203657E-4</v>
+        <v>8.5267059109757262E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5321224989020576E-4</v>
+        <v>1.5168012739130368E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14382,11 +14382,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3606557377049174E-5</v>
+        <v>4.6331967213114749E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.587318277406967E-5</v>
+        <v>2.6134528054615829E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14406,39 +14406,39 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1545080908490115E-2</v>
+        <v>4.239293970254094E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8920733747547448</v>
+        <v>0.84876884199965996</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1176212430500945</v>
+        <v>2.0117401808975894</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7801193237576243</v>
+        <v>2.6950136301732068</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1617591293055138</v>
+        <v>3.1933767205985686</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4144447198559198</v>
+        <v>3.3481448223829888</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.828438190390139</v>
+        <v>2.9150230329531022</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3750818371205424</v>
+        <v>2.2608952103359008</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2881830912723315</v>
+        <v>1.2014784601290016</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14446,11 +14446,11 @@
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6701795083354514E-3</v>
+        <v>1.7053411821951452E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9416751978919505E-4</v>
+        <v>3.0336025478260736E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14483,11 +14483,11 @@
       </c>
       <c r="C4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3152322404371574E-5</v>
+        <v>4.7240437158469941E-5</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7441254457346622E-5</v>
+        <v>2.5350492212977353E-5</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14507,55 +14507,55 @@
       </c>
       <c r="I4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2816869099566349E-2</v>
+        <v>4.239293970254094E-2</v>
       </c>
       <c r="J4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84876884199965996</v>
+        <v>0.87475156165271084</v>
       </c>
       <c r="K4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1176212430500945</v>
+        <v>2.0117401808975894</v>
       </c>
       <c r="L4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9786992754545976</v>
+        <v>2.7801193237576243</v>
       </c>
       <c r="M4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3198470857707898</v>
+        <v>3.2249943118916242</v>
       </c>
       <c r="N4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3481448223829888</v>
+        <v>3.314994873646524</v>
       </c>
       <c r="O4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.828438190390139</v>
+        <v>2.7995765762024845</v>
       </c>
       <c r="P4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3294071864066859</v>
+        <v>2.2380578849789727</v>
       </c>
       <c r="Q4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3005694671499501</v>
+        <v>1.275796715394713</v>
       </c>
       <c r="R4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27880340675398363</v>
+        <v>0.27060330655533704</v>
       </c>
       <c r="S4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8459878776339203E-3</v>
+        <v>1.6701795083354514E-3</v>
       </c>
       <c r="T4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0336025478260736E-4</v>
+        <v>2.9416751978919505E-4</v>
       </c>
       <c r="U4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.918762000548597E-5</v>
+        <v>7.9995656944317449E-5</v>
       </c>
       <c r="V4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14584,11 +14584,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2938866120218575E-5</v>
+        <v>2.3165983606557375E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2936591387034835E-5</v>
+        <v>1.3328609307854072E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14608,43 +14608,43 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1620399248295882E-2</v>
+        <v>2.2256293343833992E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45469759392838932</v>
+        <v>0.45036714065288086</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0482225153097966</v>
+        <v>1.0588106215250472</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4326125086710206</v>
+        <v>1.4184282264069512</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6124971559458121</v>
+        <v>1.6599235428853949</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5746225649820988</v>
+        <v>1.5911975393503313</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4719423235703784</v>
+        <v>1.3997882881012422</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1761222558818072</v>
+        <v>1.1875409185602712</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62551198181973799</v>
+        <v>0.59454604212569151</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13120160317834523</v>
+        <v>0.13256828654478633</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14652,11 +14652,11 @@
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4861588239349958E-4</v>
+        <v>1.5780861738691192E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9997828472158725E-5</v>
+        <v>4.0401846941574471E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14685,11 +14685,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2484631147540982E-5</v>
+        <v>2.3165983606557375E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3459281948127151E-5</v>
+        <v>1.3197936667580994E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14709,7 +14709,7 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0984505152757765E-2</v>
+        <v>2.2256293343833992E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14717,47 +14717,47 @@
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1117511526012995</v>
+        <v>1.0164581966640454</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3900596618788121</v>
+        <v>1.4893496377272988</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5966883602992843</v>
+        <v>1.5334531777131741</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5746225649820988</v>
+        <v>1.6906473855597273</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5152347448518602</v>
+        <v>1.4142190951950695</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1532849305248787</v>
+        <v>1.1761222558818072</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58835285418688221</v>
+        <v>0.60693241800330999</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13530165327766852</v>
+        <v>0.13120160317834523</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6146100956249597E-4</v>
+        <v>9.1420352035203657E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5627649488800989E-4</v>
+        <v>1.5168012739130368E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9189791533327232E-5</v>
+        <v>3.8381754594495746E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14786,7 +14786,7 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2711748633879779E-5</v>
+        <v>2.2938866120218575E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14810,55 +14810,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0136646358706947E-2</v>
+        <v>2.2256293343833992E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42438442099982998</v>
+        <v>0.4287148742753385</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0588106215250472</v>
+        <v>1.0693987277402976</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4751653554632294</v>
+        <v>1.3616910973506728</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5492619733597015</v>
+        <v>1.6599235428853949</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7072223599279599</v>
+        <v>1.7403723086644252</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3709266739135875</v>
+        <v>1.4286499022888965</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1875409185602712</v>
+        <v>1.1647035932033429</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62551198181973799</v>
+        <v>0.64409154563616577</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14076838674343289</v>
+        <v>0.14350175347631511</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8783226495726627E-4</v>
+        <v>8.7904184649234291E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5168012739130368E-4</v>
+        <v>1.4555163739569547E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8381754594495746E-5</v>
+        <v>4.0401846941574471E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26009,11 +26009,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4803449453551915E-5</v>
+        <v>5.9995355191256829E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1283030081375147E-5</v>
+        <v>3.1941620188351465E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26033,19 +26033,19 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3383036450218087E-2</v>
+        <v>5.2854491534869388E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0382762570671291</v>
+        <v>1.1366392708945414</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6697678349909229</v>
+        <v>2.7506698905967086</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7789060410954924</v>
+        <v>3.633563501053358</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26053,15 +26053,15 @@
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0002894983320951</v>
+        <v>4.3792642929109258</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6128216089932601</v>
+        <v>3.6496871356156406</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8417573155673033</v>
+        <v>2.8704619349164679</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26069,11 +26069,11 @@
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34717774780815991</v>
+        <v>0.34023419285199669</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2170796998099598E-3</v>
+        <v>2.2390309839664937E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26081,7 +26081,7 @@
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0070564368656853E-4</v>
+        <v>1.0168336838255463E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26110,11 +26110,11 @@
       </c>
       <c r="C4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6534084699453551E-5</v>
+        <v>6.0572233606557372E-5</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2600210295327782E-5</v>
+        <v>3.2270915241839627E-5</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26134,35 +26134,35 @@
       </c>
       <c r="I4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3383036450218087E-2</v>
+        <v>5.4440126280915477E-2</v>
       </c>
       <c r="J4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1257100471359398</v>
+        <v>1.1366392708945414</v>
       </c>
       <c r="K4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6158331312537326</v>
+        <v>2.7776372424653033</v>
       </c>
       <c r="L4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7789060410954924</v>
+        <v>3.5608922310322906</v>
       </c>
       <c r="M4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8774919281274078</v>
+        <v>4.1972850768389467</v>
       </c>
       <c r="N4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0002894983320951</v>
+        <v>4.2529393613846489</v>
       </c>
       <c r="O4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7234181888604008</v>
+        <v>3.5022250291261199</v>
       </c>
       <c r="P4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8130526962181386</v>
+        <v>2.7269388381706445</v>
       </c>
       <c r="Q4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26170,19 +26170,19 @@
       </c>
       <c r="R4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36106485772048624</v>
+        <v>0.34370597033007827</v>
       </c>
       <c r="S4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3048848364360967E-3</v>
+        <v>2.1731771314968907E-3</v>
       </c>
       <c r="T4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7219048642223642E-4</v>
+        <v>3.6843098655938556E-4</v>
       </c>
       <c r="U4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5817020206638006E-5</v>
+        <v>9.483929551065191E-5</v>
       </c>
       <c r="V4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26211,7 +26211,7 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8267042349726775E-5</v>
+        <v>2.855548155737705E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26239,51 +26239,51 @@
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54099657605076723</v>
+        <v>0.54646118793006793</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4023022971669494</v>
+        <v>1.2944328896925685</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7259426630003449</v>
+        <v>1.7622782980108787</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0186942512415889</v>
+        <v>2.0986425384194733</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2106863017098424</v>
+        <v>2.0843613701835655</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7511125145630599</v>
+        <v>1.8432763311190103</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4639355868073987</v>
+        <v>1.3778217287599046</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76068735410905219</v>
+        <v>0.80726004925858619</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16490943020887594</v>
+        <v>0.17185298516503913</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.130491134061514E-3</v>
+        <v>1.1085398499049799E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8797499314254364E-4</v>
+        <v>1.898547430739691E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1330546539270368E-5</v>
+        <v>5.0841684191277313E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26312,11 +26312,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7978603142076504E-5</v>
+        <v>2.9420799180327868E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5806162567431651E-5</v>
+        <v>1.7123342781384293E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26336,55 +26336,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7484335598132081E-2</v>
+        <v>2.5898700852085999E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55192579980936862</v>
+        <v>0.5737842473265713</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3348839174954614</v>
+        <v>1.348367593429759</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9076208380530129</v>
+        <v>1.8894530205477462</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0586683948305313</v>
+        <v>2.0986425384194733</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1475238359467039</v>
+        <v>2.0001447491660476</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7511125145630599</v>
+        <v>1.8248435678078203</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4065263481090693</v>
+        <v>1.435230967458234</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7839737016838193</v>
+        <v>0.79949793340033048</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17532476264312075</v>
+        <v>0.17706065138216154</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1524424182180483E-3</v>
+        <v>1.0975642078267125E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.898547430739691E-4</v>
+        <v>1.8797499314254364E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8397372451312051E-5</v>
+        <v>5.0352821843284265E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26413,11 +26413,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.970923838797814E-5</v>
+        <v>2.7978603142076504E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6300105147663891E-5</v>
+        <v>1.6794047727896131E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26437,55 +26437,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6691518225109043E-2</v>
+        <v>2.6162973309760345E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52460274041286514</v>
+        <v>0.5628550235679699</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.415785973101247</v>
+        <v>1.3214002415611636</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8349495680319459</v>
+        <v>1.9076208380530129</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9987071794471176</v>
+        <v>2.0186942512415889</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.021198904420427</v>
+        <v>2.2106863017098424</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9354401476749608</v>
+        <v>1.8432763311190103</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3778217287599046</v>
+        <v>1.3634694190853223</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75292523825079671</v>
+        <v>0.7684494699673079</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18053242886024312</v>
+        <v>0.16838120768695755</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1085398499049799E-3</v>
+        <v>1.130491134061514E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8233574334826732E-4</v>
+        <v>1.9737374279967082E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.9375097147298162E-5</v>
+        <v>4.986395949529121E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.941847677595628E-5</v>
+        <v>5.5380327868852458E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4246685562768586E-5</v>
+        <v>3.2600210295327782E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,35 +26788,35 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.021176695812591E-2</v>
+        <v>5.4440126280915477E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1475684946531426</v>
+        <v>1.0382762570671291</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7506698905967086</v>
+        <v>2.6428004831223273</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7062347710744254</v>
+        <v>3.633563501053358</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7975436409495233</v>
+        <v>4.1972850768389467</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0845061193496139</v>
+        <v>4.2108310508758899</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5759560823708805</v>
+        <v>3.6865526622380207</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8130526962181386</v>
+        <v>2.7269388381706445</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26824,11 +26824,11 @@
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34717774780815991</v>
+        <v>0.36106485772048624</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2390309839664937E-3</v>
+        <v>2.2170796998099598E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26836,7 +26836,7 @@
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.8750194294596323E-5</v>
+        <v>1.0266109307854074E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8264719945355187E-5</v>
+        <v>5.941847677595628E-5</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2270915241839627E-5</v>
+        <v>3.2929505348815944E-5</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,55 +26889,55 @@
       </c>
       <c r="I4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4968671196264161E-2</v>
+        <v>5.12688567888233E-2</v>
       </c>
       <c r="J4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1257100471359398</v>
+        <v>1.0492054808257303</v>
       </c>
       <c r="K4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8046045943338989</v>
+        <v>2.6697678349909229</v>
       </c>
       <c r="L4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5608922310322906</v>
+        <v>3.7789060410954924</v>
       </c>
       <c r="M4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1173367896610626</v>
+        <v>3.9974143588942352</v>
       </c>
       <c r="N4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.126614429858372</v>
+        <v>4.0845061193496139</v>
       </c>
       <c r="O4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5390905557484995</v>
+        <v>3.7971492421051609</v>
       </c>
       <c r="P4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7843480768689739</v>
+        <v>2.8417573155673033</v>
       </c>
       <c r="Q4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4748020130685706</v>
+        <v>1.6145200985171724</v>
       </c>
       <c r="R4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34717774780815991</v>
+        <v>0.34023419285199669</v>
       </c>
       <c r="S4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0853719948707538E-3</v>
+        <v>2.3048848364360967E-3</v>
       </c>
       <c r="T4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7594998628508728E-4</v>
+        <v>3.7219048642223642E-4</v>
       </c>
       <c r="U4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5817020206638006E-5</v>
+        <v>9.2883846118679703E-5</v>
       </c>
       <c r="V4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26966,11 +26966,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7690163934426229E-5</v>
+        <v>2.9420799180327868E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6300105147663891E-5</v>
+        <v>1.6794047727896131E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26990,55 +26990,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6427245767434694E-2</v>
+        <v>2.6162973309760345E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53553196417146653</v>
+        <v>0.51913812853356456</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.348367593429759</v>
+        <v>1.415785973101247</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7986139330214121</v>
+        <v>1.8349495680319459</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9587330358581752</v>
+        <v>2.0586683948305313</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1475238359467039</v>
+        <v>2.0843613701835655</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9170073843637709</v>
+        <v>1.8985746210525805</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3921740384344869</v>
+        <v>1.478287896481981</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79949793340033048</v>
+        <v>0.80726004925858619</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16490943020887594</v>
+        <v>0.17706065138216154</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0975642078267125E-3</v>
+        <v>1.1085398499049799E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9737374279967082E-4</v>
+        <v>1.8421549327969278E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8886234799305107E-5</v>
+        <v>4.7419647755325955E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27071,7 +27071,7 @@
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5641515040687573E-5</v>
+        <v>1.6135457620919813E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27091,35 +27091,35 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7220063140457738E-2</v>
+        <v>2.563442839441165E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53006735229216595</v>
+        <v>0.5628550235679699</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.415785973101247</v>
+        <v>1.2944328896925685</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8349495680319459</v>
+        <v>1.7804461155161453</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0386813230360601</v>
+        <v>2.0586683948305313</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1685779912010834</v>
+        <v>2.105415525437945</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8617090944302004</v>
+        <v>1.8432763311190103</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4208786577836516</v>
+        <v>1.4639355868073987</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27127,7 +27127,7 @@
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17185298516503913</v>
+        <v>0.16838120768695755</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27139,7 +27139,7 @@
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8397372451312051E-5</v>
+        <v>4.7908510103319003E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27168,11 +27168,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.970923838797814E-5</v>
+        <v>2.8267042349726775E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5970810094175732E-5</v>
+        <v>1.6958695254640212E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27192,55 +27192,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.774860805580643E-2</v>
+        <v>2.563442839441165E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56831963544727071</v>
+        <v>0.52460274041286514</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.415785973101247</v>
+        <v>1.3618512693640565</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8712852030424791</v>
+        <v>1.7986139330214121</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8987718204747617</v>
+        <v>1.9987071794471176</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2106863017098424</v>
+        <v>2.0001447491660476</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7511125145630599</v>
+        <v>1.7695452778742498</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4065263481090693</v>
+        <v>1.5069925158311457</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76068735410905219</v>
+        <v>0.75292523825079671</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17185298516503913</v>
+        <v>0.17358887390407995</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0756129236701784E-3</v>
+        <v>1.0536616395136441E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9173449300539453E-4</v>
+        <v>1.898547430739691E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0352821843284265E-5</v>
+        <v>4.9375097147298162E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27438,7 +27438,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8841598360655737E-5</v>
+        <v>5.4803449453551915E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27466,43 +27466,43 @@
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0819931521015345</v>
+        <v>1.1366392708945414</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8046045943338989</v>
+        <v>2.7506698905967086</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.633563501053358</v>
+        <v>3.4882209610112236</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9574402153052928</v>
+        <v>4.0373885024831777</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0002894983320951</v>
+        <v>4.3371559824021668</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5022250291261199</v>
+        <v>3.7602837154827813</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8130526962181386</v>
+        <v>3.0139850316622914</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.490326244785082</v>
+        <v>1.5368989399346158</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3367624153739151</v>
+        <v>0.35412130276432308</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1951284156534251E-3</v>
+        <v>2.3048848364360967E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27510,7 +27510,7 @@
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2883846118679703E-5</v>
+        <v>9.7772469598610213E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27539,11 +27539,11 @@
       </c>
       <c r="C4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5957206284153008E-5</v>
+        <v>6.0572233606557372E-5</v>
       </c>
       <c r="D4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2929505348815944E-5</v>
+        <v>3.3588095455792262E-5</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27563,55 +27563,55 @@
       </c>
       <c r="I4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4440126280915477E-2</v>
+        <v>5.2854491534869388E-2</v>
       </c>
       <c r="J4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1147808233773386</v>
+        <v>1.0382762570671291</v>
       </c>
       <c r="K4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7776372424653033</v>
+        <v>2.6697678349909229</v>
       </c>
       <c r="L4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5245565960217573</v>
+        <v>3.7062347710744254</v>
       </c>
       <c r="M4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1173367896610626</v>
+        <v>4.1573109332500042</v>
       </c>
       <c r="N4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2950476718934079</v>
+        <v>4.3371559824021668</v>
       </c>
       <c r="O4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7602837154827813</v>
+        <v>3.7234181888604008</v>
       </c>
       <c r="P4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9852804123131267</v>
+        <v>2.8991665542656326</v>
       </c>
       <c r="Q4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5679474033676386</v>
+        <v>1.6300443302336838</v>
       </c>
       <c r="R4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32981886041775188</v>
+        <v>0.35412130276432308</v>
       </c>
       <c r="S4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3048848364360967E-3</v>
+        <v>2.1512258473403568E-3</v>
       </c>
       <c r="T4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9474748559934164E-4</v>
+        <v>3.7594998628508728E-4</v>
       </c>
       <c r="U4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5817020206638006E-5</v>
+        <v>9.972791899058242E-5</v>
       </c>
       <c r="V4" s="7">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,7 +27644,7 @@
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5970810094175732E-5</v>
+        <v>1.5641515040687573E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27664,7 +27664,7 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5105883479062955E-2</v>
+        <v>2.6691518225109043E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27676,31 +27676,31 @@
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8894530205477462</v>
+        <v>1.7622782980108787</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9987071794471176</v>
+        <v>1.9387459640637039</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1896321464554629</v>
+        <v>2.021198904420427</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7879780411854402</v>
+        <v>1.9170073843637709</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3778217287599046</v>
+        <v>1.4639355868073987</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74516312239254101</v>
+        <v>0.76068735410905219</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17011709642599834</v>
+        <v>0.18226831759928394</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27708,11 +27708,11 @@
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9361424293681996E-4</v>
+        <v>1.8045599341684189E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7908510103319003E-5</v>
+        <v>4.8886234799305107E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27745,7 +27745,7 @@
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6300105147663891E-5</v>
+        <v>1.6464752674407972E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27765,19 +27765,19 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6162973309760345E-2</v>
+        <v>2.6427245767434694E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54646118793006793</v>
+        <v>0.54099657605076723</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3214002415611636</v>
+        <v>1.2944328896925685</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7622782980108787</v>
+        <v>1.7986139330214121</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27785,35 +27785,35 @@
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1264696806923244</v>
+        <v>2.1685779912010834</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9354401476749608</v>
+        <v>1.8248435678078203</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3778217287599046</v>
+        <v>1.478287896481981</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.791735817542075</v>
+        <v>0.80726004925858619</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17358887390407995</v>
+        <v>0.16664531894791673</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1085398499049799E-3</v>
+        <v>1.1195154919832469E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8609524321111821E-4</v>
+        <v>1.9173449300539453E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7908510103319003E-5</v>
+        <v>4.8397372451312051E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27842,11 +27842,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9997677595628415E-5</v>
+        <v>2.9132359972677593E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6794047727896131E-5</v>
+        <v>1.6464752674407972E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27866,15 +27866,15 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.563442839441165E-2</v>
+        <v>2.7484335598132081E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54646118793006793</v>
+        <v>0.54099657605076723</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3079165656268663</v>
+        <v>1.348367593429759</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27882,27 +27882,27 @@
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0186942512415889</v>
+        <v>2.0586683948305313</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2106863017098424</v>
+        <v>2.1685779912010834</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8617090944302004</v>
+        <v>1.9354401476749608</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4065263481090693</v>
+        <v>1.3634694190853223</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7762115858255636</v>
+        <v>0.75292523825079671</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18053242886024312</v>
+        <v>0.18226831759928394</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27910,11 +27910,11 @@
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9737374279967082E-4</v>
+        <v>1.7857624348541646E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7419647755325955E-5</v>
+        <v>5.1330546539270368E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CF160B-C053-4B8A-BF51-9E5FE822765D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669F0DD4-85B3-46BD-B155-68A96C799C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="25" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13725" yWindow="6960" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.05</v>
+            <v>0.15</v>
           </cell>
         </row>
       </sheetData>
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7624316939890707E-5</v>
+        <v>1.9077868852459015E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0871963670720186E-5</v>
+        <v>1.0558349334064794E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,19 +13510,19 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.712674763982654E-2</v>
+        <v>1.6109317086965558E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33950753679986401</v>
+        <v>0.36029371252230469</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84704849722003772</v>
+        <v>0.87245995213663885</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1687848585593277</v>
+        <v>1.1007003036917942</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13530,19 +13530,19 @@
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2994779904694373</v>
+        <v>1.2596980519856791</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2121877958814882</v>
+        <v>1.1198306304809937</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95003273484821704</v>
+        <v>0.90435808413436036</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52022778685998006</v>
+        <v>0.47068228334950574</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13550,15 +13550,15 @@
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0323347719387431E-4</v>
+        <v>6.8916880764999678E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2869828990777284E-4</v>
+        <v>1.1766700791567802E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1351833226661785E-5</v>
+        <v>3.0705403675596596E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,19 +13583,19 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9663386793384232</v>
+        <v>3.1192427349744243</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9189524982765813</v>
+        <v>2.8077543078660447</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7285456935130408</v>
+        <v>2.864972978188693</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7074410111066287</v>
+        <v>2.7621367891087827</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13603,47 +13603,47 @@
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0485010120015827</v>
+        <v>1.9857917973484729</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9288242167185743</v>
+        <v>1.8002359356040025</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7152940663580449</v>
+        <v>1.6658144298284858</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5663226856560251</v>
+        <v>1.6793562815281096</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5188478698763828</v>
+        <v>1.5041017740523399</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4353895823832163</v>
+        <v>1.4788862363948292</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.430325650729233</v>
+        <v>1.4881165861122325</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3527864485250065</v>
+        <v>1.3122028550692564</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2796308220918817</v>
+        <v>1.2929603098220055</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6956829602457413</v>
+        <v>1.7124719004461941</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8127469159083374</v>
+        <v>1.86881125351375</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13651,31 +13651,31 @@
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2267401638205051</v>
+        <v>2.2483590003624521</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.117243721201147</v>
+        <v>2.0966879569176409</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1663450231131289</v>
+        <v>2.1242800712080196</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1904550287263294</v>
+        <v>2.2789582622102214</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2931093463249828</v>
+        <v>2.2477012404571615</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2190691637693529</v>
+        <v>2.3069530910473475</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6070225736813764</v>
+        <v>2.5325362144333368</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6304644808743156E-6</v>
+        <v>9.5389344262295074E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1746365548139341E-6</v>
+        <v>5.0178293864862386E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,55 +13712,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4785879405081879E-3</v>
+        <v>8.3938020611031058E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16628940577952522</v>
+        <v>0.17495031233054217</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4447004610405198</v>
+        <v>0.43622997606831942</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55602386475152488</v>
+        <v>0.56169757765715267</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65132238063693582</v>
+        <v>0.60705775282665864</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67625895422389093</v>
+        <v>0.63647901574013255</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55991531524049687</v>
+        <v>0.57723228375308955</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45217904206718018</v>
+        <v>0.46131397220995152</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24772751755237146</v>
+        <v>0.2502047927278952</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6307354697373163E-2</v>
+        <v>5.5760681350796724E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4458440382499839E-4</v>
+        <v>3.6919757552678404E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2510597955203957E-5</v>
+        <v>6.1284899956082304E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6483953552162382E-5</v>
+        <v>1.5675916613330893E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9938524590163926E-6</v>
+        <v>9.4480874316939885E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1223674987047025E-6</v>
+        <v>5.2269056109231657E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,27 +13813,27 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.902517337533597E-3</v>
+        <v>8.3090161816980236E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16455722446932183</v>
+        <v>0.16628940577952522</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42352424861001886</v>
+        <v>0.43199473358221924</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59006614218529174</v>
+        <v>0.56169757765715267</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64499886237832482</v>
+        <v>0.62602830760249173</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64310900548742567</v>
+        <v>0.6629989747293048</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13841,27 +13841,27 @@
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46131397220995152</v>
+        <v>0.46588143728133719</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24029569202580031</v>
+        <v>0.24277296720132402</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1933967924761654E-2</v>
+        <v>5.357398796449097E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3755206905305968E-4</v>
+        <v>3.6568140814081463E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9446352957399832E-5</v>
+        <v>5.8833503957839012E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5352701837798298E-5</v>
+        <v>1.5999131388863491E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7213114754098344E-6</v>
+        <v>8.8121584699453533E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3314437231416288E-6</v>
+        <v>5.070098442595471E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,31 +13914,31 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4785879405081879E-3</v>
+        <v>8.7329455787234344E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17495031233054217</v>
+        <v>0.17668249364074556</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40658327866561811</v>
+        <v>0.42775949109611905</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56737129056278046</v>
+        <v>0.59573985509091953</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60705775282665864</v>
+        <v>0.65132238063693582</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68951893371847706</v>
+        <v>0.69614892346577006</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5887769294281513</v>
+        <v>0.57723228375308955</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13950,19 +13950,19 @@
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4120661311067408E-2</v>
+        <v>5.6307354697373163E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3755206905305968E-4</v>
+        <v>3.6216524075484527E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.1284899956082304E-5</v>
+        <v>5.9446352957399832E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5514309225564595E-5</v>
+        <v>1.6160738776629788E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8532786885245898E-5</v>
+        <v>1.7806010928961748E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0662887446283258E-5</v>
+        <v>1.0976501782938649E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,7 +14184,7 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6448460604585883E-2</v>
+        <v>1.7805034675067194E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14192,23 +14192,23 @@
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83010752727563697</v>
+        <v>0.8894009220810396</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1914797101818391</v>
+        <v>1.1460900069368165</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3026447612738716</v>
+        <v>1.2394095786877612</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3922978469315401</v>
+        <v>1.3127379699640236</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1082859848059319</v>
+        <v>1.2006431502064263</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14216,23 +14216,23 @@
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47068228334950574</v>
+        <v>0.51031868615788523</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10714797592898194</v>
+        <v>0.11480140278105208</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1729814673775183E-4</v>
+        <v>7.0323347719387431E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1889270591479966E-4</v>
+        <v>1.2624689390952954E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.264469232879217E-5</v>
+        <v>3.2967907104324765E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,27 +14257,27 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2109851683560251</v>
+        <v>2.9663386793384232</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6687565698528743</v>
+        <v>2.835553855468679</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8104020643184322</v>
+        <v>2.7285456935130408</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7074410111066287</v>
+        <v>2.7894846781098597</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3920064893931934</v>
+        <v>2.2499070939836967</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1948225128588388</v>
+        <v>2.027597940450546</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14285,71 +14285,71 @@
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7152940663580449</v>
+        <v>1.6823076420050054</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5501750291028702</v>
+        <v>1.5824703422091801</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.400879103284042</v>
+        <v>1.5483400615244678</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3918929283716039</v>
+        <v>1.3773940437010661</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4592211184207329</v>
+        <v>1.5025643199579823</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4204257709512569</v>
+        <v>1.3122028550692564</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.266301334361758</v>
+        <v>1.2796308220918817</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6788940200452884</v>
+        <v>1.7628387210475529</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7940588033731999</v>
+        <v>1.86881125351375</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0116489470763197</v>
+        <v>1.9139960855677607</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0970271445688256</v>
+        <v>2.2483590003624521</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1583552497681597</v>
+        <v>2.117243721201147</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.103247595255465</v>
+        <v>2.0401501673978011</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1019517952424369</v>
+        <v>2.3010840705811946</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2249971875232504</v>
+        <v>2.2022931345893397</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0872432728523616</v>
+        <v>2.1751272001303561</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5077074280173237</v>
+        <v>2.4083922823532715</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14366,7 +14366,7 @@
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2791746670323972E-6</v>
+        <v>4.965560330377007E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,55 +14386,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2242303022929415E-3</v>
+        <v>8.4785879405081879E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17321813102033878</v>
+        <v>0.16802158708972861</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43622997606831942</v>
+        <v>0.41928900612391867</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59006614218529174</v>
+        <v>0.56169757765715267</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60705775282665864</v>
+        <v>0.61338127108526963</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67625895422389093</v>
+        <v>0.68951893371847706</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58300460659062048</v>
+        <v>0.54837066956543501</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46131397220995152</v>
+        <v>0.47044890235272285</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24277296720132402</v>
+        <v>0.25515934307894261</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6307354697373163E-2</v>
+        <v>5.1933967924761654E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6919757552678404E-4</v>
+        <v>3.6568140814081463E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4349144953886422E-5</v>
+        <v>6.3123446954764769E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6645560939928683E-5</v>
+        <v>1.5837524001097193E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6304644808743156E-6</v>
+        <v>8.8121584699453533E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1223674987047025E-6</v>
+        <v>5.4882508914693243E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,7 +14487,7 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8177314581285166E-3</v>
+        <v>8.6481596993183522E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14495,47 +14495,47 @@
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4108185211517183</v>
+        <v>0.44046521855441961</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59573985509091953</v>
+        <v>0.53900272603464139</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65764589889554681</v>
+        <v>0.65132238063693582</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65636898498201179</v>
+        <v>0.69614892346577006</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60609389794074409</v>
+        <v>0.59454925226568223</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44761157699579451</v>
+        <v>0.45674650713856585</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24277296720132402</v>
+        <v>0.23534114167475287</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1933967924761654E-2</v>
+        <v>5.2480641271338092E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.481005712109678E-4</v>
+        <v>3.3755206905305968E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2510597955203957E-5</v>
+        <v>6.0672050956521478E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5514309225564595E-5</v>
+        <v>1.5837524001097193E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7213114754098344E-6</v>
+        <v>8.6304644808743156E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2791746670323972E-6</v>
+        <v>5.070098442595471E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,39 +14588,39 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.902517337533597E-3</v>
+        <v>8.0546585434827789E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17148594971013539</v>
+        <v>0.17321813102033878</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43199473358221924</v>
+        <v>0.44046521855441961</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56737129056278046</v>
+        <v>0.57871871637403605</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62602830760249173</v>
+        <v>0.65132238063693582</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64310900548742567</v>
+        <v>0.69614892346577006</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5887769294281513</v>
+        <v>0.54837066956543501</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46131397220995152</v>
+        <v>0.43847664685302318</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26011389342999003</v>
+        <v>0.25268206790341891</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14628,15 +14628,15 @@
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6568140814081463E-4</v>
+        <v>3.6216524075484527E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9446352957399832E-5</v>
+        <v>6.2510597955203957E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5514309225564595E-5</v>
+        <v>1.6645560939928683E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8169398907103823E-5</v>
+        <v>1.8896174863387977E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0244734997409405E-5</v>
+        <v>1.0453811221846331E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,23 +14858,23 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6787604122206212E-2</v>
+        <v>1.7635462916257033E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36375807514271147</v>
+        <v>0.36029371252230469</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87245995213663885</v>
+        <v>0.82163704230343659</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1120477295030498</v>
+        <v>1.0780054520692828</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2141155056533173</v>
+        <v>1.2773506882394274</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14882,31 +14882,31 @@
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1313752761560556</v>
+        <v>1.1775538588563026</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89522315399158903</v>
+        <v>0.92262794441990303</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47563683370055321</v>
+        <v>0.51031868615788523</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11152136270159345</v>
+        <v>0.10496128254267618</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2433048150969054E-4</v>
+        <v>6.8213647287805807E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2502119591040791E-4</v>
+        <v>1.2134410191304296E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.361433665538996E-5</v>
+        <v>3.1675048002194387E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,99 +14931,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1498235461016248</v>
+        <v>3.1804043572288254</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8077543078660447</v>
+        <v>2.7243556650581424</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.783116607383302</v>
+        <v>2.7558311504481714</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7894846781098597</v>
+        <v>2.7347889001077057</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4630561870979415</v>
+        <v>2.4867394196661912</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1321132982057289</v>
+        <v>2.027597940450546</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8186056900489413</v>
+        <v>1.8369754444938802</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6988008541815254</v>
+        <v>1.7317872785345645</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6793562815281096</v>
+        <v>1.5824703422091801</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4156251991080846</v>
+        <v>1.4746095824042549</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.449888467053754</v>
+        <v>1.5223828904064418</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3869824491919835</v>
+        <v>1.4881165861122325</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3257307195545065</v>
+        <v>1.4204257709512569</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3596077484726243</v>
+        <v>1.319619285282253</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7124719004461941</v>
+        <v>1.6453161396443827</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7940588033731999</v>
+        <v>1.7753706908380624</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9139960855677607</v>
+        <v>1.9530572301711844</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0754083080268786</v>
+        <v>2.0537894714849321</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9527976069330966</v>
+        <v>2.1377994854846532</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1453125471605743</v>
+        <v>1.9980852154926918</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3010840705811946</v>
+        <v>2.2125808370973026</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2477012404571615</v>
+        <v>2.2249971875232504</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1092142546718602</v>
+        <v>2.1751272001303561</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5077074280173237</v>
+        <v>2.4828786416013107</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9938524590163926E-6</v>
+        <v>9.5389344262295074E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4359818353600928E-6</v>
+        <v>5.1223674987047025E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,47 +15060,47 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1394444228878593E-3</v>
+        <v>8.7329455787234344E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17841467495094895</v>
+        <v>0.16802158708972861</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43622997606831942</v>
+        <v>0.42775949109611905</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59573985509091953</v>
+        <v>0.55035015184589708</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63235182586110272</v>
+        <v>0.61970478934388062</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63647901574013255</v>
+        <v>0.65636898498201179</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54837066956543501</v>
+        <v>0.55414299240296594</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44304411192440885</v>
+        <v>0.46131397220995152</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2502047927278952</v>
+        <v>0.24525024237684775</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2480641271338092E-2</v>
+        <v>5.357398796449097E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.481005712109678E-4</v>
+        <v>3.3755206905305968E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2663934426229492E-6</v>
+        <v>9.0846994535519115E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2269056109231657E-6</v>
+        <v>5.4359818353600928E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,23 +15161,23 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8177314581285166E-3</v>
+        <v>8.6481596993183522E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18014685626115234</v>
+        <v>0.16628940577952522</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41928900612391867</v>
+        <v>0.42352424861001886</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55035015184589708</v>
+        <v>0.55602386475152488</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63867534411971372</v>
+        <v>0.65132238063693582</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15185,31 +15185,31 @@
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55414299240296594</v>
+        <v>0.57723228375308955</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43390918178163751</v>
+        <v>0.45217904206718018</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24277296720132402</v>
+        <v>0.26011389342999003</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4120661311067408E-2</v>
+        <v>5.5214008004220286E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6568140814081463E-4</v>
+        <v>3.3403590166709027E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.189774895564313E-5</v>
+        <v>6.3123446954764769E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5352701837798298E-5</v>
+        <v>1.5837524001097193E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5389344262295074E-6</v>
+        <v>8.9938524590163926E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.070098442595471E-6</v>
+        <v>4.965560330377007E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,55 +15262,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1394444228878593E-3</v>
+        <v>8.6481596993183522E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16455722446932183</v>
+        <v>0.17668249364074556</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40234803617951792</v>
+        <v>0.43199473358221924</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56169757765715267</v>
+        <v>0.53900272603464139</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63235182586110272</v>
+        <v>0.63867534411971372</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68951893371847706</v>
+        <v>0.67625895422389093</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55414299240296594</v>
+        <v>0.57145996091555862</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43847664685302318</v>
+        <v>0.47958383249549419</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24029569202580031</v>
+        <v>0.25268206790341891</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1933967924761654E-2</v>
+        <v>5.4120661311067408E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.481005712109678E-4</v>
+        <v>3.5513290598290651E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3736295954325596E-5</v>
+        <v>6.2510597955203957E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5352701837798298E-5</v>
+        <v>1.5999131388863491E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -17000,7 +17000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303073B7-556E-4714-A27A-3E87EB1A31BB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.422889344262295E-5</v>
+        <v>2.3075136612021857E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.290836609673585E-5</v>
+        <v>1.356695620371217E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,7 +26485,7 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1987468478505665E-2</v>
+        <v>2.1776050512366189E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26493,43 +26493,43 @@
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1110548969861214</v>
+        <v>1.1002679562386835</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5115624164381969</v>
+        <v>1.3807541304002759</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.614955400993271</v>
+        <v>1.5190174563798093</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7517057171643704</v>
+        <v>1.6338024477398454</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4303824329483521</v>
+        <v>1.5041134861931125</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0907755352682578</v>
+        <v>1.1367029262269213</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60234019060063737</v>
+        <v>0.62096926866045088</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13748238813203131</v>
+        <v>0.14581465407942715</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.1317342091182491E-4</v>
+        <v>8.9561239358659751E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5037999451403492E-4</v>
+        <v>1.5639519429459632E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,7 +26558,7 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2003878831094799</v>
+        <v>2.2457567054416341</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26566,19 +26566,19 @@
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0053563440132955</v>
+        <v>2.17246937268107</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.931944547219425</v>
+        <v>1.9923178143200322</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7229551693401468</v>
+        <v>1.6874303204877728</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6176044151871922</v>
+        <v>1.5858866815560706</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26590,19 +26590,19 @@
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.185067064182959</v>
+        <v>1.2087684054666183</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.111195093805877</v>
+        <v>1.1438773024472262</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0649855561625392</v>
+        <v>1.1648279520527773</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0392780687024945</v>
+        <v>1.071420689384015</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26618,27 +26618,27 @@
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.394958747978887</v>
+        <v>1.3810091604990982</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4604179634730046</v>
+        <v>1.4744604438910143</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5226698995070955</v>
+        <v>1.5861144786532246</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4787030045007901</v>
+        <v>1.4937918106691654</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.606063518587616</v>
+        <v>1.5115891939648149</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8152082363822488</v>
+        <v>1.6423312614887011</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26646,11 +26646,11 @@
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5966947409731327</v>
+        <v>1.6131555114986291</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9563957573077071</v>
+        <v>1.8632340545787685</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0960689890710382E-5</v>
+        <v>1.142219262295082E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3224650269726606E-6</v>
+        <v>6.849337112553717E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,39 +26687,39 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.025377135776466E-2</v>
+        <v>1.0570898306973877E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21858447517202717</v>
+        <v>0.22514200942718798</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51777315587702744</v>
+        <v>0.53934703737190359</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75578120821909844</v>
+        <v>0.70491131920435146</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79948287177884703</v>
+        <v>0.77549838562548157</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85900953437868155</v>
+        <v>0.82532288597167447</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75205674309655623</v>
+        <v>0.76680295374550833</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59705608246262531</v>
+        <v>0.59131515859279238</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31979917336013219</v>
+        <v>0.32290401970343446</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26727,15 +26727,15 @@
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4341593996199193E-4</v>
+        <v>4.2585491263676448E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.4438097284447284E-5</v>
+        <v>7.5189997257017459E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0336673676510925E-5</v>
+        <v>1.9163404041327603E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1191441256830601E-5</v>
+        <v>1.1999071038251367E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3224650269726606E-6</v>
+        <v>6.3883240376702929E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,55 +26788,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.025377135776466E-2</v>
+        <v>1.0570898306973877E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22077031992374743</v>
+        <v>0.22732785417890827</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56092091886677975</v>
+        <v>0.53395356699818453</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71217844620645809</v>
+        <v>0.72671270021067158</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76750355690769312</v>
+        <v>0.83945701536778938</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84216621017517801</v>
+        <v>0.85058787227692978</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74468363777208013</v>
+        <v>0.75942984842103223</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58557423472295944</v>
+        <v>0.56261053924362769</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3042749416436209</v>
+        <v>0.32290401970343446</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.9435549561631976E-2</v>
+        <v>7.1518616048480935E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2585491263676448E-4</v>
+        <v>4.5658671045591245E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.6693797202157809E-5</v>
+        <v>7.8197597147298159E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9163404041327603E-5</v>
+        <v>2.0141128737313706E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26869,7 +26869,7 @@
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4541830483679252E-6</v>
+        <v>6.3883240376702929E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,31 +26889,31 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0782316273113355E-2</v>
+        <v>1.0570898306973877E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21202694091686636</v>
+        <v>0.22077031992374743</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55552744849306068</v>
+        <v>0.5231666262507465</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71217844620645809</v>
+        <v>0.76304833522120519</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79948287177884703</v>
+        <v>0.75950872818990467</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83374454807342624</v>
+        <v>0.85900953437868155</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77417605906998432</v>
+        <v>0.74468363777208013</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26921,23 +26921,23 @@
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31048463433022544</v>
+        <v>0.30117009530031869</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0129905057248296E-2</v>
+        <v>6.5963772083550379E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5658671045591245E-4</v>
+        <v>4.2146465580545766E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5941897229587634E-5</v>
+        <v>7.7445697174727984E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0336673676510925E-5</v>
+        <v>1.857676922373594E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2382882513661202E-5</v>
+        <v>2.3767390710382512E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2513212032550058E-5</v>
+        <v>1.3435238182316905E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,55 +27240,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.156463254622671E-2</v>
+        <v>2.0718960681668799E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42842557133717324</v>
+        <v>0.43279726084061382</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0679071339963691</v>
+        <v>1.046333252501493</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3952883844044894</v>
+        <v>1.4388911464171297</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.614955400993271</v>
+        <v>1.56698642868654</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6674890961468525</v>
+        <v>1.7517057171643704</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5483521181399686</v>
+        <v>1.4008900116504479</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1481847739665871</v>
+        <v>1.1022573830079236</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63338865403365996</v>
+        <v>0.62717896134705542</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14025981011449659</v>
+        <v>0.14581465407942715</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.1317342091182491E-4</v>
+        <v>8.9561239358659751E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5188379445917527E-4</v>
+        <v>1.4887619456889457E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1064437231416293E-5</v>
+        <v>3.7935718204260761E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27317,19 +27317,19 @@
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.975106553855501</v>
+        <v>1.895304268851238</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0053563440132955</v>
+        <v>1.9844672154298235</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0325666590537699</v>
+        <v>2.0929399261543771</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7762424426187082</v>
+        <v>1.8472921403234566</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27337,11 +27337,11 @@
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.398292477873833</v>
+        <v>1.4410973496454813</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2802358118383304</v>
+        <v>1.31864288619348</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27353,23 +27353,23 @@
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1426407529660578</v>
+        <v>1.0538919566191796</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0499922755963347</v>
+        <v>1.0821348962778552</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99915686049791552</v>
+        <v>1.0391231349178323</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0533021007005841</v>
+        <v>1.0026625766284405</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2312260479190054</v>
+        <v>1.2560993014123187</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27377,31 +27377,31 @@
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.390205561382956</v>
+        <v>1.4323330026369852</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.665420202585886</v>
+        <v>1.5702533338666924</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5390582291742918</v>
+        <v>1.4485253921640393</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6533006808990165</v>
+        <v>1.5115891939648149</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.74605744642483</v>
+        <v>1.728769748935475</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6123094556515791</v>
+        <v>1.7634634671189149</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6625378230751178</v>
+        <v>1.6296162820241253</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27418,7 +27418,7 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0960689890710382E-5</v>
+        <v>1.1768319672131148E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27446,7 +27446,7 @@
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20765525141342581</v>
+        <v>0.21421278566858662</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27454,19 +27454,19 @@
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73397982721277832</v>
+        <v>0.70491131920435146</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83945701536778938</v>
+        <v>0.79948287177884703</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83374454807342624</v>
+        <v>0.80847956176817082</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71519121647417605</v>
+        <v>0.77417605906998432</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27478,19 +27478,19 @@
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5963772083550379E-2</v>
+        <v>7.0824260552864615E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3902568313068505E-4</v>
+        <v>4.2585491263676448E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.4438097284447284E-5</v>
+        <v>7.6693797202157809E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9554493919722043E-5</v>
+        <v>1.9750038858919265E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1076065573770491E-5</v>
+        <v>1.142219262295082E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2566060162750292E-6</v>
+        <v>6.9151961232513485E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,55 +27543,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0148062374694922E-2</v>
+        <v>1.0676607290043617E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20765525141342581</v>
+        <v>0.20984109616514607</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52856009662446546</v>
+        <v>0.53934703737190359</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74124695421488507</v>
+        <v>0.71944557320856484</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82346735793221248</v>
+        <v>0.76750355690769312</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8169012238699227</v>
+        <v>0.83374454807342624</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70044500582522395</v>
+        <v>0.75942984842103223</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55112869150396182</v>
+        <v>0.5798333108531265</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32600886604673673</v>
+        <v>0.30117009530031869</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0129905057248296E-2</v>
+        <v>6.9435549561631976E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6097696728721933E-4</v>
+        <v>4.4341593996199193E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2182397366736759E-5</v>
+        <v>7.5189997257017459E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9163404041327603E-5</v>
+        <v>2.0141128737313706E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1076065573770491E-5</v>
+        <v>1.1768319672131148E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6517600804608211E-6</v>
+        <v>6.7834781018560848E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,55 +27644,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0888025256183095E-2</v>
+        <v>1.025377135776466E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21421278566858662</v>
+        <v>0.22732785417890827</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54474050774562266</v>
+        <v>0.56092091886677975</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71944557320856484</v>
+        <v>0.74124695421488507</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79948287177884703</v>
+        <v>0.78349321434327002</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82532288597167447</v>
+        <v>0.85900953437868155</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70044500582522395</v>
+        <v>0.72993742712312815</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59131515859279238</v>
+        <v>0.58557423472295944</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32290401970343446</v>
+        <v>0.30117009530031869</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0129905057248296E-2</v>
+        <v>7.2907327039713574E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5658671045591245E-4</v>
+        <v>4.1707439897415078E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5189997257017459E-5</v>
+        <v>7.4438097284447284E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8772314162933162E-5</v>
+        <v>2.0532218615708147E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3305887978142075E-5</v>
+        <v>2.2382882513661202E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3303520160921642E-5</v>
+        <v>1.2644930053945321E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,55 +27914,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0296124749389844E-2</v>
+        <v>2.0930378647808275E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45902739786125707</v>
+        <v>0.44154063984749486</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0786940747438072</v>
+        <v>1.0571201932489309</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5115624164381969</v>
+        <v>1.4388911464171297</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6309450584288481</v>
+        <v>1.5190174563798093</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6506457719433489</v>
+        <v>1.7517057171643704</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5188596968420645</v>
+        <v>1.4598748542462563</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1481847739665871</v>
+        <v>1.159666621706253</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6085498832872418</v>
+        <v>0.63338865403365996</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14303723209696187</v>
+        <v>0.14581465407942715</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0439290724921126E-4</v>
+        <v>8.7805136626137011E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4436479473347352E-4</v>
+        <v>1.5489139434945597E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8717897961049643E-5</v>
+        <v>4.1064437231416293E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,27 +27987,27 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2911255277737883</v>
+        <v>2.3364943501059425</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.094809981361895</v>
+        <v>2.0349582676086979</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.068023729763711</v>
+        <v>2.0889128583471828</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.931944547219425</v>
+        <v>1.9923178143200322</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8295297158972694</v>
+        <v>1.7762424426187082</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6651810156338742</v>
+        <v>1.5858866815560706</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28015,15 +28015,15 @@
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3058405280750971</v>
+        <v>1.2418287374831802</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1376643816156409</v>
+        <v>1.185067064182959</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0785128851645276</v>
+        <v>1.111195093805877</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28031,39 +28031,39 @@
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0178496549148142</v>
+        <v>1.0607064824901749</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94919901747301971</v>
+        <v>1.0191399977078739</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0533021007005841</v>
+        <v>1.0229183862572979</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2187894211723487</v>
+        <v>1.1939161676790355</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3810091604990982</v>
+        <v>1.4089083354586758</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4323330026369852</v>
+        <v>1.3761630809649468</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5702533338666924</v>
+        <v>1.665420202585886</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5239694230059164</v>
+        <v>1.5692358415110428</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5745720770466822</v>
+        <v>1.5430806355057487</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28071,15 +28071,15 @@
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6794890163037282</v>
+        <v>1.6962839064667656</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.678998593600614</v>
+        <v>1.6460770525496216</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9563957573077071</v>
+        <v>1.9004987356703438</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1537568306010929E-5</v>
+        <v>1.1652943989071037E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5859010697631888E-6</v>
+        <v>6.7834781018560848E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,55 +28116,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0465189323904138E-2</v>
+        <v>1.0888025256183095E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22514200942718798</v>
+        <v>0.21858447517202717</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53934703737190359</v>
+        <v>0.5231666262507465</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72671270021067158</v>
+        <v>0.69037706520013797</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79948287177884703</v>
+        <v>0.81547252921442404</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80847956176817082</v>
+        <v>0.86743119648043332</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70781811114969995</v>
+        <v>0.72993742712312815</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57409238698329357</v>
+        <v>0.56261053924362769</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31048463433022544</v>
+        <v>0.31669432701682998</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7352483074783018E-2</v>
+        <v>7.1518616048480935E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3463542629937818E-4</v>
+        <v>4.5658671045591245E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5941897229587634E-5</v>
+        <v>7.7445697174727984E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0141128737313706E-5</v>
+        <v>1.9554493919722043E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2114446721311475E-5</v>
+        <v>1.1076065573770491E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7834781018560848E-6</v>
+        <v>6.5200420590655566E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,55 +28217,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0676607290043617E-2</v>
+        <v>1.0042353391625182E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20984109616514607</v>
+        <v>0.22951369893062853</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51777315587702744</v>
+        <v>0.54474050774562266</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76304833522120519</v>
+        <v>0.69037706520013797</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76750355690769312</v>
+        <v>0.77549838562548157</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85900953437868155</v>
+        <v>0.83374454807342624</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77417605906998432</v>
+        <v>0.75942984842103223</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59705608246262531</v>
+        <v>0.55112869150396182</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32290401970343446</v>
+        <v>0.31048463433022544</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.9435549561631976E-2</v>
+        <v>7.0129905057248296E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5219645362460563E-4</v>
+        <v>4.3024516946807136E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7445697174727984E-5</v>
+        <v>7.6693797202157809E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0336673676510925E-5</v>
+        <v>1.9163404041327603E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.142219262295082E-5</v>
+        <v>1.1191441256830601E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3224650269726606E-6</v>
+        <v>6.7834781018560848E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,47 +28318,47 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0042353391625182E-2</v>
+        <v>1.0888025256183095E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22514200942718798</v>
+        <v>0.22077031992374743</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55013397811934173</v>
+        <v>0.51777315587702744</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69037706520013797</v>
+        <v>0.70491131920435146</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79148804306105858</v>
+        <v>0.81547252921442404</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80847956176817082</v>
+        <v>0.85058787227692978</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75942984842103223</v>
+        <v>0.72993742712312815</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56835146311346063</v>
+        <v>0.5798333108531265</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30117009530031869</v>
+        <v>0.31048463433022544</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.9435549561631976E-2</v>
+        <v>7.2907327039713574E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3902568313068505E-4</v>
+        <v>4.2146465580545766E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28366,7 +28366,7 @@
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0336673676510925E-5</v>
+        <v>2.0141128737313706E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -30056,8 +30056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B03ABF6-0D6D-40F7-9299-D567A2744E68}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669F0DD4-85B3-46BD-B155-68A96C799C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B89A9D6-62E8-47FC-86F8-8A787A983BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13725" yWindow="6960" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9077868852459015E-5</v>
+        <v>1.7624316939890707E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0558349334064794E-5</v>
+        <v>1.0871963670720186E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,35 +13510,35 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6109317086965558E-2</v>
+        <v>1.7465891157446869E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36029371252230469</v>
+        <v>0.33950753679986401</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87245995213663885</v>
+        <v>0.80469607235903584</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1007003036917942</v>
+        <v>1.0780054520692828</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3279388343083158</v>
+        <v>1.2394095786877612</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2596980519856791</v>
+        <v>1.3259979494586096</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1198306304809937</v>
+        <v>1.2006431502064263</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90435808413436036</v>
+        <v>0.95916766499098838</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13546,19 +13546,19 @@
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11042801600844057</v>
+        <v>0.10605462923582906</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8916880764999678E-4</v>
+        <v>7.1729814673775183E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1766700791567802E-4</v>
+        <v>1.1889270591479966E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0705403675596596E-5</v>
+        <v>3.1351833226661785E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,11 +13583,11 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1192427349744243</v>
+        <v>3.058081112720024</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8077543078660447</v>
+        <v>2.835553855468679</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13595,31 +13595,31 @@
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7621367891087827</v>
+        <v>2.7894846781098597</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3683232568249437</v>
+        <v>2.4630561870979415</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9857917973484729</v>
+        <v>2.0066948688995097</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8002359356040025</v>
+        <v>1.7451266722691861</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6658144298284858</v>
+        <v>1.6328280054754465</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6793562815281096</v>
+        <v>1.6955039380812644</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5041017740523399</v>
+        <v>1.430371294932127</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13627,43 +13627,43 @@
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4881165861122325</v>
+        <v>1.4592211184207329</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3122028550692564</v>
+        <v>1.3257307195545065</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2929603098220055</v>
+        <v>1.3729372362027481</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7124719004461941</v>
+        <v>1.6453161396443827</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.86881125351375</v>
+        <v>1.9248755911191626</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.031179519378032</v>
+        <v>1.9725878024728962</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2483590003624521</v>
+        <v>2.0970271445688256</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0966879569176409</v>
+        <v>2.0350206640671216</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1242800712080196</v>
+        <v>2.0401501673978011</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2789582622102214</v>
+        <v>2.2347066454682754</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13671,11 +13671,11 @@
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3069530910473475</v>
+        <v>2.2630111274083502</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5325362144333368</v>
+        <v>2.4083922823532715</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,7 +13688,7 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5389344262295074E-6</v>
+        <v>9.1755464480874303E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,27 +13712,27 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3938020611031058E-3</v>
+        <v>8.8177314581285166E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17495031233054217</v>
+        <v>0.18187903757135573</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43622997606831942</v>
+        <v>0.42352424861001886</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56169757765715267</v>
+        <v>0.55035015184589708</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60705775282665864</v>
+        <v>0.66396941715415791</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63647901574013255</v>
+        <v>0.62984902599283954</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13740,27 +13740,27 @@
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46131397220995152</v>
+        <v>0.47044890235272285</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2502047927278952</v>
+        <v>0.24772751755237146</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5760681350796724E-2</v>
+        <v>5.2480641271338092E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6919757552678404E-4</v>
+        <v>3.4458440382499839E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.1284899956082304E-5</v>
+        <v>6.2510597955203957E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5675916613330893E-5</v>
+        <v>1.680716832769498E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.4480874316939885E-6</v>
+        <v>9.0846994535519115E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2269056109231657E-6</v>
+        <v>5.1223674987047025E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,43 +13813,43 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3090161816980236E-3</v>
+        <v>8.1394444228878593E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16628940577952522</v>
+        <v>0.17321813102033878</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43199473358221924</v>
+        <v>0.41505376363781848</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56169757765715267</v>
+        <v>0.53900272603464139</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62602830760249173</v>
+        <v>0.60073423456804753</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6629989747293048</v>
+        <v>0.67625895422389093</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57145996091555862</v>
+        <v>0.5887769294281513</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46588143728133719</v>
+        <v>0.45217904206718018</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24277296720132402</v>
+        <v>0.2378184168502766</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.357398796449097E-2</v>
+        <v>5.3027314617914531E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13857,11 +13857,11 @@
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8833503957839012E-5</v>
+        <v>6.3736295954325596E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5999131388863491E-5</v>
+        <v>1.680716832769498E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8121584699453533E-6</v>
+        <v>9.2663934426229492E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.070098442595471E-6</v>
+        <v>5.4882508914693243E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,15 +13914,15 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7329455787234344E-3</v>
+        <v>8.8177314581285166E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17668249364074556</v>
+        <v>0.17321813102033878</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42775949109611905</v>
+        <v>0.4447004610405198</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13930,31 +13930,31 @@
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65132238063693582</v>
+        <v>0.60073423456804753</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69614892346577006</v>
+        <v>0.68951893371847706</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57723228375308955</v>
+        <v>0.5656876380780278</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46588143728133719</v>
+        <v>0.47958383249549419</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26011389342999003</v>
+        <v>0.24525024237684775</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6307354697373163E-2</v>
+        <v>5.5760681350796724E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6216524075484527E-4</v>
+        <v>3.5161673859693715E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13962,7 +13962,7 @@
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6160738776629788E-5</v>
+        <v>1.5999131388863491E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7806010928961748E-5</v>
+        <v>1.8532786885245898E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0976501782938649E-5</v>
+        <v>1.0453811221846331E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,31 +14184,31 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7805034675067194E-2</v>
+        <v>1.6957175881016376E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33257881155905045</v>
+        <v>0.36029371252230469</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8894009220810396</v>
+        <v>0.88093043710883923</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1460900069368165</v>
+        <v>1.1914797101818391</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2394095786877612</v>
+        <v>1.2899977247566496</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3127379699640236</v>
+        <v>1.2729580314802651</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2006431502064263</v>
+        <v>1.1890985045313645</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14216,11 +14216,11 @@
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51031868615788523</v>
+        <v>0.50536413580683781</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11480140278105208</v>
+        <v>0.11042801600844057</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14228,11 +14228,11 @@
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2624689390952954E-4</v>
+        <v>1.2011840391392132E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2967907104324765E-5</v>
+        <v>3.264469232879217E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,71 +14257,71 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9663386793384232</v>
+        <v>3.0275003015928235</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.835553855468679</v>
+        <v>2.6409570222502401</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7285456935130408</v>
+        <v>2.7012602365779106</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7894846781098597</v>
+        <v>2.5980494551023203</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2499070939836967</v>
+        <v>2.4393729545296923</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.027597940450546</v>
+        <v>2.1739194413078025</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7451266722691861</v>
+        <v>1.8369754444938802</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6823076420050054</v>
+        <v>1.5668551567693678</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5824703422091801</v>
+        <v>1.6147656553154899</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5483400615244678</v>
+        <v>1.4746095824042549</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3773940437010661</v>
+        <v>1.420890697712679</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5025643199579823</v>
+        <v>1.5170120538037322</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3122028550692564</v>
+        <v>1.4204257709512569</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2796308220918817</v>
+        <v>1.3329487730123768</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7628387210475529</v>
+        <v>1.7124719004461941</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.86881125351375</v>
+        <v>1.8501231409786123</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9139960855677607</v>
+        <v>1.8944655132660486</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14329,27 +14329,27 @@
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.117243721201147</v>
+        <v>2.0966879569176409</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0401501673978011</v>
+        <v>1.9980852154926918</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3010840705811946</v>
+        <v>2.1683292203553566</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2022931345893397</v>
+        <v>2.3385174521928045</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1751272001303561</v>
+        <v>2.0872432728523616</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4083922823532715</v>
+        <v>2.5325362144333368</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,7 +14362,7 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.4480874316939885E-6</v>
+        <v>8.7213114754098344E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,55 +14386,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4785879405081879E-3</v>
+        <v>8.5633738199132701E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16802158708972861</v>
+        <v>0.18187903757135573</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41928900612391867</v>
+        <v>0.44046521855441961</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56169757765715267</v>
+        <v>0.59573985509091953</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61338127108526963</v>
+        <v>0.60705775282665864</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68951893371847706</v>
+        <v>0.66962896447659781</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54837066956543501</v>
+        <v>0.5887769294281513</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47044890235272285</v>
+        <v>0.43390918178163751</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25515934307894261</v>
+        <v>0.25268206790341891</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1933967924761654E-2</v>
+        <v>5.357398796449097E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6568140814081463E-4</v>
+        <v>3.6919757552678404E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3123446954764769E-5</v>
+        <v>6.0059201956960658E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5837524001097193E-5</v>
+        <v>1.5999131388863491E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8121584699453533E-6</v>
+        <v>9.0846994535519115E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4882508914693243E-6</v>
+        <v>5.070098442595471E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,11 +14487,11 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6481596993183522E-3</v>
+        <v>8.8177314581285166E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16628940577952522</v>
+        <v>0.17668249364074556</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14499,43 +14499,43 @@
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53900272603464139</v>
+        <v>0.55035015184589708</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65132238063693582</v>
+        <v>0.64499886237832482</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69614892346577006</v>
+        <v>0.63647901574013255</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59454925226568223</v>
+        <v>0.58300460659062048</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45674650713856585</v>
+        <v>0.43390918178163751</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23534114167475287</v>
+        <v>0.24525024237684775</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2480641271338092E-2</v>
+        <v>5.4120661311067408E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3755206905305968E-4</v>
+        <v>3.4106823643902904E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0672050956521478E-5</v>
+        <v>5.8833503957839012E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5837524001097193E-5</v>
+        <v>1.5999131388863491E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6304644808743156E-6</v>
+        <v>9.2663934426229492E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.070098442595471E-6</v>
+        <v>4.965560330377007E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,11 +14588,11 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.0546585434827789E-3</v>
+        <v>8.4785879405081879E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17321813102033878</v>
+        <v>0.16628940577952522</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14600,15 +14600,15 @@
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57871871637403605</v>
+        <v>0.53900272603464139</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65132238063693582</v>
+        <v>0.61338127108526963</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69614892346577006</v>
+        <v>0.64973899523471867</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14620,23 +14620,23 @@
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25268206790341891</v>
+        <v>0.24772751755237146</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6854028043949602E-2</v>
+        <v>5.357398796449097E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6216524075484527E-4</v>
+        <v>3.5161673859693715E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2510597955203957E-5</v>
+        <v>6.189774895564313E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6645560939928683E-5</v>
+        <v>1.5675916613330893E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8896174863387977E-5</v>
+        <v>1.7987704918032785E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0453811221846331E-5</v>
+        <v>1.0349273109627868E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,55 +14858,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7635462916257033E-2</v>
+        <v>1.6448460604585883E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36029371252230469</v>
+        <v>0.32911444893864367</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82163704230343659</v>
+        <v>0.86398946716443847</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0780054520692828</v>
+        <v>1.1460900069368165</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2773506882394274</v>
+        <v>1.2267625421705393</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3790378674369541</v>
+        <v>1.3922978469315401</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1775538588563026</v>
+        <v>1.2006431502064263</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.92262794441990303</v>
+        <v>0.95916766499098838</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51031868615788523</v>
+        <v>0.49545503510474292</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10496128254267618</v>
+        <v>0.1137080560878992</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8213647287805807E-4</v>
+        <v>7.3839515105356807E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2134410191304296E-4</v>
+        <v>1.2869828990777284E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1675048002194387E-5</v>
+        <v>3.0705403675596596E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,27 +14931,27 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1804043572288254</v>
+        <v>2.905177057084023</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7243556650581424</v>
+        <v>2.7799547602634105</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7558311504481714</v>
+        <v>2.592118408837389</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7347889001077057</v>
+        <v>2.5980494551023203</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4867394196661912</v>
+        <v>2.3683232568249437</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.027597940450546</v>
+        <v>2.1739194413078025</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14959,23 +14959,23 @@
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7317872785345645</v>
+        <v>1.6823076420050054</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5824703422091801</v>
+        <v>1.5663226856560251</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4746095824042549</v>
+        <v>1.4156251991080846</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5223828904064418</v>
+        <v>1.4643873517242918</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4881165861122325</v>
+        <v>1.5170120538037322</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14983,47 +14983,47 @@
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.319619285282253</v>
+        <v>1.3062897975521293</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6453161396443827</v>
+        <v>1.6117382592434768</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7753706908380624</v>
+        <v>1.9435637036542999</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9530572301711844</v>
+        <v>1.8554043686626251</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0537894714849321</v>
+        <v>2.269977836904399</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1377994854846532</v>
+        <v>1.9733533712166029</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9980852154926918</v>
+        <v>2.0611826433503557</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2125808370973026</v>
+        <v>2.2789582622102214</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2249971875232504</v>
+        <v>2.1568850287215184</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1751272001303561</v>
+        <v>2.1531562183108575</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4828786416013107</v>
+        <v>2.3587347095212454</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5389344262295074E-6</v>
+        <v>8.9938524590163926E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1223674987047025E-6</v>
+        <v>5.1746365548139341E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,55 +15060,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7329455787234344E-3</v>
+        <v>8.3090161816980236E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16802158708972861</v>
+        <v>0.17495031233054217</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42775949109611905</v>
+        <v>0.43199473358221924</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55035015184589708</v>
+        <v>0.56169757765715267</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61970478934388062</v>
+        <v>0.66396941715415791</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65636898498201179</v>
+        <v>0.68951893371847706</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55414299240296594</v>
+        <v>0.57723228375308955</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46131397220995152</v>
+        <v>0.47958383249549419</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24525024237684775</v>
+        <v>0.2502047927278952</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.357398796449097E-2</v>
+        <v>5.6307354697373163E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3755206905305968E-4</v>
+        <v>3.5513290598290651E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4349144953886422E-5</v>
+        <v>6.1284899956082304E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6322346164396085E-5</v>
+        <v>1.5352701837798298E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0846994535519115E-6</v>
+        <v>9.2663934426229492E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4359818353600928E-6</v>
+        <v>5.1746365548139341E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,7 +15161,7 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6481596993183522E-3</v>
+        <v>8.8177314581285166E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15169,7 +15169,7 @@
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42352424861001886</v>
+        <v>0.43199473358221924</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15181,35 +15181,35 @@
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68951893371847706</v>
+        <v>0.6629989747293048</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57723228375308955</v>
+        <v>0.55414299240296594</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45217904206718018</v>
+        <v>0.47044890235272285</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26011389342999003</v>
+        <v>0.25515934307894261</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5214008004220286E-2</v>
+        <v>5.5760681350796724E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3403590166709027E-4</v>
+        <v>3.5864907336887592E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3123446954764769E-5</v>
+        <v>5.8833503957839012E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5837524001097193E-5</v>
+        <v>1.6483953552162382E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9938524590163926E-6</v>
+        <v>9.1755464480874303E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.965560330377007E-6</v>
+        <v>5.0178293864862386E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15266,19 +15266,19 @@
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17668249364074556</v>
+        <v>0.17841467495094895</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43199473358221924</v>
+        <v>0.41928900612391867</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53900272603464139</v>
+        <v>0.59573985509091953</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63867534411971372</v>
+        <v>0.65764589889554681</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15286,7 +15286,7 @@
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57145996091555862</v>
+        <v>0.58300460659062048</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15294,23 +15294,23 @@
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25268206790341891</v>
+        <v>0.2502047927278952</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4120661311067408E-2</v>
+        <v>5.2480641271338092E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5513290598290651E-4</v>
+        <v>3.6216524075484527E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2510597955203957E-5</v>
+        <v>6.0672050956521478E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5999131388863491E-5</v>
+        <v>1.5352701837798298E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -17001,7 +17001,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3075136612021857E-5</v>
+        <v>2.3767390710382512E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.356695620371217E-5</v>
+        <v>1.2776648075340586E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,15 +26485,15 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1776050512366189E-2</v>
+        <v>2.1141796613947755E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43279726084061382</v>
+        <v>0.42405388183373272</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1002679562386835</v>
+        <v>1.1218418377335595</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26501,39 +26501,39 @@
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5190174563798093</v>
+        <v>1.5829760861221172</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6338024477398454</v>
+        <v>1.6001157993328381</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5041134861931125</v>
+        <v>1.5336059074910167</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1367029262269213</v>
+        <v>1.1022573830079236</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62096926866045088</v>
+        <v>0.65201773209347347</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14581465407942715</v>
+        <v>0.13748238813203131</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9561239358659751E-4</v>
+        <v>8.3414879794830156E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5639519429459632E-4</v>
+        <v>1.5037999451403492E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8717897961049643E-5</v>
+        <v>3.9108987839444087E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26562,11 +26562,11 @@
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.975106553855501</v>
+        <v>2.0549088388597636</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.17246937268107</v>
+        <v>2.0053563440132955</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26574,83 +26574,83 @@
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6874303204877728</v>
+        <v>1.8472921403234566</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5858866815560706</v>
+        <v>1.6334632820027528</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4981705120076785</v>
+        <v>1.4410973496454813</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3314452443118636</v>
+        <v>1.2290263793647971</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2087684054666183</v>
+        <v>1.1969177348247888</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1438773024472262</v>
+        <v>1.0785128851645276</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1648279520527773</v>
+        <v>1.0871727552492589</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.071420689384015</v>
+        <v>1.0821348962778552</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0091484291028947</v>
+        <v>0.95919058607799879</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0533021007005841</v>
+        <v>0.98240676699958296</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2685359281589754</v>
+        <v>1.2187894211723487</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3810091604990982</v>
+        <v>1.394958747978887</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4744604438910143</v>
+        <v>1.4182905222189757</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5861144786532246</v>
+        <v>1.6019756234397571</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4937918106691654</v>
+        <v>1.5390582291742918</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5115891939648149</v>
+        <v>1.5588263562762155</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6423312614887011</v>
+        <v>1.7114820514461202</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6123094556515791</v>
+        <v>1.7130787966298029</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6131555114986291</v>
+        <v>1.678998593600614</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8632340545787685</v>
+        <v>1.7700723518498298</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.142219262295082E-5</v>
+        <v>1.130681693989071E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.849337112553717E-6</v>
+        <v>6.3883240376702929E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26691,35 +26691,35 @@
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22514200942718798</v>
+        <v>0.22951369893062853</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53934703737190359</v>
+        <v>0.55013397811934173</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70491131920435146</v>
+        <v>0.75578120821909844</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77549838562548157</v>
+        <v>0.83945701536778938</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82532288597167447</v>
+        <v>0.80005789966641905</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76680295374550833</v>
+        <v>0.72256432179865204</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59131515859279238</v>
+        <v>0.60279700633245825</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32290401970343446</v>
+        <v>0.31669432701682998</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26727,15 +26727,15 @@
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2585491263676448E-4</v>
+        <v>4.1707439897415078E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5189997257017459E-5</v>
+        <v>7.1430497394166584E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9163404041327603E-5</v>
+        <v>1.9945583798116484E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26768,7 +26768,7 @@
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3883240376702929E-6</v>
+        <v>6.3224650269726606E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,55 +26788,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0570898306973877E-2</v>
+        <v>1.0148062374694922E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22732785417890827</v>
+        <v>0.22295616467546772</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53395356699818453</v>
+        <v>0.53934703737190359</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72671270021067158</v>
+        <v>0.69764419220224472</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83945701536778938</v>
+        <v>0.81547252921442404</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85058787227692978</v>
+        <v>0.86743119648043332</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75942984842103223</v>
+        <v>0.73731053244760414</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56261053924362769</v>
+        <v>0.59705608246262531</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32290401970343446</v>
+        <v>0.31048463433022544</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1518616048480935E-2</v>
+        <v>7.2212971544097254E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5658671045591245E-4</v>
+        <v>4.4341593996199193E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8197597147298159E-5</v>
+        <v>7.7445697174727984E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0141128737313706E-5</v>
+        <v>1.8967859102130381E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2114446721311475E-5</v>
+        <v>1.1191441256830601E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3883240376702929E-6</v>
+        <v>6.4541830483679252E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,31 +26889,31 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0570898306973877E-2</v>
+        <v>1.0782316273113355E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22077031992374743</v>
+        <v>0.20765525141342581</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5231666262507465</v>
+        <v>0.53395356699818453</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76304833522120519</v>
+        <v>0.73397982721277832</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75950872818990467</v>
+        <v>0.81547252921442404</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85900953437868155</v>
+        <v>0.8169012238699227</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74468363777208013</v>
+        <v>0.71519121647417605</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26921,23 +26921,23 @@
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30117009530031869</v>
+        <v>0.32290401970343446</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5963772083550379E-2</v>
+        <v>6.9435549561631976E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2146465580545766E-4</v>
+        <v>4.1707439897415078E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7445697174727984E-5</v>
+        <v>7.3686197311877109E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.857676922373594E-5</v>
+        <v>1.9750038858919265E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3767390710382512E-5</v>
+        <v>2.284438524590164E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3435238182316905E-5</v>
+        <v>1.3171802139526378E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,55 +27240,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0718960681668799E-2</v>
+        <v>2.156463254622671E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43279726084061382</v>
+        <v>0.44154063984749486</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.046333252501493</v>
+        <v>1.0679071339963691</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4388911464171297</v>
+        <v>1.5260966704424104</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.56698642868654</v>
+        <v>1.5350071138153862</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7517057171643704</v>
+        <v>1.7180190687573631</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4008900116504479</v>
+        <v>1.4156362222993999</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1022573830079236</v>
+        <v>1.1826303171855848</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62717896134705542</v>
+        <v>0.61475957597384634</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14581465407942715</v>
+        <v>0.13192754416710076</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9561239358659751E-4</v>
+        <v>8.3414879794830156E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4887619456889457E-4</v>
+        <v>1.5037999451403492E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7935718204260761E-5</v>
+        <v>4.1064437231416293E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,11 +27313,11 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2003878831094799</v>
+        <v>2.1777034719434027</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.895304268851238</v>
+        <v>1.9950571251065665</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27325,27 +27325,27 @@
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0929399261543771</v>
+        <v>1.9118201248525559</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8472921403234566</v>
+        <v>1.7584800181925211</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6176044151871922</v>
+        <v>1.6493221488183134</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4410973496454813</v>
+        <v>1.355487606102185</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.31864288619348</v>
+        <v>1.2546310956015636</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2324697467502774</v>
+        <v>1.1969177348247888</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27353,55 +27353,55 @@
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0538919566191796</v>
+        <v>1.1648279520527773</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0821348962778552</v>
+        <v>1.0607064824901749</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0391231349178323</v>
+        <v>0.94919901747301971</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0026625766284405</v>
+        <v>1.0127904814428692</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2560993014123187</v>
+        <v>1.2809725549056319</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3810091604990982</v>
+        <v>1.3252108105799425</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4323330026369852</v>
+        <v>1.4463754830549949</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5702533338666924</v>
+        <v>1.6178367682262893</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4485253921640393</v>
+        <v>1.5239694230059164</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5115891939648149</v>
+        <v>1.6218092393580827</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.728769748935475</v>
+        <v>1.6941943539567657</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7634634671189149</v>
+        <v>1.7130787966298029</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6296162820241253</v>
+        <v>1.5802339704476367</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1768319672131148E-5</v>
+        <v>1.1191441256830601E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5200420590655566E-6</v>
+        <v>6.5859010697631888E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,15 +27442,15 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0042353391625182E-2</v>
+        <v>1.025377135776466E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21421278566858662</v>
+        <v>0.21858447517202717</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55552744849306068</v>
+        <v>0.53934703737190359</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27462,35 +27462,35 @@
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80847956176817082</v>
+        <v>0.85900953437868155</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77417605906998432</v>
+        <v>0.70044500582522395</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59131515859279238</v>
+        <v>0.55112869150396182</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30117009530031869</v>
+        <v>0.31669432701682998</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0824260552864615E-2</v>
+        <v>6.8046838570399337E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2585491263676448E-4</v>
+        <v>4.4341593996199193E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.6693797202157809E-5</v>
+        <v>7.3686197311877109E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9750038858919265E-5</v>
+        <v>2.0141128737313706E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.142219262295082E-5</v>
+        <v>1.1768319672131148E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.9151961232513485E-6</v>
+        <v>6.849337112553717E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,11 +27543,11 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0676607290043617E-2</v>
+        <v>1.0993734239252833E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20984109616514607</v>
+        <v>0.22077031992374743</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27555,23 +27555,23 @@
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71944557320856484</v>
+        <v>0.69764419220224472</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76750355690769312</v>
+        <v>0.83945701536778938</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83374454807342624</v>
+        <v>0.88427452068393697</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75942984842103223</v>
+        <v>0.74468363777208013</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5798333108531265</v>
+        <v>0.59705608246262531</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27579,19 +27579,19 @@
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.9435549561631976E-2</v>
+        <v>7.1518616048480935E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4341593996199193E-4</v>
+        <v>4.5658671045591245E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5189997257017459E-5</v>
+        <v>7.1430497394166584E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0141128737313706E-5</v>
+        <v>2.0532218615708147E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1768319672131148E-5</v>
+        <v>1.142219262295082E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7834781018560848E-6</v>
+        <v>6.3224650269726606E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,7 +27644,7 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.025377135776466E-2</v>
+        <v>1.0465189323904138E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27652,23 +27652,23 @@
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56092091886677975</v>
+        <v>0.55013397811934173</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74124695421488507</v>
+        <v>0.70491131920435146</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78349321434327002</v>
+        <v>0.79948287177884703</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85900953437868155</v>
+        <v>0.80847956176817082</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72993742712312815</v>
+        <v>0.74468363777208013</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27676,23 +27676,23 @@
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30117009530031869</v>
+        <v>0.3042749416436209</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2907327039713574E-2</v>
+        <v>6.6658127579166698E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1707439897415078E-4</v>
+        <v>4.4780619679329875E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.4438097284447284E-5</v>
+        <v>7.2934297339306934E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0532218615708147E-5</v>
+        <v>1.8967859102130381E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2382882513661202E-5</v>
+        <v>2.261363387978142E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2644930053945321E-5</v>
+        <v>1.290836609673585E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,55 +27914,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0930378647808275E-2</v>
+        <v>2.1776050512366189E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44154063984749486</v>
+        <v>0.45902739786125707</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0571201932489309</v>
+        <v>1.1110548969861214</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4388911464171297</v>
+        <v>1.3952883844044894</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5190174563798093</v>
+        <v>1.5829760861221172</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7517057171643704</v>
+        <v>1.6169591235363416</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4598748542462563</v>
+        <v>1.5336059074910167</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.159666621706253</v>
+        <v>1.2055940126649165</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63338865403365996</v>
+        <v>0.63959834672026439</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14581465407942715</v>
+        <v>0.13748238813203131</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7805136626137011E-4</v>
+        <v>9.0439290724921126E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5489139434945597E-4</v>
+        <v>1.5188379445917527E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1064437231416293E-5</v>
+        <v>4.0282257474627412E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,7 +27987,7 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3364943501059425</v>
+        <v>2.223072294275557</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27995,47 +27995,47 @@
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0889128583471828</v>
+        <v>2.068023729763711</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9923178143200322</v>
+        <v>1.9721933919531629</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7762424426187082</v>
+        <v>1.8472921403234566</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5858866815560706</v>
+        <v>1.6334632820027528</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3840241872832837</v>
+        <v>1.4125607684643824</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2418287374831802</v>
+        <v>1.2802358118383304</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.185067064182959</v>
+        <v>1.2443204173921072</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.111195093805877</v>
+        <v>1.1003010242587605</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0760791557058991</v>
+        <v>1.0538919566191796</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0607064824901749</v>
+        <v>1.0285638618086543</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0191399977078739</v>
+        <v>1.0491147035228112</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28043,43 +28043,43 @@
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1939161676790355</v>
+        <v>1.2187894211723487</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4089083354586758</v>
+        <v>1.3391603980597313</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3761630809649468</v>
+        <v>1.4323330026369852</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.665420202585886</v>
+        <v>1.5861144786532246</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5692358415110428</v>
+        <v>1.4636141983324147</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5430806355057487</v>
+        <v>1.5115891939648149</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8152082363822488</v>
+        <v>1.6596189589780561</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6962839064667656</v>
+        <v>1.6626941261406909</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6460770525496216</v>
+        <v>1.6625378230751178</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9004987356703438</v>
+        <v>1.8446017140329807</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1652943989071037E-5</v>
+        <v>1.0960689890710382E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7834781018560848E-6</v>
+        <v>6.6517600804608211E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,7 +28116,7 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0888025256183095E-2</v>
+        <v>1.0676607290043617E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28124,31 +28124,31 @@
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5231666262507465</v>
+        <v>0.55013397811934173</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69037706520013797</v>
+        <v>0.71217844620645809</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81547252921442404</v>
+        <v>0.80747770049663548</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86743119648043332</v>
+        <v>0.83374454807342624</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72993742712312815</v>
+        <v>0.71519121647417605</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56261053924362769</v>
+        <v>0.60279700633245825</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31669432701682998</v>
+        <v>0.29806524895701642</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28156,7 +28156,7 @@
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5658671045591245E-4</v>
+        <v>4.6097696728721933E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28164,7 +28164,7 @@
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9554493919722043E-5</v>
+        <v>2.0336673676510925E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1076065573770491E-5</v>
+        <v>1.0960689890710382E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5200420590655566E-6</v>
+        <v>6.6517600804608211E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,39 +28217,39 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0042353391625182E-2</v>
+        <v>1.0676607290043617E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22951369893062853</v>
+        <v>0.20765525141342581</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54474050774562266</v>
+        <v>0.5231666262507465</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69037706520013797</v>
+        <v>0.73397982721277832</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77549838562548157</v>
+        <v>0.83146218665000093</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83374454807342624</v>
+        <v>0.84216621017517801</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75942984842103223</v>
+        <v>0.70781811114969995</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55112869150396182</v>
+        <v>0.57409238698329357</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31048463433022544</v>
+        <v>0.31669432701682998</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28257,7 +28257,7 @@
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3024516946807136E-4</v>
+        <v>4.5219645362460563E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28265,7 +28265,7 @@
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9163404041327603E-5</v>
+        <v>1.857676922373594E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1191441256830601E-5</v>
+        <v>1.1883695355191256E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7834781018560848E-6</v>
+        <v>6.5859010697631888E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,55 +28318,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0888025256183095E-2</v>
+        <v>1.0148062374694922E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22077031992374743</v>
+        <v>0.22514200942718798</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51777315587702744</v>
+        <v>0.51237968550330837</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70491131920435146</v>
+        <v>0.76304833522120519</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81547252921442404</v>
+        <v>0.77549838562548157</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85058787227692978</v>
+        <v>0.84216621017517801</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72993742712312815</v>
+        <v>0.72256432179865204</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5798333108531265</v>
+        <v>0.59705608246262531</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31048463433022544</v>
+        <v>0.31358948067352771</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2907327039713574E-2</v>
+        <v>6.8741194066015657E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2146465580545766E-4</v>
+        <v>4.2585491263676448E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1430497394166584E-5</v>
+        <v>7.6693797202157809E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0141128737313706E-5</v>
+        <v>1.857676922373594E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B89A9D6-62E8-47FC-86F8-8A787A983BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FA88A3-8D2F-4710-8855-42EB6A121D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13725" yWindow="6960" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="900" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13486,7 +13486,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7624316939890707E-5</v>
+        <v>1.7806010928961748E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,11 +13510,11 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7465891157446869E-2</v>
+        <v>1.6957175881016376E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33950753679986401</v>
+        <v>0.33257881155905045</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13522,15 +13522,15 @@
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0780054520692828</v>
+        <v>1.1460900069368165</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2394095786877612</v>
+        <v>1.3152917977910936</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3259979494586096</v>
+        <v>1.3790378674369541</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13538,27 +13538,27 @@
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95916766499098838</v>
+        <v>0.89522315399158903</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47068228334950574</v>
+        <v>0.52022778685998006</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10605462923582906</v>
+        <v>0.10824132262213482</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1729814673775183E-4</v>
+        <v>7.0323347719387431E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1889270591479966E-4</v>
+        <v>1.2256979991216461E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1351833226661785E-5</v>
+        <v>3.1998262777726981E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,11 +13583,11 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.058081112720024</v>
+        <v>3.2109851683560251</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.835553855468679</v>
+        <v>2.6409570222502401</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13595,15 +13595,15 @@
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7894846781098597</v>
+        <v>2.8441804561120145</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4630561870979415</v>
+        <v>2.2499070939836967</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0066948688995097</v>
+        <v>2.1530163697567657</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13611,7 +13611,7 @@
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6328280054754465</v>
+        <v>1.6493212176519663</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13619,35 +13619,35 @@
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.430371294932127</v>
+        <v>1.5041017740523399</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4788862363948292</v>
+        <v>1.449888467053754</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4592211184207329</v>
+        <v>1.4014301830377334</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3257307195545065</v>
+        <v>1.298674990584006</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3729372362027481</v>
+        <v>1.3995962116629956</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6453161396443827</v>
+        <v>1.5949493190430239</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9248755911191626</v>
+        <v>1.8501231409786123</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9725878024728962</v>
+        <v>1.8554043686626251</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13655,11 +13655,11 @@
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0350206640671216</v>
+        <v>2.0555764283506281</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0401501673978011</v>
+        <v>2.0822151193029104</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13671,11 +13671,11 @@
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2630111274083502</v>
+        <v>2.1311852364913588</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4083922823532715</v>
+        <v>2.5077074280173237</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.1755464480874303E-6</v>
+        <v>9.5389344262295074E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0178293864862386E-6</v>
+        <v>5.1746365548139341E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,47 +13712,47 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8177314581285166E-3</v>
+        <v>8.6481596993183522E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18187903757135573</v>
+        <v>0.17148594971013539</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42352424861001886</v>
+        <v>0.43622997606831942</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55035015184589708</v>
+        <v>0.57304500346840825</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66396941715415791</v>
+        <v>0.65764589889554681</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62984902599283954</v>
+        <v>0.67625895422389093</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57723228375308955</v>
+        <v>0.58300460659062048</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47044890235272285</v>
+        <v>0.43390918178163751</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24772751755237146</v>
+        <v>0.2378184168502766</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2480641271338092E-2</v>
+        <v>5.5760681350796724E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4458440382499839E-4</v>
+        <v>3.6919757552678404E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13760,7 +13760,7 @@
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.680716832769498E-5</v>
+        <v>1.5352701837798298E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0846994535519115E-6</v>
+        <v>8.9030054644808738E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1223674987047025E-6</v>
+        <v>5.3837127792508603E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,39 +13813,39 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1394444228878593E-3</v>
+        <v>8.5633738199132701E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17321813102033878</v>
+        <v>0.169753768399932</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41505376363781848</v>
+        <v>0.43199473358221924</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53900272603464139</v>
+        <v>0.55602386475152488</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60073423456804753</v>
+        <v>0.66396941715415791</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67625895422389093</v>
+        <v>0.62984902599283954</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5887769294281513</v>
+        <v>0.57723228375308955</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45217904206718018</v>
+        <v>0.45674650713856585</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2378184168502766</v>
+        <v>0.24277296720132402</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13853,15 +13853,15 @@
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6568140814081463E-4</v>
+        <v>3.481005712109678E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3736295954325596E-5</v>
+        <v>6.0059201956960658E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.680716832769498E-5</v>
+        <v>1.6645560939928683E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2663934426229492E-6</v>
+        <v>9.4480874316939885E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4882508914693243E-6</v>
+        <v>5.4359818353600928E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,31 +13914,31 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8177314581285166E-3</v>
+        <v>8.2242303022929415E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17321813102033878</v>
+        <v>0.18014685626115234</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4447004610405198</v>
+        <v>0.42775949109611905</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59573985509091953</v>
+        <v>0.57304500346840825</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60073423456804753</v>
+        <v>0.65764589889554681</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68951893371847706</v>
+        <v>0.64310900548742567</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5656876380780278</v>
+        <v>0.60609389794074409</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13946,7 +13946,7 @@
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24525024237684775</v>
+        <v>0.24029569202580031</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13954,7 +13954,7 @@
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5161673859693715E-4</v>
+        <v>3.6919757552678404E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13962,7 +13962,7 @@
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5999131388863491E-5</v>
+        <v>1.6160738776629788E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8532786885245898E-5</v>
+        <v>1.9077868852459015E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0453811221846331E-5</v>
+        <v>1.0244734997409405E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,7 +14184,7 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6957175881016376E-2</v>
+        <v>1.6618032363396047E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14192,47 +14192,47 @@
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88093043710883923</v>
+        <v>0.80469607235903584</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1914797101818391</v>
+        <v>1.0780054520692828</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2899977247566496</v>
+        <v>1.2141155056533173</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2729580314802651</v>
+        <v>1.2994779904694373</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1890985045313645</v>
+        <v>1.2006431502064263</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89522315399158903</v>
+        <v>0.88608822384881769</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.50536413580683781</v>
+        <v>0.49050048475369551</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11042801600844057</v>
+        <v>0.10824132262213482</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0323347719387431E-4</v>
+        <v>6.962011424219356E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2011840391392132E-4</v>
+        <v>1.2379549791128626E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.264469232879217E-5</v>
+        <v>3.3291121879857366E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,43 +14257,43 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0275003015928235</v>
+        <v>3.058081112720024</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6409570222502401</v>
+        <v>2.7799547602634105</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7012602365779106</v>
+        <v>2.783116607383302</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5980494551023203</v>
+        <v>2.8441804561120145</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4393729545296923</v>
+        <v>2.4156897219614426</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1739194413078025</v>
+        <v>2.027597940450546</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8369754444938802</v>
+        <v>1.8186056900489413</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5668551567693678</v>
+        <v>1.6658144298284858</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6147656553154899</v>
+        <v>1.5824703422091801</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4746095824042549</v>
+        <v>1.5188478698763828</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14309,39 +14309,39 @@
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3329487730123768</v>
+        <v>1.3596077484726243</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7124719004461941</v>
+        <v>1.6117382592434768</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8501231409786123</v>
+        <v>1.86881125351375</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8944655132660486</v>
+        <v>1.9139960855677607</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2483590003624521</v>
+        <v>2.2267401638205051</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0966879569176409</v>
+        <v>1.9939091355001093</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9980852154926918</v>
+        <v>2.1242800712080196</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1683292203553566</v>
+        <v>2.1240776036134101</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3385174521928045</v>
+        <v>2.1568850287215184</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14349,7 +14349,7 @@
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5325362144333368</v>
+        <v>2.3587347095212454</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7213114754098344E-6</v>
+        <v>8.6304644808743156E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.965560330377007E-6</v>
+        <v>5.0178293864862386E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14394,7 +14394,7 @@
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44046521855441961</v>
+        <v>0.42775949109611905</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14402,39 +14402,39 @@
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60705775282665864</v>
+        <v>0.65764589889554681</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66962896447659781</v>
+        <v>0.64310900548742567</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5887769294281513</v>
+        <v>0.58300460659062048</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43390918178163751</v>
+        <v>0.43847664685302318</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25268206790341891</v>
+        <v>0.25763661825446632</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.357398796449097E-2</v>
+        <v>5.6307354697373163E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6919757552678404E-4</v>
+        <v>3.3755206905305968E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0059201956960658E-5</v>
+        <v>5.8220654958278186E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5999131388863491E-5</v>
+        <v>1.6645560939928683E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14467,7 +14467,7 @@
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.070098442595471E-6</v>
+        <v>5.2269056109231657E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,47 +14487,47 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8177314581285166E-3</v>
+        <v>8.5633738199132701E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17668249364074556</v>
+        <v>0.18187903757135573</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44046521855441961</v>
+        <v>0.40234803617951792</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55035015184589708</v>
+        <v>0.56737129056278046</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64499886237832482</v>
+        <v>0.61338127108526963</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63647901574013255</v>
+        <v>0.62984902599283954</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58300460659062048</v>
+        <v>0.5656876380780278</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43390918178163751</v>
+        <v>0.44304411192440885</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24525024237684775</v>
+        <v>0.25763661825446632</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4120661311067408E-2</v>
+        <v>5.357398796449097E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4106823643902904E-4</v>
+        <v>3.3755206905305968E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2663934426229492E-6</v>
+        <v>9.1755464480874303E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.965560330377007E-6</v>
+        <v>5.0178293864862386E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,39 +14588,39 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4785879405081879E-3</v>
+        <v>8.902517337533597E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16628940577952522</v>
+        <v>0.18014685626115234</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44046521855441961</v>
+        <v>0.41928900612391867</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53900272603464139</v>
+        <v>0.54467643894026918</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61338127108526963</v>
+        <v>0.60705775282665864</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64973899523471867</v>
+        <v>0.69614892346577006</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54837066956543501</v>
+        <v>0.57723228375308955</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43847664685302318</v>
+        <v>0.46131397220995152</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24772751755237146</v>
+        <v>0.25268206790341891</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14628,15 +14628,15 @@
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5161673859693715E-4</v>
+        <v>3.5864907336887592E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.189774895564313E-5</v>
+        <v>6.3123446954764769E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5675916613330893E-5</v>
+        <v>1.6160738776629788E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7987704918032785E-5</v>
+        <v>1.8532786885245898E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0349273109627868E-5</v>
+        <v>1.0035658772972477E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,7 +14858,7 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6448460604585883E-2</v>
+        <v>1.6787604122206212E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14866,11 +14866,11 @@
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86398946716443847</v>
+        <v>0.80469607235903584</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1460900069368165</v>
+        <v>1.1233951553143053</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14878,23 +14878,23 @@
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3922978469315401</v>
+        <v>1.2729580314802651</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2006431502064263</v>
+        <v>1.166009213181241</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95916766499098838</v>
+        <v>0.93176287456267437</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.49545503510474292</v>
+        <v>0.51031868615788523</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1137080560878992</v>
+        <v>0.10496128254267618</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14902,11 +14902,11 @@
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2869828990777284E-4</v>
+        <v>1.2011840391392132E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0705403675596596E-5</v>
+        <v>3.361433665538996E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,63 +14931,63 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.905177057084023</v>
+        <v>3.0275003015928235</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7799547602634105</v>
+        <v>2.6409570222502401</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.592118408837389</v>
+        <v>2.6194038657725196</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5980494551023203</v>
+        <v>2.6800931221055517</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3683232568249437</v>
+        <v>2.3209567916884448</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1739194413078025</v>
+        <v>2.0694040835526191</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8369754444938802</v>
+        <v>1.8920847078286966</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6823076420050054</v>
+        <v>1.6658144298284858</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5663226856560251</v>
+        <v>1.6309133118686447</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4156251991080846</v>
+        <v>1.4746095824042549</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4643873517242918</v>
+        <v>1.5223828904064418</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5170120538037322</v>
+        <v>1.4881165861122325</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4204257709512569</v>
+        <v>1.3527864485250065</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3062897975521293</v>
+        <v>1.3729372362027481</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6117382592434768</v>
+        <v>1.6621050798448356</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14995,35 +14995,35 @@
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8554043686626251</v>
+        <v>2.0116489470763197</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.269977836904399</v>
+        <v>2.1835024907366121</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9733533712166029</v>
+        <v>2.117243721201147</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0611826433503557</v>
+        <v>2.0822151193029104</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2789582622102214</v>
+        <v>2.3232098789521678</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1568850287215184</v>
+        <v>2.2931093463249828</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1531562183108575</v>
+        <v>2.2410401455888516</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3587347095212454</v>
+        <v>2.5573650008493503</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9938524590163926E-6</v>
+        <v>9.5389344262295074E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1746365548139341E-6</v>
+        <v>5.0178293864862386E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15064,7 +15064,7 @@
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17495031233054217</v>
+        <v>0.17668249364074556</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15072,23 +15072,23 @@
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56169757765715267</v>
+        <v>0.57871871637403605</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66396941715415791</v>
+        <v>0.61970478934388062</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68951893371847706</v>
+        <v>0.64310900548742567</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57723228375308955</v>
+        <v>0.54837066956543501</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47958383249549419</v>
+        <v>0.47044890235272285</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15096,19 +15096,19 @@
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6307354697373163E-2</v>
+        <v>5.6854028043949602E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5513290598290651E-4</v>
+        <v>3.3755206905305968E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.1284899956082304E-5</v>
+        <v>6.4349144953886422E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5352701837798298E-5</v>
+        <v>1.5999131388863491E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15141,7 +15141,7 @@
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1746365548139341E-6</v>
+        <v>5.1223674987047025E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,55 +15161,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8177314581285166E-3</v>
+        <v>8.2242303022929415E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16628940577952522</v>
+        <v>0.17321813102033878</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43199473358221924</v>
+        <v>0.40234803617951792</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55602386475152488</v>
+        <v>0.59573985509091953</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65132238063693582</v>
+        <v>0.66396941715415791</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6629989747293048</v>
+        <v>0.65636898498201179</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55414299240296594</v>
+        <v>0.60032157510321316</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47044890235272285</v>
+        <v>0.43390918178163751</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25515934307894261</v>
+        <v>0.24029569202580031</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5760681350796724E-2</v>
+        <v>5.3027314617914531E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5864907336887592E-4</v>
+        <v>3.3403590166709027E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8833503957839012E-5</v>
+        <v>5.9446352957399832E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6483953552162382E-5</v>
+        <v>1.6645560939928683E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.1755464480874303E-6</v>
+        <v>8.9030054644808738E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0178293864862386E-6</v>
+        <v>4.965560330377007E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,7 +15262,7 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6481596993183522E-3</v>
+        <v>8.1394444228878593E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15274,11 +15274,11 @@
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59573985509091953</v>
+        <v>0.59006614218529174</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65764589889554681</v>
+        <v>0.60073423456804753</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15286,27 +15286,27 @@
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58300460659062048</v>
+        <v>0.60609389794074409</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47958383249549419</v>
+        <v>0.43847664685302318</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2502047927278952</v>
+        <v>0.24525024237684775</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2480641271338092E-2</v>
+        <v>5.1933967924761654E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6216524075484527E-4</v>
+        <v>3.3403590166709027E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0672050956521478E-5</v>
+        <v>6.2510597955203957E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -17001,7 +17001,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3767390710382512E-5</v>
+        <v>2.422889344262295E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2776648075340586E-5</v>
+        <v>1.3171802139526378E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26489,27 +26489,27 @@
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42405388183373272</v>
+        <v>0.42842557133717324</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1218418377335595</v>
+        <v>1.1326287784809976</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3807541304002759</v>
+        <v>1.3952883844044894</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5829760861221172</v>
+        <v>1.5509967712509631</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6001157993328381</v>
+        <v>1.7517057171643704</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5336059074910167</v>
+        <v>1.4746210648952083</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26517,23 +26517,23 @@
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65201773209347347</v>
+        <v>0.64580803940686893</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13748238813203131</v>
+        <v>0.13192754416710076</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3414879794830156E-4</v>
+        <v>9.0439290724921126E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5037999451403492E-4</v>
+        <v>1.5489139434945597E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9108987839444087E-5</v>
+        <v>4.0282257474627412E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,19 +26558,19 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2457567054416341</v>
+        <v>2.2003878831094799</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0549088388597636</v>
+        <v>2.0150076963576322</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0053563440132955</v>
+        <v>2.0471346011802392</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9923178143200322</v>
+        <v>1.9721933919531629</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26582,67 +26582,67 @@
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4410973496454813</v>
+        <v>1.355487606102185</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2290263793647971</v>
+        <v>1.31864288619348</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1969177348247888</v>
+        <v>1.2443204173921072</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0785128851645276</v>
+        <v>1.1003010242587605</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0871727552492589</v>
+        <v>1.1426407529660578</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0821348962778552</v>
+        <v>1.0499922755963347</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95919058607799879</v>
+        <v>0.97917372328795715</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98240676699958296</v>
+        <v>1.0533021007005841</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2187894211723487</v>
+        <v>1.1939161676790355</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.394958747978887</v>
+        <v>1.4368075104182534</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4182905222189757</v>
+        <v>1.3761630809649468</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6019756234397571</v>
+        <v>1.5226698995070955</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5390582291742918</v>
+        <v>1.508880616837541</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5588263562762155</v>
+        <v>1.590317797817149</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7114820514461202</v>
+        <v>1.797920538892894</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7130787966298029</v>
+        <v>1.7298736867928401</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26650,7 +26650,7 @@
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7700723518498298</v>
+        <v>1.8446017140329807</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.130681693989071E-5</v>
+        <v>1.1768319672131148E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3883240376702929E-6</v>
+        <v>6.9151961232513485E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,19 +26687,19 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0570898306973877E-2</v>
+        <v>1.0676607290043617E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22951369893062853</v>
+        <v>0.21639863042030691</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55013397811934173</v>
+        <v>0.56631438924049882</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75578120821909844</v>
+        <v>0.69764419220224472</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26707,35 +26707,35 @@
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80005789966641905</v>
+        <v>0.8169012238699227</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72256432179865204</v>
+        <v>0.70044500582522395</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60279700633245825</v>
+        <v>0.55686961537379476</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31669432701682998</v>
+        <v>0.31358948067352771</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7352483074783018E-2</v>
+        <v>7.0824260552864615E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1707439897415078E-4</v>
+        <v>4.3463542629937818E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1430497394166584E-5</v>
+        <v>7.2182397366736759E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9945583798116484E-5</v>
+        <v>1.9554493919722043E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1999071038251367E-5</v>
+        <v>1.142219262295082E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3224650269726606E-6</v>
+        <v>6.7834781018560848E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,47 +26788,47 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0148062374694922E-2</v>
+        <v>1.0782316273113355E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22295616467546772</v>
+        <v>0.20765525141342581</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53934703737190359</v>
+        <v>0.54474050774562266</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69764419220224472</v>
+        <v>0.73397982721277832</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81547252921442404</v>
+        <v>0.79148804306105858</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86743119648043332</v>
+        <v>0.82532288597167447</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73731053244760414</v>
+        <v>0.75205674309655623</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59705608246262531</v>
+        <v>0.56261053924362769</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31048463433022544</v>
+        <v>0.32290401970343446</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2212971544097254E-2</v>
+        <v>7.2907327039713574E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4341593996199193E-4</v>
+        <v>4.3902568313068505E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26836,7 +26836,7 @@
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8967859102130381E-5</v>
+        <v>1.9554493919722043E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1191441256830601E-5</v>
+        <v>1.130681693989071E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4541830483679252E-6</v>
+        <v>6.5859010697631888E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,39 +26889,39 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0782316273113355E-2</v>
+        <v>1.0570898306973877E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20765525141342581</v>
+        <v>0.21858447517202717</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53395356699818453</v>
+        <v>0.54474050774562266</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73397982721277832</v>
+        <v>0.69037706520013797</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81547252921442404</v>
+        <v>0.76750355690769312</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8169012238699227</v>
+        <v>0.82532288597167447</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71519121647417605</v>
+        <v>0.72256432179865204</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60279700633245825</v>
+        <v>0.54538776763412888</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32290401970343446</v>
+        <v>0.30117009530031869</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26929,11 +26929,11 @@
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1707439897415078E-4</v>
+        <v>4.4341593996199193E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.3686197311877109E-5</v>
+        <v>7.5941897229587634E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.284438524590164E-5</v>
+        <v>2.2152131147540982E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3171802139526378E-5</v>
+        <v>1.3698674225107434E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,11 +27240,11 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.156463254622671E-2</v>
+        <v>2.1776050512366189E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44154063984749486</v>
+        <v>0.42842557133717324</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27256,39 +27256,39 @@
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5350071138153862</v>
+        <v>1.56698642868654</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7180190687573631</v>
+        <v>1.684332420350356</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4156362222993999</v>
+        <v>1.4598748542462563</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1826303171855848</v>
+        <v>1.1137392307475895</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61475957597384634</v>
+        <v>0.60234019060063737</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13192754416710076</v>
+        <v>0.13887109912326395</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3414879794830156E-4</v>
+        <v>8.4292931161091531E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5037999451403492E-4</v>
+        <v>1.5489139434945597E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1064437231416293E-5</v>
+        <v>3.9108987839444087E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,99 +27313,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1777034719434027</v>
+        <v>2.2003878831094799</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9950571251065665</v>
+        <v>2.0150076963576322</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9844672154298235</v>
+        <v>2.0262454725967673</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9118201248525559</v>
+        <v>1.931944547219425</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7584800181925211</v>
+        <v>1.8295297158972694</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6493221488183134</v>
+        <v>1.6017455483716314</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.355487606102185</v>
+        <v>1.4125607684643824</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2546310956015636</v>
+        <v>1.3058405280750971</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1969177348247888</v>
+        <v>1.1732163935411295</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0894069547116441</v>
+        <v>1.0567247460702947</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1648279520527773</v>
+        <v>1.1537343525094177</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0607064824901749</v>
+        <v>1.1249917238532159</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94919901747301971</v>
+        <v>0.96918215468297808</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0127904814428692</v>
+        <v>0.99253467181401167</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2809725549056319</v>
+        <v>1.1939161676790355</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3252108105799425</v>
+        <v>1.4507570978980424</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4463754830549949</v>
+        <v>1.3480781201289271</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6178367682262893</v>
+        <v>1.5226698995070955</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5239694230059164</v>
+        <v>1.508880616837541</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6218092393580827</v>
+        <v>1.5115891939648149</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6941943539567657</v>
+        <v>1.74605744642483</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7130787966298029</v>
+        <v>1.7298736867928401</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5802339704476367</v>
+        <v>1.6460770525496216</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7887046923956176</v>
+        <v>1.8446017140329807</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1191441256830601E-5</v>
+        <v>1.1076065573770491E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5859010697631888E-6</v>
+        <v>6.7176190911584525E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,55 +27442,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.025377135776466E-2</v>
+        <v>1.1099443222322572E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21858447517202717</v>
+        <v>0.20765525141342581</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53934703737190359</v>
+        <v>0.53395356699818453</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70491131920435146</v>
+        <v>0.72671270021067158</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79948287177884703</v>
+        <v>0.80747770049663548</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85900953437868155</v>
+        <v>0.80005789966641905</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70044500582522395</v>
+        <v>0.74468363777208013</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55112869150396182</v>
+        <v>0.55686961537379476</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31669432701682998</v>
+        <v>0.29806524895701642</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8046838570399337E-2</v>
+        <v>7.0129905057248296E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4341593996199193E-4</v>
+        <v>4.4780619679329875E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.3686197311877109E-5</v>
+        <v>7.8197597147298159E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0141128737313706E-5</v>
+        <v>1.9358948980524821E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1768319672131148E-5</v>
+        <v>1.0960689890710382E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.849337112553717E-6</v>
+        <v>6.2566060162750292E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,35 +27543,35 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0993734239252833E-2</v>
+        <v>1.0570898306973877E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22077031992374743</v>
+        <v>0.21858447517202717</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53934703737190359</v>
+        <v>0.56631438924049882</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69764419220224472</v>
+        <v>0.74124695421488507</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83945701536778938</v>
+        <v>0.79148804306105858</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88427452068393697</v>
+        <v>0.80005789966641905</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74468363777208013</v>
+        <v>0.72256432179865204</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59705608246262531</v>
+        <v>0.54538776763412888</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27579,19 +27579,19 @@
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1518616048480935E-2</v>
+        <v>6.7352483074783018E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5658671045591245E-4</v>
+        <v>4.4780619679329875E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1430497394166584E-5</v>
+        <v>7.8197597147298159E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0532218615708147E-5</v>
+        <v>1.9358948980524821E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.142219262295082E-5</v>
+        <v>1.1768319672131148E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3224650269726606E-6</v>
+        <v>6.7176190911584525E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,23 +27644,23 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0465189323904138E-2</v>
+        <v>1.0993734239252833E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22732785417890827</v>
+        <v>0.22951369893062853</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55013397811934173</v>
+        <v>0.51237968550330837</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70491131920435146</v>
+        <v>0.7485140812169917</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79948287177884703</v>
+        <v>0.82346735793221248</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27668,15 +27668,15 @@
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74468363777208013</v>
+        <v>0.71519121647417605</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58557423472295944</v>
+        <v>0.60279700633245825</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3042749416436209</v>
+        <v>0.30737978798692317</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27684,15 +27684,15 @@
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4780619679329875E-4</v>
+        <v>4.6097696728721933E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2934297339306934E-5</v>
+        <v>7.6693797202157809E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8967859102130381E-5</v>
+        <v>1.857676922373594E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27894,7 +27894,7 @@
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.290836609673585E-5</v>
+        <v>1.3040084118131113E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,55 +27914,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1776050512366189E-2</v>
+        <v>2.1353214580087234E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45902739786125707</v>
+        <v>0.45028401885437597</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1110548969861214</v>
+        <v>1.0355463117540549</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3952883844044894</v>
+        <v>1.4679596544255566</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5829760861221172</v>
+        <v>1.5989657435576941</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6169591235363416</v>
+        <v>1.7011757445538596</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5336059074910167</v>
+        <v>1.5041134861931125</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2055940126649165</v>
+        <v>1.1022573830079236</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63959834672026439</v>
+        <v>0.6085498832872418</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13748238813203131</v>
+        <v>0.14442594308819451</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0439290724921126E-4</v>
+        <v>8.6049033893614271E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5188379445917527E-4</v>
+        <v>1.5037999451403492E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0282257474627412E-5</v>
+        <v>4.1064437231416293E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,75 +27987,75 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.223072294275557</v>
+        <v>2.3364943501059425</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0349582676086979</v>
+        <v>2.0150076963576322</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.068023729763711</v>
+        <v>1.9844672154298235</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9721933919531629</v>
+        <v>2.0929399261543771</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8472921403234566</v>
+        <v>1.7051927449139597</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6334632820027528</v>
+        <v>1.5858866815560706</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4125607684643824</v>
+        <v>1.3697558966927346</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2802358118383304</v>
+        <v>1.2162240212464137</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2443204173921072</v>
+        <v>1.1495150522574702</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1003010242587605</v>
+        <v>1.0349366069760619</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0538919566191796</v>
+        <v>1.1426407529660578</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0285638618086543</v>
+        <v>1.0178496549148142</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0491147035228112</v>
+        <v>0.97917372328795715</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0229183862572979</v>
+        <v>1.0634300055150128</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2187894211723487</v>
+        <v>1.2312260479190054</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3391603980597313</v>
+        <v>1.3252108105799425</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4323330026369852</v>
+        <v>1.4463754830549949</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5861144786532246</v>
+        <v>1.5068087547205633</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28063,23 +28063,23 @@
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5115891939648149</v>
+        <v>1.6533006808990165</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6596189589780561</v>
+        <v>1.74605744642483</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6626941261406909</v>
+        <v>1.7298736867928401</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6625378230751178</v>
+        <v>1.5802339704476367</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8446017140329807</v>
+        <v>1.9377634167619193</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0960689890710382E-5</v>
+        <v>1.130681693989071E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6517600804608211E-6</v>
+        <v>6.2566060162750292E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28120,31 +28120,31 @@
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21858447517202717</v>
+        <v>0.22732785417890827</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55013397811934173</v>
+        <v>0.51777315587702744</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71217844620645809</v>
+        <v>0.70491131920435146</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80747770049663548</v>
+        <v>0.83146218665000093</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83374454807342624</v>
+        <v>0.85900953437868155</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71519121647417605</v>
+        <v>0.70044500582522395</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60279700633245825</v>
+        <v>0.5798333108531265</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28152,19 +28152,19 @@
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1518616048480935E-2</v>
+        <v>7.2212971544097254E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6097696728721933E-4</v>
+        <v>4.3024516946807136E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7445697174727984E-5</v>
+        <v>7.8197597147298159E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0336673676510925E-5</v>
+        <v>1.9163404041327603E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,7 +28193,7 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0960689890710382E-5</v>
+        <v>1.130681693989071E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,51 +28217,51 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0676607290043617E-2</v>
+        <v>1.0782316273113355E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20765525141342581</v>
+        <v>0.21421278566858662</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5231666262507465</v>
+        <v>0.56631438924049882</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73397982721277832</v>
+        <v>0.71944557320856484</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83146218665000093</v>
+        <v>0.77549838562548157</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84216621017517801</v>
+        <v>0.83374454807342624</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70781811114969995</v>
+        <v>0.75205674309655623</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57409238698329357</v>
+        <v>0.60279700633245825</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31669432701682998</v>
+        <v>0.32290401970343446</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0129905057248296E-2</v>
+        <v>6.5963772083550379E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5219645362460563E-4</v>
+        <v>4.4341593996199193E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.6693797202157809E-5</v>
+        <v>7.5189997257017459E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28298,7 +28298,7 @@
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5859010697631888E-6</v>
+        <v>6.4541830483679252E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,19 +28318,19 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0148062374694922E-2</v>
+        <v>1.03594803408344E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22514200942718798</v>
+        <v>0.22951369893062853</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51237968550330837</v>
+        <v>0.54474050774562266</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76304833522120519</v>
+        <v>0.71944557320856484</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28338,35 +28338,35 @@
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84216621017517801</v>
+        <v>0.85900953437868155</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72256432179865204</v>
+        <v>0.70781811114969995</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59705608246262531</v>
+        <v>0.56835146311346063</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31358948067352771</v>
+        <v>0.32600886604673673</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8741194066015657E-2</v>
+        <v>6.8046838570399337E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2585491263676448E-4</v>
+        <v>4.2146465580545766E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.6693797202157809E-5</v>
+        <v>7.8197597147298159E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.857676922373594E-5</v>
+        <v>1.9163404041327603E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FA88A3-8D2F-4710-8855-42EB6A121D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2145AB9-9AD3-43E4-AD33-F87130CC49FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="900" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5040" yWindow="4290" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.15</v>
+            <v>0.1</v>
           </cell>
         </row>
       </sheetData>
@@ -8967,7 +8967,7 @@
       </c>
       <c r="B7" s="4">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7806010928961748E-5</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0871963670720186E-5</v>
+        <v>0</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,55 +13510,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6957175881016376E-2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33257881155905045</v>
+        <v>0</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80469607235903584</v>
+        <v>0</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1460900069368165</v>
+        <v>0</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3152917977910936</v>
+        <v>0</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3790378674369541</v>
+        <v>0</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2006431502064263</v>
+        <v>0</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89522315399158903</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52022778685998006</v>
+        <v>0</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10824132262213482</v>
+        <v>0</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0323347719387431E-4</v>
+        <v>0</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2256979991216461E-4</v>
+        <v>0</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1998262777726981E-5</v>
+        <v>0</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,99 +13583,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2109851683560251</v>
+        <v>0</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6409570222502401</v>
+        <v>0</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.864972978188693</v>
+        <v>0</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8441804561120145</v>
+        <v>0</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2499070939836967</v>
+        <v>0</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1530163697567657</v>
+        <v>0</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7451266722691861</v>
+        <v>0</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6493212176519663</v>
+        <v>0</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6955039380812644</v>
+        <v>0</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5041017740523399</v>
+        <v>0</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.449888467053754</v>
+        <v>0</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4014301830377334</v>
+        <v>0</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.298674990584006</v>
+        <v>0</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3995962116629956</v>
+        <v>0</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5949493190430239</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8501231409786123</v>
+        <v>0</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8554043686626251</v>
+        <v>0</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0970271445688256</v>
+        <v>0</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0555764283506281</v>
+        <v>0</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0822151193029104</v>
+        <v>0</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2347066454682754</v>
+        <v>0</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2477012404571615</v>
+        <v>0</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1311852364913588</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5077074280173237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5389344262295074E-6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1746365548139341E-6</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,55 +13712,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6481596993183522E-3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17148594971013539</v>
+        <v>0</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43622997606831942</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57304500346840825</v>
+        <v>0</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65764589889554681</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67625895422389093</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58300460659062048</v>
+        <v>0</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43390918178163751</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2378184168502766</v>
+        <v>0</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5760681350796724E-2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6919757552678404E-4</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2510597955203957E-5</v>
+        <v>0</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5352701837798298E-5</v>
+        <v>0</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9030054644808738E-6</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3837127792508603E-6</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,55 +13813,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.5633738199132701E-3</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.169753768399932</v>
+        <v>0</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43199473358221924</v>
+        <v>0</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55602386475152488</v>
+        <v>0</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66396941715415791</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62984902599283954</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57723228375308955</v>
+        <v>0</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45674650713856585</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24277296720132402</v>
+        <v>0</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3027314617914531E-2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.481005712109678E-4</v>
+        <v>0</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0059201956960658E-5</v>
+        <v>0</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6645560939928683E-5</v>
+        <v>0</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.4480874316939885E-6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4359818353600928E-6</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,55 +13914,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2242303022929415E-3</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18014685626115234</v>
+        <v>0</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42775949109611905</v>
+        <v>0</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57304500346840825</v>
+        <v>0</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65764589889554681</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64310900548742567</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60609389794074409</v>
+        <v>0</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47958383249549419</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24029569202580031</v>
+        <v>0</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5760681350796724E-2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6919757552678404E-4</v>
+        <v>0</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9446352957399832E-5</v>
+        <v>0</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6160738776629788E-5</v>
+        <v>0</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9077868852459015E-5</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0244734997409405E-5</v>
+        <v>0</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,55 +14184,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6618032363396047E-2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36029371252230469</v>
+        <v>0</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80469607235903584</v>
+        <v>0</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0780054520692828</v>
+        <v>0</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2141155056533173</v>
+        <v>0</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2994779904694373</v>
+        <v>0</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2006431502064263</v>
+        <v>0</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88608822384881769</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.49050048475369551</v>
+        <v>0</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10824132262213482</v>
+        <v>0</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.962011424219356E-4</v>
+        <v>0</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2379549791128626E-4</v>
+        <v>0</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3291121879857366E-5</v>
+        <v>0</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,99 +14257,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.058081112720024</v>
+        <v>0</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7799547602634105</v>
+        <v>0</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.783116607383302</v>
+        <v>0</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8441804561120145</v>
+        <v>0</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4156897219614426</v>
+        <v>0</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.027597940450546</v>
+        <v>0</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8186056900489413</v>
+        <v>0</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6658144298284858</v>
+        <v>0</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5824703422091801</v>
+        <v>0</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5188478698763828</v>
+        <v>0</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.420890697712679</v>
+        <v>0</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5170120538037322</v>
+        <v>0</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4204257709512569</v>
+        <v>0</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3596077484726243</v>
+        <v>0</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6117382592434768</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.86881125351375</v>
+        <v>0</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9139960855677607</v>
+        <v>0</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2267401638205051</v>
+        <v>0</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9939091355001093</v>
+        <v>0</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1242800712080196</v>
+        <v>0</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1240776036134101</v>
+        <v>0</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1568850287215184</v>
+        <v>0</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0872432728523616</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3587347095212454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6304644808743156E-6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0178293864862386E-6</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,55 +14386,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.5633738199132701E-3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18187903757135573</v>
+        <v>0</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42775949109611905</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59573985509091953</v>
+        <v>0</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65764589889554681</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64310900548742567</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58300460659062048</v>
+        <v>0</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43847664685302318</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25763661825446632</v>
+        <v>0</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6307354697373163E-2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3755206905305968E-4</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8220654958278186E-5</v>
+        <v>0</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6645560939928683E-5</v>
+        <v>0</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0846994535519115E-6</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2269056109231657E-6</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,55 +14487,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.5633738199132701E-3</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18187903757135573</v>
+        <v>0</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40234803617951792</v>
+        <v>0</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56737129056278046</v>
+        <v>0</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61338127108526963</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62984902599283954</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5656876380780278</v>
+        <v>0</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44304411192440885</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25763661825446632</v>
+        <v>0</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.357398796449097E-2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3755206905305968E-4</v>
+        <v>0</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8833503957839012E-5</v>
+        <v>0</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5999131388863491E-5</v>
+        <v>0</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.1755464480874303E-6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0178293864862386E-6</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,55 +14588,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.902517337533597E-3</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18014685626115234</v>
+        <v>0</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41928900612391867</v>
+        <v>0</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54467643894026918</v>
+        <v>0</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60705775282665864</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69614892346577006</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57723228375308955</v>
+        <v>0</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46131397220995152</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25268206790341891</v>
+        <v>0</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.357398796449097E-2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5864907336887592E-4</v>
+        <v>0</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3123446954764769E-5</v>
+        <v>0</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6160738776629788E-5</v>
+        <v>0</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8532786885245898E-5</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0035658772972477E-5</v>
+        <v>0</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,55 +14858,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6787604122206212E-2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32911444893864367</v>
+        <v>0</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80469607235903584</v>
+        <v>0</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1233951553143053</v>
+        <v>0</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2267625421705393</v>
+        <v>0</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2729580314802651</v>
+        <v>0</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.166009213181241</v>
+        <v>0</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.93176287456267437</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51031868615788523</v>
+        <v>0</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10496128254267618</v>
+        <v>0</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.3839515105356807E-4</v>
+        <v>0</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2011840391392132E-4</v>
+        <v>0</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.361433665538996E-5</v>
+        <v>0</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,99 +14931,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0275003015928235</v>
+        <v>0</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6409570222502401</v>
+        <v>0</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6194038657725196</v>
+        <v>0</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6800931221055517</v>
+        <v>0</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3209567916884448</v>
+        <v>0</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0694040835526191</v>
+        <v>0</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8920847078286966</v>
+        <v>0</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6658144298284858</v>
+        <v>0</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6309133118686447</v>
+        <v>0</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4746095824042549</v>
+        <v>0</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5223828904064418</v>
+        <v>0</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4881165861122325</v>
+        <v>0</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3527864485250065</v>
+        <v>0</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3729372362027481</v>
+        <v>0</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6621050798448356</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9435637036542999</v>
+        <v>0</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0116489470763197</v>
+        <v>0</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1835024907366121</v>
+        <v>0</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.117243721201147</v>
+        <v>0</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0822151193029104</v>
+        <v>0</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3232098789521678</v>
+        <v>0</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2931093463249828</v>
+        <v>0</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2410401455888516</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5573650008493503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5389344262295074E-6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0178293864862386E-6</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,55 +15060,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3090161816980236E-3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17668249364074556</v>
+        <v>0</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43199473358221924</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57871871637403605</v>
+        <v>0</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61970478934388062</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64310900548742567</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54837066956543501</v>
+        <v>0</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47044890235272285</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2502047927278952</v>
+        <v>0</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6854028043949602E-2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3755206905305968E-4</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4349144953886422E-5</v>
+        <v>0</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5999131388863491E-5</v>
+        <v>0</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2663934426229492E-6</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1223674987047025E-6</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,55 +15161,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2242303022929415E-3</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17321813102033878</v>
+        <v>0</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40234803617951792</v>
+        <v>0</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59573985509091953</v>
+        <v>0</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66396941715415791</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65636898498201179</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60032157510321316</v>
+        <v>0</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43390918178163751</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24029569202580031</v>
+        <v>0</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3027314617914531E-2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3403590166709027E-4</v>
+        <v>0</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9446352957399832E-5</v>
+        <v>0</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6645560939928683E-5</v>
+        <v>0</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9030054644808738E-6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.965560330377007E-6</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,55 +15262,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1394444228878593E-3</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17841467495094895</v>
+        <v>0</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41928900612391867</v>
+        <v>0</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59006614218529174</v>
+        <v>0</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60073423456804753</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67625895422389093</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60609389794074409</v>
+        <v>0</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43847664685302318</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24525024237684775</v>
+        <v>0</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1933967924761654E-2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3403590166709027E-4</v>
+        <v>0</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2510597955203957E-5</v>
+        <v>0</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5352701837798298E-5</v>
+        <v>0</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -17001,7 +17001,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17025,7 +17025,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -17036,7 +17036,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -17047,7 +17047,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -17058,7 +17058,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -17069,7 +17069,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.422889344262295E-5</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3171802139526378E-5</v>
+        <v>0</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,55 +26485,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1141796613947755E-2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42842557133717324</v>
+        <v>0</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1326287784809976</v>
+        <v>0</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3952883844044894</v>
+        <v>0</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5509967712509631</v>
+        <v>0</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7517057171643704</v>
+        <v>0</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4746210648952083</v>
+        <v>0</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1022573830079236</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64580803940686893</v>
+        <v>0</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13192754416710076</v>
+        <v>0</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0439290724921126E-4</v>
+        <v>0</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5489139434945597E-4</v>
+        <v>0</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0282257474627412E-5</v>
+        <v>0</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,99 +26558,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2003878831094799</v>
+        <v>0</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0150076963576322</v>
+        <v>0</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0471346011802392</v>
+        <v>0</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9721933919531629</v>
+        <v>0</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8472921403234566</v>
+        <v>0</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6334632820027528</v>
+        <v>0</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.355487606102185</v>
+        <v>0</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.31864288619348</v>
+        <v>0</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2443204173921072</v>
+        <v>0</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1003010242587605</v>
+        <v>0</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1426407529660578</v>
+        <v>0</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0499922755963347</v>
+        <v>0</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97917372328795715</v>
+        <v>0</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0533021007005841</v>
+        <v>0</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1939161676790355</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4368075104182534</v>
+        <v>0</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3761630809649468</v>
+        <v>0</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5226698995070955</v>
+        <v>0</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.508880616837541</v>
+        <v>0</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.590317797817149</v>
+        <v>0</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.797920538892894</v>
+        <v>0</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7298736867928401</v>
+        <v>0</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.678998593600614</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8446017140329807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1768319672131148E-5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.9151961232513485E-6</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,55 +26687,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0676607290043617E-2</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21639863042030691</v>
+        <v>0</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56631438924049882</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69764419220224472</v>
+        <v>0</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83945701536778938</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8169012238699227</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70044500582522395</v>
+        <v>0</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55686961537379476</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31358948067352771</v>
+        <v>0</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0824260552864615E-2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3463542629937818E-4</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2182397366736759E-5</v>
+        <v>0</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9554493919722043E-5</v>
+        <v>0</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.142219262295082E-5</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7834781018560848E-6</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,55 +26788,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0782316273113355E-2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20765525141342581</v>
+        <v>0</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54474050774562266</v>
+        <v>0</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73397982721277832</v>
+        <v>0</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79148804306105858</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82532288597167447</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75205674309655623</v>
+        <v>0</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56261053924362769</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32290401970343446</v>
+        <v>0</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2907327039713574E-2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3902568313068505E-4</v>
+        <v>0</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7445697174727984E-5</v>
+        <v>0</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9554493919722043E-5</v>
+        <v>0</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.130681693989071E-5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5859010697631888E-6</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,55 +26889,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0570898306973877E-2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21858447517202717</v>
+        <v>0</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54474050774562266</v>
+        <v>0</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69037706520013797</v>
+        <v>0</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76750355690769312</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82532288597167447</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72256432179865204</v>
+        <v>0</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54538776763412888</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30117009530031869</v>
+        <v>0</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.9435549561631976E-2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4341593996199193E-4</v>
+        <v>0</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5941897229587634E-5</v>
+        <v>0</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9750038858919265E-5</v>
+        <v>0</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2152131147540982E-5</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3698674225107434E-5</v>
+        <v>0</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,55 +27240,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1776050512366189E-2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42842557133717324</v>
+        <v>0</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0679071339963691</v>
+        <v>0</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5260966704424104</v>
+        <v>0</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.56698642868654</v>
+        <v>0</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.684332420350356</v>
+        <v>0</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4598748542462563</v>
+        <v>0</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1137392307475895</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60234019060063737</v>
+        <v>0</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13887109912326395</v>
+        <v>0</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4292931161091531E-4</v>
+        <v>0</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5489139434945597E-4</v>
+        <v>0</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9108987839444087E-5</v>
+        <v>0</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,99 +27313,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2003878831094799</v>
+        <v>0</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0150076963576322</v>
+        <v>0</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0262454725967673</v>
+        <v>0</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.931944547219425</v>
+        <v>0</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8295297158972694</v>
+        <v>0</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6017455483716314</v>
+        <v>0</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4125607684643824</v>
+        <v>0</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3058405280750971</v>
+        <v>0</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1732163935411295</v>
+        <v>0</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0567247460702947</v>
+        <v>0</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1537343525094177</v>
+        <v>0</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1249917238532159</v>
+        <v>0</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96918215468297808</v>
+        <v>0</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99253467181401167</v>
+        <v>0</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1939161676790355</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4507570978980424</v>
+        <v>0</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3480781201289271</v>
+        <v>0</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5226698995070955</v>
+        <v>0</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.508880616837541</v>
+        <v>0</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5115891939648149</v>
+        <v>0</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.74605744642483</v>
+        <v>0</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7298736867928401</v>
+        <v>0</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6460770525496216</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8446017140329807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1076065573770491E-5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7176190911584525E-6</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,55 +27442,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1099443222322572E-2</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20765525141342581</v>
+        <v>0</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53395356699818453</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72671270021067158</v>
+        <v>0</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80747770049663548</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80005789966641905</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74468363777208013</v>
+        <v>0</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55686961537379476</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29806524895701642</v>
+        <v>0</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0129905057248296E-2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4780619679329875E-4</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8197597147298159E-5</v>
+        <v>0</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9358948980524821E-5</v>
+        <v>0</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0960689890710382E-5</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2566060162750292E-6</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,55 +27543,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0570898306973877E-2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21858447517202717</v>
+        <v>0</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56631438924049882</v>
+        <v>0</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74124695421488507</v>
+        <v>0</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79148804306105858</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80005789966641905</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72256432179865204</v>
+        <v>0</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54538776763412888</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30117009530031869</v>
+        <v>0</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7352483074783018E-2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4780619679329875E-4</v>
+        <v>0</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8197597147298159E-5</v>
+        <v>0</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9358948980524821E-5</v>
+        <v>0</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1768319672131148E-5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7176190911584525E-6</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,55 +27644,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0993734239252833E-2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22951369893062853</v>
+        <v>0</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51237968550330837</v>
+        <v>0</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7485140812169917</v>
+        <v>0</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82346735793221248</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80847956176817082</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71519121647417605</v>
+        <v>0</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60279700633245825</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30737978798692317</v>
+        <v>0</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6658127579166698E-2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6097696728721933E-4</v>
+        <v>0</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.6693797202157809E-5</v>
+        <v>0</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.857676922373594E-5</v>
+        <v>0</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.261363387978142E-5</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3040084118131113E-5</v>
+        <v>0</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,55 +27914,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1353214580087234E-2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45028401885437597</v>
+        <v>0</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0355463117540549</v>
+        <v>0</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4679596544255566</v>
+        <v>0</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5989657435576941</v>
+        <v>0</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7011757445538596</v>
+        <v>0</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5041134861931125</v>
+        <v>0</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1022573830079236</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6085498832872418</v>
+        <v>0</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14442594308819451</v>
+        <v>0</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6049033893614271E-4</v>
+        <v>0</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5037999451403492E-4</v>
+        <v>0</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1064437231416293E-5</v>
+        <v>0</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,99 +27987,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3364943501059425</v>
+        <v>0</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0150076963576322</v>
+        <v>0</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9844672154298235</v>
+        <v>0</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0929399261543771</v>
+        <v>0</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7051927449139597</v>
+        <v>0</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5858866815560706</v>
+        <v>0</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3697558966927346</v>
+        <v>0</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2162240212464137</v>
+        <v>0</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1495150522574702</v>
+        <v>0</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0349366069760619</v>
+        <v>0</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1426407529660578</v>
+        <v>0</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0178496549148142</v>
+        <v>0</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97917372328795715</v>
+        <v>0</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0634300055150128</v>
+        <v>0</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2312260479190054</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3252108105799425</v>
+        <v>0</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4463754830549949</v>
+        <v>0</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5068087547205633</v>
+        <v>0</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4636141983324147</v>
+        <v>0</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6533006808990165</v>
+        <v>0</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.74605744642483</v>
+        <v>0</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7298736867928401</v>
+        <v>0</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5802339704476367</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9377634167619193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.130681693989071E-5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2566060162750292E-6</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,55 +28116,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0676607290043617E-2</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22732785417890827</v>
+        <v>0</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51777315587702744</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70491131920435146</v>
+        <v>0</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83146218665000093</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85900953437868155</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70044500582522395</v>
+        <v>0</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5798333108531265</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29806524895701642</v>
+        <v>0</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2212971544097254E-2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3024516946807136E-4</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8197597147298159E-5</v>
+        <v>0</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9163404041327603E-5</v>
+        <v>0</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.130681693989071E-5</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6517600804608211E-6</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,55 +28217,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0782316273113355E-2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21421278566858662</v>
+        <v>0</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56631438924049882</v>
+        <v>0</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71944557320856484</v>
+        <v>0</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77549838562548157</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83374454807342624</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75205674309655623</v>
+        <v>0</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60279700633245825</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32290401970343446</v>
+        <v>0</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5963772083550379E-2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4341593996199193E-4</v>
+        <v>0</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5189997257017459E-5</v>
+        <v>0</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.857676922373594E-5</v>
+        <v>0</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1883695355191256E-5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4541830483679252E-6</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,55 +28318,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.03594803408344E-2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22951369893062853</v>
+        <v>0</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54474050774562266</v>
+        <v>0</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71944557320856484</v>
+        <v>0</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77549838562548157</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85900953437868155</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70781811114969995</v>
+        <v>0</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56835146311346063</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32600886604673673</v>
+        <v>0</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8046838570399337E-2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2146465580545766E-4</v>
+        <v>0</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8197597147298159E-5</v>
+        <v>0</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9163404041327603E-5</v>
+        <v>0</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2145AB9-9AD3-43E4-AD33-F87130CC49FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D111118-DF3A-46BE-A2A6-2DCA902FA34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="4290" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28215" yWindow="3615" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>

--- a/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D111118-DF3A-46BE-A2A6-2DCA902FA34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E0F5BB-019E-4B62-BF60-98BFB9F58C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28215" yWindow="3615" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26865" yWindow="3390" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -8898,7 +8898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -8967,7 +8967,7 @@
       </c>
       <c r="B7" s="4">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7442622950819669E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0140196885190942E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,55 +13510,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6618032363396047E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.32911444893864367</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.8555189821922381</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1801322843705835</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2899977247566496</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3259979494586096</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2121877958814882</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.95916766499098838</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.48059138405160062</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.11152136270159345</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.1026581196581302E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2624689390952954E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.1675048002194387E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,99 +13583,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.9969194904656238</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.6409570222502401</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.783116607383302</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.7074410111066287</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2499070939836967</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1112102266546926</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8186056900489413</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6328280054754465</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.598617998762335</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4451173907561699</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5223828904064418</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.430325650729233</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.406897906466007</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3596077484726243</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6453161396443827</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9622518161894376</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9725878024728962</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.269977836904399</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9939091355001093</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2084099750182382</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2568324538392486</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1568850287215184</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2190691637693529</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.5325362144333368</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.9938524590163926E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.070098442595471E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,55 +13712,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.0546585434827789E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.16455722446932183</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.43199473358221924</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.57871871637403605</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.65764589889554681</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.64310900548742567</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.58300460659062048</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.46588143728133719</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.26011389342999003</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.1933967924761654E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.6568140814081463E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.2510597955203957E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6160738776629788E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.8121584699453533E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.1223674987047025E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,55 +13813,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.0546585434827789E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.17148594971013539</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.42775949109611905</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.57304500346840825</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.66396941715415791</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.65636898498201179</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.57145996091555862</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.43390918178163751</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.2378184168502766</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.4120661311067408E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.5513290598290651E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.0059201956960658E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5837524001097193E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.7213114754098344E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.4882508914693243E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,55 +13914,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.6481596993183522E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.16455722446932183</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.4108185211517183</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.55602386475152488</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.65132238063693582</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.63647901574013255</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.55991531524049687</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.44761157699579451</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.24029569202580031</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.4120661311067408E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.4106823643902904E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.8220654958278186E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6645560939928683E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8896174863387977E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0244734997409405E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,55 +14184,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6618032363396047E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.33950753679986401</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.80469607235903584</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1801322843705835</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2647036517222054</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2729580314802651</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1775538588563026</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.93176287456267437</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.49050048475369551</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.10605462923582906</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.3839515105356807E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2011840391392132E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.3291121879857366E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,99 +14257,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.9663386793384232</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.7521552126607762</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.8104020643184322</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.5980494551023203</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2972735591201952</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9857917973484729</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.855345198938819</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7317872785345645</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5663226856560251</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4893556782282973</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4063918130421413</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5025643199579823</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3392585840397564</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2929603098220055</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6117382592434768</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8314350284434751</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8554043686626251</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1835024907366121</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0144648997836154</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0191176914452464</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1683292203553566</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2022931345893397</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1092142546718602</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.383563495937258</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>9.0846994535519115E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.2269056109231657E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,55 +14386,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.2242303022929415E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.16802158708972861</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.43199473358221924</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.56169757765715267</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.64499886237832482</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.68951893371847706</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.55991531524049687</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.45674650713856585</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.24525024237684775</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.6854028043949602E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.481005712109678E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.9446352957399832E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5352701837798298E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>9.3572404371584697E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.2269056109231657E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,55 +14487,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.7329455787234344E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.17495031233054217</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.43199473358221924</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.56737129056278046</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.65764589889554681</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.66962896447659781</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.54837066956543501</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.44761157699579451</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.25268206790341891</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.3027314617914531E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.4458440382499839E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.2510597955203957E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6483953552162382E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.6304644808743156E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.965560330377007E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,55 +14588,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.6481596993183522E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.16628940577952522</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.41505376363781848</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.57871871637403605</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.60073423456804753</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.63647901574013255</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.60032157510321316</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.44304411192440885</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.2378184168502766</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.5760681350796724E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.3403590166709027E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.1284899956082304E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5837524001097193E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8351092896174861E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0558349334064794E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,55 +14858,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7296319398636704E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.32911444893864367</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.8555189821922381</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1914797101818391</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3026447612738716</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3127379699640236</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.166009213181241</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.90435808413436036</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.48059138405160062</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.10714797592898194</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.7510413810611936E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2502119591040791E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.2321477553259576E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,99 +14931,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.0886619238472246</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.9189524982765813</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.6194038657725196</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.8715283451130915</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2499070939836967</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0694040835526191</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8002359356040025</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7317872785345645</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5501750291028702</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.400879103284042</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.449888467053754</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4736688522664827</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3392585840397564</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3995962116629956</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6285271994439297</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9061874785840249</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8944655132660486</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1618836541946655</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0144648997836154</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9980852154926918</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.3010840705811946</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2022931345893397</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1311852364913588</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.5325362144333368</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>9.4480874316939885E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.0178293864862386E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,55 +15060,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.902517337533597E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.17321813102033878</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.43622997606831942</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.53900272603464139</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.66396941715415791</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.67625895422389093</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.55414299240296594</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.46588143728133719</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.24029569202580031</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.5214008004220286E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.3755206905305968E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.3736295954325596E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6483953552162382E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>9.5389344262295074E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.3314437231416288E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,55 +15161,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.3938020611031058E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.16802158708972861</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.42775949109611905</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.54467643894026918</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.61970478934388062</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.65636898498201179</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.59454925226568223</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.44761157699579451</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.23534114167475287</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.2480641271338092E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.4106823643902904E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.3123446954764769E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.680716832769498E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>9.1755464480874303E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.2269056109231657E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,55 +15262,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.902517337533597E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.17321813102033878</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.44046521855441961</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.56737129056278046</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.63867534411971372</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.69614892346577006</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.60609389794074409</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.43847664685302318</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.26011389342999003</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.5214008004220286E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.5513290598290651E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.4349144953886422E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5999131388863491E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -17000,7 +17000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303073B7-556E-4714-A27A-3E87EB1A31BB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -17025,7 +17025,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -17036,7 +17036,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -17047,7 +17047,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -17058,7 +17058,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -17069,7 +17069,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.3998142076502733E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3830392246502697E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,55 +26485,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0084706783250365E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.41968219233029214</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0786940747438072</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5115624164381969</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.614955400993271</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7011757445538596</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4156362222993999</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1941121649252506</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.6085498832872418</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.1333162551583334</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.3414879794830156E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4586859467861387E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.8717897961049643E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,99 +26558,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.3818631724380968</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0349582676086979</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1098019869306546</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.072815503787508</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6874303204877728</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6334632820027528</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4125607684643824</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.31864288619348</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2087684054666183</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0785128851645276</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1315471534226982</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0392780687024945</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.94919901747301971</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.98240676699958296</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2934091816522886</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4507570978980424</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3340356397109177</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6019756234397571</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4485253921640393</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6375549601285497</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6941943539567657</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7130787966298029</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.678998593600614</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9004987356703438</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1191441256830601E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.3883240376702929E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,55 +26687,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0993734239252833E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.22077031992374743</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.55013397811934173</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.69764419220224472</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.76750355690769312</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.84216621017517801</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.73731053244760414</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.56261053924362769</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.30737978798692317</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.9435549561631976E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.3902568313068505E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.8197597147298159E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9358948980524821E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1191441256830601E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.6517600804608211E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,55 +26788,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.025377135776466E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.21202694091686636</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.55013397811934173</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.70491131920435146</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.79148804306105858</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.80847956176817082</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.76680295374550833</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.5798333108531265</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.29496040261371415</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.0824260552864615E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.1707439897415078E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.4438097284447284E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.857676922373594E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1076065573770491E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.2566060162750292E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,55 +26889,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0676607290043617E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.21858447517202717</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.55552744849306068</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.74124695421488507</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.79948287177884703</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.86743119648043332</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.70781811114969995</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.60279700633245825</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.3042749416436209</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.0824260552864615E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.3024516946807136E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.2934297339306934E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8772314162933162E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1921379781420765E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.290836609673585E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,55 +27240,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1987468478505665E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.45028401885437597</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0247593710066167</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4243568924129162</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.56698642868654</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7180190687573631</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4451286435973041</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.159666621706253</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.62096926866045088</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.13748238813203131</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.3414879794830156E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4436479473347352E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.715353844747188E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,99 +27313,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2911255277737883</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.094809981361895</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0262454725967673</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9923178143200322</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7762424426187082</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5224512142938278</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3697558966927346</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3442476024302468</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1969177348247888</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1003010242587605</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0538919566191796</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0821348962778552</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0091484291028947</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.96215095737072553</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2809725549056319</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3810091604990982</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3340356397109177</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6019756234397571</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5692358415110428</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4958434731943482</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6941943539567657</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7466685769558774</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6954593641261104</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9191310762161315</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.130681693989071E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.3883240376702929E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,55 +27442,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0042353391625182E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.21202694091686636</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.55552744849306068</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.69764419220224472</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.83146218665000093</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.84216621017517801</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.75205674309655623</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.57409238698329357</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.31048463433022544</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.7352483074783018E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.2585491263676448E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.7445697174727984E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8967859102130381E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1537568306010929E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.849337112553717E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,55 +27543,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0465189323904138E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.22514200942718798</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.51237968550330837</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.71944557320856484</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.83945701536778938</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.8169012238699227</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.70044500582522395</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.59131515859279238</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.30117009530031869</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.0129905057248296E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.3902568313068505E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.4438097284447284E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9750038858919265E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2114446721311475E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.6517600804608211E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,55 +27644,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0888025256183095E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.22514200942718798</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.51777315587702744</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.74124695421488507</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.80747770049663548</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.86743119648043332</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.75205674309655623</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.58557423472295944</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.31048463433022544</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.0824260552864615E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.4341593996199193E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.7445697174727984E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0141128737313706E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1921379781420765E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3040084118131113E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,55 +27914,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0718960681668799E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.41968219233029214</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1326287784809976</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5260966704424104</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.646934715864425</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7180190687573631</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4598748542462563</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1826303171855848</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.65201773209347347</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.13748238813203131</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.5170982527352896E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4286099478833317E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.1064437231416293E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,99 +27987,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2911255277737883</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.975106553855501</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1306911155141264</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.931944547219425</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7229551693401468</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5541689479249494</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.355487606102185</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3314452443118636</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1613657228993</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.111195093805877</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0760791557058991</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1142775169593757</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0091484291028947</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0026625766284405</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1814795409323788</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3391603980597313</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3480781201289271</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5702533338666924</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5390582291742918</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5115891939648149</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7114820514461202</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6123094556515791</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6131555114986291</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9563957573077071</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2114446721311475E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.2566060162750292E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,55 +28116,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0676607290043617E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.22514200942718798</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.53934703737190359</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.75578120821909844</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.81547252921442404</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.88427452068393697</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.72256432179865204</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.55686961537379476</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.31669432701682998</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.2212971544097254E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.3902568313068505E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.7445697174727984E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8967859102130381E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.130681693989071E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.4541830483679252E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,55 +28217,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0148062374694922E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.21421278566858662</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.56092091886677975</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.76304833522120519</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.80747770049663548</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.8169012238699227</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.73731053244760414</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.58557423472295944</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.30117009530031869</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.6658127579166698E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.2585491263676448E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.2934297339306934E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9945583798116484E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.142219262295082E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.7176190911584525E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,55 +28318,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0676607290043617E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.21639863042030691</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.54474050774562266</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.72671270021067158</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.77549838562548157</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.82532288597167447</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.74468363777208013</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.56835146311346063</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.31669432701682998</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.0129905057248296E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.2146465580545766E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.8949497119868334E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0336673676510925E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E0F5BB-019E-4B62-BF60-98BFB9F58C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10009F75-6278-4274-A370-9F222E5B93AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26865" yWindow="3390" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8355" yWindow="4620" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -8898,7 +8898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7442622950819669E-5</v>
+        <v>1.8351092896174861E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0140196885190942E-5</v>
+        <v>1.0767425558501721E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13514,51 +13514,51 @@
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32911444893864367</v>
+        <v>0.35336498728149113</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8555189821922381</v>
+        <v>0.83010752727563697</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1801322843705835</v>
+        <v>1.1687848585593277</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2899977247566496</v>
+        <v>1.2647036517222054</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3259979494586096</v>
+        <v>1.2596980519856791</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2121877958814882</v>
+        <v>1.1890985045313645</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95916766499098838</v>
+        <v>0.9134930142771317</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.48059138405160062</v>
+        <v>0.49545503510474292</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11152136270159345</v>
+        <v>0.10933466931528769</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1026581196581302E-4</v>
+        <v>6.7510413810611936E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2624689390952954E-4</v>
+        <v>1.1766700791567802E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1675048002194387E-5</v>
+        <v>3.361433665538996E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,35 +13583,35 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9969194904656238</v>
+        <v>3.1192427349744243</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6409570222502401</v>
+        <v>2.9189524982765813</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.783116607383302</v>
+        <v>2.592118408837389</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7074410111066287</v>
+        <v>2.6800931221055517</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2499070939836967</v>
+        <v>2.4156897219614426</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1112102266546926</v>
+        <v>2.1321132982057289</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8186056900489413</v>
+        <v>1.9288242167185743</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6328280054754465</v>
+        <v>1.7317872785345645</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13619,63 +13619,63 @@
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4451173907561699</v>
+        <v>1.5335939657004252</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5223828904064418</v>
+        <v>1.4643873517242918</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.430325650729233</v>
+        <v>1.4592211184207329</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.406897906466007</v>
+        <v>1.2851471260987561</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3596077484726243</v>
+        <v>1.2796308220918817</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6453161396443827</v>
+        <v>1.6956829602457413</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9622518161894376</v>
+        <v>1.7940588033731999</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9725878024728962</v>
+        <v>1.9139960855677607</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.269977836904399</v>
+        <v>2.1618836541946655</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9939091355001093</v>
+        <v>1.9527976069330966</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2084099750182382</v>
+        <v>2.1242800712080196</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2568324538392486</v>
+        <v>2.1019517952424369</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1568850287215184</v>
+        <v>2.2022931345893397</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2190691637693529</v>
+        <v>2.3069530910473475</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5325362144333368</v>
+        <v>2.5821937872653633</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9938524590163926E-6</v>
+        <v>9.1755464480874303E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.070098442595471E-6</v>
+        <v>5.1746365548139341E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,55 +13712,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.0546585434827789E-3</v>
+        <v>8.5633738199132701E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16455722446932183</v>
+        <v>0.17841467495094895</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43199473358221924</v>
+        <v>0.43622997606831942</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57871871637403605</v>
+        <v>0.53900272603464139</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65764589889554681</v>
+        <v>0.64499886237832482</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64310900548742567</v>
+        <v>0.69614892346577006</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58300460659062048</v>
+        <v>0.54837066956543501</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46588143728133719</v>
+        <v>0.44761157699579451</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26011389342999003</v>
+        <v>0.25763661825446632</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1933967924761654E-2</v>
+        <v>5.4120661311067408E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6568140814081463E-4</v>
+        <v>3.5513290598290651E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2510597955203957E-5</v>
+        <v>5.8220654958278186E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6160738776629788E-5</v>
+        <v>1.5999131388863491E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13793,7 +13793,7 @@
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1223674987047025E-6</v>
+        <v>5.3837127792508603E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,55 +13813,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.0546585434827789E-3</v>
+        <v>8.3090161816980236E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17148594971013539</v>
+        <v>0.18187903757135573</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42775949109611905</v>
+        <v>0.41928900612391867</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57304500346840825</v>
+        <v>0.57871871637403605</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66396941715415791</v>
+        <v>0.65764589889554681</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65636898498201179</v>
+        <v>0.64310900548742567</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57145996091555862</v>
+        <v>0.54837066956543501</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43390918178163751</v>
+        <v>0.47044890235272285</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2378184168502766</v>
+        <v>0.24525024237684775</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4120661311067408E-2</v>
+        <v>5.357398796449097E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5513290598290651E-4</v>
+        <v>3.3403590166709027E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0059201956960658E-5</v>
+        <v>6.4349144953886422E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5837524001097193E-5</v>
+        <v>1.6483953552162382E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7213114754098344E-6</v>
+        <v>8.6304644808743156E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4882508914693243E-6</v>
+        <v>5.1223674987047025E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13918,35 +13918,35 @@
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16455722446932183</v>
+        <v>0.17321813102033878</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4108185211517183</v>
+        <v>0.43622997606831942</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55602386475152488</v>
+        <v>0.54467643894026918</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65132238063693582</v>
+        <v>0.65764589889554681</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63647901574013255</v>
+        <v>0.65636898498201179</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55991531524049687</v>
+        <v>0.60609389794074409</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44761157699579451</v>
+        <v>0.47958383249549419</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24029569202580031</v>
+        <v>0.24772751755237146</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13954,15 +13954,15 @@
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4106823643902904E-4</v>
+        <v>3.5513290598290651E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8220654958278186E-5</v>
+        <v>6.189774895564313E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6645560939928683E-5</v>
+        <v>1.680716832769498E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8896174863387977E-5</v>
+        <v>1.7260928961748631E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0244734997409405E-5</v>
+        <v>1.0976501782938649E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,7 +14184,7 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6618032363396047E-2</v>
+        <v>1.7465891157446869E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14192,43 +14192,43 @@
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80469607235903584</v>
+        <v>0.8894009220810396</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1801322843705835</v>
+        <v>1.1007003036917942</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2647036517222054</v>
+        <v>1.2141155056533173</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2729580314802651</v>
+        <v>1.2862180109748513</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1775538588563026</v>
+        <v>1.1082859848059319</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.93176287456267437</v>
+        <v>0.95003273484821704</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.49050048475369551</v>
+        <v>0.5004095854557904</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10605462923582906</v>
+        <v>0.10386793584952331</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.3839515105356807E-4</v>
+        <v>6.962011424219356E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2011840391392132E-4</v>
+        <v>1.1889270591479966E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,19 +14257,19 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9663386793384232</v>
+        <v>2.9357578682112226</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7521552126607762</v>
+        <v>2.8911529506739471</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8104020643184322</v>
+        <v>2.7285456935130408</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5980494551023203</v>
+        <v>2.7894846781098597</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14277,23 +14277,23 @@
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9857917973484729</v>
+        <v>2.1948225128588388</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.855345198938819</v>
+        <v>1.8186056900489413</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7317872785345645</v>
+        <v>1.6493212176519663</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5663226856560251</v>
+        <v>1.598617998762335</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4893556782282973</v>
+        <v>1.4746095824042549</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14301,55 +14301,55 @@
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5025643199579823</v>
+        <v>1.4447733845749831</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3392585840397564</v>
+        <v>1.3122028550692564</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2929603098220055</v>
+        <v>1.3462782607425006</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6117382592434768</v>
+        <v>1.7628387210475529</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8314350284434751</v>
+        <v>1.8501231409786123</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8554043686626251</v>
+        <v>1.9921183747746078</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1835024907366121</v>
+        <v>2.2267401638205051</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0144648997836154</v>
+        <v>1.9527976069330966</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0191176914452464</v>
+        <v>2.2084099750182382</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1683292203553566</v>
+        <v>2.1904550287263294</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2022931345893397</v>
+        <v>2.2477012404571615</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1092142546718602</v>
+        <v>2.2410401455888516</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.383563495937258</v>
+        <v>2.4580498551852976</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0846994535519115E-6</v>
+        <v>9.1755464480874303E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2269056109231657E-6</v>
+        <v>5.1223674987047025E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,11 +14386,11 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2242303022929415E-3</v>
+        <v>8.3938020611031058E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16802158708972861</v>
+        <v>0.17495031233054217</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14398,43 +14398,43 @@
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56169757765715267</v>
+        <v>0.59006614218529174</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64499886237832482</v>
+        <v>0.60705775282665864</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68951893371847706</v>
+        <v>0.65636898498201179</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55991531524049687</v>
+        <v>0.60032157510321316</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45674650713856585</v>
+        <v>0.44761157699579451</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24525024237684775</v>
+        <v>0.2502047927278952</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6854028043949602E-2</v>
+        <v>5.2480641271338092E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.481005712109678E-4</v>
+        <v>3.5864907336887592E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9446352957399832E-5</v>
+        <v>6.4349144953886422E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5352701837798298E-5</v>
+        <v>1.6645560939928683E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14467,7 +14467,7 @@
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2269056109231657E-6</v>
+        <v>4.965560330377007E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14491,19 +14491,19 @@
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17495031233054217</v>
+        <v>0.18014685626115234</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43199473358221924</v>
+        <v>0.41928900612391867</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56737129056278046</v>
+        <v>0.58439242927966384</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65764589889554681</v>
+        <v>0.63235182586110272</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14511,31 +14511,31 @@
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54837066956543501</v>
+        <v>0.57145996091555862</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44761157699579451</v>
+        <v>0.45674650713856585</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25268206790341891</v>
+        <v>0.23534114167475287</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3027314617914531E-2</v>
+        <v>5.6854028043949602E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4458440382499839E-4</v>
+        <v>3.6919757552678404E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2510597955203957E-5</v>
+        <v>6.4349144953886422E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6483953552162382E-5</v>
+        <v>1.6968775715461277E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14568,7 +14568,7 @@
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.965560330377007E-6</v>
+        <v>5.3837127792508603E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,43 +14588,43 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6481596993183522E-3</v>
+        <v>8.7329455787234344E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16628940577952522</v>
+        <v>0.18014685626115234</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41505376363781848</v>
+        <v>0.43622997606831942</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57871871637403605</v>
+        <v>0.57304500346840825</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60073423456804753</v>
+        <v>0.64499886237832482</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63647901574013255</v>
+        <v>0.62984902599283954</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60032157510321316</v>
+        <v>0.57145996091555862</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44304411192440885</v>
+        <v>0.47958383249549419</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2378184168502766</v>
+        <v>0.24277296720132402</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5760681350796724E-2</v>
+        <v>5.1933967924761654E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14632,11 +14632,11 @@
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.1284899956082304E-5</v>
+        <v>5.8833503957839012E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5837524001097193E-5</v>
+        <v>1.6483953552162382E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8351092896174861E-5</v>
+        <v>1.8896174863387977E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0558349334064794E-5</v>
+        <v>1.0453811221846331E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,39 +14858,39 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7296319398636704E-2</v>
+        <v>1.712674763982654E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32911444893864367</v>
+        <v>0.35682934990189791</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8555189821922381</v>
+        <v>0.83010752727563697</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1914797101818391</v>
+        <v>1.1233951553143053</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3026447612738716</v>
+        <v>1.2394095786877612</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3127379699640236</v>
+        <v>1.3259979494586096</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.166009213181241</v>
+        <v>1.1198306304809937</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90435808413436036</v>
+        <v>0.88608822384881769</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.48059138405160062</v>
+        <v>0.5004095854557904</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14898,15 +14898,15 @@
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7510413810611936E-4</v>
+        <v>7.0323347719387431E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2502119591040791E-4</v>
+        <v>1.1889270591479966E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2321477553259576E-5</v>
+        <v>3.3937551430922555E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,15 +14931,15 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0886619238472246</v>
+        <v>2.9969194904656238</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9189524982765813</v>
+        <v>2.6687565698528743</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6194038657725196</v>
+        <v>2.783116607383302</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14947,19 +14947,19 @@
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2499070939836967</v>
+        <v>2.3683232568249437</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0694040835526191</v>
+        <v>2.1739194413078025</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8002359356040025</v>
+        <v>1.9288242167185743</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7317872785345645</v>
+        <v>1.5833483689458874</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14967,63 +14967,63 @@
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.400879103284042</v>
+        <v>1.5483400615244678</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.449888467053754</v>
+        <v>1.4788862363948292</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4736688522664827</v>
+        <v>1.4447733845749831</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3392585840397564</v>
+        <v>1.3663143130102569</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3995962116629956</v>
+        <v>1.3596077484726243</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6285271994439297</v>
+        <v>1.6956829602457413</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9061874785840249</v>
+        <v>1.8874993660488877</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8944655132660486</v>
+        <v>1.8554043686626251</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1618836541946655</v>
+        <v>2.1402648176527186</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0144648997836154</v>
+        <v>1.9527976069330966</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9980852154926918</v>
+        <v>2.0611826433503557</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3010840705811946</v>
+        <v>2.2347066454682754</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2022931345893397</v>
+        <v>2.2249971875232504</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1311852364913588</v>
+        <v>2.2849821092278488</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5325362144333368</v>
+        <v>2.6070225736813764</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.4480874316939885E-6</v>
+        <v>9.5389344262295074E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0178293864862386E-6</v>
+        <v>5.2269056109231657E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15064,47 +15064,47 @@
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17321813102033878</v>
+        <v>0.18187903757135573</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43622997606831942</v>
+        <v>0.4108185211517183</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53900272603464139</v>
+        <v>0.56737129056278046</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66396941715415791</v>
+        <v>0.60705775282665864</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67625895422389093</v>
+        <v>0.66962896447659781</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55414299240296594</v>
+        <v>0.60032157510321316</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46588143728133719</v>
+        <v>0.46131397220995152</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24029569202580031</v>
+        <v>0.2378184168502766</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5214008004220286E-2</v>
+        <v>5.6307354697373163E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3755206905305968E-4</v>
+        <v>3.6919757552678404E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3736295954325596E-5</v>
+        <v>6.2510597955203957E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5389344262295074E-6</v>
+        <v>9.2663934426229492E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3314437231416288E-6</v>
+        <v>5.4359818353600928E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,55 +15161,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3938020611031058E-3</v>
+        <v>8.1394444228878593E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16802158708972861</v>
+        <v>0.16628940577952522</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42775949109611905</v>
+        <v>0.41505376363781848</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54467643894026918</v>
+        <v>0.56169757765715267</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61970478934388062</v>
+        <v>0.63867534411971372</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65636898498201179</v>
+        <v>0.62984902599283954</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59454925226568223</v>
+        <v>0.58300460659062048</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44761157699579451</v>
+        <v>0.44304411192440885</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23534114167475287</v>
+        <v>0.25763661825446632</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2480641271338092E-2</v>
+        <v>5.5760681350796724E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4106823643902904E-4</v>
+        <v>3.5161673859693715E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3123446954764769E-5</v>
+        <v>5.9446352957399832E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.680716832769498E-5</v>
+        <v>1.6483953552162382E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.1755464480874303E-6</v>
+        <v>9.5389344262295074E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2269056109231657E-6</v>
+        <v>5.3314437231416288E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,55 +15262,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.902517337533597E-3</v>
+        <v>8.3938020611031058E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17321813102033878</v>
+        <v>0.16628940577952522</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44046521855441961</v>
+        <v>0.41505376363781848</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56737129056278046</v>
+        <v>0.57304500346840825</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63867534411971372</v>
+        <v>0.60705775282665864</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69614892346577006</v>
+        <v>0.68951893371847706</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60609389794074409</v>
+        <v>0.55991531524049687</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43847664685302318</v>
+        <v>0.45674650713856585</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26011389342999003</v>
+        <v>0.24277296720132402</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5214008004220286E-2</v>
+        <v>5.6854028043949602E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5513290598290651E-4</v>
+        <v>3.6568140814081463E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4349144953886422E-5</v>
+        <v>6.2510597955203957E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5999131388863491E-5</v>
+        <v>1.5514309225564595E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -17000,7 +17000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303073B7-556E-4714-A27A-3E87EB1A31BB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3998142076502733E-5</v>
+        <v>2.3536639344262295E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3830392246502697E-5</v>
+        <v>1.3040084118131113E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,19 +26485,19 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0084706783250365E-2</v>
+        <v>2.1353214580087234E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41968219233029214</v>
+        <v>0.42842557133717324</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0786940747438072</v>
+        <v>1.0894810154912453</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5115624164381969</v>
+        <v>1.4243568924129162</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26505,35 +26505,35 @@
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7011757445538596</v>
+        <v>1.6674890961468525</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4156362222993999</v>
+        <v>1.4303824329483521</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1941121649252506</v>
+        <v>1.0907755352682578</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6085498832872418</v>
+        <v>0.62096926866045088</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1333162551583334</v>
+        <v>0.14164852110572923</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3414879794830156E-4</v>
+        <v>9.0439290724921126E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4586859467861387E-4</v>
+        <v>1.4887619456889457E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8717897961049643E-5</v>
+        <v>3.9891167596232968E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,99 +26558,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3818631724380968</v>
+        <v>2.3138099389398654</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0349582676086979</v>
+        <v>1.915254840102304</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1098019869306546</v>
+        <v>1.9844672154298235</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.072815503787508</v>
+        <v>2.1130643485212461</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6874303204877728</v>
+        <v>1.7940048670448951</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6334632820027528</v>
+        <v>1.5541689479249494</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4125607684643824</v>
+        <v>1.3840241872832837</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.31864288619348</v>
+        <v>1.2802358118383304</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2087684054666183</v>
+        <v>1.1258137109738111</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0785128851645276</v>
+        <v>1.0676188156174111</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1315471534226982</v>
+        <v>1.0538919566191796</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0392780687024945</v>
+        <v>1.0178496549148142</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94919901747301971</v>
+        <v>0.98916529189293634</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98240676699958296</v>
+        <v>0.97227886218515425</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2934091816522886</v>
+        <v>1.1814795409323788</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4507570978980424</v>
+        <v>1.4368075104182534</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3340356397109177</v>
+        <v>1.3480781201289271</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6019756234397571</v>
+        <v>1.5385310442936277</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4485253921640393</v>
+        <v>1.4636141983324147</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6375549601285497</v>
+        <v>1.5745720770466822</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6941943539567657</v>
+        <v>1.6596189589780561</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7130787966298029</v>
+        <v>1.7634634671189149</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.678998593600614</v>
+        <v>1.7119201346516064</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9004987356703438</v>
+        <v>1.8446017140329807</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1191441256830601E-5</v>
+        <v>1.1883695355191256E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3883240376702929E-6</v>
+        <v>6.5859010697631888E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,39 +26687,39 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0993734239252833E-2</v>
+        <v>1.0465189323904138E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22077031992374743</v>
+        <v>0.22295616467546772</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55013397811934173</v>
+        <v>0.51777315587702744</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69764419220224472</v>
+        <v>0.69037706520013797</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76750355690769312</v>
+        <v>0.80747770049663548</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84216621017517801</v>
+        <v>0.82532288597167447</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73731053244760414</v>
+        <v>0.72256432179865204</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56261053924362769</v>
+        <v>0.5798333108531265</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30737978798692317</v>
+        <v>0.30117009530031869</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26727,11 +26727,11 @@
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3902568313068505E-4</v>
+        <v>4.3024516946807136E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8197597147298159E-5</v>
+        <v>7.2934297339306934E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1191441256830601E-5</v>
+        <v>1.2114446721311475E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6517600804608211E-6</v>
+        <v>6.4541830483679252E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,15 +26788,15 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.025377135776466E-2</v>
+        <v>1.0148062374694922E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21202694091686636</v>
+        <v>0.21639863042030691</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55013397811934173</v>
+        <v>0.53934703737190359</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26804,15 +26804,15 @@
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79148804306105858</v>
+        <v>0.83945701536778938</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80847956176817082</v>
+        <v>0.84216621017517801</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76680295374550833</v>
+        <v>0.75942984842103223</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26820,23 +26820,23 @@
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29496040261371415</v>
+        <v>0.29806524895701642</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0824260552864615E-2</v>
+        <v>7.0129905057248296E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1707439897415078E-4</v>
+        <v>4.3902568313068505E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.4438097284447284E-5</v>
+        <v>7.8197597147298159E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.857676922373594E-5</v>
+        <v>1.9945583798116484E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1076065573770491E-5</v>
+        <v>1.1191441256830601E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2566060162750292E-6</v>
+        <v>6.5200420590655566E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,23 +26889,23 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0676607290043617E-2</v>
+        <v>1.025377135776466E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21858447517202717</v>
+        <v>0.21202694091686636</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55552744849306068</v>
+        <v>0.55013397811934173</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74124695421488507</v>
+        <v>0.70491131920435146</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79948287177884703</v>
+        <v>0.82346735793221248</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26913,31 +26913,31 @@
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70781811114969995</v>
+        <v>0.77417605906998432</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60279700633245825</v>
+        <v>0.56835146311346063</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3042749416436209</v>
+        <v>0.30117009530031869</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0824260552864615E-2</v>
+        <v>7.1518616048480935E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3024516946807136E-4</v>
+        <v>4.1707439897415078E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2934297339306934E-5</v>
+        <v>7.3686197311877109E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8772314162933162E-5</v>
+        <v>1.9163404041327603E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1921379781420765E-5</v>
+        <v>2.284438524590164E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.290836609673585E-5</v>
+        <v>1.3435238182316905E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,55 +27240,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1987468478505665E-2</v>
+        <v>2.0296124749389844E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45028401885437597</v>
+        <v>0.43279726084061382</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0247593710066167</v>
+        <v>1.0679071339963691</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4243568924129162</v>
+        <v>1.3952883844044894</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.56698642868654</v>
+        <v>1.5509967712509631</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7180190687573631</v>
+        <v>1.6674890961468525</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4451286435973041</v>
+        <v>1.4746210648952083</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.159666621706253</v>
+        <v>1.1711484694459189</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62096926866045088</v>
+        <v>0.64580803940686893</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13748238813203131</v>
+        <v>0.13470496614956604</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3414879794830156E-4</v>
+        <v>8.6049033893614271E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4436479473347352E-4</v>
+        <v>1.4737239462375422E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.715353844747188E-5</v>
+        <v>3.8717897961049643E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,7 +27313,7 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2911255277737883</v>
+        <v>2.3138099389398654</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27321,91 +27321,91 @@
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0262454725967673</v>
+        <v>2.1306911155141264</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9923178143200322</v>
+        <v>2.072815503787508</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7762424426187082</v>
+        <v>1.7584800181925211</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5224512142938278</v>
+        <v>1.6651810156338742</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3697558966927346</v>
+        <v>1.4696339308265798</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3442476024302468</v>
+        <v>1.2162240212464137</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1969177348247888</v>
+        <v>1.1376643816156409</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1003010242587605</v>
+        <v>1.0676188156174111</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0538919566191796</v>
+        <v>1.1648279520527773</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0821348962778552</v>
+        <v>1.071420689384015</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0091484291028947</v>
+        <v>0.95919058607799879</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96215095737072553</v>
+        <v>1.0229183862572979</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2809725549056319</v>
+        <v>1.1939161676790355</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3810091604990982</v>
+        <v>1.394958747978887</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3340356397109177</v>
+        <v>1.390205561382956</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6019756234397571</v>
+        <v>1.5226698995070955</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5692358415110428</v>
+        <v>1.4937918106691654</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4958434731943482</v>
+        <v>1.5115891939648149</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6941943539567657</v>
+        <v>1.728769748935475</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7466685769558774</v>
+        <v>1.7298736867928401</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6954593641261104</v>
+        <v>1.5802339704476367</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9191310762161315</v>
+        <v>1.8259693734871931</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27422,7 +27422,7 @@
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3883240376702929E-6</v>
+        <v>6.3224650269726606E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,55 +27442,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0042353391625182E-2</v>
+        <v>1.0570898306973877E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21202694091686636</v>
+        <v>0.20765525141342581</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55552744849306068</v>
+        <v>0.53395356699818453</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69764419220224472</v>
+        <v>0.76304833522120519</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83146218665000093</v>
+        <v>0.82346735793221248</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84216621017517801</v>
+        <v>0.85900953437868155</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75205674309655623</v>
+        <v>0.71519121647417605</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57409238698329357</v>
+        <v>0.5798333108531265</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31048463433022544</v>
+        <v>0.31669432701682998</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7352483074783018E-2</v>
+        <v>7.2212971544097254E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2585491263676448E-4</v>
+        <v>4.1707439897415078E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7445697174727984E-5</v>
+        <v>7.4438097284447284E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8967859102130381E-5</v>
+        <v>1.8772314162933162E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1537568306010929E-5</v>
+        <v>1.1999071038251367E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.849337112553717E-6</v>
+        <v>6.4541830483679252E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,19 +27543,19 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0465189323904138E-2</v>
+        <v>1.025377135776466E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22514200942718798</v>
+        <v>0.22077031992374743</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51237968550330837</v>
+        <v>0.51777315587702744</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71944557320856484</v>
+        <v>0.73397982721277832</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27563,7 +27563,7 @@
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8169012238699227</v>
+        <v>0.83374454807342624</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27571,27 +27571,27 @@
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59131515859279238</v>
+        <v>0.55112869150396182</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30117009530031869</v>
+        <v>0.31669432701682998</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0129905057248296E-2</v>
+        <v>7.1518616048480935E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3902568313068505E-4</v>
+        <v>4.4780619679329875E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.4438097284447284E-5</v>
+        <v>7.3686197311877109E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9750038858919265E-5</v>
+        <v>1.8772314162933162E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2114446721311475E-5</v>
+        <v>1.1076065573770491E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6517600804608211E-6</v>
+        <v>6.849337112553717E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,55 +27644,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0888025256183095E-2</v>
+        <v>1.025377135776466E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22514200942718798</v>
+        <v>0.22077031992374743</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51777315587702744</v>
+        <v>0.55552744849306068</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74124695421488507</v>
+        <v>0.7485140812169917</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80747770049663548</v>
+        <v>0.83945701536778938</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86743119648043332</v>
+        <v>0.85058787227692978</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75205674309655623</v>
+        <v>0.76680295374550833</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58557423472295944</v>
+        <v>0.60279700633245825</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31048463433022544</v>
+        <v>0.29806524895701642</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0824260552864615E-2</v>
+        <v>6.7352483074783018E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4341593996199193E-4</v>
+        <v>4.1707439897415078E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7445697174727984E-5</v>
+        <v>7.5189997257017459E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0141128737313706E-5</v>
+        <v>1.9358948980524821E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1921379781420765E-5</v>
+        <v>2.2382882513661202E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3040084118131113E-5</v>
+        <v>1.3171802139526378E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,43 +27914,43 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0718960681668799E-2</v>
+        <v>2.1353214580087234E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41968219233029214</v>
+        <v>0.45465570835781655</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1326287784809976</v>
+        <v>1.046333252501493</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5260966704424104</v>
+        <v>1.4243568924129162</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.646934715864425</v>
+        <v>1.6309450584288481</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7180190687573631</v>
+        <v>1.7685490413678739</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4598748542462563</v>
+        <v>1.4303824329483521</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1826303171855848</v>
+        <v>1.1941121649252506</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65201773209347347</v>
+        <v>0.64580803940686893</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13748238813203131</v>
+        <v>0.13192754416710076</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27958,11 +27958,11 @@
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4286099478833317E-4</v>
+        <v>1.5639519429459632E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1064437231416293E-5</v>
+        <v>3.9108987839444087E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,51 +27987,51 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2911255277737883</v>
+        <v>2.2003878831094799</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.975106553855501</v>
+        <v>1.915254840102304</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1306911155141264</v>
+        <v>2.0262454725967673</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.931944547219425</v>
+        <v>1.9118201248525559</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7229551693401468</v>
+        <v>1.7940048670448951</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5541689479249494</v>
+        <v>1.5224512142938278</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.355487606102185</v>
+        <v>1.3840241872832837</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3314452443118636</v>
+        <v>1.2930381699567137</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1613657228993</v>
+        <v>1.185067064182959</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.111195093805877</v>
+        <v>1.0349366069760619</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0760791557058991</v>
+        <v>1.0538919566191796</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1142775169593757</v>
+        <v>1.1035633100655355</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28039,7 +28039,7 @@
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0026625766284405</v>
+        <v>1.0533021007005841</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28047,39 +28047,39 @@
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3391603980597313</v>
+        <v>1.394958747978887</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3480781201289271</v>
+        <v>1.3761630809649468</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5702533338666924</v>
+        <v>1.5861144786532246</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5390582291742918</v>
+        <v>1.4485253921640393</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5115891939648149</v>
+        <v>1.6375549601285497</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7114820514461202</v>
+        <v>1.7633451439141845</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6123094556515791</v>
+        <v>1.6626941261406909</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6131555114986291</v>
+        <v>1.6625378230751178</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9563957573077071</v>
+        <v>1.9377634167619193</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2114446721311475E-5</v>
+        <v>1.1768319672131148E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2566060162750292E-6</v>
+        <v>6.4541830483679252E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,55 +28116,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0676607290043617E-2</v>
+        <v>1.03594803408344E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22514200942718798</v>
+        <v>0.21858447517202717</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53934703737190359</v>
+        <v>0.5231666262507465</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75578120821909844</v>
+        <v>0.69037706520013797</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81547252921442404</v>
+        <v>0.82346735793221248</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88427452068393697</v>
+        <v>0.83374454807342624</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72256432179865204</v>
+        <v>0.70044500582522395</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55686961537379476</v>
+        <v>0.55112869150396182</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31669432701682998</v>
+        <v>0.32600886604673673</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2212971544097254E-2</v>
+        <v>6.6658127579166698E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3902568313068505E-4</v>
+        <v>4.5658671045591245E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7445697174727984E-5</v>
+        <v>7.1430497394166584E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8967859102130381E-5</v>
+        <v>1.9163404041327603E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.130681693989071E-5</v>
+        <v>1.2114446721311475E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4541830483679252E-6</v>
+        <v>6.5859010697631888E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28221,27 +28221,27 @@
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21421278566858662</v>
+        <v>0.22077031992374743</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56092091886677975</v>
+        <v>0.53934703737190359</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76304833522120519</v>
+        <v>0.72671270021067158</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80747770049663548</v>
+        <v>0.79948287177884703</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8169012238699227</v>
+        <v>0.85900953437868155</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73731053244760414</v>
+        <v>0.77417605906998432</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28249,11 +28249,11 @@
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30117009530031869</v>
+        <v>0.32290401970343446</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6658127579166698E-2</v>
+        <v>7.2907327039713574E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28261,11 +28261,11 @@
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2934297339306934E-5</v>
+        <v>7.1430497394166584E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9945583798116484E-5</v>
+        <v>2.0336673676510925E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.142219262295082E-5</v>
+        <v>1.1537568306010929E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7176190911584525E-6</v>
+        <v>6.4541830483679252E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,23 +28318,23 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0676607290043617E-2</v>
+        <v>1.0148062374694922E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21639863042030691</v>
+        <v>0.22514200942718798</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54474050774562266</v>
+        <v>0.51777315587702744</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72671270021067158</v>
+        <v>0.69037706520013797</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77549838562548157</v>
+        <v>0.83945701536778938</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28342,15 +28342,15 @@
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74468363777208013</v>
+        <v>0.76680295374550833</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56835146311346063</v>
+        <v>0.54538776763412888</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31669432701682998</v>
+        <v>0.29496040261371415</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28358,15 +28358,15 @@
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2146465580545766E-4</v>
+        <v>4.1707439897415078E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8949497119868334E-5</v>
+        <v>7.5941897229587634E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0336673676510925E-5</v>
+        <v>2.0141128737313706E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10009F75-6278-4274-A370-9F222E5B93AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56600F21-090D-44D3-8422-9DC383D50D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8355" yWindow="4620" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7724,18 +7724,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
       <sheetData sheetId="27">
         <row r="2">
           <cell r="B2">
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8351092896174861E-5</v>
+        <v>1.7260928961748631E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0767425558501721E-5</v>
+        <v>1.0349273109627868E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,11 +13510,11 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6618032363396047E-2</v>
+        <v>1.6448460604585883E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35336498728149113</v>
+        <v>0.35682934990189791</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13522,11 +13522,11 @@
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1687848585593277</v>
+        <v>1.1233951553143053</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2647036517222054</v>
+        <v>1.2267625421705393</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13538,27 +13538,27 @@
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.9134930142771317</v>
+        <v>0.93176287456267437</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.49545503510474292</v>
+        <v>0.51031868615788523</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10933466931528769</v>
+        <v>0.11042801600844057</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7510413810611936E-4</v>
+        <v>6.6807180333418054E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1766700791567802E-4</v>
+        <v>1.2869828990777284E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.361433665538996E-5</v>
+        <v>3.2967907104324765E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,99 +13583,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1192427349744243</v>
+        <v>3.1804043572288254</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9189524982765813</v>
+        <v>2.8077543078660447</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.592118408837389</v>
+        <v>2.7285456935130408</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6800931221055517</v>
+        <v>2.6253973441033973</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4156897219614426</v>
+        <v>2.3209567916884448</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1321132982057289</v>
+        <v>2.1530163697567657</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9288242167185743</v>
+        <v>1.8002359356040025</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7317872785345645</v>
+        <v>1.5668551567693678</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.598617998762335</v>
+        <v>1.6793562815281096</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5335939657004252</v>
+        <v>1.5041017740523399</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4643873517242918</v>
+        <v>1.4788862363948292</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4592211184207329</v>
+        <v>1.5025643199579823</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2851471260987561</v>
+        <v>1.3257307195545065</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2796308220918817</v>
+        <v>1.3329487730123768</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6956829602457413</v>
+        <v>1.7460497808471001</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7940588033731999</v>
+        <v>1.9061874785840249</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9139960855677607</v>
+        <v>2.031179519378032</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1618836541946655</v>
+        <v>2.0754083080268786</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9527976069330966</v>
+        <v>1.9939091355001093</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1242800712080196</v>
+        <v>2.0822151193029104</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1019517952424369</v>
+        <v>2.1462034119843834</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2022931345893397</v>
+        <v>2.3839255580606258</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3069530910473475</v>
+        <v>2.2190691637693529</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5821937872653633</v>
+        <v>2.5325362144333368</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.1755464480874303E-6</v>
+        <v>9.0846994535519115E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1746365548139341E-6</v>
+        <v>5.2269056109231657E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,19 +13712,19 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.5633738199132701E-3</v>
+        <v>8.902517337533597E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17841467495094895</v>
+        <v>0.18187903757135573</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43622997606831942</v>
+        <v>0.4447004610405198</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53900272603464139</v>
+        <v>0.57871871637403605</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13732,27 +13732,27 @@
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69614892346577006</v>
+        <v>0.68951893371847706</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54837066956543501</v>
+        <v>0.5656876380780278</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44761157699579451</v>
+        <v>0.45217904206718018</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25763661825446632</v>
+        <v>0.25515934307894261</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4120661311067408E-2</v>
+        <v>5.4667334657643847E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5513290598290651E-4</v>
+        <v>3.6216524075484527E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13760,7 +13760,7 @@
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5999131388863491E-5</v>
+        <v>1.6968775715461277E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13793,7 +13793,7 @@
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3837127792508603E-6</v>
+        <v>5.2269056109231657E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,55 +13813,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3090161816980236E-3</v>
+        <v>8.2242303022929415E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18187903757135573</v>
+        <v>0.17668249364074556</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41928900612391867</v>
+        <v>0.41505376363781848</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57871871637403605</v>
+        <v>0.55035015184589708</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65764589889554681</v>
+        <v>0.61970478934388062</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64310900548742567</v>
+        <v>0.66962896447659781</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54837066956543501</v>
+        <v>0.57723228375308955</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47044890235272285</v>
+        <v>0.46131397220995152</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24525024237684775</v>
+        <v>0.25763661825446632</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.357398796449097E-2</v>
+        <v>5.5214008004220286E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3403590166709027E-4</v>
+        <v>3.481005712109678E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4349144953886422E-5</v>
+        <v>6.3123446954764769E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6483953552162382E-5</v>
+        <v>1.5675916613330893E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6304644808743156E-6</v>
+        <v>9.0846994535519115E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1223674987047025E-6</v>
+        <v>5.2269056109231657E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,35 +13914,35 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6481596993183522E-3</v>
+        <v>8.902517337533597E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17321813102033878</v>
+        <v>0.17841467495094895</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43622997606831942</v>
+        <v>0.4447004610405198</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54467643894026918</v>
+        <v>0.55602386475152488</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65764589889554681</v>
+        <v>0.63867534411971372</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65636898498201179</v>
+        <v>0.64310900548742567</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60609389794074409</v>
+        <v>0.59454925226568223</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47958383249549419</v>
+        <v>0.44761157699579451</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13950,19 +13950,19 @@
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4120661311067408E-2</v>
+        <v>5.6307354697373163E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5513290598290651E-4</v>
+        <v>3.481005712109678E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.189774895564313E-5</v>
+        <v>6.0672050956521478E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.680716832769498E-5</v>
+        <v>1.5837524001097193E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14164,7 +14164,7 @@
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0976501782938649E-5</v>
+        <v>1.0349273109627868E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,19 +14184,19 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7465891157446869E-2</v>
+        <v>1.7296319398636704E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33950753679986401</v>
+        <v>0.34643626204067757</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8894009220810396</v>
+        <v>0.81316655733123622</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1007003036917942</v>
+        <v>1.1120477295030498</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14204,35 +14204,35 @@
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2862180109748513</v>
+        <v>1.3259979494586096</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1082859848059319</v>
+        <v>1.1429199218311172</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95003273484821704</v>
+        <v>0.88608822384881769</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5004095854557904</v>
+        <v>0.48059138405160062</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10386793584952331</v>
+        <v>0.10824132262213482</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.962011424219356E-4</v>
+        <v>7.2433048150969054E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1889270591479966E-4</v>
+        <v>1.2379549791128626E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3291121879857366E-5</v>
+        <v>3.3937551430922555E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,95 +14257,95 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9357578682112226</v>
+        <v>2.905177057084023</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8911529506739471</v>
+        <v>2.8077543078660447</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7285456935130408</v>
+        <v>2.8376875212535624</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7894846781098597</v>
+        <v>2.8168325671109375</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2972735591201952</v>
+        <v>2.4393729545296923</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1948225128588388</v>
+        <v>2.1321132982057289</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8186056900489413</v>
+        <v>1.855345198938819</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6493212176519663</v>
+        <v>1.5668551567693678</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.598617998762335</v>
+        <v>1.6470609684217996</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4746095824042549</v>
+        <v>1.5041017740523399</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4063918130421413</v>
+        <v>1.5078840057359042</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4447733845749831</v>
+        <v>1.3725347153462339</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3122028550692564</v>
+        <v>1.406897906466007</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3462782607425006</v>
+        <v>1.266301334361758</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7628387210475529</v>
+        <v>1.6285271994439297</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8501231409786123</v>
+        <v>1.8874993660488877</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9921183747746078</v>
+        <v>1.9530572301711844</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2267401638205051</v>
+        <v>2.1186459811107721</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9527976069330966</v>
+        <v>2.0555764283506281</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2084099750182382</v>
+        <v>2.1663450231131289</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1904550287263294</v>
+        <v>2.1240776036134101</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2477012404571615</v>
+        <v>2.2249971875232504</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2410401455888516</v>
+        <v>2.2630111274083502</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.1755464480874303E-6</v>
+        <v>8.9938524590163926E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1223674987047025E-6</v>
+        <v>5.2269056109231657E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,7 +14386,7 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3938020611031058E-3</v>
+        <v>8.3090161816980236E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14394,47 +14394,47 @@
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43199473358221924</v>
+        <v>0.41505376363781848</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59006614218529174</v>
+        <v>0.55602386475152488</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60705775282665864</v>
+        <v>0.60073423456804753</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65636898498201179</v>
+        <v>0.67625895422389093</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60032157510321316</v>
+        <v>0.60609389794074409</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44761157699579451</v>
+        <v>0.44304411192440885</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2502047927278952</v>
+        <v>0.26011389342999003</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2480641271338092E-2</v>
+        <v>5.5760681350796724E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5864907336887592E-4</v>
+        <v>3.4106823643902904E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4349144953886422E-5</v>
+        <v>6.2510597955203957E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6645560939928683E-5</v>
+        <v>1.5514309225564595E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.3572404371584697E-6</v>
+        <v>8.9938524590163926E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.965560330377007E-6</v>
+        <v>5.3314437231416288E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,51 +14487,51 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7329455787234344E-3</v>
+        <v>8.0546585434827789E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18014685626115234</v>
+        <v>0.16455722446932183</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41928900612391867</v>
+        <v>0.42352424861001886</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58439242927966384</v>
+        <v>0.59573985509091953</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63235182586110272</v>
+        <v>0.60073423456804753</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66962896447659781</v>
+        <v>0.62984902599283954</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57145996091555862</v>
+        <v>0.58300460659062048</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45674650713856585</v>
+        <v>0.44761157699579451</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23534114167475287</v>
+        <v>0.2378184168502766</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6854028043949602E-2</v>
+        <v>5.2480641271338092E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6919757552678404E-4</v>
+        <v>3.4458440382499839E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4349144953886422E-5</v>
+        <v>5.8833503957839012E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6304644808743156E-6</v>
+        <v>9.5389344262295074E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3837127792508603E-6</v>
+        <v>5.4359818353600928E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,11 +14588,11 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7329455787234344E-3</v>
+        <v>8.3938020611031058E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18014685626115234</v>
+        <v>0.169753768399932</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14600,23 +14600,23 @@
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57304500346840825</v>
+        <v>0.54467643894026918</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64499886237832482</v>
+        <v>0.61970478934388062</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62984902599283954</v>
+        <v>0.6629989747293048</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57145996091555862</v>
+        <v>0.60609389794074409</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47958383249549419</v>
+        <v>0.43390918178163751</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14624,15 +14624,15 @@
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1933967924761654E-2</v>
+        <v>5.4120661311067408E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3403590166709027E-4</v>
+        <v>3.6919757552678404E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8833503957839012E-5</v>
+        <v>6.4349144953886422E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8896174863387977E-5</v>
+        <v>1.8532786885245898E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0453811221846331E-5</v>
+        <v>1.0035658772972477E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,55 +14858,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.712674763982654E-2</v>
+        <v>1.6109317086965558E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35682934990189791</v>
+        <v>0.32911444893864367</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83010752727563697</v>
+        <v>0.8555189821922381</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1233951553143053</v>
+        <v>1.1574374327480721</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2394095786877612</v>
+        <v>1.2647036517222054</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3259979494586096</v>
+        <v>1.2862180109748513</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1198306304809937</v>
+        <v>1.09674133913087</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88608822384881769</v>
+        <v>0.95916766499098838</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5004095854557904</v>
+        <v>0.47563683370055321</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10714797592898194</v>
+        <v>0.11152136270159345</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0323347719387431E-4</v>
+        <v>7.3136281628162925E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1889270591479966E-4</v>
+        <v>1.2624689390952954E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3937551430922555E-5</v>
+        <v>3.0705403675596596E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,11 +14931,11 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9969194904656238</v>
+        <v>2.9357578682112226</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6687565698528743</v>
+        <v>2.8911529506739471</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14943,11 +14943,11 @@
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8715283451130915</v>
+        <v>2.7347889001077057</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3683232568249437</v>
+        <v>2.3209567916884448</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14959,7 +14959,7 @@
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5833483689458874</v>
+        <v>1.6328280054754465</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14967,35 +14967,35 @@
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5483400615244678</v>
+        <v>1.430371294932127</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4788862363948292</v>
+        <v>1.449888467053754</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4447733845749831</v>
+        <v>1.430325650729233</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3663143130102569</v>
+        <v>1.4204257709512569</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3596077484726243</v>
+        <v>1.3862667239328719</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6956829602457413</v>
+        <v>1.7124719004461941</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8874993660488877</v>
+        <v>1.7753706908380624</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8554043686626251</v>
+        <v>2.0116489470763197</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -15003,27 +15003,27 @@
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9527976069330966</v>
+        <v>2.0966879569176409</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0611826433503557</v>
+        <v>2.0822151193029104</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2347066454682754</v>
+        <v>2.1683292203553566</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2249971875232504</v>
+        <v>2.3385174521928045</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2849821092278488</v>
+        <v>2.1092142546718602</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6070225736813764</v>
+        <v>2.4580498551852976</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,7 +15036,7 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5389344262295074E-6</v>
+        <v>9.1755464480874303E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,47 +15060,47 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.902517337533597E-3</v>
+        <v>8.0546585434827789E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18187903757135573</v>
+        <v>0.17148594971013539</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4108185211517183</v>
+        <v>0.41505376363781848</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56737129056278046</v>
+        <v>0.54467643894026918</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60705775282665864</v>
+        <v>0.61338127108526963</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66962896447659781</v>
+        <v>0.62984902599283954</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60032157510321316</v>
+        <v>0.57723228375308955</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46131397220995152</v>
+        <v>0.47501636742410852</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2378184168502766</v>
+        <v>0.24277296720132402</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6307354697373163E-2</v>
+        <v>5.6854028043949602E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6919757552678404E-4</v>
+        <v>3.5161673859693715E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6483953552162382E-5</v>
+        <v>1.5352701837798298E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2663934426229492E-6</v>
+        <v>8.9030054644808738E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4359818353600928E-6</v>
+        <v>5.1223674987047025E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15165,11 +15165,11 @@
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16628940577952522</v>
+        <v>0.17495031233054217</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41505376363781848</v>
+        <v>0.4108185211517183</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15177,39 +15177,39 @@
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63867534411971372</v>
+        <v>0.65764589889554681</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62984902599283954</v>
+        <v>0.68288894397118394</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58300460659062048</v>
+        <v>0.59454925226568223</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44304411192440885</v>
+        <v>0.47044890235272285</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25763661825446632</v>
+        <v>0.26011389342999003</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5760681350796724E-2</v>
+        <v>5.740070139052604E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5161673859693715E-4</v>
+        <v>3.481005712109678E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9446352957399832E-5</v>
+        <v>5.8220654958278186E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6483953552162382E-5</v>
+        <v>1.6645560939928683E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5389344262295074E-6</v>
+        <v>8.7213114754098344E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3314437231416288E-6</v>
+        <v>5.2791746670323972E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,55 +15262,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3938020611031058E-3</v>
+        <v>8.1394444228878593E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16628940577952522</v>
+        <v>0.16802158708972861</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41505376363781848</v>
+        <v>0.42775949109611905</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57304500346840825</v>
+        <v>0.55602386475152488</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60705775282665864</v>
+        <v>0.62602830760249173</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68951893371847706</v>
+        <v>0.65636898498201179</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55991531524049687</v>
+        <v>0.57145996091555862</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45674650713856585</v>
+        <v>0.44304411192440885</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24277296720132402</v>
+        <v>0.26011389342999003</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6854028043949602E-2</v>
+        <v>5.5214008004220286E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6568140814081463E-4</v>
+        <v>3.5513290598290651E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2510597955203957E-5</v>
+        <v>5.9446352957399832E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5514309225564595E-5</v>
+        <v>1.5675916613330893E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -17001,7 +17001,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3536639344262295E-5</v>
+        <v>2.2152131147540982E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3040084118131113E-5</v>
+        <v>1.2644930053945321E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,55 +26485,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1353214580087234E-2</v>
+        <v>2.156463254622671E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42842557133717324</v>
+        <v>0.45028401885437597</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0894810154912453</v>
+        <v>1.0247593710066167</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4243568924129162</v>
+        <v>1.3807541304002759</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.614955400993271</v>
+        <v>1.5350071138153862</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6674890961468525</v>
+        <v>1.6338024477398454</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4303824329483521</v>
+        <v>1.4893672755441603</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0907755352682578</v>
+        <v>1.1022573830079236</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62096926866045088</v>
+        <v>0.65201773209347347</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14164852110572923</v>
+        <v>0.14025981011449659</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0439290724921126E-4</v>
+        <v>8.9561239358659751E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4887619456889457E-4</v>
+        <v>1.5489139434945597E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9891167596232968E-5</v>
+        <v>3.8717897961049643E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,27 +26558,27 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3138099389398654</v>
+        <v>2.2911255277737883</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.915254840102304</v>
+        <v>1.9551559826044351</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9844672154298235</v>
+        <v>2.0471346011802392</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1130643485212461</v>
+        <v>1.9118201248525559</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7940048670448951</v>
+        <v>1.7229551693401468</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5541689479249494</v>
+        <v>1.5858866815560706</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26586,27 +26586,27 @@
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2802358118383304</v>
+        <v>1.2418287374831802</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1258137109738111</v>
+        <v>1.2087684054666183</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0676188156174111</v>
+        <v>1.0894069547116441</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0538919566191796</v>
+        <v>1.1204535538793383</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0178496549148142</v>
+        <v>1.0499922755963347</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98916529189293634</v>
+        <v>1.0491147035228112</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26614,43 +26614,43 @@
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1814795409323788</v>
+        <v>1.2685359281589754</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4368075104182534</v>
+        <v>1.4089083354586758</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3480781201289271</v>
+        <v>1.4744604438910143</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5385310442936277</v>
+        <v>1.665420202585886</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4636141983324147</v>
+        <v>1.4937918106691654</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5745720770466822</v>
+        <v>1.5430806355057487</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6596189589780561</v>
+        <v>1.7114820514461202</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7634634671189149</v>
+        <v>1.7466685769558774</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7119201346516064</v>
+        <v>1.6460770525496216</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8446017140329807</v>
+        <v>1.8259693734871931</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1883695355191256E-5</v>
+        <v>1.1191441256830601E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5859010697631888E-6</v>
+        <v>6.7834781018560848E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,55 +26687,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0465189323904138E-2</v>
+        <v>1.0042353391625182E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22295616467546772</v>
+        <v>0.21858447517202717</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51777315587702744</v>
+        <v>0.56631438924049882</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69037706520013797</v>
+        <v>0.75578120821909844</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80747770049663548</v>
+        <v>0.79948287177884703</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82532288597167447</v>
+        <v>0.85058787227692978</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72256432179865204</v>
+        <v>0.70781811114969995</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5798333108531265</v>
+        <v>0.60279700633245825</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30117009530031869</v>
+        <v>0.31048463433022544</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.9435549561631976E-2</v>
+        <v>7.1518616048480935E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3024516946807136E-4</v>
+        <v>4.4341593996199193E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2934297339306934E-5</v>
+        <v>7.8197597147298159E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9358948980524821E-5</v>
+        <v>1.8772314162933162E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2114446721311475E-5</v>
+        <v>1.1999071038251367E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4541830483679252E-6</v>
+        <v>6.6517600804608211E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,7 +26788,7 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0148062374694922E-2</v>
+        <v>1.0042353391625182E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26796,47 +26796,47 @@
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53934703737190359</v>
+        <v>0.51237968550330837</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70491131920435146</v>
+        <v>0.71217844620645809</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83945701536778938</v>
+        <v>0.79948287177884703</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84216621017517801</v>
+        <v>0.80847956176817082</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75942984842103223</v>
+        <v>0.71519121647417605</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5798333108531265</v>
+        <v>0.59131515859279238</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29806524895701642</v>
+        <v>0.29496040261371415</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0129905057248296E-2</v>
+        <v>6.8741194066015657E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3902568313068505E-4</v>
+        <v>4.2585491263676448E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8197597147298159E-5</v>
+        <v>7.1430497394166584E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9945583798116484E-5</v>
+        <v>2.0336673676510925E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26869,7 +26869,7 @@
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5200420590655566E-6</v>
+        <v>6.4541830483679252E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,15 +26889,15 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.025377135776466E-2</v>
+        <v>1.0676607290043617E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21202694091686636</v>
+        <v>0.21858447517202717</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55013397811934173</v>
+        <v>0.51777315587702744</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26905,15 +26905,15 @@
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82346735793221248</v>
+        <v>0.83945701536778938</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86743119648043332</v>
+        <v>0.80005789966641905</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77417605906998432</v>
+        <v>0.72993742712312815</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26921,23 +26921,23 @@
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30117009530031869</v>
+        <v>0.31048463433022544</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1518616048480935E-2</v>
+        <v>6.8741194066015657E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1707439897415078E-4</v>
+        <v>4.2146465580545766E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.3686197311877109E-5</v>
+        <v>7.4438097284447284E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9163404041327603E-5</v>
+        <v>2.0532218615708147E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.284438524590164E-5</v>
+        <v>2.3075136612021857E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3435238182316905E-5</v>
+        <v>1.3303520160921642E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,11 +27240,11 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0296124749389844E-2</v>
+        <v>2.2198886444645145E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43279726084061382</v>
+        <v>0.43716895034405434</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27252,19 +27252,19 @@
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3952883844044894</v>
+        <v>1.3807541304002759</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5509967712509631</v>
+        <v>1.5190174563798093</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6674890961468525</v>
+        <v>1.7517057171643704</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4746210648952083</v>
+        <v>1.4451286435973041</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27272,23 +27272,23 @@
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64580803940686893</v>
+        <v>0.6085498832872418</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13470496614956604</v>
+        <v>0.13192754416710076</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6049033893614271E-4</v>
+        <v>8.3414879794830156E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4737239462375422E-4</v>
+        <v>1.5338759440431562E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8717897961049643E-5</v>
+        <v>3.7544628325866324E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,99 +27313,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3138099389398654</v>
+        <v>2.2911255277737883</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.094809981361895</v>
+        <v>1.9551559826044351</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1306911155141264</v>
+        <v>1.9844672154298235</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.072815503787508</v>
+        <v>2.0325666590537699</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7584800181925211</v>
+        <v>1.7051927449139597</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6651810156338742</v>
+        <v>1.57002781474051</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4696339308265798</v>
+        <v>1.3697558966927346</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2162240212464137</v>
+        <v>1.3442476024302468</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1376643816156409</v>
+        <v>1.1495150522574702</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0676188156174111</v>
+        <v>1.111195093805877</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1648279520527773</v>
+        <v>1.1426407529660578</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.071420689384015</v>
+        <v>1.0499922755963347</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95919058607799879</v>
+        <v>0.94919901747301971</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0229183862572979</v>
+        <v>1.0330462910717266</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1939161676790355</v>
+        <v>1.2312260479190054</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.394958747978887</v>
+        <v>1.4368075104182534</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.390205561382956</v>
+        <v>1.4463754830549949</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5226698995070955</v>
+        <v>1.5861144786532246</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4937918106691654</v>
+        <v>1.4334365859956639</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5115891939648149</v>
+        <v>1.6375549601285497</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.728769748935475</v>
+        <v>1.6423312614887011</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7298736867928401</v>
+        <v>1.5955145654885416</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5802339704476367</v>
+        <v>1.5637731999221405</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8259693734871931</v>
+        <v>1.9377634167619193</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.130681693989071E-5</v>
+        <v>1.1768319672131148E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3224650269726606E-6</v>
+        <v>6.9151961232513485E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,15 +27442,15 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0570898306973877E-2</v>
+        <v>1.0888025256183095E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20765525141342581</v>
+        <v>0.22951369893062853</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53395356699818453</v>
+        <v>0.55013397811934173</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27458,39 +27458,39 @@
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82346735793221248</v>
+        <v>0.77549838562548157</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85900953437868155</v>
+        <v>0.83374454807342624</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71519121647417605</v>
+        <v>0.72256432179865204</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5798333108531265</v>
+        <v>0.59131515859279238</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31669432701682998</v>
+        <v>0.31358948067352771</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2212971544097254E-2</v>
+        <v>6.5963772083550379E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1707439897415078E-4</v>
+        <v>4.3463542629937818E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.4438097284447284E-5</v>
+        <v>7.5941897229587634E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8772314162933162E-5</v>
+        <v>2.0532218615708147E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1999071038251367E-5</v>
+        <v>1.1652943989071037E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4541830483679252E-6</v>
+        <v>6.849337112553717E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27547,51 +27547,51 @@
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22077031992374743</v>
+        <v>0.20984109616514607</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51777315587702744</v>
+        <v>0.53934703737190359</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73397982721277832</v>
+        <v>0.74124695421488507</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83945701536778938</v>
+        <v>0.78349321434327002</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83374454807342624</v>
+        <v>0.80847956176817082</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70044500582522395</v>
+        <v>0.76680295374550833</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55112869150396182</v>
+        <v>0.56261053924362769</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31669432701682998</v>
+        <v>0.30117009530031869</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1518616048480935E-2</v>
+        <v>6.8046838570399337E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4780619679329875E-4</v>
+        <v>4.5219645362460563E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.3686197311877109E-5</v>
+        <v>7.2182397366736759E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8772314162933162E-5</v>
+        <v>1.9750038858919265E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1076065573770491E-5</v>
+        <v>1.1999071038251367E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.849337112553717E-6</v>
+        <v>6.6517600804608211E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,55 +27644,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.025377135776466E-2</v>
+        <v>1.0570898306973877E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22077031992374743</v>
+        <v>0.21421278566858662</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55552744849306068</v>
+        <v>0.53395356699818453</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7485140812169917</v>
+        <v>0.72671270021067158</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83945701536778938</v>
+        <v>0.77549838562548157</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85058787227692978</v>
+        <v>0.8169012238699227</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76680295374550833</v>
+        <v>0.73731053244760414</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60279700633245825</v>
+        <v>0.57409238698329357</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29806524895701642</v>
+        <v>0.32600886604673673</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7352483074783018E-2</v>
+        <v>7.2907327039713574E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1707439897415078E-4</v>
+        <v>4.2585491263676448E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5189997257017459E-5</v>
+        <v>7.8949497119868334E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9358948980524821E-5</v>
+        <v>1.9554493919722043E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2382882513661202E-5</v>
+        <v>2.3536639344262295E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3171802139526378E-5</v>
+        <v>1.2644930053945321E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,39 +27914,39 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1353214580087234E-2</v>
+        <v>2.0296124749389844E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45465570835781655</v>
+        <v>0.44154063984749486</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.046333252501493</v>
+        <v>1.0247593710066167</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4243568924129162</v>
+        <v>1.5115624164381969</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6309450584288481</v>
+        <v>1.56698642868654</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7685490413678739</v>
+        <v>1.7517057171643704</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4303824329483521</v>
+        <v>1.5483521181399686</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1941121649252506</v>
+        <v>1.1137392307475895</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64580803940686893</v>
+        <v>0.58992080522742829</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27954,15 +27954,15 @@
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.5170982527352896E-4</v>
+        <v>8.3414879794830156E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5639519429459632E-4</v>
+        <v>1.5789899423973667E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9108987839444087E-5</v>
+        <v>3.715353844747188E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,99 +27987,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2003878831094799</v>
+        <v>2.3364943501059425</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.915254840102304</v>
+        <v>1.9352054113533694</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0262454725967673</v>
+        <v>2.1515802440975982</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9118201248525559</v>
+        <v>2.0526910814206394</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7940048670448951</v>
+        <v>1.8650545647496437</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5224512142938278</v>
+        <v>1.6334632820027528</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3840241872832837</v>
+        <v>1.3697558966927346</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2930381699567137</v>
+        <v>1.3314452443118636</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.185067064182959</v>
+        <v>1.2206190761084481</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0349366069760619</v>
+        <v>1.1329832329001097</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0538919566191796</v>
+        <v>1.1648279520527773</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1035633100655355</v>
+        <v>1.071420689384015</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0091484291028947</v>
+        <v>0.94919901747301971</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0533021007005841</v>
+        <v>1.0127904814428692</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1814795409323788</v>
+        <v>1.3058458083989453</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.394958747978887</v>
+        <v>1.4228579229384648</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3761630809649468</v>
+        <v>1.3621206005469368</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5861144786532246</v>
+        <v>1.5702533338666924</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4485253921640393</v>
+        <v>1.508880616837541</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6375549601285497</v>
+        <v>1.5115891939648149</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7633451439141845</v>
+        <v>1.7806328414035395</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6626941261406909</v>
+        <v>1.6291043458146162</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6625378230751178</v>
+        <v>1.6460770525496216</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9377634167619193</v>
+        <v>1.8632340545787685</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1768319672131148E-5</v>
+        <v>1.1537568306010929E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4541830483679252E-6</v>
+        <v>6.5859010697631888E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,7 +28116,7 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.03594803408344E-2</v>
+        <v>1.0676607290043617E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28124,47 +28124,47 @@
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5231666262507465</v>
+        <v>0.55552744849306068</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69037706520013797</v>
+        <v>0.70491131920435146</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82346735793221248</v>
+        <v>0.78349321434327002</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83374454807342624</v>
+        <v>0.88427452068393697</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70044500582522395</v>
+        <v>0.76680295374550833</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55112869150396182</v>
+        <v>0.55686961537379476</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32600886604673673</v>
+        <v>0.29496040261371415</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6658127579166698E-2</v>
+        <v>7.2212971544097254E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5658671045591245E-4</v>
+        <v>4.3902568313068505E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1430497394166584E-5</v>
+        <v>7.5189997257017459E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9163404041327603E-5</v>
+        <v>2.0532218615708147E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2114446721311475E-5</v>
+        <v>1.1191441256830601E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5859010697631888E-6</v>
+        <v>6.2566060162750292E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,11 +28217,11 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0148062374694922E-2</v>
+        <v>1.0676607290043617E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22077031992374743</v>
+        <v>0.22295616467546772</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28229,15 +28229,15 @@
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72671270021067158</v>
+        <v>0.70491131920435146</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79948287177884703</v>
+        <v>0.76750355690769312</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85900953437868155</v>
+        <v>0.84216621017517801</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28245,23 +28245,23 @@
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58557423472295944</v>
+        <v>0.56261053924362769</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32290401970343446</v>
+        <v>0.3042749416436209</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2907327039713574E-2</v>
+        <v>6.5963772083550379E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2585491263676448E-4</v>
+        <v>4.3463542629937818E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1430497394166584E-5</v>
+        <v>7.6693797202157809E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1537568306010929E-5</v>
+        <v>1.1076065573770491E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4541830483679252E-6</v>
+        <v>6.9151961232513485E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,7 +28318,7 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0148062374694922E-2</v>
+        <v>1.0570898306973877E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28326,31 +28326,31 @@
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51777315587702744</v>
+        <v>0.56092091886677975</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69037706520013797</v>
+        <v>0.69764419220224472</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83945701536778938</v>
+        <v>0.79948287177884703</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82532288597167447</v>
+        <v>0.88427452068393697</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76680295374550833</v>
+        <v>0.75205674309655623</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54538776763412888</v>
+        <v>0.57409238698329357</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29496040261371415</v>
+        <v>0.31358948067352771</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28358,15 +28358,15 @@
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1707439897415078E-4</v>
+        <v>4.3463542629937818E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5941897229587634E-5</v>
+        <v>7.2934297339306934E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0141128737313706E-5</v>
+        <v>2.0532218615708147E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56600F21-090D-44D3-8422-9DC383D50D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E4CAEE-A4E7-4BC6-97FE-AE088216C18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8355" yWindow="4620" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26250" yWindow="4200" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -249,12 +249,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>0.01</v>
+            <v>1.4999999999999999E-2</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.1</v>
+            <v>7.4999999999999997E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -7724,18 +7724,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
       <sheetData sheetId="27">
         <row r="2">
           <cell r="B2">
@@ -8898,8 +8898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7260928961748631E-5</v>
+        <v>1.7442622950819669E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0349273109627868E-5</v>
+        <v>1.0140196885190942E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,11 +13510,11 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6448460604585883E-2</v>
+        <v>1.6787604122206212E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35682934990189791</v>
+        <v>0.36029371252230469</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13526,19 +13526,19 @@
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2267625421705393</v>
+        <v>1.3279388343083158</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2596980519856791</v>
+        <v>1.3392579289531956</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1890985045313645</v>
+        <v>1.1198306304809937</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.93176287456267437</v>
+        <v>0.90435808413436036</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13546,19 +13546,19 @@
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11042801600844057</v>
+        <v>0.10933466931528769</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6807180333418054E-4</v>
+        <v>7.1729814673775183E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2869828990777284E-4</v>
+        <v>1.1766700791567802E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2967907104324765E-5</v>
+        <v>3.3937551430922555E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,15 +13583,15 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1804043572288254</v>
+        <v>3.1192427349744243</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8077543078660447</v>
+        <v>2.8633534030713133</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7285456935130408</v>
+        <v>2.6194038657725196</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13599,7 +13599,7 @@
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3209567916884448</v>
+        <v>2.2972735591201952</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13607,71 +13607,71 @@
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8002359356040025</v>
+        <v>1.8369754444938802</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5668551567693678</v>
+        <v>1.6493212176519663</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6793562815281096</v>
+        <v>1.5824703422091801</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5041017740523399</v>
+        <v>1.430371294932127</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4788862363948292</v>
+        <v>1.4643873517242918</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5025643199579823</v>
+        <v>1.4158779168834834</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3257307195545065</v>
+        <v>1.3527864485250065</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3329487730123768</v>
+        <v>1.3062897975521293</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7460497808471001</v>
+        <v>1.6956829602457413</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9061874785840249</v>
+        <v>1.8874993660488877</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.031179519378032</v>
+        <v>2.0116489470763197</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0754083080268786</v>
+        <v>2.1186459811107721</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9939091355001093</v>
+        <v>2.0350206640671216</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0822151193029104</v>
+        <v>2.0401501673978011</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1462034119843834</v>
+        <v>2.3232098789521678</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3839255580606258</v>
+        <v>2.2249971875232504</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2190691637693529</v>
+        <v>2.2630111274083502</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0846994535519115E-6</v>
+        <v>8.7213114754098344E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2269056109231657E-6</v>
+        <v>4.965560330377007E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,31 +13712,31 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.902517337533597E-3</v>
+        <v>8.0546585434827789E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18187903757135573</v>
+        <v>0.17841467495094895</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4447004610405198</v>
+        <v>0.41928900612391867</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57871871637403605</v>
+        <v>0.55035015184589708</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64499886237832482</v>
+        <v>0.61338127108526963</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68951893371847706</v>
+        <v>0.65636898498201179</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5656876380780278</v>
+        <v>0.54837066956543501</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13744,23 +13744,23 @@
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25515934307894261</v>
+        <v>0.2378184168502766</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4667334657643847E-2</v>
+        <v>5.357398796449097E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6216524075484527E-4</v>
+        <v>3.5161673859693715E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8220654958278186E-5</v>
+        <v>6.0059201956960658E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6968775715461277E-5</v>
+        <v>1.5999131388863491E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8121584699453533E-6</v>
+        <v>9.3572404371584697E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2269056109231657E-6</v>
+        <v>5.1223674987047025E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,55 +13813,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2242303022929415E-3</v>
+        <v>8.8177314581285166E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17668249364074556</v>
+        <v>0.16455722446932183</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41505376363781848</v>
+        <v>0.40234803617951792</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55035015184589708</v>
+        <v>0.54467643894026918</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61970478934388062</v>
+        <v>0.62602830760249173</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66962896447659781</v>
+        <v>0.62984902599283954</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57723228375308955</v>
+        <v>0.60032157510321316</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46131397220995152</v>
+        <v>0.43390918178163751</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25763661825446632</v>
+        <v>0.24029569202580031</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5214008004220286E-2</v>
+        <v>5.4120661311067408E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.481005712109678E-4</v>
+        <v>3.6568140814081463E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3123446954764769E-5</v>
+        <v>5.9446352957399832E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5675916613330893E-5</v>
+        <v>1.5999131388863491E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0846994535519115E-6</v>
+        <v>8.6304644808743156E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2269056109231657E-6</v>
+        <v>4.965560330377007E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,55 +13914,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.902517337533597E-3</v>
+        <v>8.8177314581285166E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17841467495094895</v>
+        <v>0.16455722446932183</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4447004610405198</v>
+        <v>0.42352424861001886</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55602386475152488</v>
+        <v>0.53900272603464139</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63867534411971372</v>
+        <v>0.65764589889554681</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64310900548742567</v>
+        <v>0.69614892346577006</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59454925226568223</v>
+        <v>0.55414299240296594</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44761157699579451</v>
+        <v>0.47958383249549419</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24772751755237146</v>
+        <v>0.25763661825446632</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6307354697373163E-2</v>
+        <v>5.5760681350796724E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.481005712109678E-4</v>
+        <v>3.5161673859693715E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0672050956521478E-5</v>
+        <v>6.1284899956082304E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5837524001097193E-5</v>
+        <v>1.6645560939928683E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7260928961748631E-5</v>
+        <v>1.8351092896174861E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0349273109627868E-5</v>
+        <v>1.0140196885190942E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,51 +14184,51 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7296319398636704E-2</v>
+        <v>1.6278888845775719E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34643626204067757</v>
+        <v>0.34297189942027079</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81316655733123622</v>
+        <v>0.82163704230343659</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1120477295030498</v>
+        <v>1.0780054520692828</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2141155056533173</v>
+        <v>1.2267625421705393</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3259979494586096</v>
+        <v>1.2862180109748513</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1429199218311172</v>
+        <v>1.2121877958814882</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88608822384881769</v>
+        <v>0.89522315399158903</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.48059138405160062</v>
+        <v>0.51527323650893264</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10824132262213482</v>
+        <v>0.10714797592898194</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2433048150969054E-4</v>
+        <v>7.0323347719387431E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2379549791128626E-4</v>
+        <v>1.2134410191304296E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,11 +14257,11 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.905177057084023</v>
+        <v>3.1804043572288254</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8077543078660447</v>
+        <v>2.7521552126607762</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14269,19 +14269,19 @@
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8168325671109375</v>
+        <v>2.7074410111066287</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4393729545296923</v>
+        <v>2.3920064893931934</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1321132982057289</v>
+        <v>2.1948225128588388</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.855345198938819</v>
+        <v>1.9288242167185743</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14289,67 +14289,67 @@
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6470609684217996</v>
+        <v>1.6793562815281096</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5041017740523399</v>
+        <v>1.430371294932127</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5078840057359042</v>
+        <v>1.4788862363948292</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3725347153462339</v>
+        <v>1.3869824491919835</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.406897906466007</v>
+        <v>1.4204257709512569</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.266301334361758</v>
+        <v>1.3462782607425006</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6285271994439297</v>
+        <v>1.6117382592434768</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8874993660488877</v>
+        <v>1.7753706908380624</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9530572301711844</v>
+        <v>1.8749349409643368</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1186459811107721</v>
+        <v>2.2267401638205051</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0555764283506281</v>
+        <v>2.0350206640671216</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1663450231131289</v>
+        <v>2.1873774990656836</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1240776036134101</v>
+        <v>2.1462034119843834</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2249971875232504</v>
+        <v>2.3839255580606258</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2630111274083502</v>
+        <v>2.1092142546718602</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4580498551852976</v>
+        <v>2.4083922823532715</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9938524590163926E-6</v>
+        <v>8.6304644808743156E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2269056109231657E-6</v>
+        <v>5.3837127792508603E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,15 +14386,15 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3090161816980236E-3</v>
+        <v>8.4785879405081879E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17495031233054217</v>
+        <v>0.16628940577952522</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41505376363781848</v>
+        <v>0.44046521855441961</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14402,27 +14402,27 @@
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60073423456804753</v>
+        <v>0.65764589889554681</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67625895422389093</v>
+        <v>0.69614892346577006</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60609389794074409</v>
+        <v>0.5887769294281513</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44304411192440885</v>
+        <v>0.47501636742410852</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26011389342999003</v>
+        <v>0.24277296720132402</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5760681350796724E-2</v>
+        <v>5.1933967924761654E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14430,11 +14430,11 @@
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2510597955203957E-5</v>
+        <v>6.3736295954325596E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5514309225564595E-5</v>
+        <v>1.5837524001097193E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,7 +14463,7 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9938524590163926E-6</v>
+        <v>8.9030054644808738E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14491,51 +14491,51 @@
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16455722446932183</v>
+        <v>0.16628940577952522</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42352424861001886</v>
+        <v>0.4108185211517183</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59573985509091953</v>
+        <v>0.59006614218529174</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60073423456804753</v>
+        <v>0.64499886237832482</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62984902599283954</v>
+        <v>0.6629989747293048</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58300460659062048</v>
+        <v>0.57145996091555862</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44761157699579451</v>
+        <v>0.47044890235272285</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2378184168502766</v>
+        <v>0.24029569202580031</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2480641271338092E-2</v>
+        <v>5.5214008004220286E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4458440382499839E-4</v>
+        <v>3.3403590166709027E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8833503957839012E-5</v>
+        <v>6.3123446954764769E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6968775715461277E-5</v>
+        <v>1.6160738776629788E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5389344262295074E-6</v>
+        <v>9.1755464480874303E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4359818353600928E-6</v>
+        <v>5.1223674987047025E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,27 +14588,27 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3938020611031058E-3</v>
+        <v>8.4785879405081879E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.169753768399932</v>
+        <v>0.18014685626115234</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43622997606831942</v>
+        <v>0.41928900612391867</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54467643894026918</v>
+        <v>0.56169757765715267</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61970478934388062</v>
+        <v>0.64499886237832482</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6629989747293048</v>
+        <v>0.64973899523471867</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14620,23 +14620,23 @@
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24277296720132402</v>
+        <v>0.25515934307894261</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4120661311067408E-2</v>
+        <v>5.5214008004220286E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6919757552678404E-4</v>
+        <v>3.481005712109678E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4349144953886422E-5</v>
+        <v>6.3123446954764769E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6483953552162382E-5</v>
+        <v>1.5675916613330893E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8532786885245898E-5</v>
+        <v>1.8714480874316939E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0035658772972477E-5</v>
+        <v>1.0140196885190942E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,27 +14858,27 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6109317086965558E-2</v>
+        <v>1.7465891157446869E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32911444893864367</v>
+        <v>0.34297189942027079</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8555189821922381</v>
+        <v>0.83857801224783735</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1574374327480721</v>
+        <v>1.1460900069368165</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2647036517222054</v>
+        <v>1.2899977247566496</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2862180109748513</v>
+        <v>1.3259979494586096</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14890,23 +14890,23 @@
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47563683370055321</v>
+        <v>0.48059138405160062</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11152136270159345</v>
+        <v>0.10933466931528769</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.3136281628162925E-4</v>
+        <v>6.962011424219356E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2624689390952954E-4</v>
+        <v>1.2502119591040791E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0705403675596596E-5</v>
+        <v>3.3937551430922555E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,39 +14931,39 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9357578682112226</v>
+        <v>3.1498235461016248</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8911529506739471</v>
+        <v>2.6687565698528743</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.783116607383302</v>
+        <v>2.7285456935130408</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7347889001077057</v>
+        <v>2.5980494551023203</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3209567916884448</v>
+        <v>2.2499070939836967</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1739194413078025</v>
+        <v>2.1112102266546926</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9288242167185743</v>
+        <v>1.9104544622736355</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6328280054754465</v>
+        <v>1.7152940663580449</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5501750291028702</v>
+        <v>1.5663226856560251</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14971,39 +14971,39 @@
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.449888467053754</v>
+        <v>1.3773940437010661</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.430325650729233</v>
+        <v>1.4736688522664827</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4204257709512569</v>
+        <v>1.3933700419807569</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3862667239328719</v>
+        <v>1.319619285282253</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7124719004461941</v>
+        <v>1.6621050798448356</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7753706908380624</v>
+        <v>1.8314350284434751</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0116489470763197</v>
+        <v>2.0507100916797434</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1402648176527186</v>
+        <v>2.1186459811107721</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0966879569176409</v>
+        <v>2.117243721201147</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -15011,19 +15011,19 @@
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1683292203553566</v>
+        <v>2.1240776036134101</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3385174521928045</v>
+        <v>2.2931093463249828</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1092142546718602</v>
+        <v>2.2190691637693529</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4580498551852976</v>
+        <v>2.4083922823532715</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.1755464480874303E-6</v>
+        <v>8.6304644808743156E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2269056109231657E-6</v>
+        <v>5.0178293864862386E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,55 +15060,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.0546585434827789E-3</v>
+        <v>8.1394444228878593E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17148594971013539</v>
+        <v>0.16628940577952522</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41505376363781848</v>
+        <v>0.43199473358221924</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54467643894026918</v>
+        <v>0.55035015184589708</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61338127108526963</v>
+        <v>0.66396941715415791</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62984902599283954</v>
+        <v>0.67625895422389093</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57723228375308955</v>
+        <v>0.60032157510321316</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47501636742410852</v>
+        <v>0.45217904206718018</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24277296720132402</v>
+        <v>0.25763661825446632</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6854028043949602E-2</v>
+        <v>5.4667334657643847E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5161673859693715E-4</v>
+        <v>3.6216524075484527E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2510597955203957E-5</v>
+        <v>5.8833503957839012E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5352701837798298E-5</v>
+        <v>1.5514309225564595E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,7 +15137,7 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9030054644808738E-6</v>
+        <v>9.4480874316939885E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,47 +15161,47 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1394444228878593E-3</v>
+        <v>8.2242303022929415E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17495031233054217</v>
+        <v>0.18014685626115234</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4108185211517183</v>
+        <v>0.43622997606831942</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56169757765715267</v>
+        <v>0.56737129056278046</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65764589889554681</v>
+        <v>0.60705775282665864</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68288894397118394</v>
+        <v>0.63647901574013255</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59454925226568223</v>
+        <v>0.5887769294281513</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47044890235272285</v>
+        <v>0.46588143728133719</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26011389342999003</v>
+        <v>0.23534114167475287</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.740070139052604E-2</v>
+        <v>5.5760681350796724E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.481005712109678E-4</v>
+        <v>3.5513290598290651E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15209,7 +15209,7 @@
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6645560939928683E-5</v>
+        <v>1.6322346164396085E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7213114754098344E-6</v>
+        <v>9.4480874316939885E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2791746670323972E-6</v>
+        <v>5.4359818353600928E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,15 +15262,15 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1394444228878593E-3</v>
+        <v>8.3090161816980236E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16802158708972861</v>
+        <v>0.17495031233054217</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42775949109611905</v>
+        <v>0.43199473358221924</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15278,11 +15278,11 @@
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62602830760249173</v>
+        <v>0.66396941715415791</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65636898498201179</v>
+        <v>0.6629989747293048</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15290,19 +15290,19 @@
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44304411192440885</v>
+        <v>0.46588143728133719</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26011389342999003</v>
+        <v>0.24525024237684775</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5214008004220286E-2</v>
+        <v>5.357398796449097E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5513290598290651E-4</v>
+        <v>3.4458440382499839E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -17000,7 +17000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303073B7-556E-4714-A27A-3E87EB1A31BB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2152131147540982E-5</v>
+        <v>2.3998142076502733E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2644930053945321E-5</v>
+        <v>1.3698674225107434E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,11 +26485,11 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.156463254622671E-2</v>
+        <v>2.1987468478505665E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45028401885437597</v>
+        <v>0.45465570835781655</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26497,43 +26497,43 @@
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3807541304002759</v>
+        <v>1.3952883844044894</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5350071138153862</v>
+        <v>1.6789140307355788</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6338024477398454</v>
+        <v>1.6674890961468525</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4893672755441603</v>
+        <v>1.4598748542462563</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1022573830079236</v>
+        <v>1.1481847739665871</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65201773209347347</v>
+        <v>0.61475957597384634</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14025981011449659</v>
+        <v>0.13470496614956604</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9561239358659751E-4</v>
+        <v>8.3414879794830156E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5489139434945597E-4</v>
+        <v>1.5639519429459632E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8717897961049643E-5</v>
+        <v>3.9108987839444087E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,87 +26558,87 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2911255277737883</v>
+        <v>2.3364943501059425</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9551559826044351</v>
+        <v>1.895304268851238</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0471346011802392</v>
+        <v>2.0053563440132955</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9118201248525559</v>
+        <v>2.0929399261543771</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7229551693401468</v>
+        <v>1.7940048670448951</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5858866815560706</v>
+        <v>1.5065923474782672</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3840241872832837</v>
+        <v>1.4696339308265798</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2418287374831802</v>
+        <v>1.3442476024302468</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2087684054666183</v>
+        <v>1.1732163935411295</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0894069547116441</v>
+        <v>1.1220891633529932</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1204535538793383</v>
+        <v>1.1648279520527773</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0499922755963347</v>
+        <v>1.1035633100655355</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0491147035228112</v>
+        <v>0.99915686049791552</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97227886218515425</v>
+        <v>1.0330462910717266</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2685359281589754</v>
+        <v>1.2312260479190054</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4089083354586758</v>
+        <v>1.3670595730193091</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4744604438910143</v>
+        <v>1.404248041800966</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.665420202585886</v>
+        <v>1.6336979130128215</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4937918106691654</v>
+        <v>1.5843246476794182</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5430806355057487</v>
+        <v>1.6375549601285497</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7114820514461202</v>
+        <v>1.7633451439141845</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26646,11 +26646,11 @@
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6460770525496216</v>
+        <v>1.7119201346516064</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8259693734871931</v>
+        <v>1.8446017140329807</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1191441256830601E-5</v>
+        <v>1.1999071038251367E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7834781018560848E-6</v>
+        <v>6.3224650269726606E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,43 +26687,43 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0042353391625182E-2</v>
+        <v>1.0782316273113355E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21858447517202717</v>
+        <v>0.21202694091686636</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56631438924049882</v>
+        <v>0.51237968550330837</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75578120821909844</v>
+        <v>0.74124695421488507</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79948287177884703</v>
+        <v>0.83146218665000093</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85058787227692978</v>
+        <v>0.8758528585821852</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70781811114969995</v>
+        <v>0.77417605906998432</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60279700633245825</v>
+        <v>0.59705608246262531</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31048463433022544</v>
+        <v>0.30737978798692317</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1518616048480935E-2</v>
+        <v>6.6658127579166698E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26735,7 +26735,7 @@
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8772314162933162E-5</v>
+        <v>1.9554493919722043E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1999071038251367E-5</v>
+        <v>1.130681693989071E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6517600804608211E-6</v>
+        <v>6.9151961232513485E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,7 +26788,7 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0042353391625182E-2</v>
+        <v>1.0993734239252833E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26796,47 +26796,47 @@
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51237968550330837</v>
+        <v>0.51777315587702744</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71217844620645809</v>
+        <v>0.7485140812169917</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79948287177884703</v>
+        <v>0.82346735793221248</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80847956176817082</v>
+        <v>0.86743119648043332</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71519121647417605</v>
+        <v>0.74468363777208013</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59131515859279238</v>
+        <v>0.58557423472295944</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29496040261371415</v>
+        <v>0.32600886604673673</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8741194066015657E-2</v>
+        <v>6.8046838570399337E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2585491263676448E-4</v>
+        <v>4.4780619679329875E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1430497394166584E-5</v>
+        <v>7.5189997257017459E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0336673676510925E-5</v>
+        <v>1.8967859102130381E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1191441256830601E-5</v>
+        <v>1.2114446721311475E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4541830483679252E-6</v>
+        <v>6.849337112553717E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,27 +26889,27 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0676607290043617E-2</v>
+        <v>1.1099443222322572E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21858447517202717</v>
+        <v>0.22514200942718798</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51777315587702744</v>
+        <v>0.51237968550330837</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70491131920435146</v>
+        <v>0.76304833522120519</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83945701536778938</v>
+        <v>0.79948287177884703</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80005789966641905</v>
+        <v>0.85058787227692978</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26917,11 +26917,11 @@
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56835146311346063</v>
+        <v>0.59131515859279238</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31048463433022544</v>
+        <v>0.3042749416436209</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26929,15 +26929,15 @@
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2146465580545766E-4</v>
+        <v>4.5658671045591245E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.4438097284447284E-5</v>
+        <v>7.1430497394166584E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0532218615708147E-5</v>
+        <v>2.0141128737313706E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3075136612021857E-5</v>
+        <v>2.261363387978142E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3303520160921642E-5</v>
+        <v>1.2644930053945321E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,11 +27240,11 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2198886444645145E-2</v>
+        <v>2.0084706783250365E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43716895034405434</v>
+        <v>0.41968219233029214</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27252,11 +27252,11 @@
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3807541304002759</v>
+        <v>1.4098226384087029</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5190174563798093</v>
+        <v>1.5509967712509631</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27264,31 +27264,31 @@
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4451286435973041</v>
+        <v>1.5336059074910167</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1711484694459189</v>
+        <v>1.0907755352682578</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6085498832872418</v>
+        <v>0.58992080522742829</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13192754416710076</v>
+        <v>0.14303723209696187</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3414879794830156E-4</v>
+        <v>9.0439290724921126E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5338759440431562E-4</v>
+        <v>1.5639519429459632E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7544628325866324E-5</v>
+        <v>3.8717897961049643E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,7 +27313,7 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2911255277737883</v>
+        <v>2.2003878831094799</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27321,23 +27321,23 @@
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9844672154298235</v>
+        <v>2.0471346011802392</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0325666590537699</v>
+        <v>2.0124422366869013</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7051927449139597</v>
+        <v>1.7584800181925211</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.57002781474051</v>
+        <v>1.6651810156338742</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3697558966927346</v>
+        <v>1.4268290590549317</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27345,67 +27345,67 @@
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1495150522574702</v>
+        <v>1.1969177348247888</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.111195093805877</v>
+        <v>1.0676188156174111</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1426407529660578</v>
+        <v>1.1093599543359784</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0499922755963347</v>
+        <v>1.071420689384015</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94919901747301971</v>
+        <v>0.96918215468297808</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0330462910717266</v>
+        <v>1.0533021007005841</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2312260479190054</v>
+        <v>1.2685359281589754</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4368075104182534</v>
+        <v>1.3391603980597313</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4463754830549949</v>
+        <v>1.3480781201289271</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5861144786532246</v>
+        <v>1.6336979130128215</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4334365859956639</v>
+        <v>1.4636141983324147</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6375549601285497</v>
+        <v>1.4958434731943482</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6423312614887011</v>
+        <v>1.797920538892894</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5955145654885416</v>
+        <v>1.7634634671189149</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5637731999221405</v>
+        <v>1.5966947409731327</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9377634167619193</v>
+        <v>1.9004987356703438</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1768319672131148E-5</v>
+        <v>1.1537568306010929E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.9151961232513485E-6</v>
+        <v>6.7176190911584525E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,55 +27442,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0888025256183095E-2</v>
+        <v>1.0993734239252833E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22951369893062853</v>
+        <v>0.22295616467546772</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55013397811934173</v>
+        <v>0.51237968550330837</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76304833522120519</v>
+        <v>0.73397982721277832</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77549838562548157</v>
+        <v>0.75950872818990467</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83374454807342624</v>
+        <v>0.85900953437868155</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72256432179865204</v>
+        <v>0.73731053244760414</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59131515859279238</v>
+        <v>0.60279700633245825</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31358948067352771</v>
+        <v>0.3042749416436209</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5963772083550379E-2</v>
+        <v>6.8046838570399337E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3463542629937818E-4</v>
+        <v>4.2146465580545766E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5941897229587634E-5</v>
+        <v>7.4438097284447284E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0532218615708147E-5</v>
+        <v>1.9945583798116484E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,7 +27519,7 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1652943989071037E-5</v>
+        <v>1.1883695355191256E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,7 +27543,7 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.025377135776466E-2</v>
+        <v>1.0148062374694922E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27551,15 +27551,15 @@
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53934703737190359</v>
+        <v>0.55552744849306068</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74124695421488507</v>
+        <v>0.70491131920435146</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78349321434327002</v>
+        <v>0.83146218665000093</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27571,27 +27571,27 @@
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56261053924362769</v>
+        <v>0.55686961537379476</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30117009530031869</v>
+        <v>0.31669432701682998</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8046838570399337E-2</v>
+        <v>7.0129905057248296E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5219645362460563E-4</v>
+        <v>4.4780619679329875E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2182397366736759E-5</v>
+        <v>7.1430497394166584E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9750038858919265E-5</v>
+        <v>1.9945583798116484E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1999071038251367E-5</v>
+        <v>1.130681693989071E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6517600804608211E-6</v>
+        <v>6.2566060162750292E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,35 +27644,35 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0570898306973877E-2</v>
+        <v>1.025377135776466E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21421278566858662</v>
+        <v>0.20984109616514607</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53395356699818453</v>
+        <v>0.55552744849306068</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72671270021067158</v>
+        <v>0.70491131920435146</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77549838562548157</v>
+        <v>0.83945701536778938</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8169012238699227</v>
+        <v>0.86743119648043332</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73731053244760414</v>
+        <v>0.74468363777208013</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57409238698329357</v>
+        <v>0.56261053924362769</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27684,15 +27684,15 @@
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2585491263676448E-4</v>
+        <v>4.5658671045591245E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8949497119868334E-5</v>
+        <v>7.6693797202157809E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9554493919722043E-5</v>
+        <v>1.9945583798116484E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3536639344262295E-5</v>
+        <v>2.422889344262295E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2644930053945321E-5</v>
+        <v>1.290836609673585E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,31 +27914,31 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0296124749389844E-2</v>
+        <v>2.0084706783250365E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44154063984749486</v>
+        <v>0.42842557133717324</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0247593710066167</v>
+        <v>1.0786940747438072</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5115624164381969</v>
+        <v>1.4534254004213432</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.56698642868654</v>
+        <v>1.6629243733000019</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7517057171643704</v>
+        <v>1.6001157993328381</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5483521181399686</v>
+        <v>1.4598748542462563</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27950,7 +27950,7 @@
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13192754416710076</v>
+        <v>0.14303723209696187</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27958,11 +27958,11 @@
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5789899423973667E-4</v>
+        <v>1.5188379445917527E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.715353844747188E-5</v>
+        <v>3.9500077717838531E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27991,11 +27991,11 @@
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9352054113533694</v>
+        <v>2.0549088388597636</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1515802440975982</v>
+        <v>2.068023729763711</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28003,55 +28003,55 @@
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8650545647496437</v>
+        <v>1.7584800181925211</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6334632820027528</v>
+        <v>1.5065923474782672</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3697558966927346</v>
+        <v>1.4981705120076785</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3314452443118636</v>
+        <v>1.2930381699567137</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2206190761084481</v>
+        <v>1.2324697467502774</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1329832329001097</v>
+        <v>1.1003010242587605</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1648279520527773</v>
+        <v>1.1426407529660578</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.071420689384015</v>
+        <v>1.0821348962778552</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94919901747301971</v>
+        <v>1.0491147035228112</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0127904814428692</v>
+        <v>1.0431741958861553</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3058458083989453</v>
+        <v>1.243662674665662</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4228579229384648</v>
+        <v>1.394958747978887</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3621206005469368</v>
+        <v>1.3480781201289271</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28059,27 +28059,27 @@
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.508880616837541</v>
+        <v>1.5239694230059164</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5115891939648149</v>
+        <v>1.5273349147352819</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7806328414035395</v>
+        <v>1.6941943539567657</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6291043458146162</v>
+        <v>1.6962839064667656</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6460770525496216</v>
+        <v>1.5966947409731327</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8632340545787685</v>
+        <v>1.7700723518498298</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1537568306010929E-5</v>
+        <v>1.1883695355191256E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5859010697631888E-6</v>
+        <v>6.2566060162750292E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,23 +28116,23 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0676607290043617E-2</v>
+        <v>1.0782316273113355E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21858447517202717</v>
+        <v>0.22732785417890827</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55552744849306068</v>
+        <v>0.53395356699818453</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70491131920435146</v>
+        <v>0.72671270021067158</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78349321434327002</v>
+        <v>0.79948287177884703</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28140,31 +28140,31 @@
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76680295374550833</v>
+        <v>0.73731053244760414</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55686961537379476</v>
+        <v>0.57409238698329357</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29496040261371415</v>
+        <v>0.31358948067352771</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2212971544097254E-2</v>
+        <v>7.2907327039713574E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3902568313068505E-4</v>
+        <v>4.5219645362460563E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5189997257017459E-5</v>
+        <v>7.2934297339306934E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0532218615708147E-5</v>
+        <v>2.0336673676510925E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1191441256830601E-5</v>
+        <v>1.0960689890710382E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2566060162750292E-6</v>
+        <v>6.5200420590655566E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28221,51 +28221,51 @@
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22295616467546772</v>
+        <v>0.22077031992374743</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53934703737190359</v>
+        <v>0.55013397811934173</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70491131920435146</v>
+        <v>0.71217844620645809</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76750355690769312</v>
+        <v>0.82346735793221248</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84216621017517801</v>
+        <v>0.88427452068393697</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77417605906998432</v>
+        <v>0.76680295374550833</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56261053924362769</v>
+        <v>0.56835146311346063</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3042749416436209</v>
+        <v>0.31669432701682998</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5963772083550379E-2</v>
+        <v>7.0129905057248296E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3463542629937818E-4</v>
+        <v>4.3902568313068505E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.6693797202157809E-5</v>
+        <v>7.1430497394166584E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0336673676510925E-5</v>
+        <v>1.8967859102130381E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1076065573770491E-5</v>
+        <v>1.1537568306010929E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.9151961232513485E-6</v>
+        <v>6.849337112553717E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,55 +28318,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0570898306973877E-2</v>
+        <v>1.025377135776466E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22514200942718798</v>
+        <v>0.20984109616514607</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56092091886677975</v>
+        <v>0.52856009662446546</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69764419220224472</v>
+        <v>0.75578120821909844</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79948287177884703</v>
+        <v>0.78349321434327002</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88427452068393697</v>
+        <v>0.8758528585821852</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75205674309655623</v>
+        <v>0.75942984842103223</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57409238698329357</v>
+        <v>0.55686961537379476</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31358948067352771</v>
+        <v>0.29496040261371415</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0129905057248296E-2</v>
+        <v>6.5963772083550379E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3463542629937818E-4</v>
+        <v>4.2146465580545766E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2934297339306934E-5</v>
+        <v>7.5189997257017459E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0532218615708147E-5</v>
+        <v>1.857676922373594E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E4CAEE-A4E7-4BC6-97FE-AE088216C18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BDF1AE-A4AF-45A7-9BB8-4014E90B13DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26250" yWindow="4200" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="885" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
         </row>
         <row r="3">
           <cell r="B3">
-            <v>7.4999999999999997E-2</v>
+            <v>0.06</v>
           </cell>
         </row>
       </sheetData>
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7442622950819669E-5</v>
+        <v>1.8169398907103823E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0140196885190942E-5</v>
+        <v>1.0035658772972477E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,43 +13510,43 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6787604122206212E-2</v>
+        <v>1.712674763982654E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36029371252230469</v>
+        <v>0.33257881155905045</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83010752727563697</v>
+        <v>0.84704849722003772</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1233951553143053</v>
+        <v>1.1914797101818391</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3279388343083158</v>
+        <v>1.2899977247566496</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3392579289531956</v>
+        <v>1.2596980519856791</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1198306304809937</v>
+        <v>1.2121877958814882</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90435808413436036</v>
+        <v>0.93176287456267437</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51031868615788523</v>
+        <v>0.47563683370055321</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10933466931528769</v>
+        <v>0.10386793584952331</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13554,11 +13554,11 @@
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1766700791567802E-4</v>
+        <v>1.2624689390952954E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3937551430922555E-5</v>
+        <v>3.2321477553259576E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,35 +13583,35 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1192427349744243</v>
+        <v>2.9357578682112226</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8633534030713133</v>
+        <v>2.7243556650581424</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6194038657725196</v>
+        <v>2.7012602365779106</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6253973441033973</v>
+        <v>2.8715283451130915</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2972735591201952</v>
+        <v>2.2735903265519459</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1530163697567657</v>
+        <v>2.0903071551036558</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8369754444938802</v>
+        <v>1.7634964267141249</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6493212176519663</v>
+        <v>1.5998415811224072</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13623,7 +13623,7 @@
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4643873517242918</v>
+        <v>1.4788862363948292</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13631,15 +13631,15 @@
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3527864485250065</v>
+        <v>1.406897906466007</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3062897975521293</v>
+        <v>1.3462782607425006</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6956829602457413</v>
+        <v>1.6621050798448356</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13647,35 +13647,35 @@
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0116489470763197</v>
+        <v>1.9530572301711844</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1186459811107721</v>
+        <v>2.0537894714849321</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0350206640671216</v>
+        <v>1.9733533712166029</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0401501673978011</v>
+        <v>1.9980852154926918</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3232098789521678</v>
+        <v>2.2568324538392486</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2249971875232504</v>
+        <v>2.2477012404571615</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2630111274083502</v>
+        <v>2.1531562183108575</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5325362144333368</v>
+        <v>2.4083922823532715</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,7 +13688,7 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7213114754098344E-6</v>
+        <v>8.8121584699453533E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,23 +13712,23 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.0546585434827789E-3</v>
+        <v>8.902517337533597E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17841467495094895</v>
+        <v>0.17668249364074556</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41928900612391867</v>
+        <v>0.4108185211517183</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55035015184589708</v>
+        <v>0.57304500346840825</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61338127108526963</v>
+        <v>0.60073423456804753</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13736,31 +13736,31 @@
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54837066956543501</v>
+        <v>0.58300460659062048</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45217904206718018</v>
+        <v>0.46588143728133719</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2378184168502766</v>
+        <v>0.24277296720132402</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.357398796449097E-2</v>
+        <v>5.740070139052604E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5161673859693715E-4</v>
+        <v>3.481005712109678E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0059201956960658E-5</v>
+        <v>6.189774895564313E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5999131388863491E-5</v>
+        <v>1.6483953552162382E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,7 +13789,7 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.3572404371584697E-6</v>
+        <v>9.4480874316939885E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,27 +13813,27 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8177314581285166E-3</v>
+        <v>8.5633738199132701E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16455722446932183</v>
+        <v>0.17148594971013539</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40234803617951792</v>
+        <v>0.4108185211517183</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54467643894026918</v>
+        <v>0.57304500346840825</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62602830760249173</v>
+        <v>0.65132238063693582</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62984902599283954</v>
+        <v>0.65636898498201179</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13841,27 +13841,27 @@
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43390918178163751</v>
+        <v>0.44761157699579451</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24029569202580031</v>
+        <v>0.25515934307894261</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4120661311067408E-2</v>
+        <v>5.6307354697373163E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6568140814081463E-4</v>
+        <v>3.4106823643902904E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9446352957399832E-5</v>
+        <v>6.0672050956521478E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5999131388863491E-5</v>
+        <v>1.6160738776629788E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6304644808743156E-6</v>
+        <v>9.0846994535519115E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.965560330377007E-6</v>
+        <v>5.4882508914693243E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,55 +13914,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8177314581285166E-3</v>
+        <v>8.3090161816980236E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16455722446932183</v>
+        <v>0.17321813102033878</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42352424861001886</v>
+        <v>0.40658327866561811</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53900272603464139</v>
+        <v>0.59573985509091953</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65764589889554681</v>
+        <v>0.60073423456804753</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69614892346577006</v>
+        <v>0.6629989747293048</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55414299240296594</v>
+        <v>0.60032157510321316</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47958383249549419</v>
+        <v>0.44304411192440885</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25763661825446632</v>
+        <v>0.24277296720132402</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5760681350796724E-2</v>
+        <v>5.4120661311067408E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5161673859693715E-4</v>
+        <v>3.6919757552678404E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.1284899956082304E-5</v>
+        <v>5.8833503957839012E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6645560939928683E-5</v>
+        <v>1.5837524001097193E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8351092896174861E-5</v>
+        <v>1.7442622950819669E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0140196885190942E-5</v>
+        <v>1.0871963670720186E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,11 +14184,11 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6278888845775719E-2</v>
+        <v>1.6448460604585883E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34297189942027079</v>
+        <v>0.35336498728149113</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14196,35 +14196,35 @@
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0780054520692828</v>
+        <v>1.1914797101818391</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2267625421705393</v>
+        <v>1.2773506882394274</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2862180109748513</v>
+        <v>1.2994779904694373</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2121877958814882</v>
+        <v>1.1198306304809937</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89522315399158903</v>
+        <v>0.86781836356327502</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51527323650893264</v>
+        <v>0.47068228334950574</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10714797592898194</v>
+        <v>0.10824132262213482</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0323347719387431E-4</v>
+        <v>7.1026581196581302E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14232,7 +14232,7 @@
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3937551430922555E-5</v>
+        <v>3.361433665538996E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14261,95 +14261,95 @@
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7521552126607762</v>
+        <v>2.6409570222502401</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8376875212535624</v>
+        <v>2.592118408837389</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7074410111066287</v>
+        <v>2.7621367891087827</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3920064893931934</v>
+        <v>2.4393729545296923</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1948225128588388</v>
+        <v>2.0066948688995097</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9288242167185743</v>
+        <v>1.7818661811590637</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5668551567693678</v>
+        <v>1.5833483689458874</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6793562815281096</v>
+        <v>1.6955039380812644</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.430371294932127</v>
+        <v>1.4893556782282973</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4788862363948292</v>
+        <v>1.3773940437010661</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3869824491919835</v>
+        <v>1.430325650729233</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4204257709512569</v>
+        <v>1.3663143130102569</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3462782607425006</v>
+        <v>1.3062897975521293</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6117382592434768</v>
+        <v>1.5949493190430239</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7753706908380624</v>
+        <v>1.8127469159083374</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8749349409643368</v>
+        <v>2.031179519378032</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2267401638205051</v>
+        <v>2.1402648176527186</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0350206640671216</v>
+        <v>2.117243721201147</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1873774990656836</v>
+        <v>2.1242800712080196</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1462034119843834</v>
+        <v>2.2125808370973026</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3839255580606258</v>
+        <v>2.2249971875232504</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1092142546718602</v>
+        <v>2.2849821092278488</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4083922823532715</v>
+        <v>2.383563495937258</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6304644808743156E-6</v>
+        <v>9.3572404371584697E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3837127792508603E-6</v>
+        <v>5.4359818353600928E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,27 +14386,27 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4785879405081879E-3</v>
+        <v>8.0546585434827789E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16628940577952522</v>
+        <v>0.17495031233054217</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44046521855441961</v>
+        <v>0.42352424861001886</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55602386475152488</v>
+        <v>0.56737129056278046</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65764589889554681</v>
+        <v>0.60705775282665864</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69614892346577006</v>
+        <v>0.66962896447659781</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14414,27 +14414,27 @@
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47501636742410852</v>
+        <v>0.45217904206718018</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24277296720132402</v>
+        <v>0.25515934307894261</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1933967924761654E-2</v>
+        <v>5.5760681350796724E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4106823643902904E-4</v>
+        <v>3.5513290598290651E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3736295954325596E-5</v>
+        <v>6.0672050956521478E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5837524001097193E-5</v>
+        <v>1.6645560939928683E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9030054644808738E-6</v>
+        <v>9.1755464480874303E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3314437231416288E-6</v>
+        <v>4.965560330377007E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,55 +14487,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.0546585434827789E-3</v>
+        <v>8.5633738199132701E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16628940577952522</v>
+        <v>0.17668249364074556</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4108185211517183</v>
+        <v>0.41505376363781848</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59006614218529174</v>
+        <v>0.54467643894026918</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64499886237832482</v>
+        <v>0.63867534411971372</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6629989747293048</v>
+        <v>0.66962896447659781</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57145996091555862</v>
+        <v>0.54837066956543501</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47044890235272285</v>
+        <v>0.47958383249549419</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24029569202580031</v>
+        <v>0.24525024237684775</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5214008004220286E-2</v>
+        <v>5.4667334657643847E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3403590166709027E-4</v>
+        <v>3.6919757552678404E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3123446954764769E-5</v>
+        <v>6.0672050956521478E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6160738776629788E-5</v>
+        <v>1.6322346164396085E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.1755464480874303E-6</v>
+        <v>8.9938524590163926E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1223674987047025E-6</v>
+        <v>5.4359818353600928E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14596,11 +14596,11 @@
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41928900612391867</v>
+        <v>0.42775949109611905</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56169757765715267</v>
+        <v>0.55602386475152488</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14608,7 +14608,7 @@
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64973899523471867</v>
+        <v>0.63647901574013255</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14616,27 +14616,27 @@
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43390918178163751</v>
+        <v>0.44761157699579451</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25515934307894261</v>
+        <v>0.25763661825446632</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5214008004220286E-2</v>
+        <v>5.6854028043949602E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.481005712109678E-4</v>
+        <v>3.6919757552678404E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3123446954764769E-5</v>
+        <v>6.0059201956960658E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5675916613330893E-5</v>
+        <v>1.680716832769498E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8714480874316939E-5</v>
+        <v>1.8532786885245898E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0140196885190942E-5</v>
+        <v>1.0662887446283258E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,35 +14858,35 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7465891157446869E-2</v>
+        <v>1.6109317086965558E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34297189942027079</v>
+        <v>0.34643626204067757</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83857801224783735</v>
+        <v>0.82163704230343659</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1460900069368165</v>
+        <v>1.0893528778805384</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2899977247566496</v>
+        <v>1.2014684691360951</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3259979494586096</v>
+        <v>1.2729580314802651</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.09674133913087</v>
+        <v>1.166009213181241</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95916766499098838</v>
+        <v>0.86781836356327502</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14894,15 +14894,15 @@
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10933466931528769</v>
+        <v>0.11261470939474633</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.962011424219356E-4</v>
+        <v>7.1729814673775183E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2502119591040791E-4</v>
+        <v>1.2134410191304296E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,39 +14931,39 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1498235461016248</v>
+        <v>2.9969194904656238</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6687565698528743</v>
+        <v>2.8633534030713133</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7285456935130408</v>
+        <v>2.6194038657725196</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5980494551023203</v>
+        <v>2.8715283451130915</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2499070939836967</v>
+        <v>2.4867394196661912</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1112102266546926</v>
+        <v>2.0903071551036558</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9104544622736355</v>
+        <v>1.8002359356040025</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7152940663580449</v>
+        <v>1.7317872785345645</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5663226856560251</v>
+        <v>1.6793562815281096</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14971,59 +14971,59 @@
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3773940437010661</v>
+        <v>1.5223828904064418</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4736688522664827</v>
+        <v>1.3725347153462339</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3933700419807569</v>
+        <v>1.3527864485250065</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.319619285282253</v>
+        <v>1.2796308220918817</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6621050798448356</v>
+        <v>1.6453161396443827</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8314350284434751</v>
+        <v>1.8501231409786123</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0507100916797434</v>
+        <v>1.9139960855677607</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1186459811107721</v>
+        <v>2.2267401638205051</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.117243721201147</v>
+        <v>2.0144648997836154</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0822151193029104</v>
+        <v>2.1663450231131289</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1240776036134101</v>
+        <v>2.2568324538392486</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2931093463249828</v>
+        <v>2.2704052933910721</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2190691637693529</v>
+        <v>2.0872432728523616</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4083922823532715</v>
+        <v>2.5573650008493503</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15040,7 +15040,7 @@
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0178293864862386E-6</v>
+        <v>5.2791746670323972E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,55 +15060,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1394444228878593E-3</v>
+        <v>8.902517337533597E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16628940577952522</v>
+        <v>0.18187903757135573</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43199473358221924</v>
+        <v>0.44046521855441961</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55035015184589708</v>
+        <v>0.59573985509091953</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66396941715415791</v>
+        <v>0.65132238063693582</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67625895422389093</v>
+        <v>0.64310900548742567</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60032157510321316</v>
+        <v>0.54837066956543501</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45217904206718018</v>
+        <v>0.47044890235272285</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25763661825446632</v>
+        <v>0.25268206790341891</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4667334657643847E-2</v>
+        <v>5.740070139052604E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6216524075484527E-4</v>
+        <v>3.6919757552678404E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8833503957839012E-5</v>
+        <v>6.0672050956521478E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5514309225564595E-5</v>
+        <v>1.680716832769498E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.4480874316939885E-6</v>
+        <v>9.0846994535519115E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1223674987047025E-6</v>
+        <v>5.4359818353600928E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,7 +15161,7 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2242303022929415E-3</v>
+        <v>8.1394444228878593E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15169,7 +15169,7 @@
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43622997606831942</v>
+        <v>0.42352424861001886</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15177,7 +15177,7 @@
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60705775282665864</v>
+        <v>0.61970478934388062</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15185,31 +15185,31 @@
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5887769294281513</v>
+        <v>0.58300460659062048</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46588143728133719</v>
+        <v>0.45217904206718018</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23534114167475287</v>
+        <v>0.25515934307894261</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5760681350796724E-2</v>
+        <v>5.357398796449097E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5513290598290651E-4</v>
+        <v>3.3403590166709027E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8220654958278186E-5</v>
+        <v>6.3123446954764769E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6322346164396085E-5</v>
+        <v>1.5514309225564595E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.4480874316939885E-6</v>
+        <v>8.8121584699453533E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4359818353600928E-6</v>
+        <v>5.070098442595471E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,27 +15262,27 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3090161816980236E-3</v>
+        <v>8.6481596993183522E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17495031233054217</v>
+        <v>0.17841467495094895</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43199473358221924</v>
+        <v>0.41928900612391867</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55602386475152488</v>
+        <v>0.58439242927966384</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66396941715415791</v>
+        <v>0.61338127108526963</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6629989747293048</v>
+        <v>0.68951893371847706</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15290,27 +15290,27 @@
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46588143728133719</v>
+        <v>0.45217904206718018</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24525024237684775</v>
+        <v>0.25763661825446632</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.357398796449097E-2</v>
+        <v>5.5760681350796724E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4458440382499839E-4</v>
+        <v>3.481005712109678E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9446352957399832E-5</v>
+        <v>5.8833503957839012E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5675916613330893E-5</v>
+        <v>1.5514309225564595E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3998142076502733E-5</v>
+        <v>2.3767390710382512E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3698674225107434E-5</v>
+        <v>1.2776648075340586E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,35 +26485,35 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1987468478505665E-2</v>
+        <v>2.1141796613947755E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45465570835781655</v>
+        <v>0.42842557133717324</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0247593710066167</v>
+        <v>1.0355463117540549</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3952883844044894</v>
+        <v>1.4388911464171297</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6789140307355788</v>
+        <v>1.6309450584288481</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6674890961468525</v>
+        <v>1.6506457719433489</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4598748542462563</v>
+        <v>1.5041134861931125</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1481847739665871</v>
+        <v>1.159666621706253</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26521,19 +26521,19 @@
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13470496614956604</v>
+        <v>0.14303723209696187</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3414879794830156E-4</v>
+        <v>9.0439290724921126E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5639519429459632E-4</v>
+        <v>1.5789899423973667E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9108987839444087E-5</v>
+        <v>3.9500077717838531E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,31 +26558,31 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3364943501059425</v>
+        <v>2.223072294275557</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.895304268851238</v>
+        <v>1.9950571251065665</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0053563440132955</v>
+        <v>2.1933585012645422</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0929399261543771</v>
+        <v>2.0526910814206394</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7940048670448951</v>
+        <v>1.8650545647496437</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5065923474782672</v>
+        <v>1.5383100811093886</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4696339308265798</v>
+        <v>1.4268290590549317</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26590,11 +26590,11 @@
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1732163935411295</v>
+        <v>1.1258137109738111</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1220891633529932</v>
+        <v>1.1003010242587605</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26606,51 +26606,51 @@
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99915686049791552</v>
+        <v>1.0191399977078739</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0330462910717266</v>
+        <v>1.0431741958861553</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2312260479190054</v>
+        <v>1.2063527944256922</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3670595730193091</v>
+        <v>1.394958747978887</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.404248041800966</v>
+        <v>1.4463754830549949</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6336979130128215</v>
+        <v>1.6019756234397571</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5843246476794182</v>
+        <v>1.4334365859956639</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6375549601285497</v>
+        <v>1.5273349147352819</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7633451439141845</v>
+        <v>1.7114820514461202</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7466685769558774</v>
+        <v>1.6626941261406909</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7119201346516064</v>
+        <v>1.6296162820241253</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8446017140329807</v>
+        <v>1.9004987356703438</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1999071038251367E-5</v>
+        <v>1.1883695355191256E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3224650269726606E-6</v>
+        <v>6.7176190911584525E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,55 +26687,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0782316273113355E-2</v>
+        <v>1.0993734239252833E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21202694091686636</v>
+        <v>0.22732785417890827</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51237968550330837</v>
+        <v>0.51777315587702744</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74124695421488507</v>
+        <v>0.7485140812169917</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83146218665000093</v>
+        <v>0.77549838562548157</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8758528585821852</v>
+        <v>0.83374454807342624</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77417605906998432</v>
+        <v>0.70044500582522395</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59705608246262531</v>
+        <v>0.55112869150396182</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30737978798692317</v>
+        <v>0.29496040261371415</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6658127579166698E-2</v>
+        <v>6.5963772083550379E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4341593996199193E-4</v>
+        <v>4.2585491263676448E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8197597147298159E-5</v>
+        <v>7.8949497119868334E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9554493919722043E-5</v>
+        <v>1.9358948980524821E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.130681693989071E-5</v>
+        <v>1.142219262295082E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.9151961232513485E-6</v>
+        <v>6.849337112553717E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26792,51 +26792,51 @@
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21639863042030691</v>
+        <v>0.21202694091686636</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51777315587702744</v>
+        <v>0.54474050774562266</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7485140812169917</v>
+        <v>0.69037706520013797</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82346735793221248</v>
+        <v>0.81547252921442404</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86743119648043332</v>
+        <v>0.85058787227692978</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74468363777208013</v>
+        <v>0.70781811114969995</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58557423472295944</v>
+        <v>0.56261053924362769</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32600886604673673</v>
+        <v>0.31669432701682998</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8046838570399337E-2</v>
+        <v>7.1518616048480935E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4780619679329875E-4</v>
+        <v>4.3024516946807136E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5189997257017459E-5</v>
+        <v>7.2182397366736759E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8967859102130381E-5</v>
+        <v>1.9163404041327603E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,7 +26865,7 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2114446721311475E-5</v>
+        <v>1.1537568306010929E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,23 +26889,23 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1099443222322572E-2</v>
+        <v>1.0993734239252833E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22514200942718798</v>
+        <v>0.22951369893062853</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51237968550330837</v>
+        <v>0.55552744849306068</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76304833522120519</v>
+        <v>0.71944557320856484</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79948287177884703</v>
+        <v>0.75950872818990467</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26913,31 +26913,31 @@
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72993742712312815</v>
+        <v>0.76680295374550833</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59131515859279238</v>
+        <v>0.54538776763412888</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3042749416436209</v>
+        <v>0.29496040261371415</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8741194066015657E-2</v>
+        <v>6.5963772083550379E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5658671045591245E-4</v>
+        <v>4.3902568313068505E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1430497394166584E-5</v>
+        <v>7.2182397366736759E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0141128737313706E-5</v>
+        <v>1.9554493919722043E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.261363387978142E-5</v>
+        <v>2.284438524590164E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2644930053945321E-5</v>
+        <v>1.3435238182316905E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,55 +27240,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0084706783250365E-2</v>
+        <v>2.2198886444645145E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41968219233029214</v>
+        <v>0.44154063984749486</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0679071339963691</v>
+        <v>1.1110548969861214</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4098226384087029</v>
+        <v>1.4534254004213432</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5509967712509631</v>
+        <v>1.6789140307355788</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7517057171643704</v>
+        <v>1.7685490413678739</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5336059074910167</v>
+        <v>1.4156362222993999</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0907755352682578</v>
+        <v>1.1252210784872554</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58992080522742829</v>
+        <v>0.63338865403365996</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14303723209696187</v>
+        <v>0.13470496614956604</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0439290724921126E-4</v>
+        <v>9.2195393457443866E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5639519429459632E-4</v>
+        <v>1.5037999451403492E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8717897961049643E-5</v>
+        <v>3.9891167596232968E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,15 +27313,15 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2003878831094799</v>
+        <v>2.3138099389398654</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9551559826044351</v>
+        <v>2.0150076963576322</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0471346011802392</v>
+        <v>2.0262454725967673</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27337,15 +27337,15 @@
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4268290590549317</v>
+        <v>1.4696339308265798</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3442476024302468</v>
+        <v>1.31864288619348</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1969177348247888</v>
+        <v>1.2087684054666183</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27353,59 +27353,59 @@
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1093599543359784</v>
+        <v>1.1315471534226982</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.071420689384015</v>
+        <v>1.0178496549148142</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96918215468297808</v>
+        <v>0.97917372328795715</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0533021007005841</v>
+        <v>1.0229183862572979</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2685359281589754</v>
+        <v>1.2187894211723487</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3391603980597313</v>
+        <v>1.4507570978980424</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3480781201289271</v>
+        <v>1.390205561382956</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6336979130128215</v>
+        <v>1.5702533338666924</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4636141983324147</v>
+        <v>1.4787030045007901</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4958434731943482</v>
+        <v>1.5588263562762155</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.797920538892894</v>
+        <v>1.8152082363822488</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7634634671189149</v>
+        <v>1.5955145654885416</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5966947409731327</v>
+        <v>1.7283809051771026</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9004987356703438</v>
+        <v>1.7887046923956176</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1537568306010929E-5</v>
+        <v>1.142219262295082E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7176190911584525E-6</v>
+        <v>6.5859010697631888E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,55 +27442,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0993734239252833E-2</v>
+        <v>1.0782316273113355E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22295616467546772</v>
+        <v>0.20765525141342581</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51237968550330837</v>
+        <v>0.55013397811934173</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73397982721277832</v>
+        <v>0.69764419220224472</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75950872818990467</v>
+        <v>0.83146218665000093</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85900953437868155</v>
+        <v>0.80005789966641905</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73731053244760414</v>
+        <v>0.72993742712312815</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60279700633245825</v>
+        <v>0.59705608246262531</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3042749416436209</v>
+        <v>0.31048463433022544</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8046838570399337E-2</v>
+        <v>6.6658127579166698E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2146465580545766E-4</v>
+        <v>4.3463542629937818E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.4438097284447284E-5</v>
+        <v>7.2934297339306934E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9945583798116484E-5</v>
+        <v>2.0532218615708147E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1883695355191256E-5</v>
+        <v>1.1191441256830601E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.849337112553717E-6</v>
+        <v>6.9151961232513485E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,7 +27543,7 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0148062374694922E-2</v>
+        <v>1.0570898306973877E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27555,43 +27555,43 @@
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70491131920435146</v>
+        <v>0.72671270021067158</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83146218665000093</v>
+        <v>0.82346735793221248</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80847956176817082</v>
+        <v>0.88427452068393697</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76680295374550833</v>
+        <v>0.77417605906998432</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55686961537379476</v>
+        <v>0.56261053924362769</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31669432701682998</v>
+        <v>0.29496040261371415</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0129905057248296E-2</v>
+        <v>7.2212971544097254E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4780619679329875E-4</v>
+        <v>4.2585491263676448E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1430497394166584E-5</v>
+        <v>7.2934297339306934E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9945583798116484E-5</v>
+        <v>1.857676922373594E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.130681693989071E-5</v>
+        <v>1.1191441256830601E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2566060162750292E-6</v>
+        <v>6.5859010697631888E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27648,15 +27648,15 @@
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20984109616514607</v>
+        <v>0.21858447517202717</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55552744849306068</v>
+        <v>0.5231666262507465</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70491131920435146</v>
+        <v>0.75578120821909844</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27664,11 +27664,11 @@
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86743119648043332</v>
+        <v>0.8169012238699227</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74468363777208013</v>
+        <v>0.71519121647417605</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27676,23 +27676,23 @@
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32600886604673673</v>
+        <v>0.3042749416436209</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2907327039713574E-2</v>
+        <v>6.9435549561631976E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5658671045591245E-4</v>
+        <v>4.4780619679329875E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.6693797202157809E-5</v>
+        <v>7.1430497394166584E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9945583798116484E-5</v>
+        <v>2.0141128737313706E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.422889344262295E-5</v>
+        <v>2.3998142076502733E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.290836609673585E-5</v>
+        <v>1.2644930053945321E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27918,51 +27918,51 @@
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42842557133717324</v>
+        <v>0.41531050282685161</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0786940747438072</v>
+        <v>1.0679071339963691</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4534254004213432</v>
+        <v>1.5260966704424104</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6629243733000019</v>
+        <v>1.5190174563798093</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6001157993328381</v>
+        <v>1.6338024477398454</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4598748542462563</v>
+        <v>1.4303824329483521</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1137392307475895</v>
+        <v>1.0907755352682578</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58992080522742829</v>
+        <v>0.60234019060063737</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14303723209696187</v>
+        <v>0.13748238813203131</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3414879794830156E-4</v>
+        <v>9.0439290724921126E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5188379445917527E-4</v>
+        <v>1.5037999451403492E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9500077717838531E-5</v>
+        <v>4.0282257474627412E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,11 +27987,11 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3364943501059425</v>
+        <v>2.2684411166077112</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0549088388597636</v>
+        <v>1.975106553855501</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28003,35 +28003,35 @@
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7584800181925211</v>
+        <v>1.7762424426187082</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5065923474782672</v>
+        <v>1.6017455483716314</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4981705120076785</v>
+        <v>1.4696339308265798</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2930381699567137</v>
+        <v>1.2418287374831802</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2324697467502774</v>
+        <v>1.2206190761084481</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1003010242587605</v>
+        <v>1.0785128851645276</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1426407529660578</v>
+        <v>1.1093599543359784</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0821348962778552</v>
+        <v>1.071420689384015</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28039,47 +28039,47 @@
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0431741958861553</v>
+        <v>0.99253467181401167</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.243662674665662</v>
+        <v>1.2312260479190054</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.394958747978887</v>
+        <v>1.3531099855395203</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3480781201289271</v>
+        <v>1.4744604438910143</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5702533338666924</v>
+        <v>1.6336979130128215</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5239694230059164</v>
+        <v>1.4787030045007901</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5273349147352819</v>
+        <v>1.5745720770466822</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6941943539567657</v>
+        <v>1.7114820514461202</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6962839064667656</v>
+        <v>1.7130787966298029</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5966947409731327</v>
+        <v>1.7119201346516064</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7700723518498298</v>
+        <v>1.9004987356703438</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1883695355191256E-5</v>
+        <v>1.1652943989071037E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2566060162750292E-6</v>
+        <v>6.7834781018560848E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,55 +28116,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0782316273113355E-2</v>
+        <v>1.0993734239252833E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22732785417890827</v>
+        <v>0.21202694091686636</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53395356699818453</v>
+        <v>0.55013397811934173</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72671270021067158</v>
+        <v>0.73397982721277832</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79948287177884703</v>
+        <v>0.78349321434327002</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88427452068393697</v>
+        <v>0.83374454807342624</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73731053244760414</v>
+        <v>0.72993742712312815</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57409238698329357</v>
+        <v>0.55112869150396182</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31358948067352771</v>
+        <v>0.31979917336013219</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2907327039713574E-2</v>
+        <v>7.0824260552864615E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5219645362460563E-4</v>
+        <v>4.3024516946807136E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2934297339306934E-5</v>
+        <v>7.2182397366736759E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0336673676510925E-5</v>
+        <v>1.9750038858919265E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0960689890710382E-5</v>
+        <v>1.1652943989071037E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5200420590655566E-6</v>
+        <v>6.3224650269726606E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28221,19 +28221,19 @@
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22077031992374743</v>
+        <v>0.22732785417890827</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55013397811934173</v>
+        <v>0.55552744849306068</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71217844620645809</v>
+        <v>0.75578120821909844</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82346735793221248</v>
+        <v>0.81547252921442404</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28241,23 +28241,23 @@
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76680295374550833</v>
+        <v>0.71519121647417605</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56835146311346063</v>
+        <v>0.57409238698329357</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31669432701682998</v>
+        <v>0.31979917336013219</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0129905057248296E-2</v>
+        <v>7.0824260552864615E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3902568313068505E-4</v>
+        <v>4.4780619679329875E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28265,7 +28265,7 @@
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8967859102130381E-5</v>
+        <v>1.9750038858919265E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1537568306010929E-5</v>
+        <v>1.1652943989071037E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.849337112553717E-6</v>
+        <v>6.5859010697631888E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,35 +28318,35 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.025377135776466E-2</v>
+        <v>1.0042353391625182E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20984109616514607</v>
+        <v>0.21858447517202717</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52856009662446546</v>
+        <v>0.55013397811934173</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75578120821909844</v>
+        <v>0.76304833522120519</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78349321434327002</v>
+        <v>0.76750355690769312</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8758528585821852</v>
+        <v>0.8169012238699227</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75942984842103223</v>
+        <v>0.76680295374550833</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55686961537379476</v>
+        <v>0.59131515859279238</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28354,19 +28354,19 @@
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5963772083550379E-2</v>
+        <v>6.9435549561631976E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2146465580545766E-4</v>
+        <v>4.3902568313068505E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5189997257017459E-5</v>
+        <v>7.3686197311877109E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.857676922373594E-5</v>
+        <v>2.0141128737313706E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BDF1AE-A4AF-45A7-9BB8-4014E90B13DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53E2505-F8AA-4423-8117-4C3D23499A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="885" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15915" yWindow="7860" windowWidth="21600" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>1.4999999999999999E-2</v>
+            <v>0.01</v>
           </cell>
         </row>
         <row r="3">
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8169398907103823E-5</v>
+        <v>1.8714480874316939E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0035658772972477E-5</v>
+        <v>1.0558349334064794E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,11 +13510,11 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.712674763982654E-2</v>
+        <v>1.7465891157446869E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33257881155905045</v>
+        <v>0.36029371252230469</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13522,27 +13522,27 @@
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1914797101818391</v>
+        <v>1.1120477295030498</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2899977247566496</v>
+        <v>1.2141155056533173</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2596980519856791</v>
+        <v>1.2729580314802651</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2121877958814882</v>
+        <v>1.09674133913087</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.93176287456267437</v>
+        <v>0.92262794441990303</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47563683370055321</v>
+        <v>0.48554593440264804</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13550,15 +13550,15 @@
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1729814673775183E-4</v>
+        <v>6.8213647287805807E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2624689390952954E-4</v>
+        <v>1.2134410191304296E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2321477553259576E-5</v>
+        <v>3.264469232879217E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,11 +13583,11 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9357578682112226</v>
+        <v>3.2109851683560251</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7243556650581424</v>
+        <v>2.835553855468679</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13595,71 +13595,71 @@
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8715283451130915</v>
+        <v>2.8441804561120145</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2735903265519459</v>
+        <v>2.4393729545296923</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0903071551036558</v>
+        <v>2.0694040835526191</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7634964267141249</v>
+        <v>1.9104544622736355</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5998415811224072</v>
+        <v>1.7317872785345645</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5824703422091801</v>
+        <v>1.6147656553154899</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.430371294932127</v>
+        <v>1.4451173907561699</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4788862363948292</v>
+        <v>1.5223828904064418</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4158779168834834</v>
+        <v>1.4447733845749831</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.406897906466007</v>
+        <v>1.3933700419807569</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3462782607425006</v>
+        <v>1.3995962116629956</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6621050798448356</v>
+        <v>1.6956829602457413</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8874993660488877</v>
+        <v>1.8127469159083374</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9530572301711844</v>
+        <v>1.9921183747746078</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0537894714849321</v>
+        <v>2.0754083080268786</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9733533712166029</v>
+        <v>2.0761321926341343</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9980852154926918</v>
+        <v>2.0822151193029104</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13667,15 +13667,15 @@
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2477012404571615</v>
+        <v>2.3839255580606258</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1531562183108575</v>
+        <v>2.1092142546718602</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4083922823532715</v>
+        <v>2.4828786416013107</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8121584699453533E-6</v>
+        <v>8.7213114754098344E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.965560330377007E-6</v>
+        <v>5.3314437231416288E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,15 +13712,15 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.902517337533597E-3</v>
+        <v>8.1394444228878593E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17668249364074556</v>
+        <v>0.16628940577952522</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4108185211517183</v>
+        <v>0.40234803617951792</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13728,39 +13728,39 @@
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60073423456804753</v>
+        <v>0.62602830760249173</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65636898498201179</v>
+        <v>0.66962896447659781</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58300460659062048</v>
+        <v>0.57145996091555862</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46588143728133719</v>
+        <v>0.43390918178163751</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24277296720132402</v>
+        <v>0.24772751755237146</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.740070139052604E-2</v>
+        <v>5.4120661311067408E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.481005712109678E-4</v>
+        <v>3.6216524075484527E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.189774895564313E-5</v>
+        <v>6.3736295954325596E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6483953552162382E-5</v>
+        <v>1.6322346164396085E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.4480874316939885E-6</v>
+        <v>9.5389344262295074E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1223674987047025E-6</v>
+        <v>4.965560330377007E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13817,51 +13817,51 @@
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17148594971013539</v>
+        <v>0.18187903757135573</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4108185211517183</v>
+        <v>0.40234803617951792</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57304500346840825</v>
+        <v>0.56169757765715267</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65132238063693582</v>
+        <v>0.63235182586110272</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65636898498201179</v>
+        <v>0.64310900548742567</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60032157510321316</v>
+        <v>0.5887769294281513</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44761157699579451</v>
+        <v>0.43390918178163751</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25515934307894261</v>
+        <v>0.2378184168502766</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6307354697373163E-2</v>
+        <v>5.1933967924761654E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4106823643902904E-4</v>
+        <v>3.4458440382499839E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0672050956521478E-5</v>
+        <v>6.0059201956960658E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6160738776629788E-5</v>
+        <v>1.6968775715461277E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0846994535519115E-6</v>
+        <v>8.9938524590163926E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4882508914693243E-6</v>
+        <v>5.070098442595471E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,55 +13914,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3090161816980236E-3</v>
+        <v>8.2242303022929415E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17321813102033878</v>
+        <v>0.17841467495094895</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40658327866561811</v>
+        <v>0.43622997606831942</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59573985509091953</v>
+        <v>0.57871871637403605</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60073423456804753</v>
+        <v>0.63867534411971372</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6629989747293048</v>
+        <v>0.68951893371847706</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60032157510321316</v>
+        <v>0.57145996091555862</v>
       </c>
       <c